--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CFDF48-02B8-4794-B523-D74FD52844C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9DA07C-EB7C-4C45-BFA7-00E7A5751BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="103">
   <si>
     <t>Library</t>
   </si>
@@ -975,7 +975,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1026,39 +1026,39 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>3032</v>
+        <v>5548</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
-        <v>1193</v>
+        <v>2237</v>
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>828</v>
+        <v>1408</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>2204</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,39 +1067,39 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>970</v>
+        <v>2030</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
-        <v>373</v>
+        <v>718</v>
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>384</v>
+        <v>834</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>586</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1108,39 +1108,39 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>3478</v>
+        <v>6418</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
-        <v>1498</v>
+        <v>2648</v>
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>248</v>
+        <v>444</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>960</v>
+        <v>1708</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>2518</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
@@ -1165,11 +1165,11 @@
       </c>
       <c r="F5" s="7">
         <f>January!F5+February!F5+March!F5+April!F5+May!F5+June!F5+July!F5+August!F5+September!F5+October!F5+November!F5+December!F5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>January!G5+February!G5+March!G5+April!G5+May!G5+June!G5+July!G5+August!G5+September!G5+October!G5+November!G5+December!G5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <f>January!H5+February!H5+March!H5+April!H5+May!H5+June!H5+July!H5+August!H5+September!H5+October!H5+November!H5+December!H5</f>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1190,39 +1190,39 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>3844</v>
+        <v>7000</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
-        <v>1520</v>
+        <v>2623</v>
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>296</v>
+        <v>591</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>1370</v>
+        <v>2792</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>2474</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1231,15 +1231,15 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>544</v>
+        <v>962</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
-        <v>165</v>
+        <v>362</v>
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
@@ -1247,23 +1247,23 @@
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>208</v>
+        <v>410</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>336</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>224</v>
+        <v>418</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
@@ -1284,15 +1284,15 @@
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>122</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,15 +1313,15 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1329,23 +1329,23 @@
       </c>
       <c r="F9" s="7">
         <f>January!F9+February!F9+March!F9+April!F9+May!F9+June!F9+July!F9+August!F9+September!F9+October!F9+November!F9+December!F9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,15 +1354,15 @@
       </c>
       <c r="B10" s="10">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C10" s="10">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" s="10">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10">
         <f>January!E10+February!E10+March!E10+April!E10+May!E10+June!E10+July!E10+August!E10+September!E10+October!E10+November!E10+December!E10</f>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="G10" s="10">
         <f>January!G10+February!G10+March!G10+April!G10+May!G10+June!G10+July!G10+August!G10+September!G10+October!G10+November!G10+December!G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="10">
         <f>January!H10+February!H10+March!H10+April!H10+May!H10+June!H10+July!H10+August!H10+September!H10+October!H10+November!H10+December!H10</f>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I10" s="10">
         <f>January!I10+February!I10+March!I10+April!I10+May!I10+June!I10+July!I10+August!I10+September!I10+October!I10+November!I10+December!I10</f>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J10" s="11">
         <f>January!J10+February!J10+March!J10+April!J10+May!J10+June!J10+July!J10+August!J10+September!J10+October!J10+November!J10+December!J10</f>
@@ -1436,27 +1436,27 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>254</v>
+        <v>470</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>254</v>
+        <v>470</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
@@ -1477,15 +1477,15 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>332</v>
+        <v>616</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>276</v>
+        <v>518</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1518,27 +1518,27 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>298</v>
+        <v>598</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
@@ -1546,11 +1546,11 @@
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>212</v>
+        <v>442</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>86</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1559,27 +1559,27 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,15 +1600,15 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
@@ -1616,11 +1616,11 @@
       </c>
       <c r="F16" s="10">
         <f>January!F16+February!F16+March!F16+April!F16+May!F16+June!F16+July!F16+August!F16+September!F16+October!F16+November!F16+December!F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1628,11 +1628,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1641,39 +1641,39 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>1338</v>
+        <v>2438</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
-        <v>465</v>
+        <v>951</v>
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>656</v>
+        <v>1156</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>682</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,27 +1682,27 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>212</v>
+        <v>354</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
@@ -1710,11 +1710,11 @@
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>166</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,39 +1723,39 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>1208</v>
+        <v>2192</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
-        <v>474</v>
+        <v>859</v>
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>548</v>
+        <v>1144</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>660</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B20" s="10">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C20" s="10">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="10">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="I20" s="10">
         <f>January!I20+February!I20+March!I20+April!I20+May!I20+June!I20+July!I20+August!I20+September!I20+October!I20+November!I20+December!I20</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J20" s="11">
         <f>January!J20+February!J20+March!J20+April!J20+May!J20+June!J20+July!J20+August!J20+September!J20+October!J20+November!J20+December!J20</f>
@@ -1805,39 +1805,39 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>1080</v>
+        <v>2128</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
-        <v>447</v>
+        <v>805</v>
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>602</v>
+        <v>1238</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>478</v>
+        <v>890</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,15 +1846,15 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D22" s="10">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,39 +1887,39 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>1568</v>
+        <v>2684</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
-        <v>533</v>
+        <v>969</v>
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>556</v>
+        <v>890</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>1012</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1928,39 +1928,39 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>4352</v>
+        <v>7976</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
-        <v>1549</v>
+        <v>2966</v>
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>313</v>
+        <v>557</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>1258</v>
+        <v>2242</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>3094</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,39 +1969,39 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>412</v>
+        <v>708</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>226</v>
+        <v>368</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>186</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2051,27 +2051,27 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>360</v>
+        <v>888</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
@@ -2079,11 +2079,11 @@
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>232</v>
+        <v>466</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>128</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2092,27 +2092,27 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="10">
         <f>January!F28+February!F28+March!F28+April!F28+May!F28+June!F28+July!F28+August!F28+September!F28+October!F28+November!F28+December!F28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,11 +2133,11 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>922</v>
+        <v>1818</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
-        <v>472</v>
+        <v>742</v>
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
@@ -2149,11 +2149,11 @@
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2161,11 +2161,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>356</v>
+        <v>720</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>566</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2174,27 +2174,27 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D30" s="10">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
@@ -2202,11 +2202,11 @@
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,27 +2215,27 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2256,39 +2256,39 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>1142</v>
+        <v>2014</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
-        <v>430</v>
+        <v>739</v>
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>194</v>
+        <v>370</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>796</v>
+        <v>1534</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>346</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,39 +2297,39 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>1138</v>
+        <v>2040</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
-        <v>471</v>
+        <v>791</v>
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>680</v>
+        <v>1378</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>458</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,39 +2338,39 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>452</v>
+        <v>866</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>272</v>
+        <v>532</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>180</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2379,39 +2379,39 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>2200</v>
+        <v>4404</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
-        <v>805</v>
+        <v>1494</v>
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>230</v>
+        <v>462</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>968</v>
+        <v>1928</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>1232</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2420,39 +2420,39 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>410</v>
+        <v>750</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>262</v>
+        <v>436</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>148</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,39 +2461,39 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>1124</v>
+        <v>2180</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
-        <v>363</v>
+        <v>695</v>
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>604</v>
+        <v>1262</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>520</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2502,15 +2502,15 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D38" s="10">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="10">
         <f>January!E38+February!E38+March!E38+April!E38+May!E38+June!E38+July!E38+August!E38+September!E38+October!E38+November!E38+December!E38</f>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2530,11 +2530,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2543,39 +2543,39 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2584,19 +2584,19 @@
       </c>
       <c r="B40" s="19">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C40" s="19">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D40" s="19">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="19">
         <f>January!E40+February!E40+March!E40+April!E40+May!E40+June!E40+July!E40+August!E40+September!E40+October!E40+November!E40+December!E40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="19">
         <f>January!F40+February!F40+March!F40+April!F40+May!F40+June!F40+July!F40+August!F40+September!F40+October!F40+November!F40+December!F40</f>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="G40" s="19">
         <f>January!G40+February!G40+March!G40+April!G40+May!G40+June!G40+July!G40+August!G40+September!G40+October!G40+November!G40+December!G40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="19">
         <f>January!H40+February!H40+March!H40+April!H40+May!H40+June!H40+July!H40+August!H40+September!H40+October!H40+November!H40+December!H40</f>
@@ -2612,11 +2612,11 @@
       </c>
       <c r="I40" s="19">
         <f>January!I40+February!I40+March!I40+April!I40+May!I40+June!I40+July!I40+August!I40+September!I40+October!I40+November!I40+December!I40</f>
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="J40" s="20">
         <f>January!J40+February!J40+March!J40+April!J40+May!J40+June!J40+July!J40+August!J40+September!J40+October!J40+November!J40+December!J40</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2625,15 +2625,15 @@
       </c>
       <c r="B41" s="22">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="C41" s="22">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
@@ -2641,19 +2641,19 @@
       </c>
       <c r="F41" s="22">
         <f>January!F41+February!F41+March!F41+April!F41+May!F41+June!F41+July!F41+August!F41+September!F41+October!F41+November!F41+December!F41</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I41" s="22">
         <f>January!I41+February!I41+March!I41+April!I41+May!I41+June!I41+July!I41+August!I41+September!I41+October!I41+November!I41+December!I41</f>
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="J41" s="23">
         <f>January!J41+February!J41+March!J41+April!J41+May!J41+June!J41+July!J41+August!J41+September!J41+October!J41+November!J41+December!J41</f>
@@ -2666,27 +2666,27 @@
       </c>
       <c r="B42" s="19">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C42" s="19">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D42" s="19">
         <f>January!D42+February!D42+March!D42+April!D42+May!D42+June!D42+July!D42+August!D42+September!D42+October!D42+November!D42+December!D42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="19">
         <f>January!E42+February!E42+March!E42+April!E42+May!E42+June!E42+July!E42+August!E42+September!E42+October!E42+November!E42+December!E42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="19">
         <f>January!F42+February!F42+March!F42+April!F42+May!F42+June!F42+July!F42+August!F42+September!F42+October!F42+November!F42+December!F42</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G42" s="19">
         <f>January!G42+February!G42+March!G42+April!G42+May!G42+June!G42+July!G42+August!G42+September!G42+October!G42+November!G42+December!G42</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H42" s="19">
         <f>January!H42+February!H42+March!H42+April!H42+May!H42+June!H42+July!H42+August!H42+September!H42+October!H42+November!H42+December!H42</f>
@@ -2694,11 +2694,11 @@
       </c>
       <c r="I42" s="19">
         <f>January!I42+February!I42+March!I42+April!I42+May!I42+June!I42+July!I42+August!I42+September!I42+October!I42+November!I42+December!I42</f>
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="J42" s="20">
         <f>January!J42+February!J42+March!J42+April!J42+May!J42+June!J42+July!J42+August!J42+September!J42+October!J42+November!J42+December!J42</f>
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2707,27 +2707,27 @@
       </c>
       <c r="B43" s="22">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C43" s="22">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D43" s="22">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="22">
         <f>January!E43+February!E43+March!E43+April!E43+May!E43+June!E43+July!E43+August!E43+September!E43+October!E43+November!E43+December!E43</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="22">
         <f>January!F43+February!F43+March!F43+April!F43+May!F43+June!F43+July!F43+August!F43+September!F43+October!F43+November!F43+December!F43</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" s="22">
         <f>January!G43+February!G43+March!G43+April!G43+May!G43+June!G43+July!G43+August!G43+September!G43+October!G43+November!G43+December!G43</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H43" s="22">
         <f>January!H43+February!H43+March!H43+April!H43+May!H43+June!H43+July!H43+August!H43+September!H43+October!H43+November!H43+December!H43</f>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="I43" s="22">
         <f>January!I43+February!I43+March!I43+April!I43+May!I43+June!I43+July!I43+August!I43+September!I43+October!I43+November!I43+December!I43</f>
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J43" s="23">
         <f>January!J43+February!J43+March!J43+April!J43+May!J43+June!J43+July!J43+August!J43+September!J43+October!J43+November!J43+December!J43</f>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B44" s="19">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="19">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D44" s="19">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="19">
         <f>January!E44+February!E44+March!E44+April!E44+May!E44+June!E44+July!E44+August!E44+September!E44+October!E44+November!E44+December!E44</f>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="G44" s="19">
         <f>January!G44+February!G44+March!G44+April!G44+May!G44+June!G44+July!G44+August!G44+September!G44+October!G44+November!G44+December!G44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="19">
         <f>January!H44+February!H44+March!H44+April!H44+May!H44+June!H44+July!H44+August!H44+September!H44+October!H44+November!H44+December!H44</f>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="I44" s="19">
         <f>January!I44+February!I44+March!I44+April!I44+May!I44+June!I44+July!I44+August!I44+September!I44+October!I44+November!I44+December!I44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="20">
         <f>January!J44+February!J44+March!J44+April!J44+May!J44+June!J44+July!J44+August!J44+September!J44+October!J44+November!J44+December!J44</f>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D45" s="7">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2817,11 +2817,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>104</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,39 +2830,39 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>836</v>
+        <v>1498</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
-        <v>319</v>
+        <v>660</v>
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>530</v>
+        <v>870</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>306</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2871,39 +2871,39 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>1894</v>
+        <v>3330</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
-        <v>885</v>
+        <v>1498</v>
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>524</v>
+        <v>998</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>1370</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,15 +2912,15 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>536</v>
+        <v>958</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
@@ -2928,23 +2928,23 @@
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>326</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2953,27 +2953,27 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>626</v>
+        <v>1150</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
-        <v>290</v>
+        <v>516</v>
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>298</v>
+        <v>564</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>328</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2994,39 +2994,39 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>1698</v>
+        <v>3598</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
-        <v>662</v>
+        <v>1235</v>
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>790</v>
+        <v>1490</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>908</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3035,27 +3035,27 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>342</v>
+        <v>750</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>200</v>
+        <v>396</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>142</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3076,27 +3076,27 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1010</v>
+        <v>1866</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
-        <v>435</v>
+        <v>784</v>
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>688</v>
+        <v>1224</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>322</v>
+        <v>642</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,19 +3117,19 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>84</v>
+        <v>294</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3145,11 +3145,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>48</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3158,39 +3158,39 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F54" s="10">
         <f>January!F54+February!F54+March!F54+April!F54+May!F54+June!F54+July!F54+August!F54+September!F54+October!F54+November!F54+December!F54</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3199,39 +3199,39 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>448</v>
+        <v>584</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>266</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,27 +3240,27 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>1026</v>
+        <v>1886</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
-        <v>398</v>
+        <v>754</v>
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -3268,11 +3268,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>844</v>
+        <v>1578</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3281,39 +3281,39 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>297</v>
+        <v>548</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>453</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3322,39 +3322,39 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>39862</v>
+        <v>74154</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
-        <v>15765</v>
+        <v>28716</v>
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>1591</v>
+        <v>3180</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>378</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>1176</v>
+        <v>2133</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>2933</v>
+        <v>5691</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>468</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>17071</v>
+        <v>32083</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>22791</v>
+        <v>42071</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +3372,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5765,7 +5765,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -5778,7 +5778,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -8171,7 +8171,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -8184,7 +8184,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -10577,7 +10577,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -10590,7 +10590,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -12983,7 +12983,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -12996,7 +12996,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -15389,7 +15389,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -15402,7 +15402,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -17795,7 +17795,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -20188,7 +20188,7 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -20201,7 +20201,7 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -22594,7 +22594,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -22607,7 +22607,7 @@
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -25000,7 +25000,7 @@
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -25013,7 +25013,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -26787,7 +26787,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -26838,39 +26838,39 @@
       </c>
       <c r="B2" s="4">
         <f>FebruaryRaw!B2</f>
-        <v>0</v>
+        <v>2516</v>
       </c>
       <c r="C2" s="4">
         <f>FebruaryRaw!C2</f>
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="D2" s="4">
         <f>FebruaryRaw!D2</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4">
         <f>FebruaryRaw!E2</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4">
         <f>FebruaryRaw!F2</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4">
         <f>FebruaryRaw!G2</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="H2" s="4">
         <f>FebruaryRaw!H2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4">
         <f>FebruaryRaw!I2</f>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="J2" s="5">
         <f>FebruaryRaw!J2</f>
-        <v>0</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -26879,39 +26879,39 @@
       </c>
       <c r="B3" s="7">
         <f>FebruaryRaw!B3</f>
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="C3" s="7">
         <f>FebruaryRaw!C3</f>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="D3" s="7">
         <f>FebruaryRaw!D3</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E3" s="7">
         <f>FebruaryRaw!E3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7">
         <f>FebruaryRaw!F3</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7">
         <f>FebruaryRaw!G3</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="H3" s="7">
         <f>FebruaryRaw!H3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="7">
         <f>FebruaryRaw!I3</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J3" s="8">
         <f>FebruaryRaw!J3</f>
-        <v>0</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -26920,39 +26920,39 @@
       </c>
       <c r="B4" s="10">
         <f>FebruaryRaw!B4</f>
-        <v>0</v>
+        <v>2940</v>
       </c>
       <c r="C4" s="10">
         <f>FebruaryRaw!C4</f>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="D4" s="10">
         <f>FebruaryRaw!D4</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E4" s="10">
         <f>FebruaryRaw!E4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="10">
         <f>FebruaryRaw!F4</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G4" s="10">
         <f>FebruaryRaw!G4</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H4" s="10">
         <f>FebruaryRaw!H4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="10">
         <f>FebruaryRaw!I4</f>
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J4" s="11">
         <f>FebruaryRaw!J4</f>
-        <v>0</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -26961,11 +26961,11 @@
       </c>
       <c r="B5" s="7">
         <f>FebruaryRaw!B5</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C5" s="7">
         <f>FebruaryRaw!C5</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
         <f>FebruaryRaw!D5</f>
@@ -26977,11 +26977,11 @@
       </c>
       <c r="F5" s="7">
         <f>FebruaryRaw!F5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>FebruaryRaw!G5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <f>FebruaryRaw!H5</f>
@@ -26989,11 +26989,11 @@
       </c>
       <c r="I5" s="7">
         <f>FebruaryRaw!I5</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J5" s="8">
         <f>FebruaryRaw!J5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -27002,39 +27002,39 @@
       </c>
       <c r="B6" s="10">
         <f>FebruaryRaw!B6</f>
-        <v>0</v>
+        <v>3156</v>
       </c>
       <c r="C6" s="10">
         <f>FebruaryRaw!C6</f>
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="D6" s="10">
         <f>FebruaryRaw!D6</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="E6" s="10">
         <f>FebruaryRaw!E6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="10">
         <f>FebruaryRaw!F6</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G6" s="10">
         <f>FebruaryRaw!G6</f>
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="H6" s="10">
         <f>FebruaryRaw!H6</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I6" s="10">
         <f>FebruaryRaw!I6</f>
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="J6" s="11">
         <f>FebruaryRaw!J6</f>
-        <v>0</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -27043,15 +27043,15 @@
       </c>
       <c r="B7" s="7">
         <f>FebruaryRaw!B7</f>
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="C7" s="7">
         <f>FebruaryRaw!C7</f>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7">
         <f>FebruaryRaw!D7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7">
         <f>FebruaryRaw!E7</f>
@@ -27059,23 +27059,23 @@
       </c>
       <c r="F7" s="7">
         <f>FebruaryRaw!F7</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7">
         <f>FebruaryRaw!G7</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <f>FebruaryRaw!H7</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
         <f>FebruaryRaw!I7</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="J7" s="8">
         <f>FebruaryRaw!J7</f>
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -27084,11 +27084,11 @@
       </c>
       <c r="B8" s="10">
         <f>FebruaryRaw!B8</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C8" s="10">
         <f>FebruaryRaw!C8</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D8" s="10">
         <f>FebruaryRaw!D8</f>
@@ -27096,15 +27096,15 @@
       </c>
       <c r="E8" s="10">
         <f>FebruaryRaw!E8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="10">
         <f>FebruaryRaw!F8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="10">
         <f>FebruaryRaw!G8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="10">
         <f>FebruaryRaw!H8</f>
@@ -27112,11 +27112,11 @@
       </c>
       <c r="I8" s="10">
         <f>FebruaryRaw!I8</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J8" s="11">
         <f>FebruaryRaw!J8</f>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -27125,15 +27125,15 @@
       </c>
       <c r="B9" s="7">
         <f>FebruaryRaw!B9</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C9" s="7">
         <f>FebruaryRaw!C9</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7">
         <f>FebruaryRaw!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
         <f>FebruaryRaw!E9</f>
@@ -27141,23 +27141,23 @@
       </c>
       <c r="F9" s="7">
         <f>FebruaryRaw!F9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7">
         <f>FebruaryRaw!G9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="7">
         <f>FebruaryRaw!H9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
         <f>FebruaryRaw!I9</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J9" s="8">
         <f>FebruaryRaw!J9</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -27166,15 +27166,15 @@
       </c>
       <c r="B10" s="10">
         <f>FebruaryRaw!B10</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10">
         <f>FebruaryRaw!C10</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="10">
         <f>FebruaryRaw!D10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="10">
         <f>FebruaryRaw!E10</f>
@@ -27186,7 +27186,7 @@
       </c>
       <c r="G10" s="10">
         <f>FebruaryRaw!G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="10">
         <f>FebruaryRaw!H10</f>
@@ -27194,7 +27194,7 @@
       </c>
       <c r="I10" s="10">
         <f>FebruaryRaw!I10</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J10" s="11">
         <f>FebruaryRaw!J10</f>
@@ -27248,27 +27248,27 @@
       </c>
       <c r="B12" s="13">
         <f>FebruaryRaw!B12</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C12" s="13">
         <f>FebruaryRaw!C12</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D12" s="13">
         <f>FebruaryRaw!D12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="13">
         <f>FebruaryRaw!E12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
         <f>FebruaryRaw!F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13">
         <f>FebruaryRaw!G12</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12" s="13">
         <f>FebruaryRaw!H12</f>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="I12" s="13">
         <f>FebruaryRaw!I12</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J12" s="14">
         <f>FebruaryRaw!J12</f>
@@ -27289,15 +27289,15 @@
       </c>
       <c r="B13" s="16">
         <f>FebruaryRaw!B13</f>
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="C13" s="16">
         <f>FebruaryRaw!C13</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D13" s="16">
         <f>FebruaryRaw!D13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="16">
         <f>FebruaryRaw!E13</f>
@@ -27305,11 +27305,11 @@
       </c>
       <c r="F13" s="16">
         <f>FebruaryRaw!F13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="16">
         <f>FebruaryRaw!G13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="16">
         <f>FebruaryRaw!H13</f>
@@ -27317,11 +27317,11 @@
       </c>
       <c r="I13" s="16">
         <f>FebruaryRaw!I13</f>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J13" s="17">
         <f>FebruaryRaw!J13</f>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -27330,27 +27330,27 @@
       </c>
       <c r="B14" s="13">
         <f>FebruaryRaw!B14</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C14" s="13">
         <f>FebruaryRaw!C14</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="D14" s="13">
         <f>FebruaryRaw!D14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13">
         <f>FebruaryRaw!E14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="13">
         <f>FebruaryRaw!F14</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G14" s="13">
         <f>FebruaryRaw!G14</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H14" s="13">
         <f>FebruaryRaw!H14</f>
@@ -27358,11 +27358,11 @@
       </c>
       <c r="I14" s="13">
         <f>FebruaryRaw!I14</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="J14" s="14">
         <f>FebruaryRaw!J14</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -27371,27 +27371,27 @@
       </c>
       <c r="B15" s="16">
         <f>FebruaryRaw!B15</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C15" s="16">
         <f>FebruaryRaw!C15</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D15" s="16">
         <f>FebruaryRaw!D15</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="16">
         <f>FebruaryRaw!E15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="16">
         <f>FebruaryRaw!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="16">
         <f>FebruaryRaw!G15</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H15" s="16">
         <f>FebruaryRaw!H15</f>
@@ -27399,11 +27399,11 @@
       </c>
       <c r="I15" s="16">
         <f>FebruaryRaw!I15</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J15" s="17">
         <f>FebruaryRaw!J15</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -27412,15 +27412,15 @@
       </c>
       <c r="B16" s="10">
         <f>FebruaryRaw!B16</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10">
         <f>FebruaryRaw!C16</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D16" s="10">
         <f>FebruaryRaw!D16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="10">
         <f>FebruaryRaw!E16</f>
@@ -27428,11 +27428,11 @@
       </c>
       <c r="F16" s="10">
         <f>FebruaryRaw!F16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="10">
         <f>FebruaryRaw!G16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="10">
         <f>FebruaryRaw!H16</f>
@@ -27440,11 +27440,11 @@
       </c>
       <c r="I16" s="10">
         <f>FebruaryRaw!I16</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J16" s="11">
         <f>FebruaryRaw!J16</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -27453,39 +27453,39 @@
       </c>
       <c r="B17" s="7">
         <f>FebruaryRaw!B17</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C17" s="7">
         <f>FebruaryRaw!C17</f>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="D17" s="7">
         <f>FebruaryRaw!D17</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E17" s="7">
         <f>FebruaryRaw!E17</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" s="7">
         <f>FebruaryRaw!F17</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7">
         <f>FebruaryRaw!G17</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <f>FebruaryRaw!H17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
         <f>FebruaryRaw!I17</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J17" s="8">
         <f>FebruaryRaw!J17</f>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -27494,27 +27494,27 @@
       </c>
       <c r="B18" s="10">
         <f>FebruaryRaw!B18</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C18" s="10">
         <f>FebruaryRaw!C18</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D18" s="10">
         <f>FebruaryRaw!D18</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="10">
         <f>FebruaryRaw!E18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10">
         <f>FebruaryRaw!F18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10">
         <f>FebruaryRaw!G18</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="10">
         <f>FebruaryRaw!H18</f>
@@ -27522,11 +27522,11 @@
       </c>
       <c r="I18" s="10">
         <f>FebruaryRaw!I18</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J18" s="11">
         <f>FebruaryRaw!J18</f>
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -27535,39 +27535,39 @@
       </c>
       <c r="B19" s="7">
         <f>FebruaryRaw!B19</f>
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="C19" s="7">
         <f>FebruaryRaw!C19</f>
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="D19" s="7">
         <f>FebruaryRaw!D19</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E19" s="7">
         <f>FebruaryRaw!E19</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7">
         <f>FebruaryRaw!F19</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7">
         <f>FebruaryRaw!G19</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <f>FebruaryRaw!H19</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7">
         <f>FebruaryRaw!I19</f>
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="J19" s="8">
         <f>FebruaryRaw!J19</f>
-        <v>0</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -27576,11 +27576,11 @@
       </c>
       <c r="B20" s="10">
         <f>FebruaryRaw!B20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="10">
         <f>FebruaryRaw!C20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="10">
         <f>FebruaryRaw!D20</f>
@@ -27604,7 +27604,7 @@
       </c>
       <c r="I20" s="10">
         <f>FebruaryRaw!I20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20" s="11">
         <f>FebruaryRaw!J20</f>
@@ -27617,39 +27617,39 @@
       </c>
       <c r="B21" s="7">
         <f>FebruaryRaw!B21</f>
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="C21" s="7">
         <f>FebruaryRaw!C21</f>
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="D21" s="7">
         <f>FebruaryRaw!D21</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E21" s="7">
         <f>FebruaryRaw!E21</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7">
         <f>FebruaryRaw!F21</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7">
         <f>FebruaryRaw!G21</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <f>FebruaryRaw!H21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
         <f>FebruaryRaw!I21</f>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="J21" s="8">
         <f>FebruaryRaw!J21</f>
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -27658,15 +27658,15 @@
       </c>
       <c r="B22" s="10">
         <f>FebruaryRaw!B22</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C22" s="10">
         <f>FebruaryRaw!C22</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D22" s="10">
         <f>FebruaryRaw!D22</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22" s="10">
         <f>FebruaryRaw!E22</f>
@@ -27674,11 +27674,11 @@
       </c>
       <c r="F22" s="10">
         <f>FebruaryRaw!F22</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" s="10">
         <f>FebruaryRaw!G22</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H22" s="10">
         <f>FebruaryRaw!H22</f>
@@ -27686,11 +27686,11 @@
       </c>
       <c r="I22" s="10">
         <f>FebruaryRaw!I22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="11">
         <f>FebruaryRaw!J22</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -27699,39 +27699,39 @@
       </c>
       <c r="B23" s="7">
         <f>FebruaryRaw!B23</f>
-        <v>0</v>
+        <v>1116</v>
       </c>
       <c r="C23" s="7">
         <f>FebruaryRaw!C23</f>
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="D23" s="7">
         <f>FebruaryRaw!D23</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E23" s="7">
         <f>FebruaryRaw!E23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7">
         <f>FebruaryRaw!F23</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G23" s="7">
         <f>FebruaryRaw!G23</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <f>FebruaryRaw!H23</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I23" s="7">
         <f>FebruaryRaw!I23</f>
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="J23" s="8">
         <f>FebruaryRaw!J23</f>
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -27740,39 +27740,39 @@
       </c>
       <c r="B24" s="10">
         <f>FebruaryRaw!B24</f>
-        <v>0</v>
+        <v>3624</v>
       </c>
       <c r="C24" s="10">
         <f>FebruaryRaw!C24</f>
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="D24" s="10">
         <f>FebruaryRaw!D24</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="E24" s="10">
         <f>FebruaryRaw!E24</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F24" s="10">
         <f>FebruaryRaw!F24</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G24" s="10">
         <f>FebruaryRaw!G24</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="H24" s="10">
         <f>FebruaryRaw!H24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="10">
         <f>FebruaryRaw!I24</f>
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="J24" s="11">
         <f>FebruaryRaw!J24</f>
-        <v>0</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -27781,39 +27781,39 @@
       </c>
       <c r="B25" s="7">
         <f>FebruaryRaw!B25</f>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="C25" s="7">
         <f>FebruaryRaw!C25</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D25" s="7">
         <f>FebruaryRaw!D25</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E25" s="7">
         <f>FebruaryRaw!E25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="7">
         <f>FebruaryRaw!F25</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7">
         <f>FebruaryRaw!G25</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H25" s="7">
         <f>FebruaryRaw!H25</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
         <f>FebruaryRaw!I25</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J25" s="8">
         <f>FebruaryRaw!J25</f>
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -27863,27 +27863,27 @@
       </c>
       <c r="B27" s="7">
         <f>FebruaryRaw!B27</f>
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="C27" s="7">
         <f>FebruaryRaw!C27</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D27" s="7">
         <f>FebruaryRaw!D27</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="7">
         <f>FebruaryRaw!E27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="7">
         <f>FebruaryRaw!F27</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="7">
         <f>FebruaryRaw!G27</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H27" s="7">
         <f>FebruaryRaw!H27</f>
@@ -27891,11 +27891,11 @@
       </c>
       <c r="I27" s="7">
         <f>FebruaryRaw!I27</f>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="J27" s="8">
         <f>FebruaryRaw!J27</f>
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -27904,27 +27904,27 @@
       </c>
       <c r="B28" s="10">
         <f>FebruaryRaw!B28</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C28" s="10">
         <f>FebruaryRaw!C28</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D28" s="10">
         <f>FebruaryRaw!D28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="10">
         <f>FebruaryRaw!E28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="10">
         <f>FebruaryRaw!F28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
         <f>FebruaryRaw!G28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="10">
         <f>FebruaryRaw!H28</f>
@@ -27932,11 +27932,11 @@
       </c>
       <c r="I28" s="10">
         <f>FebruaryRaw!I28</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J28" s="11">
         <f>FebruaryRaw!J28</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -27945,11 +27945,11 @@
       </c>
       <c r="B29" s="7">
         <f>FebruaryRaw!B29</f>
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="C29" s="7">
         <f>FebruaryRaw!C29</f>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="D29" s="7">
         <f>FebruaryRaw!D29</f>
@@ -27961,11 +27961,11 @@
       </c>
       <c r="F29" s="7">
         <f>FebruaryRaw!F29</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G29" s="7">
         <f>FebruaryRaw!G29</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <f>FebruaryRaw!H29</f>
@@ -27973,11 +27973,11 @@
       </c>
       <c r="I29" s="7">
         <f>FebruaryRaw!I29</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J29" s="8">
         <f>FebruaryRaw!J29</f>
-        <v>0</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -27986,27 +27986,27 @@
       </c>
       <c r="B30" s="10">
         <f>FebruaryRaw!B30</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C30" s="10">
         <f>FebruaryRaw!C30</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D30" s="10">
         <f>FebruaryRaw!D30</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E30" s="10">
         <f>FebruaryRaw!E30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
         <f>FebruaryRaw!F30</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G30" s="10">
         <f>FebruaryRaw!G30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H30" s="10">
         <f>FebruaryRaw!H30</f>
@@ -28014,11 +28014,11 @@
       </c>
       <c r="I30" s="10">
         <f>FebruaryRaw!I30</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J30" s="11">
         <f>FebruaryRaw!J30</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -28027,27 +28027,27 @@
       </c>
       <c r="B31" s="7">
         <f>FebruaryRaw!B31</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C31" s="7">
         <f>FebruaryRaw!C31</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D31" s="7">
         <f>FebruaryRaw!D31</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="7">
         <f>FebruaryRaw!E31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="7">
         <f>FebruaryRaw!F31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="7">
         <f>FebruaryRaw!G31</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H31" s="7">
         <f>FebruaryRaw!H31</f>
@@ -28055,11 +28055,11 @@
       </c>
       <c r="I31" s="7">
         <f>FebruaryRaw!I31</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J31" s="8">
         <f>FebruaryRaw!J31</f>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -28068,39 +28068,39 @@
       </c>
       <c r="B32" s="10">
         <f>FebruaryRaw!B32</f>
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="C32" s="10">
         <f>FebruaryRaw!C32</f>
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D32" s="10">
         <f>FebruaryRaw!D32</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E32" s="10">
         <f>FebruaryRaw!E32</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F32" s="10">
         <f>FebruaryRaw!F32</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G32" s="10">
         <f>FebruaryRaw!G32</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H32" s="10">
         <f>FebruaryRaw!H32</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I32" s="10">
         <f>FebruaryRaw!I32</f>
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="J32" s="11">
         <f>FebruaryRaw!J32</f>
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -28109,39 +28109,39 @@
       </c>
       <c r="B33" s="7">
         <f>FebruaryRaw!B33</f>
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="C33" s="7">
         <f>FebruaryRaw!C33</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D33" s="7">
         <f>FebruaryRaw!D33</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E33" s="7">
         <f>FebruaryRaw!E33</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="7">
         <f>FebruaryRaw!F33</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7">
         <f>FebruaryRaw!G33</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H33" s="7">
         <f>FebruaryRaw!H33</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I33" s="7">
         <f>FebruaryRaw!I33</f>
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J33" s="8">
         <f>FebruaryRaw!J33</f>
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -28150,39 +28150,39 @@
       </c>
       <c r="B34" s="10">
         <f>FebruaryRaw!B34</f>
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="C34" s="10">
         <f>FebruaryRaw!C34</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D34" s="10">
         <f>FebruaryRaw!D34</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E34" s="10">
         <f>FebruaryRaw!E34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="10">
         <f>FebruaryRaw!F34</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G34" s="10">
         <f>FebruaryRaw!G34</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H34" s="10">
         <f>FebruaryRaw!H34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="10">
         <f>FebruaryRaw!I34</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J34" s="11">
         <f>FebruaryRaw!J34</f>
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -28191,39 +28191,39 @@
       </c>
       <c r="B35" s="7">
         <f>FebruaryRaw!B35</f>
-        <v>0</v>
+        <v>2204</v>
       </c>
       <c r="C35" s="7">
         <f>FebruaryRaw!C35</f>
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="D35" s="7">
         <f>FebruaryRaw!D35</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E35" s="7">
         <f>FebruaryRaw!E35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35" s="7">
         <f>FebruaryRaw!F35</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G35" s="7">
         <f>FebruaryRaw!G35</f>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="H35" s="7">
         <f>FebruaryRaw!H35</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I35" s="7">
         <f>FebruaryRaw!I35</f>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="J35" s="8">
         <f>FebruaryRaw!J35</f>
-        <v>0</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -28232,39 +28232,39 @@
       </c>
       <c r="B36" s="10">
         <f>FebruaryRaw!B36</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C36" s="10">
         <f>FebruaryRaw!C36</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D36" s="10">
         <f>FebruaryRaw!D36</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E36" s="10">
         <f>FebruaryRaw!E36</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="10">
         <f>FebruaryRaw!F36</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36" s="10">
         <f>FebruaryRaw!G36</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H36" s="10">
         <f>FebruaryRaw!H36</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36" s="10">
         <f>FebruaryRaw!I36</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J36" s="11">
         <f>FebruaryRaw!J36</f>
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -28273,39 +28273,39 @@
       </c>
       <c r="B37" s="7">
         <f>FebruaryRaw!B37</f>
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="C37" s="7">
         <f>FebruaryRaw!C37</f>
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D37" s="7">
         <f>FebruaryRaw!D37</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E37" s="7">
         <f>FebruaryRaw!E37</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F37" s="7">
         <f>FebruaryRaw!F37</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G37" s="7">
         <f>FebruaryRaw!G37</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H37" s="7">
         <f>FebruaryRaw!H37</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I37" s="7">
         <f>FebruaryRaw!I37</f>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="J37" s="8">
         <f>FebruaryRaw!J37</f>
-        <v>0</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -28314,15 +28314,15 @@
       </c>
       <c r="B38" s="10">
         <f>FebruaryRaw!B38</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C38" s="10">
         <f>FebruaryRaw!C38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38" s="10">
         <f>FebruaryRaw!D38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="10">
         <f>FebruaryRaw!E38</f>
@@ -28334,7 +28334,7 @@
       </c>
       <c r="G38" s="10">
         <f>FebruaryRaw!G38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="10">
         <f>FebruaryRaw!H38</f>
@@ -28342,11 +28342,11 @@
       </c>
       <c r="I38" s="10">
         <f>FebruaryRaw!I38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="11">
         <f>FebruaryRaw!J38</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -28355,39 +28355,39 @@
       </c>
       <c r="B39" s="7">
         <f>FebruaryRaw!B39</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C39" s="7">
         <f>FebruaryRaw!C39</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D39" s="7">
         <f>FebruaryRaw!D39</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E39" s="7">
         <f>FebruaryRaw!E39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="7">
         <f>FebruaryRaw!F39</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7">
         <f>FebruaryRaw!G39</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H39" s="7">
         <f>FebruaryRaw!H39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
         <f>FebruaryRaw!I39</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J39" s="8">
         <f>FebruaryRaw!J39</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -28396,19 +28396,19 @@
       </c>
       <c r="B40" s="19">
         <f>FebruaryRaw!B40</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C40" s="19">
         <f>FebruaryRaw!C40</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D40" s="19">
         <f>FebruaryRaw!D40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="19">
         <f>FebruaryRaw!E40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="19">
         <f>FebruaryRaw!F40</f>
@@ -28416,7 +28416,7 @@
       </c>
       <c r="G40" s="19">
         <f>FebruaryRaw!G40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="19">
         <f>FebruaryRaw!H40</f>
@@ -28424,11 +28424,11 @@
       </c>
       <c r="I40" s="19">
         <f>FebruaryRaw!I40</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J40" s="20">
         <f>FebruaryRaw!J40</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -28437,15 +28437,15 @@
       </c>
       <c r="B41" s="22">
         <f>FebruaryRaw!B41</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C41" s="22">
         <f>FebruaryRaw!C41</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D41" s="22">
         <f>FebruaryRaw!D41</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E41" s="22">
         <f>FebruaryRaw!E41</f>
@@ -28453,19 +28453,19 @@
       </c>
       <c r="F41" s="22">
         <f>FebruaryRaw!F41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="22">
         <f>FebruaryRaw!G41</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H41" s="22">
         <f>FebruaryRaw!H41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="22">
         <f>FebruaryRaw!I41</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J41" s="23">
         <f>FebruaryRaw!J41</f>
@@ -28478,27 +28478,27 @@
       </c>
       <c r="B42" s="19">
         <f>FebruaryRaw!B42</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C42" s="19">
         <f>FebruaryRaw!C42</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D42" s="19">
         <f>FebruaryRaw!D42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="19">
         <f>FebruaryRaw!E42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="19">
         <f>FebruaryRaw!F42</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G42" s="19">
         <f>FebruaryRaw!G42</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H42" s="19">
         <f>FebruaryRaw!H42</f>
@@ -28506,11 +28506,11 @@
       </c>
       <c r="I42" s="19">
         <f>FebruaryRaw!I42</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J42" s="20">
         <f>FebruaryRaw!J42</f>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -28519,27 +28519,27 @@
       </c>
       <c r="B43" s="22">
         <f>FebruaryRaw!B43</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C43" s="22">
         <f>FebruaryRaw!C43</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D43" s="22">
         <f>FebruaryRaw!D43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="22">
         <f>FebruaryRaw!E43</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="22">
         <f>FebruaryRaw!F43</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" s="22">
         <f>FebruaryRaw!G43</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H43" s="22">
         <f>FebruaryRaw!H43</f>
@@ -28547,7 +28547,7 @@
       </c>
       <c r="I43" s="22">
         <f>FebruaryRaw!I43</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J43" s="23">
         <f>FebruaryRaw!J43</f>
@@ -28560,7 +28560,7 @@
       </c>
       <c r="B44" s="19">
         <f>FebruaryRaw!B44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="19">
         <f>FebruaryRaw!C44</f>
@@ -28568,7 +28568,7 @@
       </c>
       <c r="D44" s="19">
         <f>FebruaryRaw!D44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="19">
         <f>FebruaryRaw!E44</f>
@@ -28580,7 +28580,7 @@
       </c>
       <c r="G44" s="19">
         <f>FebruaryRaw!G44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="19">
         <f>FebruaryRaw!H44</f>
@@ -28588,7 +28588,7 @@
       </c>
       <c r="I44" s="19">
         <f>FebruaryRaw!I44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="20">
         <f>FebruaryRaw!J44</f>
@@ -28601,11 +28601,11 @@
       </c>
       <c r="B45" s="7">
         <f>FebruaryRaw!B45</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7">
         <f>FebruaryRaw!C45</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D45" s="7">
         <f>FebruaryRaw!D45</f>
@@ -28617,11 +28617,11 @@
       </c>
       <c r="F45" s="7">
         <f>FebruaryRaw!F45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="7">
         <f>FebruaryRaw!G45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="7">
         <f>FebruaryRaw!H45</f>
@@ -28629,11 +28629,11 @@
       </c>
       <c r="I45" s="7">
         <f>FebruaryRaw!I45</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J45" s="8">
         <f>FebruaryRaw!J45</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -28642,39 +28642,39 @@
       </c>
       <c r="B46" s="10">
         <f>FebruaryRaw!B46</f>
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="C46" s="10">
         <f>FebruaryRaw!C46</f>
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="D46" s="10">
         <f>FebruaryRaw!D46</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E46" s="10">
         <f>FebruaryRaw!E46</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="10">
         <f>FebruaryRaw!F46</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G46" s="10">
         <f>FebruaryRaw!G46</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H46" s="10">
         <f>FebruaryRaw!H46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="10">
         <f>FebruaryRaw!I46</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J46" s="11">
         <f>FebruaryRaw!J46</f>
-        <v>0</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -28683,39 +28683,39 @@
       </c>
       <c r="B47" s="7">
         <f>FebruaryRaw!B47</f>
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="C47" s="7">
         <f>FebruaryRaw!C47</f>
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="D47" s="7">
         <f>FebruaryRaw!D47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7">
         <f>FebruaryRaw!E47</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47" s="7">
         <f>FebruaryRaw!F47</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G47" s="7">
         <f>FebruaryRaw!G47</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H47" s="7">
         <f>FebruaryRaw!H47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" s="7">
         <f>FebruaryRaw!I47</f>
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="J47" s="8">
         <f>FebruaryRaw!J47</f>
-        <v>0</v>
+        <v>962</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -28724,15 +28724,15 @@
       </c>
       <c r="B48" s="10">
         <f>FebruaryRaw!B48</f>
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="C48" s="10">
         <f>FebruaryRaw!C48</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D48" s="10">
         <f>FebruaryRaw!D48</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E48" s="10">
         <f>FebruaryRaw!E48</f>
@@ -28740,23 +28740,23 @@
       </c>
       <c r="F48" s="10">
         <f>FebruaryRaw!F48</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G48" s="10">
         <f>FebruaryRaw!G48</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H48" s="10">
         <f>FebruaryRaw!H48</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I48" s="10">
         <f>FebruaryRaw!I48</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J48" s="11">
         <f>FebruaryRaw!J48</f>
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -28765,27 +28765,27 @@
       </c>
       <c r="B49" s="7">
         <f>FebruaryRaw!B49</f>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="C49" s="7">
         <f>FebruaryRaw!C49</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="D49" s="7">
         <f>FebruaryRaw!D49</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E49" s="7">
         <f>FebruaryRaw!E49</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" s="7">
         <f>FebruaryRaw!F49</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G49" s="7">
         <f>FebruaryRaw!G49</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H49" s="7">
         <f>FebruaryRaw!H49</f>
@@ -28793,11 +28793,11 @@
       </c>
       <c r="I49" s="7">
         <f>FebruaryRaw!I49</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="J49" s="8">
         <f>FebruaryRaw!J49</f>
-        <v>0</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -28806,39 +28806,39 @@
       </c>
       <c r="B50" s="10">
         <f>FebruaryRaw!B50</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="C50" s="10">
         <f>FebruaryRaw!C50</f>
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="D50" s="10">
         <f>FebruaryRaw!D50</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E50" s="10">
         <f>FebruaryRaw!E50</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F50" s="10">
         <f>FebruaryRaw!F50</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G50" s="10">
         <f>FebruaryRaw!G50</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="H50" s="10">
         <f>FebruaryRaw!H50</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I50" s="10">
         <f>FebruaryRaw!I50</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J50" s="11">
         <f>FebruaryRaw!J50</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -28847,27 +28847,27 @@
       </c>
       <c r="B51" s="7">
         <f>FebruaryRaw!B51</f>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="C51" s="7">
         <f>FebruaryRaw!C51</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D51" s="7">
         <f>FebruaryRaw!D51</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E51" s="7">
         <f>FebruaryRaw!E51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7">
         <f>FebruaryRaw!F51</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" s="7">
         <f>FebruaryRaw!G51</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H51" s="7">
         <f>FebruaryRaw!H51</f>
@@ -28875,11 +28875,11 @@
       </c>
       <c r="I51" s="7">
         <f>FebruaryRaw!I51</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J51" s="8">
         <f>FebruaryRaw!J51</f>
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -28888,27 +28888,27 @@
       </c>
       <c r="B52" s="10">
         <f>FebruaryRaw!B52</f>
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="C52" s="10">
         <f>FebruaryRaw!C52</f>
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="D52" s="10">
         <f>FebruaryRaw!D52</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E52" s="10">
         <f>FebruaryRaw!E52</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" s="10">
         <f>FebruaryRaw!F52</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G52" s="10">
         <f>FebruaryRaw!G52</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H52" s="10">
         <f>FebruaryRaw!H52</f>
@@ -28916,11 +28916,11 @@
       </c>
       <c r="I52" s="10">
         <f>FebruaryRaw!I52</f>
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J52" s="11">
         <f>FebruaryRaw!J52</f>
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -28929,19 +28929,19 @@
       </c>
       <c r="B53" s="7">
         <f>FebruaryRaw!B53</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C53" s="7">
         <f>FebruaryRaw!C53</f>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D53" s="7">
         <f>FebruaryRaw!D53</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E53" s="7">
         <f>FebruaryRaw!E53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="7">
         <f>FebruaryRaw!F53</f>
@@ -28949,7 +28949,7 @@
       </c>
       <c r="G53" s="7">
         <f>FebruaryRaw!G53</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H53" s="7">
         <f>FebruaryRaw!H53</f>
@@ -28957,11 +28957,11 @@
       </c>
       <c r="I53" s="7">
         <f>FebruaryRaw!I53</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J53" s="8">
         <f>FebruaryRaw!J53</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -28970,39 +28970,39 @@
       </c>
       <c r="B54" s="10">
         <f>FebruaryRaw!B54</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C54" s="10">
         <f>FebruaryRaw!C54</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D54" s="10">
         <f>FebruaryRaw!D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="10">
         <f>FebruaryRaw!E54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F54" s="10">
         <f>FebruaryRaw!F54</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="10">
         <f>FebruaryRaw!G54</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H54" s="10">
         <f>FebruaryRaw!H54</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" s="10">
         <f>FebruaryRaw!I54</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J54" s="11">
         <f>FebruaryRaw!J54</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -29011,39 +29011,39 @@
       </c>
       <c r="B55" s="7">
         <f>FebruaryRaw!B55</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="C55" s="7">
         <f>FebruaryRaw!C55</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D55" s="7">
         <f>FebruaryRaw!D55</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
         <f>FebruaryRaw!E55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7">
         <f>FebruaryRaw!F55</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G55" s="7">
         <f>FebruaryRaw!G55</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H55" s="7">
         <f>FebruaryRaw!H55</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" s="7">
         <f>FebruaryRaw!I55</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J55" s="8">
         <f>FebruaryRaw!J55</f>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -29052,27 +29052,27 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -29080,11 +29080,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -29093,39 +29093,39 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -29134,39 +29134,39 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>34292</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
-        <v>0</v>
+        <v>12951</v>
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1589</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2758</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15012</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19280</v>
       </c>
     </row>
   </sheetData>
@@ -29178,12 +29178,1773 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B87C0-B32D-46B0-9D42-452633530A1D}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2516</v>
+      </c>
+      <c r="C2">
+        <v>1044</v>
+      </c>
+      <c r="D2">
+        <v>132</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>185</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>580</v>
+      </c>
+      <c r="J2">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1060</v>
+      </c>
+      <c r="C3">
+        <v>345</v>
+      </c>
+      <c r="D3">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>132</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>450</v>
+      </c>
+      <c r="J3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2940</v>
+      </c>
+      <c r="C4">
+        <v>1150</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>196</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>748</v>
+      </c>
+      <c r="J4">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>66</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3156</v>
+      </c>
+      <c r="C6">
+        <v>1103</v>
+      </c>
+      <c r="D6">
+        <v>193</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>92</v>
+      </c>
+      <c r="G6">
+        <v>295</v>
+      </c>
+      <c r="H6">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1422</v>
+      </c>
+      <c r="J6">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>418</v>
+      </c>
+      <c r="C7">
+        <v>197</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>202</v>
+      </c>
+      <c r="J7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>194</v>
+      </c>
+      <c r="C8">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>98</v>
+      </c>
+      <c r="J8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>86</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>216</v>
+      </c>
+      <c r="C12">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>216</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>284</v>
+      </c>
+      <c r="C13">
+        <v>130</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>242</v>
+      </c>
+      <c r="J13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>112</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>230</v>
+      </c>
+      <c r="J14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1100</v>
+      </c>
+      <c r="C17">
+        <v>486</v>
+      </c>
+      <c r="D17">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>69</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>142</v>
+      </c>
+      <c r="C18">
+        <v>68</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>984</v>
+      </c>
+      <c r="C19">
+        <v>385</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>596</v>
+      </c>
+      <c r="J19">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1048</v>
+      </c>
+      <c r="C21">
+        <v>358</v>
+      </c>
+      <c r="D21">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>106</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>636</v>
+      </c>
+      <c r="J21">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1116</v>
+      </c>
+      <c r="C23">
+        <v>436</v>
+      </c>
+      <c r="D23">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>125</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>334</v>
+      </c>
+      <c r="J23">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>3624</v>
+      </c>
+      <c r="C24">
+        <v>1417</v>
+      </c>
+      <c r="D24">
+        <v>155</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>78</v>
+      </c>
+      <c r="G24">
+        <v>244</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>984</v>
+      </c>
+      <c r="J24">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>296</v>
+      </c>
+      <c r="C25">
+        <v>99</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>142</v>
+      </c>
+      <c r="J25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>528</v>
+      </c>
+      <c r="C27">
+        <v>163</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>234</v>
+      </c>
+      <c r="J27">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>58</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>896</v>
+      </c>
+      <c r="C29">
+        <v>270</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>364</v>
+      </c>
+      <c r="J29">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>86</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>22</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+      <c r="J30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>872</v>
+      </c>
+      <c r="C32">
+        <v>309</v>
+      </c>
+      <c r="D32">
+        <v>72</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+      <c r="F32">
+        <v>83</v>
+      </c>
+      <c r="G32">
+        <v>176</v>
+      </c>
+      <c r="H32">
+        <v>67</v>
+      </c>
+      <c r="I32">
+        <v>738</v>
+      </c>
+      <c r="J32">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>902</v>
+      </c>
+      <c r="C33">
+        <v>320</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>68</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>698</v>
+      </c>
+      <c r="J33">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>414</v>
+      </c>
+      <c r="C34">
+        <v>137</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>260</v>
+      </c>
+      <c r="J34">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2204</v>
+      </c>
+      <c r="C35">
+        <v>689</v>
+      </c>
+      <c r="D35">
+        <v>159</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <v>232</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>960</v>
+      </c>
+      <c r="J35">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>340</v>
+      </c>
+      <c r="C36">
+        <v>111</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>174</v>
+      </c>
+      <c r="J36">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1056</v>
+      </c>
+      <c r="C37">
+        <v>332</v>
+      </c>
+      <c r="D37">
+        <v>73</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>108</v>
+      </c>
+      <c r="H37">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <v>658</v>
+      </c>
+      <c r="J37">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>31</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>24</v>
+      </c>
+      <c r="J39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>84</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>118</v>
+      </c>
+      <c r="C42">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>46</v>
+      </c>
+      <c r="J42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+      <c r="J45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>662</v>
+      </c>
+      <c r="C46">
+        <v>341</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>29</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>340</v>
+      </c>
+      <c r="J46">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1436</v>
+      </c>
+      <c r="C47">
+        <v>613</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>474</v>
+      </c>
+      <c r="J47">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>422</v>
+      </c>
+      <c r="C48">
+        <v>175</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>29</v>
+      </c>
+      <c r="G48">
+        <v>42</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>170</v>
+      </c>
+      <c r="J48">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>524</v>
+      </c>
+      <c r="C49">
+        <v>226</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>266</v>
+      </c>
+      <c r="J49">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1900</v>
+      </c>
+      <c r="C50">
+        <v>573</v>
+      </c>
+      <c r="D50">
+        <v>56</v>
+      </c>
+      <c r="E50">
+        <v>52</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>158</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>700</v>
+      </c>
+      <c r="J50">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>408</v>
+      </c>
+      <c r="C51">
+        <v>162</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>196</v>
+      </c>
+      <c r="J51">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>856</v>
+      </c>
+      <c r="C52">
+        <v>349</v>
+      </c>
+      <c r="D52">
+        <v>39</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>33</v>
+      </c>
+      <c r="G52">
+        <v>77</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>536</v>
+      </c>
+      <c r="J52">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>210</v>
+      </c>
+      <c r="C53">
+        <v>87</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>92</v>
+      </c>
+      <c r="J53">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>74</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>46</v>
+      </c>
+      <c r="J54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>136</v>
+      </c>
+      <c r="C55">
+        <v>144</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>23</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>26</v>
+      </c>
+      <c r="J55">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29193,7 +30954,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -31586,7 +33347,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -31599,7 +33360,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -33992,7 +35753,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9DA07C-EB7C-4C45-BFA7-00E7A5751BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86471FF-8AA8-45CE-8312-6B34E91297A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="103">
   <si>
     <t>Library</t>
   </si>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>5548</v>
+        <v>8258</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1034,31 +1034,31 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>1408</v>
+        <v>2128</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>4140</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>2030</v>
+        <v>2830</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1075,31 +1075,31 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>834</v>
+        <v>1156</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>1196</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>6418</v>
+        <v>9944</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1116,31 +1116,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>324</v>
+        <v>521</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>444</v>
+        <v>725</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>1708</v>
+        <v>2538</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>4710</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D5" s="7">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
         <f>January!E5+February!E5+March!E5+April!E5+May!E5+June!E5+July!E5+August!E5+September!E5+October!E5+November!E5+December!E5</f>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G5" s="7">
         <f>January!G5+February!G5+March!G5+April!G5+May!G5+June!G5+July!G5+August!G5+September!G5+October!G5+November!G5+December!G5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7">
         <f>January!H5+February!H5+March!H5+April!H5+May!H5+June!H5+July!H5+August!H5+September!H5+October!H5+November!H5+December!H5</f>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>7000</v>
+        <v>10818</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>385</v>
+        <v>575</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>591</v>
+        <v>843</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>2792</v>
+        <v>4268</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>4208</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>962</v>
+        <v>1394</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1239,31 +1239,31 @@
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>410</v>
+        <v>692</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>552</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>418</v>
+        <v>670</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1280,19 +1280,19 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>200</v>
+        <v>368</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>218</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>188</v>
+        <v>306</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1321,11 +1321,11 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7">
         <f>January!F9+February!F9+March!F9+April!F9+May!F9+June!F9+July!F9+August!F9+September!F9+October!F9+November!F9+December!F9</f>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B10" s="10">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I10" s="10">
         <f>January!I10+February!I10+March!I10+April!I10+May!I10+June!I10+July!I10+August!I10+September!I10+October!I10+November!I10+December!I10</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="11">
         <f>January!J10+February!J10+March!J10+April!J10+May!J10+June!J10+July!J10+August!J10+September!J10+October!J10+November!J10+December!J10</f>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1444,27 +1444,27 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>616</v>
+        <v>970</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>518</v>
+        <v>760</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>98</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>598</v>
+        <v>924</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1526,19 +1526,19 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
@@ -1546,11 +1546,11 @@
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>442</v>
+        <v>668</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>156</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>202</v>
+        <v>386</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1567,19 +1567,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>148</v>
+        <v>304</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1628,11 +1628,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>2438</v>
+        <v>3744</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1649,31 +1649,31 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>1156</v>
+        <v>1682</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>1282</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>354</v>
+        <v>630</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
@@ -1698,23 +1698,23 @@
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>290</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>2192</v>
+        <v>3228</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1731,31 +1731,31 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>1144</v>
+        <v>1698</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>1048</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>2128</v>
+        <v>3246</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1813,31 +1813,31 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>1238</v>
+        <v>1866</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>890</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D22" s="10">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>2684</v>
+        <v>4306</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1895,31 +1895,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>286</v>
+        <v>515</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>890</v>
+        <v>1396</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>1794</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>7976</v>
+        <v>12434</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1936,31 +1936,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>328</v>
+        <v>589</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>557</v>
+        <v>900</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>2242</v>
+        <v>3522</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>5734</v>
+        <v>8912</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>708</v>
+        <v>1042</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
@@ -1985,11 +1985,11 @@
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
@@ -1997,11 +1997,11 @@
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>368</v>
+        <v>556</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>340</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>888</v>
+        <v>1384</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2059,31 +2059,31 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>466</v>
+        <v>768</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>422</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="F28" s="10">
         <f>January!F28+February!F28+March!F28+April!F28+May!F28+June!F28+July!F28+August!F28+September!F28+October!F28+November!F28+December!F28</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>1818</v>
+        <v>2586</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
@@ -2149,11 +2149,11 @@
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2161,11 +2161,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>720</v>
+        <v>1146</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>1098</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="D30" s="10">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
@@ -2190,11 +2190,11 @@
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
@@ -2202,11 +2202,11 @@
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>202</v>
+        <v>432</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2223,19 +2223,19 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
@@ -2243,11 +2243,11 @@
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>126</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>2014</v>
+        <v>3122</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2264,31 +2264,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>370</v>
+        <v>552</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>1534</v>
+        <v>2412</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>480</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>2040</v>
+        <v>2986</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2305,31 +2305,31 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>1378</v>
+        <v>2102</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>662</v>
+        <v>884</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>866</v>
+        <v>1472</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2346,19 +2346,19 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2366,11 +2366,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>532</v>
+        <v>988</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>334</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>4404</v>
+        <v>6826</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2387,31 +2387,31 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>323</v>
+        <v>540</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>462</v>
+        <v>732</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>1928</v>
+        <v>3184</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>2476</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>750</v>
+        <v>1282</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
@@ -2436,11 +2436,11 @@
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>436</v>
+        <v>714</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>314</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>2180</v>
+        <v>3410</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2469,19 +2469,19 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>187</v>
+        <v>333</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>266</v>
+        <v>434</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
@@ -2489,11 +2489,11 @@
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>1262</v>
+        <v>1942</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>918</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="D38" s="10">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" s="10">
         <f>January!E38+February!E38+March!E38+April!E38+May!E38+June!E38+July!E38+August!E38+September!E38+October!E38+November!E38+December!E38</f>
@@ -2518,23 +2518,23 @@
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>292</v>
+        <v>702</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2551,19 +2551,19 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
@@ -2571,11 +2571,11 @@
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>208</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B40" s="19">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="C40" s="19">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="F40" s="19">
         <f>January!F40+February!F40+March!F40+April!F40+May!F40+June!F40+July!F40+August!F40+September!F40+October!F40+November!F40+December!F40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="19">
         <f>January!G40+February!G40+March!G40+April!G40+May!G40+June!G40+July!G40+August!G40+September!G40+October!G40+November!G40+December!G40</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="19">
         <f>January!H40+February!H40+March!H40+April!H40+May!H40+June!H40+July!H40+August!H40+September!H40+October!H40+November!H40+December!H40</f>
@@ -2612,11 +2612,11 @@
       </c>
       <c r="I40" s="19">
         <f>January!I40+February!I40+March!I40+April!I40+May!I40+June!I40+July!I40+August!I40+September!I40+October!I40+November!I40+December!I40</f>
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="J40" s="20">
         <f>January!J40+February!J40+March!J40+April!J40+May!J40+June!J40+July!J40+August!J40+September!J40+October!J40+November!J40+December!J40</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B41" s="22">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="C41" s="22">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
@@ -2633,11 +2633,11 @@
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="22">
         <f>January!F41+February!F41+March!F41+April!F41+May!F41+June!F41+July!F41+August!F41+September!F41+October!F41+November!F41+December!F41</f>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I41" s="22">
         <f>January!I41+February!I41+March!I41+April!I41+May!I41+June!I41+July!I41+August!I41+September!I41+October!I41+November!I41+December!I41</f>
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="J41" s="23">
         <f>January!J41+February!J41+March!J41+April!J41+May!J41+June!J41+July!J41+August!J41+September!J41+October!J41+November!J41+December!J41</f>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B42" s="19">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C42" s="19">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
@@ -2694,11 +2694,11 @@
       </c>
       <c r="I42" s="19">
         <f>January!I42+February!I42+March!I42+April!I42+May!I42+June!I42+July!I42+August!I42+September!I42+October!I42+November!I42+December!I42</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J42" s="20">
         <f>January!J42+February!J42+March!J42+April!J42+May!J42+June!J42+July!J42+August!J42+September!J42+October!J42+November!J42+December!J42</f>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B43" s="22">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C43" s="22">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
@@ -2723,11 +2723,11 @@
       </c>
       <c r="F43" s="22">
         <f>January!F43+February!F43+March!F43+April!F43+May!F43+June!F43+July!F43+August!F43+September!F43+October!F43+November!F43+December!F43</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" s="22">
         <f>January!G43+February!G43+March!G43+April!G43+May!G43+June!G43+July!G43+August!G43+September!G43+October!G43+November!G43+December!G43</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H43" s="22">
         <f>January!H43+February!H43+March!H43+April!H43+May!H43+June!H43+July!H43+August!H43+September!H43+October!H43+November!H43+December!H43</f>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="I43" s="22">
         <f>January!I43+February!I43+March!I43+April!I43+May!I43+June!I43+July!I43+August!I43+September!I43+October!I43+November!I43+December!I43</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J43" s="23">
         <f>January!J43+February!J43+March!J43+April!J43+May!J43+June!J43+July!J43+August!J43+September!J43+October!J43+November!J43+December!J43</f>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B44" s="19">
         <f>January!B44+February!B44+March!B44+April!B44+May!B44+June!B44+July!B44+August!B44+September!B44+October!B44+November!B44+December!B44</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44" s="19">
         <f>January!C44+February!C44+March!C44+April!C44+May!C44+June!C44+July!C44+August!C44+September!C44+October!C44+November!C44+December!C44</f>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="J44" s="20">
         <f>January!J44+February!J44+March!J44+April!J44+May!J44+June!J44+July!J44+August!J44+September!J44+October!J44+November!J44+December!J44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>284</v>
+        <v>422</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2801,15 +2801,15 @@
       </c>
       <c r="E45" s="7">
         <f>January!E45+February!E45+March!E45+April!E45+May!E45+June!E45+July!E45+August!E45+September!E45+October!E45+November!E45+December!E45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2817,11 +2817,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>139</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>1498</v>
+        <v>2240</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2838,19 +2838,19 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>870</v>
+        <v>1360</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>628</v>
+        <v>880</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>3330</v>
+        <v>4732</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2879,31 +2879,31 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>998</v>
+        <v>1542</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>2332</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>958</v>
+        <v>1346</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
@@ -2928,11 +2928,11 @@
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
@@ -2940,11 +2940,11 @@
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>380</v>
+        <v>586</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>578</v>
+        <v>760</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>1150</v>
+        <v>1630</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2961,19 +2961,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>564</v>
+        <v>798</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>586</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>3598</v>
+        <v>5174</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3002,31 +3002,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>1490</v>
+        <v>2344</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>2108</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>750</v>
+        <v>1156</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3043,19 +3043,19 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>396</v>
+        <v>602</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>354</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>1866</v>
+        <v>2888</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3084,19 +3084,19 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>1224</v>
+        <v>1856</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>642</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>294</v>
+        <v>516</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3125,31 +3125,31 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>166</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
@@ -3174,11 +3174,11 @@
       </c>
       <c r="F54" s="10">
         <f>January!F54+February!F54+March!F54+April!F54+May!F54+June!F54+July!F54+August!F54+September!F54+October!F54+November!F54+December!F54</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3186,11 +3186,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>584</v>
+        <v>902</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3207,31 +3207,31 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>376</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>1886</v>
+        <v>2940</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3248,31 +3248,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>1578</v>
+        <v>2392</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>548</v>
+        <v>766</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -3289,19 +3289,19 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -3309,11 +3309,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>453</v>
+        <v>657</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>74154</v>
+        <v>113111</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3330,31 +3330,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>3180</v>
+        <v>5072</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>378</v>
+        <v>534</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>2133</v>
+        <v>3034</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>5691</v>
+        <v>8640</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>468</v>
+        <v>627</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>32083</v>
+        <v>49567</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>42071</v>
+        <v>63544</v>
       </c>
     </row>
   </sheetData>
@@ -31005,7 +31005,7 @@
       </c>
       <c r="B2" s="4">
         <f>MarchRaw!B2</f>
-        <v>0</v>
+        <v>2710</v>
       </c>
       <c r="C2" s="4">
         <f>MarchRaw!C2</f>
@@ -31013,31 +31013,31 @@
       </c>
       <c r="D2" s="4">
         <f>MarchRaw!D2</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4">
         <f>MarchRaw!E2</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4">
         <f>MarchRaw!F2</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4">
         <f>MarchRaw!G2</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H2" s="4">
         <f>MarchRaw!H2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="4">
         <f>MarchRaw!I2</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J2" s="5">
         <f>MarchRaw!J2</f>
-        <v>0</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="B3" s="7">
         <f>MarchRaw!B3</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C3" s="7">
         <f>MarchRaw!C3</f>
@@ -31054,31 +31054,31 @@
       </c>
       <c r="D3" s="7">
         <f>MarchRaw!D3</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7">
         <f>MarchRaw!E3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7">
         <f>MarchRaw!F3</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G3" s="7">
         <f>MarchRaw!G3</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H3" s="7">
         <f>MarchRaw!H3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3" s="7">
         <f>MarchRaw!I3</f>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="J3" s="8">
         <f>MarchRaw!J3</f>
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -31087,7 +31087,7 @@
       </c>
       <c r="B4" s="10">
         <f>MarchRaw!B4</f>
-        <v>0</v>
+        <v>3526</v>
       </c>
       <c r="C4" s="10">
         <f>MarchRaw!C4</f>
@@ -31095,31 +31095,31 @@
       </c>
       <c r="D4" s="10">
         <f>MarchRaw!D4</f>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="E4" s="10">
         <f>MarchRaw!E4</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4" s="10">
         <f>MarchRaw!F4</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G4" s="10">
         <f>MarchRaw!G4</f>
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="H4" s="10">
         <f>MarchRaw!H4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="10">
         <f>MarchRaw!I4</f>
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="J4" s="11">
         <f>MarchRaw!J4</f>
-        <v>0</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -31128,7 +31128,7 @@
       </c>
       <c r="B5" s="7">
         <f>MarchRaw!B5</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7">
         <f>MarchRaw!C5</f>
@@ -31136,7 +31136,7 @@
       </c>
       <c r="D5" s="7">
         <f>MarchRaw!D5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
         <f>MarchRaw!E5</f>
@@ -31148,7 +31148,7 @@
       </c>
       <c r="G5" s="7">
         <f>MarchRaw!G5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <f>MarchRaw!H5</f>
@@ -31156,11 +31156,11 @@
       </c>
       <c r="I5" s="7">
         <f>MarchRaw!I5</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J5" s="8">
         <f>MarchRaw!J5</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -31169,7 +31169,7 @@
       </c>
       <c r="B6" s="10">
         <f>MarchRaw!B6</f>
-        <v>0</v>
+        <v>3818</v>
       </c>
       <c r="C6" s="10">
         <f>MarchRaw!C6</f>
@@ -31177,31 +31177,31 @@
       </c>
       <c r="D6" s="10">
         <f>MarchRaw!D6</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E6" s="10">
         <f>MarchRaw!E6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="10">
         <f>MarchRaw!F6</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G6" s="10">
         <f>MarchRaw!G6</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H6" s="10">
         <f>MarchRaw!H6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="10">
         <f>MarchRaw!I6</f>
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="J6" s="11">
         <f>MarchRaw!J6</f>
-        <v>0</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -31210,7 +31210,7 @@
       </c>
       <c r="B7" s="7">
         <f>MarchRaw!B7</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="C7" s="7">
         <f>MarchRaw!C7</f>
@@ -31218,31 +31218,31 @@
       </c>
       <c r="D7" s="7">
         <f>MarchRaw!D7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7">
         <f>MarchRaw!E7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
         <f>MarchRaw!F7</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7">
         <f>MarchRaw!G7</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <f>MarchRaw!H7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
         <f>MarchRaw!I7</f>
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J7" s="8">
         <f>MarchRaw!J7</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -31251,7 +31251,7 @@
       </c>
       <c r="B8" s="10">
         <f>MarchRaw!B8</f>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="C8" s="10">
         <f>MarchRaw!C8</f>
@@ -31259,19 +31259,19 @@
       </c>
       <c r="D8" s="10">
         <f>MarchRaw!D8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="10">
         <f>MarchRaw!E8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
         <f>MarchRaw!F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
         <f>MarchRaw!G8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="10">
         <f>MarchRaw!H8</f>
@@ -31279,11 +31279,11 @@
       </c>
       <c r="I8" s="10">
         <f>MarchRaw!I8</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="J8" s="11">
         <f>MarchRaw!J8</f>
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -31292,7 +31292,7 @@
       </c>
       <c r="B9" s="7">
         <f>MarchRaw!B9</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C9" s="7">
         <f>MarchRaw!C9</f>
@@ -31300,11 +31300,11 @@
       </c>
       <c r="D9" s="7">
         <f>MarchRaw!D9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
         <f>MarchRaw!E9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="7">
         <f>MarchRaw!F9</f>
@@ -31312,7 +31312,7 @@
       </c>
       <c r="G9" s="7">
         <f>MarchRaw!G9</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="7">
         <f>MarchRaw!H9</f>
@@ -31320,11 +31320,11 @@
       </c>
       <c r="I9" s="7">
         <f>MarchRaw!I9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="8">
         <f>MarchRaw!J9</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -31333,7 +31333,7 @@
       </c>
       <c r="B10" s="10">
         <f>MarchRaw!B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10">
         <f>MarchRaw!C10</f>
@@ -31361,7 +31361,7 @@
       </c>
       <c r="I10" s="10">
         <f>MarchRaw!I10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="11">
         <f>MarchRaw!J10</f>
@@ -31415,7 +31415,7 @@
       </c>
       <c r="B12" s="13">
         <f>MarchRaw!B12</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="C12" s="13">
         <f>MarchRaw!C12</f>
@@ -31423,27 +31423,27 @@
       </c>
       <c r="D12" s="13">
         <f>MarchRaw!D12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="13">
         <f>MarchRaw!E12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
         <f>MarchRaw!F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13">
         <f>MarchRaw!G12</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12" s="13">
         <f>MarchRaw!H12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="13">
         <f>MarchRaw!I12</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="J12" s="14">
         <f>MarchRaw!J12</f>
@@ -31456,7 +31456,7 @@
       </c>
       <c r="B13" s="16">
         <f>MarchRaw!B13</f>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="C13" s="16">
         <f>MarchRaw!C13</f>
@@ -31464,7 +31464,7 @@
       </c>
       <c r="D13" s="16">
         <f>MarchRaw!D13</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="16">
         <f>MarchRaw!E13</f>
@@ -31472,11 +31472,11 @@
       </c>
       <c r="F13" s="16">
         <f>MarchRaw!F13</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" s="16">
         <f>MarchRaw!G13</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H13" s="16">
         <f>MarchRaw!H13</f>
@@ -31484,11 +31484,11 @@
       </c>
       <c r="I13" s="16">
         <f>MarchRaw!I13</f>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J13" s="17">
         <f>MarchRaw!J13</f>
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="B14" s="13">
         <f>MarchRaw!B14</f>
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="C14" s="13">
         <f>MarchRaw!C14</f>
@@ -31505,19 +31505,19 @@
       </c>
       <c r="D14" s="13">
         <f>MarchRaw!D14</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E14" s="13">
         <f>MarchRaw!E14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="13">
         <f>MarchRaw!F14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G14" s="13">
         <f>MarchRaw!G14</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H14" s="13">
         <f>MarchRaw!H14</f>
@@ -31525,11 +31525,11 @@
       </c>
       <c r="I14" s="13">
         <f>MarchRaw!I14</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J14" s="14">
         <f>MarchRaw!J14</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -31538,7 +31538,7 @@
       </c>
       <c r="B15" s="16">
         <f>MarchRaw!B15</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C15" s="16">
         <f>MarchRaw!C15</f>
@@ -31546,19 +31546,19 @@
       </c>
       <c r="D15" s="16">
         <f>MarchRaw!D15</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="16">
         <f>MarchRaw!E15</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="16">
         <f>MarchRaw!F15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="16">
         <f>MarchRaw!G15</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H15" s="16">
         <f>MarchRaw!H15</f>
@@ -31566,11 +31566,11 @@
       </c>
       <c r="I15" s="16">
         <f>MarchRaw!I15</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J15" s="17">
         <f>MarchRaw!J15</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -31579,7 +31579,7 @@
       </c>
       <c r="B16" s="10">
         <f>MarchRaw!B16</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10">
         <f>MarchRaw!C16</f>
@@ -31587,7 +31587,7 @@
       </c>
       <c r="D16" s="10">
         <f>MarchRaw!D16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="10">
         <f>MarchRaw!E16</f>
@@ -31599,7 +31599,7 @@
       </c>
       <c r="G16" s="10">
         <f>MarchRaw!G16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="10">
         <f>MarchRaw!H16</f>
@@ -31607,11 +31607,11 @@
       </c>
       <c r="I16" s="10">
         <f>MarchRaw!I16</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J16" s="11">
         <f>MarchRaw!J16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -31620,7 +31620,7 @@
       </c>
       <c r="B17" s="7">
         <f>MarchRaw!B17</f>
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="C17" s="7">
         <f>MarchRaw!C17</f>
@@ -31628,31 +31628,31 @@
       </c>
       <c r="D17" s="7">
         <f>MarchRaw!D17</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7">
         <f>MarchRaw!E17</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7">
         <f>MarchRaw!F17</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G17" s="7">
         <f>MarchRaw!G17</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <f>MarchRaw!H17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
         <f>MarchRaw!I17</f>
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="J17" s="8">
         <f>MarchRaw!J17</f>
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -31661,7 +31661,7 @@
       </c>
       <c r="B18" s="10">
         <f>MarchRaw!B18</f>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="C18" s="10">
         <f>MarchRaw!C18</f>
@@ -31669,7 +31669,7 @@
       </c>
       <c r="D18" s="10">
         <f>MarchRaw!D18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10">
         <f>MarchRaw!E18</f>
@@ -31677,23 +31677,23 @@
       </c>
       <c r="F18" s="10">
         <f>MarchRaw!F18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10">
         <f>MarchRaw!G18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="10">
         <f>MarchRaw!H18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="10">
         <f>MarchRaw!I18</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J18" s="11">
         <f>MarchRaw!J18</f>
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -31702,7 +31702,7 @@
       </c>
       <c r="B19" s="7">
         <f>MarchRaw!B19</f>
-        <v>0</v>
+        <v>1036</v>
       </c>
       <c r="C19" s="7">
         <f>MarchRaw!C19</f>
@@ -31710,31 +31710,31 @@
       </c>
       <c r="D19" s="7">
         <f>MarchRaw!D19</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E19" s="7">
         <f>MarchRaw!E19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="7">
         <f>MarchRaw!F19</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7">
         <f>MarchRaw!G19</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <f>MarchRaw!H19</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7">
         <f>MarchRaw!I19</f>
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="J19" s="8">
         <f>MarchRaw!J19</f>
-        <v>0</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -31784,7 +31784,7 @@
       </c>
       <c r="B21" s="7">
         <f>MarchRaw!B21</f>
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="C21" s="7">
         <f>MarchRaw!C21</f>
@@ -31792,31 +31792,31 @@
       </c>
       <c r="D21" s="7">
         <f>MarchRaw!D21</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7">
         <f>MarchRaw!E21</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21" s="7">
         <f>MarchRaw!F21</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7">
         <f>MarchRaw!G21</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H21" s="7">
         <f>MarchRaw!H21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
         <f>MarchRaw!I21</f>
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="J21" s="8">
         <f>MarchRaw!J21</f>
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -31825,7 +31825,7 @@
       </c>
       <c r="B22" s="10">
         <f>MarchRaw!B22</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10">
         <f>MarchRaw!C22</f>
@@ -31833,7 +31833,7 @@
       </c>
       <c r="D22" s="10">
         <f>MarchRaw!D22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="10">
         <f>MarchRaw!E22</f>
@@ -31845,7 +31845,7 @@
       </c>
       <c r="G22" s="10">
         <f>MarchRaw!G22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="10">
         <f>MarchRaw!H22</f>
@@ -31853,11 +31853,11 @@
       </c>
       <c r="I22" s="10">
         <f>MarchRaw!I22</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J22" s="11">
         <f>MarchRaw!J22</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="B23" s="7">
         <f>MarchRaw!B23</f>
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="C23" s="7">
         <f>MarchRaw!C23</f>
@@ -31874,31 +31874,31 @@
       </c>
       <c r="D23" s="7">
         <f>MarchRaw!D23</f>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="E23" s="7">
         <f>MarchRaw!E23</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23" s="7">
         <f>MarchRaw!F23</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G23" s="7">
         <f>MarchRaw!G23</f>
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
         <f>MarchRaw!H23</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
         <f>MarchRaw!I23</f>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="J23" s="8">
         <f>MarchRaw!J23</f>
-        <v>0</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -31907,7 +31907,7 @@
       </c>
       <c r="B24" s="10">
         <f>MarchRaw!B24</f>
-        <v>0</v>
+        <v>4458</v>
       </c>
       <c r="C24" s="10">
         <f>MarchRaw!C24</f>
@@ -31915,31 +31915,31 @@
       </c>
       <c r="D24" s="10">
         <f>MarchRaw!D24</f>
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="E24" s="10">
         <f>MarchRaw!E24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="10">
         <f>MarchRaw!F24</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G24" s="10">
         <f>MarchRaw!G24</f>
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="H24" s="10">
         <f>MarchRaw!H24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="10">
         <f>MarchRaw!I24</f>
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="J24" s="11">
         <f>MarchRaw!J24</f>
-        <v>0</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -31948,7 +31948,7 @@
       </c>
       <c r="B25" s="7">
         <f>MarchRaw!B25</f>
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="C25" s="7">
         <f>MarchRaw!C25</f>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="D25" s="7">
         <f>MarchRaw!D25</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E25" s="7">
         <f>MarchRaw!E25</f>
@@ -31964,11 +31964,11 @@
       </c>
       <c r="F25" s="7">
         <f>MarchRaw!F25</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25" s="7">
         <f>MarchRaw!G25</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H25" s="7">
         <f>MarchRaw!H25</f>
@@ -31976,11 +31976,11 @@
       </c>
       <c r="I25" s="7">
         <f>MarchRaw!I25</f>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="J25" s="8">
         <f>MarchRaw!J25</f>
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -32030,7 +32030,7 @@
       </c>
       <c r="B27" s="7">
         <f>MarchRaw!B27</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="C27" s="7">
         <f>MarchRaw!C27</f>
@@ -32038,31 +32038,31 @@
       </c>
       <c r="D27" s="7">
         <f>MarchRaw!D27</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27" s="7">
         <f>MarchRaw!E27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="7">
         <f>MarchRaw!F27</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G27" s="7">
         <f>MarchRaw!G27</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <f>MarchRaw!H27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="7">
         <f>MarchRaw!I27</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="J27" s="8">
         <f>MarchRaw!J27</f>
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -32071,7 +32071,7 @@
       </c>
       <c r="B28" s="10">
         <f>MarchRaw!B28</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C28" s="10">
         <f>MarchRaw!C28</f>
@@ -32079,7 +32079,7 @@
       </c>
       <c r="D28" s="10">
         <f>MarchRaw!D28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="10">
         <f>MarchRaw!E28</f>
@@ -32087,11 +32087,11 @@
       </c>
       <c r="F28" s="10">
         <f>MarchRaw!F28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10">
         <f>MarchRaw!G28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28" s="10">
         <f>MarchRaw!H28</f>
@@ -32099,11 +32099,11 @@
       </c>
       <c r="I28" s="10">
         <f>MarchRaw!I28</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J28" s="11">
         <f>MarchRaw!J28</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -32112,7 +32112,7 @@
       </c>
       <c r="B29" s="7">
         <f>MarchRaw!B29</f>
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="C29" s="7">
         <f>MarchRaw!C29</f>
@@ -32120,7 +32120,7 @@
       </c>
       <c r="D29" s="7">
         <f>MarchRaw!D29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="7">
         <f>MarchRaw!E29</f>
@@ -32128,11 +32128,11 @@
       </c>
       <c r="F29" s="7">
         <f>MarchRaw!F29</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G29" s="7">
         <f>MarchRaw!G29</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H29" s="7">
         <f>MarchRaw!H29</f>
@@ -32140,11 +32140,11 @@
       </c>
       <c r="I29" s="7">
         <f>MarchRaw!I29</f>
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="J29" s="8">
         <f>MarchRaw!J29</f>
-        <v>0</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -32153,7 +32153,7 @@
       </c>
       <c r="B30" s="10">
         <f>MarchRaw!B30</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C30" s="10">
         <f>MarchRaw!C30</f>
@@ -32161,7 +32161,7 @@
       </c>
       <c r="D30" s="10">
         <f>MarchRaw!D30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="10">
         <f>MarchRaw!E30</f>
@@ -32169,11 +32169,11 @@
       </c>
       <c r="F30" s="10">
         <f>MarchRaw!F30</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30" s="10">
         <f>MarchRaw!G30</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H30" s="10">
         <f>MarchRaw!H30</f>
@@ -32181,11 +32181,11 @@
       </c>
       <c r="I30" s="10">
         <f>MarchRaw!I30</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J30" s="11">
         <f>MarchRaw!J30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -32194,7 +32194,7 @@
       </c>
       <c r="B31" s="7">
         <f>MarchRaw!B31</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C31" s="7">
         <f>MarchRaw!C31</f>
@@ -32202,19 +32202,19 @@
       </c>
       <c r="D31" s="7">
         <f>MarchRaw!D31</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="7">
         <f>MarchRaw!E31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="7">
         <f>MarchRaw!F31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="7">
         <f>MarchRaw!G31</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H31" s="7">
         <f>MarchRaw!H31</f>
@@ -32222,11 +32222,11 @@
       </c>
       <c r="I31" s="7">
         <f>MarchRaw!I31</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J31" s="8">
         <f>MarchRaw!J31</f>
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -32235,7 +32235,7 @@
       </c>
       <c r="B32" s="10">
         <f>MarchRaw!B32</f>
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="C32" s="10">
         <f>MarchRaw!C32</f>
@@ -32243,31 +32243,31 @@
       </c>
       <c r="D32" s="10">
         <f>MarchRaw!D32</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E32" s="10">
         <f>MarchRaw!E32</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" s="10">
         <f>MarchRaw!F32</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G32" s="10">
         <f>MarchRaw!G32</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H32" s="10">
         <f>MarchRaw!H32</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I32" s="10">
         <f>MarchRaw!I32</f>
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="J32" s="11">
         <f>MarchRaw!J32</f>
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -32276,7 +32276,7 @@
       </c>
       <c r="B33" s="7">
         <f>MarchRaw!B33</f>
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="C33" s="7">
         <f>MarchRaw!C33</f>
@@ -32284,31 +32284,31 @@
       </c>
       <c r="D33" s="7">
         <f>MarchRaw!D33</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E33" s="7">
         <f>MarchRaw!E33</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="7">
         <f>MarchRaw!F33</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G33" s="7">
         <f>MarchRaw!G33</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="H33" s="7">
         <f>MarchRaw!H33</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I33" s="7">
         <f>MarchRaw!I33</f>
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="J33" s="8">
         <f>MarchRaw!J33</f>
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="B34" s="10">
         <f>MarchRaw!B34</f>
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="C34" s="10">
         <f>MarchRaw!C34</f>
@@ -32325,19 +32325,19 @@
       </c>
       <c r="D34" s="10">
         <f>MarchRaw!D34</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="E34" s="10">
         <f>MarchRaw!E34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="10">
         <f>MarchRaw!F34</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34" s="10">
         <f>MarchRaw!G34</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="H34" s="10">
         <f>MarchRaw!H34</f>
@@ -32345,11 +32345,11 @@
       </c>
       <c r="I34" s="10">
         <f>MarchRaw!I34</f>
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="J34" s="11">
         <f>MarchRaw!J34</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -32358,7 +32358,7 @@
       </c>
       <c r="B35" s="7">
         <f>MarchRaw!B35</f>
-        <v>0</v>
+        <v>2422</v>
       </c>
       <c r="C35" s="7">
         <f>MarchRaw!C35</f>
@@ -32366,31 +32366,31 @@
       </c>
       <c r="D35" s="7">
         <f>MarchRaw!D35</f>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="E35" s="7">
         <f>MarchRaw!E35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35" s="7">
         <f>MarchRaw!F35</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G35" s="7">
         <f>MarchRaw!G35</f>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H35" s="7">
         <f>MarchRaw!H35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I35" s="7">
         <f>MarchRaw!I35</f>
-        <v>0</v>
+        <v>1256</v>
       </c>
       <c r="J35" s="8">
         <f>MarchRaw!J35</f>
-        <v>0</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -32399,7 +32399,7 @@
       </c>
       <c r="B36" s="10">
         <f>MarchRaw!B36</f>
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="C36" s="10">
         <f>MarchRaw!C36</f>
@@ -32407,7 +32407,7 @@
       </c>
       <c r="D36" s="10">
         <f>MarchRaw!D36</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E36" s="10">
         <f>MarchRaw!E36</f>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="F36" s="10">
         <f>MarchRaw!F36</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10">
         <f>MarchRaw!G36</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H36" s="10">
         <f>MarchRaw!H36</f>
@@ -32427,11 +32427,11 @@
       </c>
       <c r="I36" s="10">
         <f>MarchRaw!I36</f>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="J36" s="11">
         <f>MarchRaw!J36</f>
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -32440,7 +32440,7 @@
       </c>
       <c r="B37" s="7">
         <f>MarchRaw!B37</f>
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="C37" s="7">
         <f>MarchRaw!C37</f>
@@ -32448,19 +32448,19 @@
       </c>
       <c r="D37" s="7">
         <f>MarchRaw!D37</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E37" s="7">
         <f>MarchRaw!E37</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37" s="7">
         <f>MarchRaw!F37</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G37" s="7">
         <f>MarchRaw!G37</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="H37" s="7">
         <f>MarchRaw!H37</f>
@@ -32468,11 +32468,11 @@
       </c>
       <c r="I37" s="7">
         <f>MarchRaw!I37</f>
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="J37" s="8">
         <f>MarchRaw!J37</f>
-        <v>0</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -32481,7 +32481,7 @@
       </c>
       <c r="B38" s="10">
         <f>MarchRaw!B38</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C38" s="10">
         <f>MarchRaw!C38</f>
@@ -32489,7 +32489,7 @@
       </c>
       <c r="D38" s="10">
         <f>MarchRaw!D38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="10">
         <f>MarchRaw!E38</f>
@@ -32497,23 +32497,23 @@
       </c>
       <c r="F38" s="10">
         <f>MarchRaw!F38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10">
         <f>MarchRaw!G38</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="10">
         <f>MarchRaw!H38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="10">
         <f>MarchRaw!I38</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J38" s="11">
         <f>MarchRaw!J38</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -32522,7 +32522,7 @@
       </c>
       <c r="B39" s="7">
         <f>MarchRaw!B39</f>
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="C39" s="7">
         <f>MarchRaw!C39</f>
@@ -32530,19 +32530,19 @@
       </c>
       <c r="D39" s="7">
         <f>MarchRaw!D39</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E39" s="7">
         <f>MarchRaw!E39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="7">
         <f>MarchRaw!F39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="7">
         <f>MarchRaw!G39</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H39" s="7">
         <f>MarchRaw!H39</f>
@@ -32550,11 +32550,11 @@
       </c>
       <c r="I39" s="7">
         <f>MarchRaw!I39</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J39" s="8">
         <f>MarchRaw!J39</f>
-        <v>0</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -32563,7 +32563,7 @@
       </c>
       <c r="B40" s="19">
         <f>MarchRaw!B40</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C40" s="19">
         <f>MarchRaw!C40</f>
@@ -32579,11 +32579,11 @@
       </c>
       <c r="F40" s="19">
         <f>MarchRaw!F40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="19">
         <f>MarchRaw!G40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="19">
         <f>MarchRaw!H40</f>
@@ -32591,11 +32591,11 @@
       </c>
       <c r="I40" s="19">
         <f>MarchRaw!I40</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J40" s="20">
         <f>MarchRaw!J40</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -32604,7 +32604,7 @@
       </c>
       <c r="B41" s="22">
         <f>MarchRaw!B41</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C41" s="22">
         <f>MarchRaw!C41</f>
@@ -32612,11 +32612,11 @@
       </c>
       <c r="D41" s="22">
         <f>MarchRaw!D41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="22">
         <f>MarchRaw!E41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="22">
         <f>MarchRaw!F41</f>
@@ -32624,7 +32624,7 @@
       </c>
       <c r="G41" s="22">
         <f>MarchRaw!G41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="22">
         <f>MarchRaw!H41</f>
@@ -32632,7 +32632,7 @@
       </c>
       <c r="I41" s="22">
         <f>MarchRaw!I41</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J41" s="23">
         <f>MarchRaw!J41</f>
@@ -32645,7 +32645,7 @@
       </c>
       <c r="B42" s="19">
         <f>MarchRaw!B42</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C42" s="19">
         <f>MarchRaw!C42</f>
@@ -32673,11 +32673,11 @@
       </c>
       <c r="I42" s="19">
         <f>MarchRaw!I42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="20">
         <f>MarchRaw!J42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="B43" s="22">
         <f>MarchRaw!B43</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C43" s="22">
         <f>MarchRaw!C43</f>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="F43" s="22">
         <f>MarchRaw!F43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="22">
         <f>MarchRaw!G43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="22">
         <f>MarchRaw!H43</f>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="I43" s="22">
         <f>MarchRaw!I43</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J43" s="23">
         <f>MarchRaw!J43</f>
@@ -32727,7 +32727,7 @@
       </c>
       <c r="B44" s="19">
         <f>MarchRaw!B44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C44" s="19">
         <f>MarchRaw!C44</f>
@@ -32759,7 +32759,7 @@
       </c>
       <c r="J44" s="20">
         <f>MarchRaw!J44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -32768,7 +32768,7 @@
       </c>
       <c r="B45" s="7">
         <f>MarchRaw!B45</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C45" s="7">
         <f>MarchRaw!C45</f>
@@ -32780,15 +32780,15 @@
       </c>
       <c r="E45" s="7">
         <f>MarchRaw!E45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="7">
         <f>MarchRaw!F45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="7">
         <f>MarchRaw!G45</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" s="7">
         <f>MarchRaw!H45</f>
@@ -32796,11 +32796,11 @@
       </c>
       <c r="I45" s="7">
         <f>MarchRaw!I45</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J45" s="8">
         <f>MarchRaw!J45</f>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -32809,7 +32809,7 @@
       </c>
       <c r="B46" s="10">
         <f>MarchRaw!B46</f>
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="C46" s="10">
         <f>MarchRaw!C46</f>
@@ -32817,19 +32817,19 @@
       </c>
       <c r="D46" s="10">
         <f>MarchRaw!D46</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E46" s="10">
         <f>MarchRaw!E46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="10">
         <f>MarchRaw!F46</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G46" s="10">
         <f>MarchRaw!G46</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H46" s="10">
         <f>MarchRaw!H46</f>
@@ -32837,11 +32837,11 @@
       </c>
       <c r="I46" s="10">
         <f>MarchRaw!I46</f>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="J46" s="11">
         <f>MarchRaw!J46</f>
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -32850,7 +32850,7 @@
       </c>
       <c r="B47" s="7">
         <f>MarchRaw!B47</f>
-        <v>0</v>
+        <v>1402</v>
       </c>
       <c r="C47" s="7">
         <f>MarchRaw!C47</f>
@@ -32858,31 +32858,31 @@
       </c>
       <c r="D47" s="7">
         <f>MarchRaw!D47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7">
         <f>MarchRaw!E47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="7">
         <f>MarchRaw!F47</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G47" s="7">
         <f>MarchRaw!G47</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H47" s="7">
         <f>MarchRaw!H47</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I47" s="7">
         <f>MarchRaw!I47</f>
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="J47" s="8">
         <f>MarchRaw!J47</f>
-        <v>0</v>
+        <v>858</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -32891,7 +32891,7 @@
       </c>
       <c r="B48" s="10">
         <f>MarchRaw!B48</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="C48" s="10">
         <f>MarchRaw!C48</f>
@@ -32899,7 +32899,7 @@
       </c>
       <c r="D48" s="10">
         <f>MarchRaw!D48</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E48" s="10">
         <f>MarchRaw!E48</f>
@@ -32907,11 +32907,11 @@
       </c>
       <c r="F48" s="10">
         <f>MarchRaw!F48</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G48" s="10">
         <f>MarchRaw!G48</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H48" s="10">
         <f>MarchRaw!H48</f>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="I48" s="10">
         <f>MarchRaw!I48</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J48" s="11">
         <f>MarchRaw!J48</f>
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -32932,7 +32932,7 @@
       </c>
       <c r="B49" s="7">
         <f>MarchRaw!B49</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="C49" s="7">
         <f>MarchRaw!C49</f>
@@ -32940,19 +32940,19 @@
       </c>
       <c r="D49" s="7">
         <f>MarchRaw!D49</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E49" s="7">
         <f>MarchRaw!E49</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F49" s="7">
         <f>MarchRaw!F49</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G49" s="7">
         <f>MarchRaw!G49</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H49" s="7">
         <f>MarchRaw!H49</f>
@@ -32960,11 +32960,11 @@
       </c>
       <c r="I49" s="7">
         <f>MarchRaw!I49</f>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="J49" s="8">
         <f>MarchRaw!J49</f>
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -32973,7 +32973,7 @@
       </c>
       <c r="B50" s="10">
         <f>MarchRaw!B50</f>
-        <v>0</v>
+        <v>1576</v>
       </c>
       <c r="C50" s="10">
         <f>MarchRaw!C50</f>
@@ -32981,31 +32981,31 @@
       </c>
       <c r="D50" s="10">
         <f>MarchRaw!D50</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E50" s="10">
         <f>MarchRaw!E50</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F50" s="10">
         <f>MarchRaw!F50</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G50" s="10">
         <f>MarchRaw!G50</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H50" s="10">
         <f>MarchRaw!H50</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50" s="10">
         <f>MarchRaw!I50</f>
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="J50" s="11">
         <f>MarchRaw!J50</f>
-        <v>0</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -33014,7 +33014,7 @@
       </c>
       <c r="B51" s="7">
         <f>MarchRaw!B51</f>
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="C51" s="7">
         <f>MarchRaw!C51</f>
@@ -33022,19 +33022,19 @@
       </c>
       <c r="D51" s="7">
         <f>MarchRaw!D51</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E51" s="7">
         <f>MarchRaw!E51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="7">
         <f>MarchRaw!F51</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G51" s="7">
         <f>MarchRaw!G51</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H51" s="7">
         <f>MarchRaw!H51</f>
@@ -33042,11 +33042,11 @@
       </c>
       <c r="I51" s="7">
         <f>MarchRaw!I51</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J51" s="8">
         <f>MarchRaw!J51</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="B52" s="10">
         <f>MarchRaw!B52</f>
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="C52" s="10">
         <f>MarchRaw!C52</f>
@@ -33063,19 +33063,19 @@
       </c>
       <c r="D52" s="10">
         <f>MarchRaw!D52</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E52" s="10">
         <f>MarchRaw!E52</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="10">
         <f>MarchRaw!F52</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G52" s="10">
         <f>MarchRaw!G52</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H52" s="10">
         <f>MarchRaw!H52</f>
@@ -33083,11 +33083,11 @@
       </c>
       <c r="I52" s="10">
         <f>MarchRaw!I52</f>
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="J52" s="11">
         <f>MarchRaw!J52</f>
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -33096,7 +33096,7 @@
       </c>
       <c r="B53" s="7">
         <f>MarchRaw!B53</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="C53" s="7">
         <f>MarchRaw!C53</f>
@@ -33104,31 +33104,31 @@
       </c>
       <c r="D53" s="7">
         <f>MarchRaw!D53</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E53" s="7">
         <f>MarchRaw!E53</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F53" s="7">
         <f>MarchRaw!F53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="7">
         <f>MarchRaw!G53</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H53" s="7">
         <f>MarchRaw!H53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
         <f>MarchRaw!I53</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J53" s="8">
         <f>MarchRaw!J53</f>
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="B54" s="10">
         <f>MarchRaw!B54</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C54" s="10">
         <f>MarchRaw!C54</f>
@@ -33145,7 +33145,7 @@
       </c>
       <c r="D54" s="10">
         <f>MarchRaw!D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="10">
         <f>MarchRaw!E54</f>
@@ -33153,11 +33153,11 @@
       </c>
       <c r="F54" s="10">
         <f>MarchRaw!F54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10">
         <f>MarchRaw!G54</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" s="10">
         <f>MarchRaw!H54</f>
@@ -33165,11 +33165,11 @@
       </c>
       <c r="I54" s="10">
         <f>MarchRaw!I54</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J54" s="11">
         <f>MarchRaw!J54</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -33178,7 +33178,7 @@
       </c>
       <c r="B55" s="7">
         <f>MarchRaw!B55</f>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="C55" s="7">
         <f>MarchRaw!C55</f>
@@ -33186,31 +33186,31 @@
       </c>
       <c r="D55" s="7">
         <f>MarchRaw!D55</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
         <f>MarchRaw!E55</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55" s="7">
         <f>MarchRaw!F55</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55" s="7">
         <f>MarchRaw!G55</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H55" s="7">
         <f>MarchRaw!H55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
         <f>MarchRaw!I55</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J55" s="8">
         <f>MarchRaw!J55</f>
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -33219,7 +33219,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -33227,31 +33227,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -33260,7 +33260,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -33268,19 +33268,19 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -33288,11 +33288,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -33301,7 +33301,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>38957</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -33309,31 +33309,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1892</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2949</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17484</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21473</v>
       </c>
     </row>
   </sheetData>
@@ -33345,12 +33345,1773 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0184AB-F943-4510-BD07-EF09AB50B3B5}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2710</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>140</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>720</v>
+      </c>
+      <c r="J2">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>74</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>322</v>
+      </c>
+      <c r="J3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3526</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>197</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>281</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>830</v>
+      </c>
+      <c r="J4">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>62</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3818</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>190</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>252</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1476</v>
+      </c>
+      <c r="J6">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>432</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>282</v>
+      </c>
+      <c r="J7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>252</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>168</v>
+      </c>
+      <c r="J8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>190</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>190</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>354</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>242</v>
+      </c>
+      <c r="J13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>326</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>226</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>184</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>156</v>
+      </c>
+      <c r="J15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1306</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>85</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>526</v>
+      </c>
+      <c r="J17">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>276</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1036</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <v>92</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>554</v>
+      </c>
+      <c r="J19">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1118</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>53</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>83</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>628</v>
+      </c>
+      <c r="J21">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1622</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>147</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>76</v>
+      </c>
+      <c r="G23">
+        <v>229</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>506</v>
+      </c>
+      <c r="J23">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>4458</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>261</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>77</v>
+      </c>
+      <c r="G24">
+        <v>343</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1280</v>
+      </c>
+      <c r="J24">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>334</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>188</v>
+      </c>
+      <c r="J25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>496</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>302</v>
+      </c>
+      <c r="J27">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>92</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>72</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>768</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>426</v>
+      </c>
+      <c r="J29">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>140</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>118</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>230</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>32</v>
+      </c>
+      <c r="J31">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1108</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <v>182</v>
+      </c>
+      <c r="H32">
+        <v>47</v>
+      </c>
+      <c r="I32">
+        <v>878</v>
+      </c>
+      <c r="J32">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>946</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>81</v>
+      </c>
+      <c r="G33">
+        <v>103</v>
+      </c>
+      <c r="H33">
+        <v>37</v>
+      </c>
+      <c r="I33">
+        <v>724</v>
+      </c>
+      <c r="J33">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>606</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>108</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>119</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>456</v>
+      </c>
+      <c r="J34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2422</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>217</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <v>270</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>1256</v>
+      </c>
+      <c r="J35">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>532</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>278</v>
+      </c>
+      <c r="J36">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1230</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>146</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>168</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>680</v>
+      </c>
+      <c r="J37">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>18</v>
+      </c>
+      <c r="J38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>410</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>74</v>
+      </c>
+      <c r="J39">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>36</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>144</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>144</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>138</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>92</v>
+      </c>
+      <c r="J45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>742</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>28</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>490</v>
+      </c>
+      <c r="J46">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1402</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>38</v>
+      </c>
+      <c r="G47">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>544</v>
+      </c>
+      <c r="J47">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>388</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>206</v>
+      </c>
+      <c r="J48">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>480</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>234</v>
+      </c>
+      <c r="J49">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1576</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>27</v>
+      </c>
+      <c r="G50">
+        <v>83</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>854</v>
+      </c>
+      <c r="J50">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>406</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>206</v>
+      </c>
+      <c r="J51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>1022</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>21</v>
+      </c>
+      <c r="G52">
+        <v>37</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>632</v>
+      </c>
+      <c r="J52">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>222</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>14</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>74</v>
+      </c>
+      <c r="J53">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>12</v>
+      </c>
+      <c r="J54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>318</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86471FF-8AA8-45CE-8312-6B34E91297A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C7F94-732F-45DB-9A5A-D25D2AC12447}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="103">
   <si>
     <t>Library</t>
   </si>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>8258</v>
+        <v>10892</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1034,31 +1034,31 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>490</v>
+        <v>613</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>2128</v>
+        <v>2642</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>6130</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>2830</v>
+        <v>3614</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>1156</v>
+        <v>1414</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>1674</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>9944</v>
+        <v>12874</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1116,31 +1116,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>521</v>
+        <v>697</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>725</v>
+        <v>967</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>2538</v>
+        <v>3436</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>7406</v>
+        <v>9438</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1165,11 +1165,11 @@
       </c>
       <c r="F5" s="7">
         <f>January!F5+February!F5+March!F5+April!F5+May!F5+June!F5+July!F5+August!F5+September!F5+October!F5+November!F5+December!F5</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="7">
         <f>January!G5+February!G5+March!G5+April!G5+May!G5+June!G5+July!G5+August!G5+September!G5+October!G5+November!G5+December!G5</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7">
         <f>January!H5+February!H5+March!H5+April!H5+May!H5+June!H5+July!H5+August!H5+September!H5+October!H5+November!H5+December!H5</f>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>10818</v>
+        <v>14092</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>575</v>
+        <v>822</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>843</v>
+        <v>1146</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>4268</v>
+        <v>5504</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>6550</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1394</v>
+        <v>1746</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1247,23 +1247,23 @@
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>692</v>
+        <v>914</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>702</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>670</v>
+        <v>856</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
@@ -1288,23 +1288,23 @@
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>302</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1329,11 +1329,11 @@
       </c>
       <c r="F9" s="7">
         <f>January!F9+February!F9+March!F9+April!F9+May!F9+June!F9+July!F9+August!F9+September!F9+October!F9+November!F9+December!F9</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B10" s="10">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I10" s="10">
         <f>January!I10+February!I10+March!I10+April!I10+May!I10+June!I10+July!I10+August!I10+September!I10+October!I10+November!I10+December!I10</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J10" s="11">
         <f>January!J10+February!J10+March!J10+April!J10+May!J10+June!J10+July!J10+August!J10+September!J10+October!J10+November!J10+December!J10</f>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>660</v>
+        <v>806</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
@@ -1464,11 +1464,11 @@
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>970</v>
+        <v>1088</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>924</v>
+        <v>1232</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1526,19 +1526,19 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
@@ -1546,11 +1546,11 @@
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>668</v>
+        <v>896</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>256</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>386</v>
+        <v>688</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1567,19 +1567,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>304</v>
+        <v>520</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>82</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1628,11 +1628,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>3744</v>
+        <v>4902</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1649,19 +1649,19 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
@@ -1669,11 +1669,11 @@
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>1682</v>
+        <v>2280</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>2062</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>630</v>
+        <v>726</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
@@ -1710,11 +1710,11 @@
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>532</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>3228</v>
+        <v>4176</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1731,31 +1731,31 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>1698</v>
+        <v>2322</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>1530</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>3246</v>
+        <v>4180</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1813,19 +1813,19 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>311</v>
+        <v>388</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
@@ -1833,11 +1833,11 @@
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>1866</v>
+        <v>2342</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>1380</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1858,15 +1858,15 @@
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>4306</v>
+        <v>5646</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1895,31 +1895,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>1396</v>
+        <v>1834</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>2910</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>12434</v>
+        <v>16264</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1936,31 +1936,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>589</v>
+        <v>809</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>900</v>
+        <v>1195</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>3522</v>
+        <v>4502</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>8912</v>
+        <v>11762</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1042</v>
+        <v>1330</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
@@ -1985,23 +1985,23 @@
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>556</v>
+        <v>654</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>486</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1384</v>
+        <v>1704</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2059,31 +2059,31 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>768</v>
+        <v>974</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>616</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2100,19 +2100,19 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="10">
         <f>January!F28+February!F28+March!F28+April!F28+May!F28+June!F28+July!F28+August!F28+September!F28+October!F28+November!F28+December!F28</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>2586</v>
+        <v>3216</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2149,11 +2149,11 @@
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2161,11 +2161,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>1146</v>
+        <v>1408</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>1440</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2186,15 +2186,15 @@
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
@@ -2202,11 +2202,11 @@
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>432</v>
+        <v>628</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2223,31 +2223,31 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>324</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>3122</v>
+        <v>4418</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2264,31 +2264,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>270</v>
+        <v>376</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>552</v>
+        <v>728</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>2412</v>
+        <v>3148</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>710</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>2986</v>
+        <v>3788</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2305,31 +2305,31 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>2102</v>
+        <v>2694</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>884</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1472</v>
+        <v>1884</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2346,19 +2346,19 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2366,11 +2366,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>988</v>
+        <v>1328</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>484</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>6826</v>
+        <v>8928</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2387,31 +2387,31 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>540</v>
+        <v>717</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>732</v>
+        <v>982</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>3184</v>
+        <v>4094</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>3642</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1282</v>
+        <v>1620</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2428,19 +2428,19 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
@@ -2448,11 +2448,11 @@
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>714</v>
+        <v>876</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>568</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>3410</v>
+        <v>4418</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2469,31 +2469,31 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>333</v>
+        <v>476</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>434</v>
+        <v>606</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>1942</v>
+        <v>2636</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>1468</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="D38" s="10">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="10">
         <f>January!E38+February!E38+March!E38+April!E38+May!E38+June!E38+July!E38+August!E38+September!E38+October!E38+November!E38+December!E38</f>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2530,11 +2530,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>702</v>
+        <v>980</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2551,19 +2551,19 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
@@ -2571,11 +2571,11 @@
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>544</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B40" s="19">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C40" s="19">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="D40" s="19">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="19">
         <f>January!E40+February!E40+March!E40+April!E40+May!E40+June!E40+July!E40+August!E40+September!E40+October!E40+November!E40+December!E40</f>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="F40" s="19">
         <f>January!F40+February!F40+March!F40+April!F40+May!F40+June!F40+July!F40+August!F40+September!F40+October!F40+November!F40+December!F40</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="19">
         <f>January!G40+February!G40+March!G40+April!G40+May!G40+June!G40+July!G40+August!G40+September!G40+October!G40+November!G40+December!G40</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H40" s="19">
         <f>January!H40+February!H40+March!H40+April!H40+May!H40+June!H40+July!H40+August!H40+September!H40+October!H40+November!H40+December!H40</f>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="I40" s="19">
         <f>January!I40+February!I40+March!I40+April!I40+May!I40+June!I40+July!I40+August!I40+September!I40+October!I40+November!I40+December!I40</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J40" s="20">
         <f>January!J40+February!J40+March!J40+April!J40+May!J40+June!J40+July!J40+August!J40+September!J40+October!J40+November!J40+December!J40</f>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B41" s="22">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>384</v>
+        <v>502</v>
       </c>
       <c r="C41" s="22">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I41" s="22">
         <f>January!I41+February!I41+March!I41+April!I41+May!I41+June!I41+July!I41+August!I41+September!I41+October!I41+November!I41+December!I41</f>
-        <v>384</v>
+        <v>502</v>
       </c>
       <c r="J41" s="23">
         <f>January!J41+February!J41+March!J41+April!J41+May!J41+June!J41+July!J41+August!J41+September!J41+October!J41+November!J41+December!J41</f>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B42" s="19">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C42" s="19">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
@@ -2682,11 +2682,11 @@
       </c>
       <c r="F42" s="19">
         <f>January!F42+February!F42+March!F42+April!F42+May!F42+June!F42+July!F42+August!F42+September!F42+October!F42+November!F42+December!F42</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G42" s="19">
         <f>January!G42+February!G42+March!G42+April!G42+May!G42+June!G42+July!G42+August!G42+September!G42+October!G42+November!G42+December!G42</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H42" s="19">
         <f>January!H42+February!H42+March!H42+April!H42+May!H42+June!H42+July!H42+August!H42+September!H42+October!H42+November!H42+December!H42</f>
@@ -2694,11 +2694,11 @@
       </c>
       <c r="I42" s="19">
         <f>January!I42+February!I42+March!I42+April!I42+May!I42+June!I42+July!I42+August!I42+September!I42+October!I42+November!I42+December!I42</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J42" s="20">
         <f>January!J42+February!J42+March!J42+April!J42+May!J42+June!J42+July!J42+August!J42+September!J42+October!J42+November!J42+December!J42</f>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B43" s="22">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C43" s="22">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
@@ -2723,11 +2723,11 @@
       </c>
       <c r="F43" s="22">
         <f>January!F43+February!F43+March!F43+April!F43+May!F43+June!F43+July!F43+August!F43+September!F43+October!F43+November!F43+December!F43</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="22">
         <f>January!G43+February!G43+March!G43+April!G43+May!G43+June!G43+July!G43+August!G43+September!G43+October!G43+November!G43+December!G43</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H43" s="22">
         <f>January!H43+February!H43+March!H43+April!H43+May!H43+June!H43+July!H43+August!H43+September!H43+October!H43+November!H43+December!H43</f>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="I43" s="22">
         <f>January!I43+February!I43+March!I43+April!I43+May!I43+June!I43+July!I43+August!I43+September!I43+October!I43+November!I43+December!I43</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J43" s="23">
         <f>January!J43+February!J43+March!J43+April!J43+May!J43+June!J43+July!J43+August!J43+September!J43+October!J43+November!J43+December!J43</f>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E44" s="19">
         <f>January!E44+February!E44+March!E44+April!E44+May!E44+June!E44+July!E44+August!E44+September!E44+October!E44+November!E44+December!E44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="19">
         <f>January!F44+February!F44+March!F44+April!F44+May!F44+June!F44+July!F44+August!F44+September!F44+October!F44+November!F44+December!F44</f>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="G44" s="19">
         <f>January!G44+February!G44+March!G44+April!G44+May!G44+June!G44+July!G44+August!G44+September!G44+October!G44+November!G44+December!G44</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="19">
         <f>January!H44+February!H44+March!H44+April!H44+May!H44+June!H44+July!H44+August!H44+September!H44+October!H44+November!H44+December!H44</f>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>422</v>
+        <v>580</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D45" s="7">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="7">
         <f>January!E45+February!E45+March!E45+April!E45+May!E45+June!E45+July!E45+August!E45+September!E45+October!E45+November!E45+December!E45</f>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2817,11 +2817,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>185</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>2240</v>
+        <v>2888</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2838,19 +2838,19 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>1360</v>
+        <v>1828</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>880</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>4732</v>
+        <v>6052</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
@@ -2887,11 +2887,11 @@
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
@@ -2899,11 +2899,11 @@
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>1542</v>
+        <v>1942</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>3190</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>1346</v>
+        <v>1614</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2920,31 +2920,31 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>586</v>
+        <v>716</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>760</v>
+        <v>898</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>1630</v>
+        <v>2196</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2961,19 +2961,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>798</v>
+        <v>1102</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>832</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>5174</v>
+        <v>6822</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3002,31 +3002,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>2344</v>
+        <v>3108</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>2830</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1156</v>
+        <v>1498</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3043,31 +3043,31 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>602</v>
+        <v>810</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>554</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>2888</v>
+        <v>3790</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3084,31 +3084,31 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>1856</v>
+        <v>2404</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>1032</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>516</v>
+        <v>688</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3125,19 +3125,19 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3145,11 +3145,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>314</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3186,11 +3186,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>902</v>
+        <v>1204</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3207,19 +3207,19 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
@@ -3227,11 +3227,11 @@
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>308</v>
+        <v>452</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>594</v>
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>2940</v>
+        <v>3814</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3248,19 +3248,19 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -3268,11 +3268,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>2392</v>
+        <v>3076</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>766</v>
+        <v>893</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -3289,19 +3289,19 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -3309,11 +3309,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>657</v>
+        <v>782</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>113111</v>
+        <v>147020</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3330,31 +3330,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>5072</v>
+        <v>6655</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>534</v>
+        <v>639</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>3034</v>
+        <v>3837</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>8640</v>
+        <v>11131</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>627</v>
+        <v>724</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>49567</v>
+        <v>64328</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>63544</v>
+        <v>82692</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3376,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35172,7 +35172,7 @@
       </c>
       <c r="B2" s="4">
         <f>AprilRaw!B2</f>
-        <v>0</v>
+        <v>2634</v>
       </c>
       <c r="C2" s="4">
         <f>AprilRaw!C2</f>
@@ -35180,31 +35180,31 @@
       </c>
       <c r="D2" s="4">
         <f>AprilRaw!D2</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4">
         <f>AprilRaw!E2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <f>AprilRaw!F2</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G2" s="4">
         <f>AprilRaw!G2</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="H2" s="4">
         <f>AprilRaw!H2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4">
         <f>AprilRaw!I2</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="J2" s="5">
         <f>AprilRaw!J2</f>
-        <v>0</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -35213,7 +35213,7 @@
       </c>
       <c r="B3" s="7">
         <f>AprilRaw!B3</f>
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="C3" s="7">
         <f>AprilRaw!C3</f>
@@ -35221,7 +35221,7 @@
       </c>
       <c r="D3" s="7">
         <f>AprilRaw!D3</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7">
         <f>AprilRaw!E3</f>
@@ -35229,11 +35229,11 @@
       </c>
       <c r="F3" s="7">
         <f>AprilRaw!F3</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7">
         <f>AprilRaw!G3</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H3" s="7">
         <f>AprilRaw!H3</f>
@@ -35241,11 +35241,11 @@
       </c>
       <c r="I3" s="7">
         <f>AprilRaw!I3</f>
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="J3" s="8">
         <f>AprilRaw!J3</f>
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -35254,7 +35254,7 @@
       </c>
       <c r="B4" s="10">
         <f>AprilRaw!B4</f>
-        <v>0</v>
+        <v>2930</v>
       </c>
       <c r="C4" s="10">
         <f>AprilRaw!C4</f>
@@ -35262,31 +35262,31 @@
       </c>
       <c r="D4" s="10">
         <f>AprilRaw!D4</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="E4" s="10">
         <f>AprilRaw!E4</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10">
         <f>AprilRaw!F4</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G4" s="10">
         <f>AprilRaw!G4</f>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="H4" s="10">
         <f>AprilRaw!H4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="10">
         <f>AprilRaw!I4</f>
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="J4" s="11">
         <f>AprilRaw!J4</f>
-        <v>0</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -35295,7 +35295,7 @@
       </c>
       <c r="B5" s="7">
         <f>AprilRaw!B5</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7">
         <f>AprilRaw!C5</f>
@@ -35311,11 +35311,11 @@
       </c>
       <c r="F5" s="7">
         <f>AprilRaw!F5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7">
         <f>AprilRaw!G5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7">
         <f>AprilRaw!H5</f>
@@ -35323,11 +35323,11 @@
       </c>
       <c r="I5" s="7">
         <f>AprilRaw!I5</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J5" s="8">
         <f>AprilRaw!J5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -35336,7 +35336,7 @@
       </c>
       <c r="B6" s="10">
         <f>AprilRaw!B6</f>
-        <v>0</v>
+        <v>3274</v>
       </c>
       <c r="C6" s="10">
         <f>AprilRaw!C6</f>
@@ -35344,31 +35344,31 @@
       </c>
       <c r="D6" s="10">
         <f>AprilRaw!D6</f>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E6" s="10">
         <f>AprilRaw!E6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10">
         <f>AprilRaw!F6</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G6" s="10">
         <f>AprilRaw!G6</f>
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="H6" s="10">
         <f>AprilRaw!H6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="10">
         <f>AprilRaw!I6</f>
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="J6" s="11">
         <f>AprilRaw!J6</f>
-        <v>0</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -35377,7 +35377,7 @@
       </c>
       <c r="B7" s="7">
         <f>AprilRaw!B7</f>
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="C7" s="7">
         <f>AprilRaw!C7</f>
@@ -35393,23 +35393,23 @@
       </c>
       <c r="F7" s="7">
         <f>AprilRaw!F7</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7">
         <f>AprilRaw!G7</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <f>AprilRaw!H7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
         <f>AprilRaw!I7</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J7" s="8">
         <f>AprilRaw!J7</f>
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -35418,7 +35418,7 @@
       </c>
       <c r="B8" s="10">
         <f>AprilRaw!B8</f>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C8" s="10">
         <f>AprilRaw!C8</f>
@@ -35426,7 +35426,7 @@
       </c>
       <c r="D8" s="10">
         <f>AprilRaw!D8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
         <f>AprilRaw!E8</f>
@@ -35434,23 +35434,23 @@
       </c>
       <c r="F8" s="10">
         <f>AprilRaw!F8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="10">
         <f>AprilRaw!G8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="10">
         <f>AprilRaw!H8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="10">
         <f>AprilRaw!I8</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J8" s="11">
         <f>AprilRaw!J8</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="B9" s="7">
         <f>AprilRaw!B9</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C9" s="7">
         <f>AprilRaw!C9</f>
@@ -35467,7 +35467,7 @@
       </c>
       <c r="D9" s="7">
         <f>AprilRaw!D9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <f>AprilRaw!E9</f>
@@ -35475,11 +35475,11 @@
       </c>
       <c r="F9" s="7">
         <f>AprilRaw!F9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
         <f>AprilRaw!G9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="7">
         <f>AprilRaw!H9</f>
@@ -35487,11 +35487,11 @@
       </c>
       <c r="I9" s="7">
         <f>AprilRaw!I9</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J9" s="8">
         <f>AprilRaw!J9</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -35500,7 +35500,7 @@
       </c>
       <c r="B10" s="10">
         <f>AprilRaw!B10</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10">
         <f>AprilRaw!C10</f>
@@ -35528,7 +35528,7 @@
       </c>
       <c r="I10" s="10">
         <f>AprilRaw!I10</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="11">
         <f>AprilRaw!J10</f>
@@ -35582,7 +35582,7 @@
       </c>
       <c r="B12" s="13">
         <f>AprilRaw!B12</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C12" s="13">
         <f>AprilRaw!C12</f>
@@ -35590,7 +35590,7 @@
       </c>
       <c r="D12" s="13">
         <f>AprilRaw!D12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="13">
         <f>AprilRaw!E12</f>
@@ -35598,11 +35598,11 @@
       </c>
       <c r="F12" s="13">
         <f>AprilRaw!F12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="13">
         <f>AprilRaw!G12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="13">
         <f>AprilRaw!H12</f>
@@ -35610,11 +35610,11 @@
       </c>
       <c r="I12" s="13">
         <f>AprilRaw!I12</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J12" s="14">
         <f>AprilRaw!J12</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -35623,7 +35623,7 @@
       </c>
       <c r="B13" s="16">
         <f>AprilRaw!B13</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C13" s="16">
         <f>AprilRaw!C13</f>
@@ -35639,11 +35639,11 @@
       </c>
       <c r="F13" s="16">
         <f>AprilRaw!F13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="16">
         <f>AprilRaw!G13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="16">
         <f>AprilRaw!H13</f>
@@ -35651,11 +35651,11 @@
       </c>
       <c r="I13" s="16">
         <f>AprilRaw!I13</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J13" s="17">
         <f>AprilRaw!J13</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -35664,7 +35664,7 @@
       </c>
       <c r="B14" s="13">
         <f>AprilRaw!B14</f>
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="C14" s="13">
         <f>AprilRaw!C14</f>
@@ -35672,19 +35672,19 @@
       </c>
       <c r="D14" s="13">
         <f>AprilRaw!D14</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14" s="13">
         <f>AprilRaw!E14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="13">
         <f>AprilRaw!F14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G14" s="13">
         <f>AprilRaw!G14</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H14" s="13">
         <f>AprilRaw!H14</f>
@@ -35692,11 +35692,11 @@
       </c>
       <c r="I14" s="13">
         <f>AprilRaw!I14</f>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="J14" s="14">
         <f>AprilRaw!J14</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -35705,7 +35705,7 @@
       </c>
       <c r="B15" s="16">
         <f>AprilRaw!B15</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="C15" s="16">
         <f>AprilRaw!C15</f>
@@ -35713,19 +35713,19 @@
       </c>
       <c r="D15" s="16">
         <f>AprilRaw!D15</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15" s="16">
         <f>AprilRaw!E15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="16">
         <f>AprilRaw!F15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="16">
         <f>AprilRaw!G15</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H15" s="16">
         <f>AprilRaw!H15</f>
@@ -35733,11 +35733,11 @@
       </c>
       <c r="I15" s="16">
         <f>AprilRaw!I15</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="J15" s="17">
         <f>AprilRaw!J15</f>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -35746,7 +35746,7 @@
       </c>
       <c r="B16" s="10">
         <f>AprilRaw!B16</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C16" s="10">
         <f>AprilRaw!C16</f>
@@ -35754,7 +35754,7 @@
       </c>
       <c r="D16" s="10">
         <f>AprilRaw!D16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="10">
         <f>AprilRaw!E16</f>
@@ -35766,7 +35766,7 @@
       </c>
       <c r="G16" s="10">
         <f>AprilRaw!G16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="10">
         <f>AprilRaw!H16</f>
@@ -35774,11 +35774,11 @@
       </c>
       <c r="I16" s="10">
         <f>AprilRaw!I16</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J16" s="11">
         <f>AprilRaw!J16</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -35787,7 +35787,7 @@
       </c>
       <c r="B17" s="7">
         <f>AprilRaw!B17</f>
-        <v>0</v>
+        <v>1158</v>
       </c>
       <c r="C17" s="7">
         <f>AprilRaw!C17</f>
@@ -35795,19 +35795,19 @@
       </c>
       <c r="D17" s="7">
         <f>AprilRaw!D17</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7">
         <f>AprilRaw!E17</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7">
         <f>AprilRaw!F17</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7">
         <f>AprilRaw!G17</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H17" s="7">
         <f>AprilRaw!H17</f>
@@ -35815,11 +35815,11 @@
       </c>
       <c r="I17" s="7">
         <f>AprilRaw!I17</f>
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="J17" s="8">
         <f>AprilRaw!J17</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -35828,7 +35828,7 @@
       </c>
       <c r="B18" s="10">
         <f>AprilRaw!B18</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C18" s="10">
         <f>AprilRaw!C18</f>
@@ -35836,7 +35836,7 @@
       </c>
       <c r="D18" s="10">
         <f>AprilRaw!D18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10">
         <f>AprilRaw!E18</f>
@@ -35848,7 +35848,7 @@
       </c>
       <c r="G18" s="10">
         <f>AprilRaw!G18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="10">
         <f>AprilRaw!H18</f>
@@ -35856,11 +35856,11 @@
       </c>
       <c r="I18" s="10">
         <f>AprilRaw!I18</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J18" s="11">
         <f>AprilRaw!J18</f>
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="B19" s="7">
         <f>AprilRaw!B19</f>
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="C19" s="7">
         <f>AprilRaw!C19</f>
@@ -35877,31 +35877,31 @@
       </c>
       <c r="D19" s="7">
         <f>AprilRaw!D19</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7">
         <f>AprilRaw!E19</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" s="7">
         <f>AprilRaw!F19</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G19" s="7">
         <f>AprilRaw!G19</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7">
         <f>AprilRaw!H19</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
         <f>AprilRaw!I19</f>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="J19" s="8">
         <f>AprilRaw!J19</f>
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -35951,7 +35951,7 @@
       </c>
       <c r="B21" s="7">
         <f>AprilRaw!B21</f>
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="C21" s="7">
         <f>AprilRaw!C21</f>
@@ -35959,19 +35959,19 @@
       </c>
       <c r="D21" s="7">
         <f>AprilRaw!D21</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E21" s="7">
         <f>AprilRaw!E21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
         <f>AprilRaw!F21</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G21" s="7">
         <f>AprilRaw!G21</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <f>AprilRaw!H21</f>
@@ -35979,11 +35979,11 @@
       </c>
       <c r="I21" s="7">
         <f>AprilRaw!I21</f>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="J21" s="8">
         <f>AprilRaw!J21</f>
-        <v>0</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -35992,7 +35992,7 @@
       </c>
       <c r="B22" s="10">
         <f>AprilRaw!B22</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10">
         <f>AprilRaw!C22</f>
@@ -36004,15 +36004,15 @@
       </c>
       <c r="E22" s="10">
         <f>AprilRaw!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10">
         <f>AprilRaw!F22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="10">
         <f>AprilRaw!G22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="10">
         <f>AprilRaw!H22</f>
@@ -36020,11 +36020,11 @@
       </c>
       <c r="I22" s="10">
         <f>AprilRaw!I22</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J22" s="11">
         <f>AprilRaw!J22</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -36033,7 +36033,7 @@
       </c>
       <c r="B23" s="7">
         <f>AprilRaw!B23</f>
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="C23" s="7">
         <f>AprilRaw!C23</f>
@@ -36041,31 +36041,31 @@
       </c>
       <c r="D23" s="7">
         <f>AprilRaw!D23</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E23" s="7">
         <f>AprilRaw!E23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="7">
         <f>AprilRaw!F23</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G23" s="7">
         <f>AprilRaw!G23</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <f>AprilRaw!H23</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
         <f>AprilRaw!I23</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="J23" s="8">
         <f>AprilRaw!J23</f>
-        <v>0</v>
+        <v>902</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -36074,7 +36074,7 @@
       </c>
       <c r="B24" s="10">
         <f>AprilRaw!B24</f>
-        <v>0</v>
+        <v>3830</v>
       </c>
       <c r="C24" s="10">
         <f>AprilRaw!C24</f>
@@ -36082,31 +36082,31 @@
       </c>
       <c r="D24" s="10">
         <f>AprilRaw!D24</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E24" s="10">
         <f>AprilRaw!E24</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F24" s="10">
         <f>AprilRaw!F24</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G24" s="10">
         <f>AprilRaw!G24</f>
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="H24" s="10">
         <f>AprilRaw!H24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" s="10">
         <f>AprilRaw!I24</f>
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="J24" s="11">
         <f>AprilRaw!J24</f>
-        <v>0</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -36115,7 +36115,7 @@
       </c>
       <c r="B25" s="7">
         <f>AprilRaw!B25</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="C25" s="7">
         <f>AprilRaw!C25</f>
@@ -36123,7 +36123,7 @@
       </c>
       <c r="D25" s="7">
         <f>AprilRaw!D25</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E25" s="7">
         <f>AprilRaw!E25</f>
@@ -36131,23 +36131,23 @@
       </c>
       <c r="F25" s="7">
         <f>AprilRaw!F25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7">
         <f>AprilRaw!G25</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H25" s="7">
         <f>AprilRaw!H25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
         <f>AprilRaw!I25</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J25" s="8">
         <f>AprilRaw!J25</f>
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -36197,7 +36197,7 @@
       </c>
       <c r="B27" s="7">
         <f>AprilRaw!B27</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C27" s="7">
         <f>AprilRaw!C27</f>
@@ -36205,31 +36205,31 @@
       </c>
       <c r="D27" s="7">
         <f>AprilRaw!D27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7">
         <f>AprilRaw!E27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="7">
         <f>AprilRaw!F27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="7">
         <f>AprilRaw!G27</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H27" s="7">
         <f>AprilRaw!H27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
         <f>AprilRaw!I27</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J27" s="8">
         <f>AprilRaw!J27</f>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -36238,7 +36238,7 @@
       </c>
       <c r="B28" s="10">
         <f>AprilRaw!B28</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C28" s="10">
         <f>AprilRaw!C28</f>
@@ -36246,19 +36246,19 @@
       </c>
       <c r="D28" s="10">
         <f>AprilRaw!D28</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="10">
         <f>AprilRaw!E28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="10">
         <f>AprilRaw!F28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
         <f>AprilRaw!G28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28" s="10">
         <f>AprilRaw!H28</f>
@@ -36266,11 +36266,11 @@
       </c>
       <c r="I28" s="10">
         <f>AprilRaw!I28</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J28" s="11">
         <f>AprilRaw!J28</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -36279,7 +36279,7 @@
       </c>
       <c r="B29" s="7">
         <f>AprilRaw!B29</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C29" s="7">
         <f>AprilRaw!C29</f>
@@ -36295,11 +36295,11 @@
       </c>
       <c r="F29" s="7">
         <f>AprilRaw!F29</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G29" s="7">
         <f>AprilRaw!G29</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H29" s="7">
         <f>AprilRaw!H29</f>
@@ -36307,11 +36307,11 @@
       </c>
       <c r="I29" s="7">
         <f>AprilRaw!I29</f>
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J29" s="8">
         <f>AprilRaw!J29</f>
-        <v>0</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -36320,7 +36320,7 @@
       </c>
       <c r="B30" s="10">
         <f>AprilRaw!B30</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C30" s="10">
         <f>AprilRaw!C30</f>
@@ -36332,15 +36332,15 @@
       </c>
       <c r="E30" s="10">
         <f>AprilRaw!E30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
         <f>AprilRaw!F30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="10">
         <f>AprilRaw!G30</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="10">
         <f>AprilRaw!H30</f>
@@ -36348,11 +36348,11 @@
       </c>
       <c r="I30" s="10">
         <f>AprilRaw!I30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J30" s="11">
         <f>AprilRaw!J30</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -36361,7 +36361,7 @@
       </c>
       <c r="B31" s="7">
         <f>AprilRaw!B31</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C31" s="7">
         <f>AprilRaw!C31</f>
@@ -36369,31 +36369,31 @@
       </c>
       <c r="D31" s="7">
         <f>AprilRaw!D31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <f>AprilRaw!E31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="7">
         <f>AprilRaw!F31</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31" s="7">
         <f>AprilRaw!G31</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H31" s="7">
         <f>AprilRaw!H31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
         <f>AprilRaw!I31</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J31" s="8">
         <f>AprilRaw!J31</f>
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -36402,7 +36402,7 @@
       </c>
       <c r="B32" s="10">
         <f>AprilRaw!B32</f>
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="C32" s="10">
         <f>AprilRaw!C32</f>
@@ -36410,31 +36410,31 @@
       </c>
       <c r="D32" s="10">
         <f>AprilRaw!D32</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E32" s="10">
         <f>AprilRaw!E32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="10">
         <f>AprilRaw!F32</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G32" s="10">
         <f>AprilRaw!G32</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H32" s="10">
         <f>AprilRaw!H32</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I32" s="10">
         <f>AprilRaw!I32</f>
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="J32" s="11">
         <f>AprilRaw!J32</f>
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -36443,7 +36443,7 @@
       </c>
       <c r="B33" s="7">
         <f>AprilRaw!B33</f>
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="C33" s="7">
         <f>AprilRaw!C33</f>
@@ -36451,31 +36451,31 @@
       </c>
       <c r="D33" s="7">
         <f>AprilRaw!D33</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33" s="7">
         <f>AprilRaw!E33</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="7">
         <f>AprilRaw!F33</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7">
         <f>AprilRaw!G33</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <f>AprilRaw!H33</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I33" s="7">
         <f>AprilRaw!I33</f>
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="J33" s="8">
         <f>AprilRaw!J33</f>
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -36484,7 +36484,7 @@
       </c>
       <c r="B34" s="10">
         <f>AprilRaw!B34</f>
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="C34" s="10">
         <f>AprilRaw!C34</f>
@@ -36492,19 +36492,19 @@
       </c>
       <c r="D34" s="10">
         <f>AprilRaw!D34</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E34" s="10">
         <f>AprilRaw!E34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="10">
         <f>AprilRaw!F34</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" s="10">
         <f>AprilRaw!G34</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H34" s="10">
         <f>AprilRaw!H34</f>
@@ -36512,11 +36512,11 @@
       </c>
       <c r="I34" s="10">
         <f>AprilRaw!I34</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="J34" s="11">
         <f>AprilRaw!J34</f>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -36525,7 +36525,7 @@
       </c>
       <c r="B35" s="7">
         <f>AprilRaw!B35</f>
-        <v>0</v>
+        <v>2102</v>
       </c>
       <c r="C35" s="7">
         <f>AprilRaw!C35</f>
@@ -36533,31 +36533,31 @@
       </c>
       <c r="D35" s="7">
         <f>AprilRaw!D35</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="E35" s="7">
         <f>AprilRaw!E35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35" s="7">
         <f>AprilRaw!F35</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G35" s="7">
         <f>AprilRaw!G35</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H35" s="7">
         <f>AprilRaw!H35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
         <f>AprilRaw!I35</f>
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J35" s="8">
         <f>AprilRaw!J35</f>
-        <v>0</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -36566,7 +36566,7 @@
       </c>
       <c r="B36" s="10">
         <f>AprilRaw!B36</f>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="C36" s="10">
         <f>AprilRaw!C36</f>
@@ -36574,19 +36574,19 @@
       </c>
       <c r="D36" s="10">
         <f>AprilRaw!D36</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E36" s="10">
         <f>AprilRaw!E36</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="10">
         <f>AprilRaw!F36</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G36" s="10">
         <f>AprilRaw!G36</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H36" s="10">
         <f>AprilRaw!H36</f>
@@ -36594,11 +36594,11 @@
       </c>
       <c r="I36" s="10">
         <f>AprilRaw!I36</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J36" s="11">
         <f>AprilRaw!J36</f>
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -36607,7 +36607,7 @@
       </c>
       <c r="B37" s="7">
         <f>AprilRaw!B37</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="C37" s="7">
         <f>AprilRaw!C37</f>
@@ -36615,31 +36615,31 @@
       </c>
       <c r="D37" s="7">
         <f>AprilRaw!D37</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E37" s="7">
         <f>AprilRaw!E37</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37" s="7">
         <f>AprilRaw!F37</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G37" s="7">
         <f>AprilRaw!G37</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="H37" s="7">
         <f>AprilRaw!H37</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I37" s="7">
         <f>AprilRaw!I37</f>
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="J37" s="8">
         <f>AprilRaw!J37</f>
-        <v>0</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -36648,7 +36648,7 @@
       </c>
       <c r="B38" s="10">
         <f>AprilRaw!B38</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C38" s="10">
         <f>AprilRaw!C38</f>
@@ -36656,7 +36656,7 @@
       </c>
       <c r="D38" s="10">
         <f>AprilRaw!D38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="10">
         <f>AprilRaw!E38</f>
@@ -36664,11 +36664,11 @@
       </c>
       <c r="F38" s="10">
         <f>AprilRaw!F38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10">
         <f>AprilRaw!G38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="10">
         <f>AprilRaw!H38</f>
@@ -36676,11 +36676,11 @@
       </c>
       <c r="I38" s="10">
         <f>AprilRaw!I38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="11">
         <f>AprilRaw!J38</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -36689,7 +36689,7 @@
       </c>
       <c r="B39" s="7">
         <f>AprilRaw!B39</f>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="C39" s="7">
         <f>AprilRaw!C39</f>
@@ -36697,19 +36697,19 @@
       </c>
       <c r="D39" s="7">
         <f>AprilRaw!D39</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
         <f>AprilRaw!E39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="7">
         <f>AprilRaw!F39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7">
         <f>AprilRaw!G39</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H39" s="7">
         <f>AprilRaw!H39</f>
@@ -36717,11 +36717,11 @@
       </c>
       <c r="I39" s="7">
         <f>AprilRaw!I39</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J39" s="8">
         <f>AprilRaw!J39</f>
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -36730,7 +36730,7 @@
       </c>
       <c r="B40" s="19">
         <f>AprilRaw!B40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="19">
         <f>AprilRaw!C40</f>
@@ -36738,7 +36738,7 @@
       </c>
       <c r="D40" s="19">
         <f>AprilRaw!D40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="19">
         <f>AprilRaw!E40</f>
@@ -36746,11 +36746,11 @@
       </c>
       <c r="F40" s="19">
         <f>AprilRaw!F40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="19">
         <f>AprilRaw!G40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="19">
         <f>AprilRaw!H40</f>
@@ -36758,7 +36758,7 @@
       </c>
       <c r="I40" s="19">
         <f>AprilRaw!I40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="20">
         <f>AprilRaw!J40</f>
@@ -36771,7 +36771,7 @@
       </c>
       <c r="B41" s="22">
         <f>AprilRaw!B41</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C41" s="22">
         <f>AprilRaw!C41</f>
@@ -36779,7 +36779,7 @@
       </c>
       <c r="D41" s="22">
         <f>AprilRaw!D41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="22">
         <f>AprilRaw!E41</f>
@@ -36791,7 +36791,7 @@
       </c>
       <c r="G41" s="22">
         <f>AprilRaw!G41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="22">
         <f>AprilRaw!H41</f>
@@ -36799,7 +36799,7 @@
       </c>
       <c r="I41" s="22">
         <f>AprilRaw!I41</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J41" s="23">
         <f>AprilRaw!J41</f>
@@ -36812,7 +36812,7 @@
       </c>
       <c r="B42" s="19">
         <f>AprilRaw!B42</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42" s="19">
         <f>AprilRaw!C42</f>
@@ -36828,11 +36828,11 @@
       </c>
       <c r="F42" s="19">
         <f>AprilRaw!F42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="19">
         <f>AprilRaw!G42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="19">
         <f>AprilRaw!H42</f>
@@ -36840,11 +36840,11 @@
       </c>
       <c r="I42" s="19">
         <f>AprilRaw!I42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="20">
         <f>AprilRaw!J42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -36853,7 +36853,7 @@
       </c>
       <c r="B43" s="22">
         <f>AprilRaw!B43</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="22">
         <f>AprilRaw!C43</f>
@@ -36869,11 +36869,11 @@
       </c>
       <c r="F43" s="22">
         <f>AprilRaw!F43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="22">
         <f>AprilRaw!G43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="22">
         <f>AprilRaw!H43</f>
@@ -36881,7 +36881,7 @@
       </c>
       <c r="I43" s="22">
         <f>AprilRaw!I43</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" s="23">
         <f>AprilRaw!J43</f>
@@ -36906,7 +36906,7 @@
       </c>
       <c r="E44" s="19">
         <f>AprilRaw!E44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="19">
         <f>AprilRaw!F44</f>
@@ -36914,7 +36914,7 @@
       </c>
       <c r="G44" s="19">
         <f>AprilRaw!G44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="19">
         <f>AprilRaw!H44</f>
@@ -36935,7 +36935,7 @@
       </c>
       <c r="B45" s="7">
         <f>AprilRaw!B45</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C45" s="7">
         <f>AprilRaw!C45</f>
@@ -36943,7 +36943,7 @@
       </c>
       <c r="D45" s="7">
         <f>AprilRaw!D45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="7">
         <f>AprilRaw!E45</f>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="F45" s="7">
         <f>AprilRaw!F45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="7">
         <f>AprilRaw!G45</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45" s="7">
         <f>AprilRaw!H45</f>
@@ -36963,11 +36963,11 @@
       </c>
       <c r="I45" s="7">
         <f>AprilRaw!I45</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J45" s="8">
         <f>AprilRaw!J45</f>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -36976,7 +36976,7 @@
       </c>
       <c r="B46" s="10">
         <f>AprilRaw!B46</f>
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="C46" s="10">
         <f>AprilRaw!C46</f>
@@ -36984,19 +36984,19 @@
       </c>
       <c r="D46" s="10">
         <f>AprilRaw!D46</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E46" s="10">
         <f>AprilRaw!E46</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="10">
         <f>AprilRaw!F46</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G46" s="10">
         <f>AprilRaw!G46</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H46" s="10">
         <f>AprilRaw!H46</f>
@@ -37004,11 +37004,11 @@
       </c>
       <c r="I46" s="10">
         <f>AprilRaw!I46</f>
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="J46" s="11">
         <f>AprilRaw!J46</f>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -37017,7 +37017,7 @@
       </c>
       <c r="B47" s="7">
         <f>AprilRaw!B47</f>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="C47" s="7">
         <f>AprilRaw!C47</f>
@@ -37025,7 +37025,7 @@
       </c>
       <c r="D47" s="7">
         <f>AprilRaw!D47</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47" s="7">
         <f>AprilRaw!E47</f>
@@ -37033,11 +37033,11 @@
       </c>
       <c r="F47" s="7">
         <f>AprilRaw!F47</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G47" s="7">
         <f>AprilRaw!G47</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H47" s="7">
         <f>AprilRaw!H47</f>
@@ -37045,11 +37045,11 @@
       </c>
       <c r="I47" s="7">
         <f>AprilRaw!I47</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J47" s="8">
         <f>AprilRaw!J47</f>
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -37058,7 +37058,7 @@
       </c>
       <c r="B48" s="10">
         <f>AprilRaw!B48</f>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="C48" s="10">
         <f>AprilRaw!C48</f>
@@ -37066,31 +37066,31 @@
       </c>
       <c r="D48" s="10">
         <f>AprilRaw!D48</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E48" s="10">
         <f>AprilRaw!E48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="10">
         <f>AprilRaw!F48</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G48" s="10">
         <f>AprilRaw!G48</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H48" s="10">
         <f>AprilRaw!H48</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" s="10">
         <f>AprilRaw!I48</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J48" s="11">
         <f>AprilRaw!J48</f>
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -37099,7 +37099,7 @@
       </c>
       <c r="B49" s="7">
         <f>AprilRaw!B49</f>
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="C49" s="7">
         <f>AprilRaw!C49</f>
@@ -37107,19 +37107,19 @@
       </c>
       <c r="D49" s="7">
         <f>AprilRaw!D49</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7">
         <f>AprilRaw!E49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="7">
         <f>AprilRaw!F49</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G49" s="7">
         <f>AprilRaw!G49</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H49" s="7">
         <f>AprilRaw!H49</f>
@@ -37127,11 +37127,11 @@
       </c>
       <c r="I49" s="7">
         <f>AprilRaw!I49</f>
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="J49" s="8">
         <f>AprilRaw!J49</f>
-        <v>0</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -37140,7 +37140,7 @@
       </c>
       <c r="B50" s="10">
         <f>AprilRaw!B50</f>
-        <v>0</v>
+        <v>1648</v>
       </c>
       <c r="C50" s="10">
         <f>AprilRaw!C50</f>
@@ -37148,31 +37148,31 @@
       </c>
       <c r="D50" s="10">
         <f>AprilRaw!D50</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E50" s="10">
         <f>AprilRaw!E50</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="10">
         <f>AprilRaw!F50</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G50" s="10">
         <f>AprilRaw!G50</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H50" s="10">
         <f>AprilRaw!H50</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I50" s="10">
         <f>AprilRaw!I50</f>
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="J50" s="11">
         <f>AprilRaw!J50</f>
-        <v>0</v>
+        <v>884</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="B51" s="7">
         <f>AprilRaw!B51</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="C51" s="7">
         <f>AprilRaw!C51</f>
@@ -37189,31 +37189,31 @@
       </c>
       <c r="D51" s="7">
         <f>AprilRaw!D51</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51" s="7">
         <f>AprilRaw!E51</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F51" s="7">
         <f>AprilRaw!F51</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G51" s="7">
         <f>AprilRaw!G51</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H51" s="7">
         <f>AprilRaw!H51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
         <f>AprilRaw!I51</f>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J51" s="8">
         <f>AprilRaw!J51</f>
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -37222,7 +37222,7 @@
       </c>
       <c r="B52" s="10">
         <f>AprilRaw!B52</f>
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="C52" s="10">
         <f>AprilRaw!C52</f>
@@ -37230,31 +37230,31 @@
       </c>
       <c r="D52" s="10">
         <f>AprilRaw!D52</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E52" s="10">
         <f>AprilRaw!E52</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F52" s="10">
         <f>AprilRaw!F52</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G52" s="10">
         <f>AprilRaw!G52</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H52" s="10">
         <f>AprilRaw!H52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="10">
         <f>AprilRaw!I52</f>
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="J52" s="11">
         <f>AprilRaw!J52</f>
-        <v>0</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -37263,7 +37263,7 @@
       </c>
       <c r="B53" s="7">
         <f>AprilRaw!B53</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C53" s="7">
         <f>AprilRaw!C53</f>
@@ -37271,19 +37271,19 @@
       </c>
       <c r="D53" s="7">
         <f>AprilRaw!D53</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E53" s="7">
         <f>AprilRaw!E53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="7">
         <f>AprilRaw!F53</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G53" s="7">
         <f>AprilRaw!G53</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H53" s="7">
         <f>AprilRaw!H53</f>
@@ -37291,11 +37291,11 @@
       </c>
       <c r="I53" s="7">
         <f>AprilRaw!I53</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J53" s="8">
         <f>AprilRaw!J53</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -37304,7 +37304,7 @@
       </c>
       <c r="B54" s="10">
         <f>AprilRaw!B54</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C54" s="10">
         <f>AprilRaw!C54</f>
@@ -37332,11 +37332,11 @@
       </c>
       <c r="I54" s="10">
         <f>AprilRaw!I54</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J54" s="11">
         <f>AprilRaw!J54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -37345,7 +37345,7 @@
       </c>
       <c r="B55" s="7">
         <f>AprilRaw!B55</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="C55" s="7">
         <f>AprilRaw!C55</f>
@@ -37353,19 +37353,19 @@
       </c>
       <c r="D55" s="7">
         <f>AprilRaw!D55</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E55" s="7">
         <f>AprilRaw!E55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7">
         <f>AprilRaw!F55</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55" s="7">
         <f>AprilRaw!G55</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H55" s="7">
         <f>AprilRaw!H55</f>
@@ -37373,11 +37373,11 @@
       </c>
       <c r="I55" s="7">
         <f>AprilRaw!I55</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J55" s="8">
         <f>AprilRaw!J55</f>
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -37386,7 +37386,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -37394,19 +37394,19 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -37414,11 +37414,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -37427,7 +37427,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -37435,19 +37435,19 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -37468,7 +37468,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>33909</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -37476,31 +37476,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1583</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2491</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14761</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19148</v>
       </c>
     </row>
   </sheetData>
@@ -37512,12 +37512,1773 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8F93A-FD16-4201-B60D-E1607F24DB6B}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2634</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>123</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>514</v>
+      </c>
+      <c r="J2">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>784</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>258</v>
+      </c>
+      <c r="J3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2930</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>176</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>53</v>
+      </c>
+      <c r="G4">
+        <v>242</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>898</v>
+      </c>
+      <c r="J4">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3274</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>247</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>303</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1236</v>
+      </c>
+      <c r="J6">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>352</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>222</v>
+      </c>
+      <c r="J7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>186</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>88</v>
+      </c>
+      <c r="J8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>92</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>146</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>140</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>308</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>228</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>302</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>216</v>
+      </c>
+      <c r="J15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>54</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1158</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>598</v>
+      </c>
+      <c r="J17">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>948</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>624</v>
+      </c>
+      <c r="J19">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>934</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>77</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>476</v>
+      </c>
+      <c r="J21">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1340</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>114</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>438</v>
+      </c>
+      <c r="J23">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>3830</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>220</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>68</v>
+      </c>
+      <c r="G24">
+        <v>295</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>980</v>
+      </c>
+      <c r="J24">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>288</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>98</v>
+      </c>
+      <c r="J25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>320</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>206</v>
+      </c>
+      <c r="J27">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>84</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>630</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>262</v>
+      </c>
+      <c r="J29">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>22</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>196</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>62</v>
+      </c>
+      <c r="J31">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1296</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>106</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>67</v>
+      </c>
+      <c r="G32">
+        <v>176</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32">
+        <v>736</v>
+      </c>
+      <c r="J32">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>802</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>46</v>
+      </c>
+      <c r="G33">
+        <v>56</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>592</v>
+      </c>
+      <c r="J33">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>412</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>62</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>69</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>340</v>
+      </c>
+      <c r="J34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2102</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>177</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <v>250</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>910</v>
+      </c>
+      <c r="J35">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>338</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>17</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>162</v>
+      </c>
+      <c r="J36">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1008</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>143</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>172</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>694</v>
+      </c>
+      <c r="J37">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>278</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>60</v>
+      </c>
+      <c r="J39">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>118</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>118</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>158</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>86</v>
+      </c>
+      <c r="J45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>648</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>468</v>
+      </c>
+      <c r="J46">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1320</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>29</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>400</v>
+      </c>
+      <c r="J47">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>268</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>130</v>
+      </c>
+      <c r="J48">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>566</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>26</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>304</v>
+      </c>
+      <c r="J49">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1648</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <v>70</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>764</v>
+      </c>
+      <c r="J50">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>342</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>208</v>
+      </c>
+      <c r="J51">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>902</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>26</v>
+      </c>
+      <c r="G52">
+        <v>68</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>548</v>
+      </c>
+      <c r="J52">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>172</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>82</v>
+      </c>
+      <c r="J53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>24</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>302</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>144</v>
+      </c>
+      <c r="J55">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C7F94-732F-45DB-9A5A-D25D2AC12447}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EFA31D-AAE1-4962-A53A-CC8F4A35CF31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="104">
   <si>
     <t>Library</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Requests expired December</t>
+  </si>
+  <si>
+    <t>Prairie Hills Schools - Wetmore Academic Center (Permanently closed)</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1029,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>10892</v>
+        <v>13716</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1034,19 +1037,19 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>613</v>
+        <v>740</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
@@ -1054,11 +1057,11 @@
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>2642</v>
+        <v>3250</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>8250</v>
+        <v>10466</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,7 +1070,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>3614</v>
+        <v>4472</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1075,7 +1078,7 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
@@ -1083,23 +1086,23 @@
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>1414</v>
+        <v>1692</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>2200</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1108,7 +1111,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>12874</v>
+        <v>15882</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1116,31 +1119,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>697</v>
+        <v>894</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>967</v>
+        <v>1217</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>3436</v>
+        <v>4300</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>9438</v>
+        <v>11582</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,7 +1152,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1177,11 +1180,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1190,7 +1193,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>14092</v>
+        <v>16862</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1198,19 +1201,19 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>822</v>
+        <v>1098</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>298</v>
+        <v>369</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>1146</v>
+        <v>1498</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
@@ -1218,11 +1221,11 @@
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>5504</v>
+        <v>6928</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>8588</v>
+        <v>9934</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1231,7 +1234,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>1746</v>
+        <v>2160</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1239,31 +1242,31 @@
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>914</v>
+        <v>1210</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>832</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1272,7 +1275,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>856</v>
+        <v>1028</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1280,7 +1283,7 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
@@ -1288,11 +1291,11 @@
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1300,11 +1303,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>456</v>
+        <v>542</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>400</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,7 +1316,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1321,7 +1324,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1333,7 +1336,7 @@
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1341,11 +1344,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,7 +1357,7 @@
       </c>
       <c r="B10" s="10">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C10" s="10">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -1362,7 +1365,7 @@
       </c>
       <c r="D10" s="10">
         <f>January!D10+February!D10+March!D10+April!D10+May!D10+June!D10+July!D10+August!D10+September!D10+October!D10+November!D10+December!D10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="10">
         <f>January!E10+February!E10+March!E10+April!E10+May!E10+June!E10+July!E10+August!E10+September!E10+October!E10+November!E10+December!E10</f>
@@ -1374,7 +1377,7 @@
       </c>
       <c r="G10" s="10">
         <f>January!G10+February!G10+March!G10+April!G10+May!G10+June!G10+July!G10+August!G10+September!G10+October!G10+November!G10+December!G10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="10">
         <f>January!H10+February!H10+March!H10+April!H10+May!H10+June!H10+July!H10+August!H10+September!H10+October!H10+November!H10+December!H10</f>
@@ -1382,7 +1385,7 @@
       </c>
       <c r="I10" s="10">
         <f>January!I10+February!I10+March!I10+April!I10+May!I10+June!I10+July!I10+August!I10+September!I10+October!I10+November!I10+December!I10</f>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J10" s="11">
         <f>January!J10+February!J10+March!J10+April!J10+May!J10+June!J10+July!J10+August!J10+September!J10+October!J10+November!J10+December!J10</f>
@@ -1436,7 +1439,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1444,11 +1447,11 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
@@ -1456,7 +1459,7 @@
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
@@ -1464,7 +1467,7 @@
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
@@ -1477,7 +1480,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1088</v>
+        <v>1400</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1485,7 +1488,7 @@
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
@@ -1493,23 +1496,23 @@
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>860</v>
+        <v>1086</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>228</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1518,7 +1521,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1232</v>
+        <v>1432</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1526,19 +1529,19 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
@@ -1546,11 +1549,11 @@
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>896</v>
+        <v>1052</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>336</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1559,7 +1562,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>688</v>
+        <v>864</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1567,19 +1570,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1587,11 +1590,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>520</v>
+        <v>664</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>168</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,7 +1603,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1608,19 +1611,19 @@
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10">
         <f>January!F16+February!F16+March!F16+April!F16+May!F16+June!F16+July!F16+August!F16+September!F16+October!F16+November!F16+December!F16</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1628,11 +1631,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1641,7 +1644,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>4902</v>
+        <v>5994</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1649,31 +1652,31 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>297</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>2280</v>
+        <v>2856</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>2622</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,7 +1685,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1690,7 +1693,7 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
@@ -1702,7 +1705,7 @@
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
@@ -1710,11 +1713,11 @@
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>4176</v>
+        <v>5280</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1731,31 +1734,31 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>2322</v>
+        <v>2992</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>1854</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1764,7 +1767,7 @@
       </c>
       <c r="B20" s="10">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" s="10">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
@@ -1792,11 +1795,11 @@
       </c>
       <c r="I20" s="10">
         <f>January!I20+February!I20+March!I20+April!I20+May!I20+June!I20+July!I20+August!I20+September!I20+October!I20+November!I20+December!I20</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J20" s="11">
         <f>January!J20+February!J20+March!J20+April!J20+May!J20+June!J20+July!J20+August!J20+September!J20+October!J20+November!J20+December!J20</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,7 +1808,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>4180</v>
+        <v>5164</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1813,31 +1816,31 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>2342</v>
+        <v>2954</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>1838</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,7 +1849,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1854,7 +1857,7 @@
       </c>
       <c r="D22" s="10">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
@@ -1862,11 +1865,11 @@
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1874,11 +1877,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,7 +1890,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>5646</v>
+        <v>7136</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1895,31 +1898,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>372</v>
+        <v>481</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>629</v>
+        <v>792</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>1834</v>
+        <v>2218</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>3812</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1928,7 +1931,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>16264</v>
+        <v>20076</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1936,31 +1939,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>809</v>
+        <v>985</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>1195</v>
+        <v>1441</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>4502</v>
+        <v>5468</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>11762</v>
+        <v>14608</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,7 +1972,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1330</v>
+        <v>1618</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1977,19 +1980,19 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
@@ -1997,11 +2000,11 @@
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>654</v>
+        <v>778</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>676</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2051,7 +2054,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>1704</v>
+        <v>2044</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2059,31 +2062,31 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>974</v>
+        <v>1100</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>730</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2092,7 +2095,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>358</v>
+        <v>434</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2100,7 +2103,7 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
@@ -2112,7 +2115,7 @@
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2120,11 +2123,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2133,7 +2136,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>3216</v>
+        <v>4292</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2141,19 +2144,19 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2161,11 +2164,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>1408</v>
+        <v>1870</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>1808</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2174,7 +2177,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2182,7 +2185,7 @@
       </c>
       <c r="D30" s="10">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
@@ -2190,11 +2193,11 @@
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
@@ -2202,11 +2205,11 @@
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2215,7 +2218,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2223,7 +2226,7 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
@@ -2231,11 +2234,11 @@
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2256,7 +2259,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>4418</v>
+        <v>5312</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2264,31 +2267,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>376</v>
+        <v>470</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>728</v>
+        <v>867</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>3148</v>
+        <v>3816</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>1270</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2297,7 +2300,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>3788</v>
+        <v>4748</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2305,31 +2308,31 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>2694</v>
+        <v>3370</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>1094</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,7 +2341,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>1884</v>
+        <v>2030</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2346,19 +2349,19 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2366,11 +2369,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>1328</v>
+        <v>1437</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>556</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2379,7 +2382,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>8928</v>
+        <v>11378</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2387,19 +2390,19 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>717</v>
+        <v>895</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>982</v>
+        <v>1228</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
@@ -2407,11 +2410,11 @@
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>4094</v>
+        <v>5206</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>4834</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2420,7 +2423,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1620</v>
+        <v>1962</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2428,7 +2431,7 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
@@ -2436,23 +2439,23 @@
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>876</v>
+        <v>1048</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>744</v>
+        <v>914</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,7 +2464,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>4418</v>
+        <v>5562</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2469,31 +2472,31 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>476</v>
+        <v>574</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>606</v>
+        <v>728</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>2636</v>
+        <v>3318</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>1782</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2502,7 +2505,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2518,11 +2521,11 @@
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2530,11 +2533,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2543,7 +2546,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>980</v>
+        <v>1003</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2551,19 +2554,19 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
@@ -2571,11 +2574,11 @@
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>762</v>
+        <v>751</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2592,11 +2595,11 @@
       </c>
       <c r="D40" s="19">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E40" s="19">
         <f>January!E40+February!E40+March!E40+April!E40+May!E40+June!E40+July!E40+August!E40+September!E40+October!E40+November!E40+December!E40</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40" s="19">
         <f>January!F40+February!F40+March!F40+April!F40+May!F40+June!F40+July!F40+August!F40+September!F40+October!F40+November!F40+December!F40</f>
@@ -2604,7 +2607,7 @@
       </c>
       <c r="G40" s="19">
         <f>January!G40+February!G40+March!G40+April!G40+May!G40+June!G40+July!G40+August!G40+September!G40+October!G40+November!G40+December!G40</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H40" s="19">
         <f>January!H40+February!H40+March!H40+April!H40+May!H40+June!H40+July!H40+August!H40+September!H40+October!H40+November!H40+December!H40</f>
@@ -2633,19 +2636,19 @@
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="22">
         <f>January!F41+February!F41+March!F41+April!F41+May!F41+June!F41+July!F41+August!F41+September!F41+October!F41+November!F41+December!F41</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2756,7 +2759,7 @@
       </c>
       <c r="D44" s="19">
         <f>January!D44+February!D44+March!D44+April!D44+May!D44+June!D44+July!D44+August!D44+September!D44+October!D44+November!D44+December!D44</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E44" s="19">
         <f>January!E44+February!E44+March!E44+April!E44+May!E44+June!E44+July!E44+August!E44+September!E44+October!E44+November!E44+December!E44</f>
@@ -2768,7 +2771,7 @@
       </c>
       <c r="G44" s="19">
         <f>January!G44+February!G44+March!G44+April!G44+May!G44+June!G44+July!G44+August!G44+September!G44+October!G44+November!G44+December!G44</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H44" s="19">
         <f>January!H44+February!H44+March!H44+April!H44+May!H44+June!H44+July!H44+August!H44+September!H44+October!H44+November!H44+December!H44</f>
@@ -2789,7 +2792,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>580</v>
+        <v>744</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2805,11 +2808,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2817,11 +2820,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>257</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2830,7 +2833,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>2888</v>
+        <v>3546</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2838,7 +2841,7 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
@@ -2846,11 +2849,11 @@
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2858,11 +2861,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>1828</v>
+        <v>2330</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>1060</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2871,7 +2874,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>6052</v>
+        <v>7684</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2879,7 +2882,7 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
@@ -2887,23 +2890,23 @@
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>1942</v>
+        <v>2440</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>4110</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2912,7 +2915,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>1614</v>
+        <v>2154</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2920,31 +2923,31 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>716</v>
+        <v>930</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>898</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2953,7 +2956,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>2196</v>
+        <v>2690</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2961,19 +2964,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>1102</v>
+        <v>1388</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>1094</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2994,7 +2997,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>6822</v>
+        <v>8294</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3002,31 +3005,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>441</v>
+        <v>525</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>3108</v>
+        <v>3856</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>3714</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3035,7 +3038,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1498</v>
+        <v>1976</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3043,7 +3046,7 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
@@ -3051,11 +3054,11 @@
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
@@ -3063,11 +3066,11 @@
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>810</v>
+        <v>1066</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>688</v>
+        <v>910</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3076,7 +3079,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>3790</v>
+        <v>4418</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3084,7 +3087,7 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
@@ -3092,11 +3095,11 @@
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>2404</v>
+        <v>2746</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>1386</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,7 +3120,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>688</v>
+        <v>914</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3125,11 +3128,11 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
@@ -3137,7 +3140,7 @@
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3145,11 +3148,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>404</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3158,7 +3161,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3166,7 +3169,7 @@
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
@@ -3178,7 +3181,7 @@
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3186,11 +3189,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3199,7 +3202,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>1204</v>
+        <v>1670</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3207,7 +3210,7 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
@@ -3215,11 +3218,11 @@
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
@@ -3227,11 +3230,11 @@
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>452</v>
+        <v>626</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>752</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,7 +3243,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>3814</v>
+        <v>4534</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3248,31 +3251,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>3076</v>
+        <v>3634</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>738</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3289,19 +3292,19 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -3322,7 +3325,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>147020</v>
+        <v>181294</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3330,31 +3333,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>6655</v>
+        <v>8276</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>731</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>3837</v>
+        <v>4641</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>11131</v>
+        <v>13648</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>724</v>
+        <v>847</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>64328</v>
+        <v>79425</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>82692</v>
+        <v>101869</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3379,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3426,7 @@
       </c>
       <c r="B2" s="4">
         <f>MayRaw!B2</f>
-        <v>0</v>
+        <v>2824</v>
       </c>
       <c r="C2" s="4">
         <f>MayRaw!C2</f>
@@ -3431,19 +3434,19 @@
       </c>
       <c r="D2" s="4">
         <f>MayRaw!D2</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4">
         <f>MayRaw!E2</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4">
         <f>MayRaw!F2</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4">
         <f>MayRaw!G2</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="H2" s="4">
         <f>MayRaw!H2</f>
@@ -3451,11 +3454,11 @@
       </c>
       <c r="I2" s="4">
         <f>MayRaw!I2</f>
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="J2" s="5">
         <f>MayRaw!J2</f>
-        <v>0</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,7 +3467,7 @@
       </c>
       <c r="B3" s="7">
         <f>MayRaw!B3</f>
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="C3" s="7">
         <f>MayRaw!C3</f>
@@ -3472,7 +3475,7 @@
       </c>
       <c r="D3" s="7">
         <f>MayRaw!D3</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7">
         <f>MayRaw!E3</f>
@@ -3480,23 +3483,23 @@
       </c>
       <c r="F3" s="7">
         <f>MayRaw!F3</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3" s="7">
         <f>MayRaw!G3</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H3" s="7">
         <f>MayRaw!H3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="7">
         <f>MayRaw!I3</f>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="J3" s="8">
         <f>MayRaw!J3</f>
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3505,7 +3508,7 @@
       </c>
       <c r="B4" s="10">
         <f>MayRaw!B4</f>
-        <v>0</v>
+        <v>3008</v>
       </c>
       <c r="C4" s="10">
         <f>MayRaw!C4</f>
@@ -3513,31 +3516,31 @@
       </c>
       <c r="D4" s="10">
         <f>MayRaw!D4</f>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="E4" s="10">
         <f>MayRaw!E4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="10">
         <f>MayRaw!F4</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G4" s="10">
         <f>MayRaw!G4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H4" s="10">
         <f>MayRaw!H4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="10">
         <f>MayRaw!I4</f>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="J4" s="11">
         <f>MayRaw!J4</f>
-        <v>0</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3546,7 +3549,7 @@
       </c>
       <c r="B5" s="7">
         <f>MayRaw!B5</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7">
         <f>MayRaw!C5</f>
@@ -3574,11 +3577,11 @@
       </c>
       <c r="I5" s="7">
         <f>MayRaw!I5</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" s="8">
         <f>MayRaw!J5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3587,7 +3590,7 @@
       </c>
       <c r="B6" s="10">
         <f>MayRaw!B6</f>
-        <v>0</v>
+        <v>2770</v>
       </c>
       <c r="C6" s="10">
         <f>MayRaw!C6</f>
@@ -3595,19 +3598,19 @@
       </c>
       <c r="D6" s="10">
         <f>MayRaw!D6</f>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="E6" s="10">
         <f>MayRaw!E6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10">
         <f>MayRaw!F6</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G6" s="10">
         <f>MayRaw!G6</f>
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="H6" s="10">
         <f>MayRaw!H6</f>
@@ -3615,11 +3618,11 @@
       </c>
       <c r="I6" s="10">
         <f>MayRaw!I6</f>
-        <v>0</v>
+        <v>1424</v>
       </c>
       <c r="J6" s="11">
         <f>MayRaw!J6</f>
-        <v>0</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3628,7 +3631,7 @@
       </c>
       <c r="B7" s="7">
         <f>MayRaw!B7</f>
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="C7" s="7">
         <f>MayRaw!C7</f>
@@ -3636,31 +3639,31 @@
       </c>
       <c r="D7" s="7">
         <f>MayRaw!D7</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7" s="7">
         <f>MayRaw!E7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
         <f>MayRaw!F7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="7">
         <f>MayRaw!G7</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <f>MayRaw!H7</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
         <f>MayRaw!I7</f>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="J7" s="8">
         <f>MayRaw!J7</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3669,7 +3672,7 @@
       </c>
       <c r="B8" s="10">
         <f>MayRaw!B8</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C8" s="10">
         <f>MayRaw!C8</f>
@@ -3677,7 +3680,7 @@
       </c>
       <c r="D8" s="10">
         <f>MayRaw!D8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" s="10">
         <f>MayRaw!E8</f>
@@ -3685,11 +3688,11 @@
       </c>
       <c r="F8" s="10">
         <f>MayRaw!F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
         <f>MayRaw!G8</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8" s="10">
         <f>MayRaw!H8</f>
@@ -3697,11 +3700,11 @@
       </c>
       <c r="I8" s="10">
         <f>MayRaw!I8</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J8" s="11">
         <f>MayRaw!J8</f>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3710,7 +3713,7 @@
       </c>
       <c r="B9" s="7">
         <f>MayRaw!B9</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C9" s="7">
         <f>MayRaw!C9</f>
@@ -3718,7 +3721,7 @@
       </c>
       <c r="D9" s="7">
         <f>MayRaw!D9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
         <f>MayRaw!E9</f>
@@ -3730,7 +3733,7 @@
       </c>
       <c r="G9" s="7">
         <f>MayRaw!G9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="7">
         <f>MayRaw!H9</f>
@@ -3738,11 +3741,11 @@
       </c>
       <c r="I9" s="7">
         <f>MayRaw!I9</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J9" s="8">
         <f>MayRaw!J9</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3751,7 +3754,7 @@
       </c>
       <c r="B10" s="10">
         <f>MayRaw!B10</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C10" s="10">
         <f>MayRaw!C10</f>
@@ -3759,7 +3762,7 @@
       </c>
       <c r="D10" s="10">
         <f>MayRaw!D10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="10">
         <f>MayRaw!E10</f>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="G10" s="10">
         <f>MayRaw!G10</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="10">
         <f>MayRaw!H10</f>
@@ -3779,7 +3782,7 @@
       </c>
       <c r="I10" s="10">
         <f>MayRaw!I10</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J10" s="11">
         <f>MayRaw!J10</f>
@@ -3833,7 +3836,7 @@
       </c>
       <c r="B12" s="13">
         <f>MayRaw!B12</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C12" s="13">
         <f>MayRaw!C12</f>
@@ -3841,11 +3844,11 @@
       </c>
       <c r="D12" s="13">
         <f>MayRaw!D12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="13">
         <f>MayRaw!E12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
         <f>MayRaw!F12</f>
@@ -3853,7 +3856,7 @@
       </c>
       <c r="G12" s="13">
         <f>MayRaw!G12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="13">
         <f>MayRaw!H12</f>
@@ -3861,7 +3864,7 @@
       </c>
       <c r="I12" s="13">
         <f>MayRaw!I12</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J12" s="14">
         <f>MayRaw!J12</f>
@@ -3874,7 +3877,7 @@
       </c>
       <c r="B13" s="16">
         <f>MayRaw!B13</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="C13" s="16">
         <f>MayRaw!C13</f>
@@ -3882,7 +3885,7 @@
       </c>
       <c r="D13" s="16">
         <f>MayRaw!D13</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="16">
         <f>MayRaw!E13</f>
@@ -3890,23 +3893,23 @@
       </c>
       <c r="F13" s="16">
         <f>MayRaw!F13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="16">
         <f>MayRaw!G13</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="16">
         <f>MayRaw!H13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="16">
         <f>MayRaw!I13</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J13" s="17">
         <f>MayRaw!J13</f>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3915,7 +3918,7 @@
       </c>
       <c r="B14" s="13">
         <f>MayRaw!B14</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C14" s="13">
         <f>MayRaw!C14</f>
@@ -3923,19 +3926,19 @@
       </c>
       <c r="D14" s="13">
         <f>MayRaw!D14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13">
         <f>MayRaw!E14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="13">
         <f>MayRaw!F14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="13">
         <f>MayRaw!G14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" s="13">
         <f>MayRaw!H14</f>
@@ -3943,11 +3946,11 @@
       </c>
       <c r="I14" s="13">
         <f>MayRaw!I14</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J14" s="14">
         <f>MayRaw!J14</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3956,7 +3959,7 @@
       </c>
       <c r="B15" s="16">
         <f>MayRaw!B15</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C15" s="16">
         <f>MayRaw!C15</f>
@@ -3964,19 +3967,19 @@
       </c>
       <c r="D15" s="16">
         <f>MayRaw!D15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="16">
         <f>MayRaw!E15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="16">
         <f>MayRaw!F15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="16">
         <f>MayRaw!G15</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="16">
         <f>MayRaw!H15</f>
@@ -3984,11 +3987,11 @@
       </c>
       <c r="I15" s="16">
         <f>MayRaw!I15</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J15" s="17">
         <f>MayRaw!J15</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3997,7 +4000,7 @@
       </c>
       <c r="B16" s="10">
         <f>MayRaw!B16</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10">
         <f>MayRaw!C16</f>
@@ -4005,19 +4008,19 @@
       </c>
       <c r="D16" s="10">
         <f>MayRaw!D16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10">
         <f>MayRaw!E16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10">
         <f>MayRaw!F16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="10">
         <f>MayRaw!G16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="10">
         <f>MayRaw!H16</f>
@@ -4025,11 +4028,11 @@
       </c>
       <c r="I16" s="10">
         <f>MayRaw!I16</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J16" s="11">
         <f>MayRaw!J16</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4038,7 +4041,7 @@
       </c>
       <c r="B17" s="7">
         <f>MayRaw!B17</f>
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="C17" s="7">
         <f>MayRaw!C17</f>
@@ -4046,31 +4049,31 @@
       </c>
       <c r="D17" s="7">
         <f>MayRaw!D17</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7">
         <f>MayRaw!E17</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="7">
         <f>MayRaw!F17</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7">
         <f>MayRaw!G17</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <f>MayRaw!H17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
         <f>MayRaw!I17</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J17" s="8">
         <f>MayRaw!J17</f>
-        <v>0</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4079,7 +4082,7 @@
       </c>
       <c r="B18" s="10">
         <f>MayRaw!B18</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C18" s="10">
         <f>MayRaw!C18</f>
@@ -4087,7 +4090,7 @@
       </c>
       <c r="D18" s="10">
         <f>MayRaw!D18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E18" s="10">
         <f>MayRaw!E18</f>
@@ -4099,7 +4102,7 @@
       </c>
       <c r="G18" s="10">
         <f>MayRaw!G18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="10">
         <f>MayRaw!H18</f>
@@ -4107,11 +4110,11 @@
       </c>
       <c r="I18" s="10">
         <f>MayRaw!I18</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18" s="11">
         <f>MayRaw!J18</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4120,7 +4123,7 @@
       </c>
       <c r="B19" s="7">
         <f>MayRaw!B19</f>
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="C19" s="7">
         <f>MayRaw!C19</f>
@@ -4128,31 +4131,31 @@
       </c>
       <c r="D19" s="7">
         <f>MayRaw!D19</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E19" s="7">
         <f>MayRaw!E19</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7">
         <f>MayRaw!F19</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7">
         <f>MayRaw!G19</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <f>MayRaw!H19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
         <f>MayRaw!I19</f>
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="J19" s="8">
         <f>MayRaw!J19</f>
-        <v>0</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4161,7 +4164,7 @@
       </c>
       <c r="B20" s="10">
         <f>MayRaw!B20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="10">
         <f>MayRaw!C20</f>
@@ -4189,11 +4192,11 @@
       </c>
       <c r="I20" s="10">
         <f>MayRaw!I20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="11">
         <f>MayRaw!J20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4202,7 +4205,7 @@
       </c>
       <c r="B21" s="7">
         <f>MayRaw!B21</f>
-        <v>0</v>
+        <v>984</v>
       </c>
       <c r="C21" s="7">
         <f>MayRaw!C21</f>
@@ -4210,31 +4213,31 @@
       </c>
       <c r="D21" s="7">
         <f>MayRaw!D21</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E21" s="7">
         <f>MayRaw!E21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="7">
         <f>MayRaw!F21</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G21" s="7">
         <f>MayRaw!G21</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H21" s="7">
         <f>MayRaw!H21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
         <f>MayRaw!I21</f>
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="J21" s="8">
         <f>MayRaw!J21</f>
-        <v>0</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4243,7 +4246,7 @@
       </c>
       <c r="B22" s="10">
         <f>MayRaw!B22</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C22" s="10">
         <f>MayRaw!C22</f>
@@ -4251,7 +4254,7 @@
       </c>
       <c r="D22" s="10">
         <f>MayRaw!D22</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10">
         <f>MayRaw!E22</f>
@@ -4259,11 +4262,11 @@
       </c>
       <c r="F22" s="10">
         <f>MayRaw!F22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10">
         <f>MayRaw!G22</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H22" s="10">
         <f>MayRaw!H22</f>
@@ -4271,11 +4274,11 @@
       </c>
       <c r="I22" s="10">
         <f>MayRaw!I22</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J22" s="11">
         <f>MayRaw!J22</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4284,7 +4287,7 @@
       </c>
       <c r="B23" s="7">
         <f>MayRaw!B23</f>
-        <v>0</v>
+        <v>1490</v>
       </c>
       <c r="C23" s="7">
         <f>MayRaw!C23</f>
@@ -4292,31 +4295,31 @@
       </c>
       <c r="D23" s="7">
         <f>MayRaw!D23</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E23" s="7">
         <f>MayRaw!E23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7">
         <f>MayRaw!F23</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G23" s="7">
         <f>MayRaw!G23</f>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <f>MayRaw!H23</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I23" s="7">
         <f>MayRaw!I23</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J23" s="8">
         <f>MayRaw!J23</f>
-        <v>0</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4325,7 +4328,7 @@
       </c>
       <c r="B24" s="10">
         <f>MayRaw!B24</f>
-        <v>0</v>
+        <v>3812</v>
       </c>
       <c r="C24" s="10">
         <f>MayRaw!C24</f>
@@ -4333,31 +4336,31 @@
       </c>
       <c r="D24" s="10">
         <f>MayRaw!D24</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="E24" s="10">
         <f>MayRaw!E24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10">
         <f>MayRaw!F24</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G24" s="10">
         <f>MayRaw!G24</f>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="H24" s="10">
         <f>MayRaw!H24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24" s="10">
         <f>MayRaw!I24</f>
-        <v>0</v>
+        <v>966</v>
       </c>
       <c r="J24" s="11">
         <f>MayRaw!J24</f>
-        <v>0</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4366,7 +4369,7 @@
       </c>
       <c r="B25" s="7">
         <f>MayRaw!B25</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="C25" s="7">
         <f>MayRaw!C25</f>
@@ -4374,19 +4377,19 @@
       </c>
       <c r="D25" s="7">
         <f>MayRaw!D25</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E25" s="7">
         <f>MayRaw!E25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="7">
         <f>MayRaw!F25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="7">
         <f>MayRaw!G25</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H25" s="7">
         <f>MayRaw!H25</f>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="I25" s="7">
         <f>MayRaw!I25</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="J25" s="8">
         <f>MayRaw!J25</f>
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4448,7 +4451,7 @@
       </c>
       <c r="B27" s="7">
         <f>MayRaw!B27</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="C27" s="7">
         <f>MayRaw!C27</f>
@@ -4456,31 +4459,31 @@
       </c>
       <c r="D27" s="7">
         <f>MayRaw!D27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7">
         <f>MayRaw!E27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="7">
         <f>MayRaw!F27</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G27" s="7">
         <f>MayRaw!G27</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
         <f>MayRaw!H27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
         <f>MayRaw!I27</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J27" s="8">
         <f>MayRaw!J27</f>
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4489,7 +4492,7 @@
       </c>
       <c r="B28" s="10">
         <f>MayRaw!B28</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C28" s="10">
         <f>MayRaw!C28</f>
@@ -4497,7 +4500,7 @@
       </c>
       <c r="D28" s="10">
         <f>MayRaw!D28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="10">
         <f>MayRaw!E28</f>
@@ -4509,7 +4512,7 @@
       </c>
       <c r="G28" s="10">
         <f>MayRaw!G28</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="10">
         <f>MayRaw!H28</f>
@@ -4517,11 +4520,11 @@
       </c>
       <c r="I28" s="10">
         <f>MayRaw!I28</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J28" s="11">
         <f>MayRaw!J28</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4530,7 +4533,7 @@
       </c>
       <c r="B29" s="7">
         <f>MayRaw!B29</f>
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="C29" s="7">
         <f>MayRaw!C29</f>
@@ -4538,19 +4541,19 @@
       </c>
       <c r="D29" s="7">
         <f>MayRaw!D29</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="7">
         <f>MayRaw!E29</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="7">
         <f>MayRaw!F29</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7">
         <f>MayRaw!G29</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H29" s="7">
         <f>MayRaw!H29</f>
@@ -4558,11 +4561,11 @@
       </c>
       <c r="I29" s="7">
         <f>MayRaw!I29</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="J29" s="8">
         <f>MayRaw!J29</f>
-        <v>0</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4571,7 +4574,7 @@
       </c>
       <c r="B30" s="10">
         <f>MayRaw!B30</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C30" s="10">
         <f>MayRaw!C30</f>
@@ -4579,7 +4582,7 @@
       </c>
       <c r="D30" s="10">
         <f>MayRaw!D30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="10">
         <f>MayRaw!E30</f>
@@ -4587,11 +4590,11 @@
       </c>
       <c r="F30" s="10">
         <f>MayRaw!F30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10">
         <f>MayRaw!G30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="10">
         <f>MayRaw!H30</f>
@@ -4599,11 +4602,11 @@
       </c>
       <c r="I30" s="10">
         <f>MayRaw!I30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J30" s="11">
         <f>MayRaw!J30</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4612,7 +4615,7 @@
       </c>
       <c r="B31" s="7">
         <f>MayRaw!B31</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7">
         <f>MayRaw!C31</f>
@@ -4620,7 +4623,7 @@
       </c>
       <c r="D31" s="7">
         <f>MayRaw!D31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7">
         <f>MayRaw!E31</f>
@@ -4628,11 +4631,11 @@
       </c>
       <c r="F31" s="7">
         <f>MayRaw!F31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="7">
         <f>MayRaw!G31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="7">
         <f>MayRaw!H31</f>
@@ -4640,11 +4643,11 @@
       </c>
       <c r="I31" s="7">
         <f>MayRaw!I31</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J31" s="8">
         <f>MayRaw!J31</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -4653,7 +4656,7 @@
       </c>
       <c r="B32" s="10">
         <f>MayRaw!B32</f>
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="C32" s="10">
         <f>MayRaw!C32</f>
@@ -4661,31 +4664,31 @@
       </c>
       <c r="D32" s="10">
         <f>MayRaw!D32</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E32" s="10">
         <f>MayRaw!E32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="10">
         <f>MayRaw!F32</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G32" s="10">
         <f>MayRaw!G32</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H32" s="10">
         <f>MayRaw!H32</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I32" s="10">
         <f>MayRaw!I32</f>
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="J32" s="11">
         <f>MayRaw!J32</f>
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -4694,7 +4697,7 @@
       </c>
       <c r="B33" s="7">
         <f>MayRaw!B33</f>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="C33" s="7">
         <f>MayRaw!C33</f>
@@ -4702,31 +4705,31 @@
       </c>
       <c r="D33" s="7">
         <f>MayRaw!D33</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E33" s="7">
         <f>MayRaw!E33</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="7">
         <f>MayRaw!F33</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7">
         <f>MayRaw!G33</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H33" s="7">
         <f>MayRaw!H33</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I33" s="7">
         <f>MayRaw!I33</f>
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="J33" s="8">
         <f>MayRaw!J33</f>
-        <v>0</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -4735,7 +4738,7 @@
       </c>
       <c r="B34" s="10">
         <f>MayRaw!B34</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C34" s="10">
         <f>MayRaw!C34</f>
@@ -4743,19 +4746,19 @@
       </c>
       <c r="D34" s="10">
         <f>MayRaw!D34</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E34" s="10">
         <f>MayRaw!E34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="10">
         <f>MayRaw!F34</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" s="10">
         <f>MayRaw!G34</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H34" s="10">
         <f>MayRaw!H34</f>
@@ -4763,11 +4766,11 @@
       </c>
       <c r="I34" s="10">
         <f>MayRaw!I34</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J34" s="11">
         <f>MayRaw!J34</f>
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -4776,7 +4779,7 @@
       </c>
       <c r="B35" s="7">
         <f>MayRaw!B35</f>
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="C35" s="7">
         <f>MayRaw!C35</f>
@@ -4784,19 +4787,19 @@
       </c>
       <c r="D35" s="7">
         <f>MayRaw!D35</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="E35" s="7">
         <f>MayRaw!E35</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F35" s="7">
         <f>MayRaw!F35</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G35" s="7">
         <f>MayRaw!G35</f>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <f>MayRaw!H35</f>
@@ -4804,11 +4807,11 @@
       </c>
       <c r="I35" s="7">
         <f>MayRaw!I35</f>
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="J35" s="8">
         <f>MayRaw!J35</f>
-        <v>0</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -4817,7 +4820,7 @@
       </c>
       <c r="B36" s="10">
         <f>MayRaw!B36</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="C36" s="10">
         <f>MayRaw!C36</f>
@@ -4825,7 +4828,7 @@
       </c>
       <c r="D36" s="10">
         <f>MayRaw!D36</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E36" s="10">
         <f>MayRaw!E36</f>
@@ -4833,23 +4836,23 @@
       </c>
       <c r="F36" s="10">
         <f>MayRaw!F36</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="10">
         <f>MayRaw!G36</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H36" s="10">
         <f>MayRaw!H36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="10">
         <f>MayRaw!I36</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="J36" s="11">
         <f>MayRaw!J36</f>
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -4858,7 +4861,7 @@
       </c>
       <c r="B37" s="7">
         <f>MayRaw!B37</f>
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="C37" s="7">
         <f>MayRaw!C37</f>
@@ -4866,31 +4869,31 @@
       </c>
       <c r="D37" s="7">
         <f>MayRaw!D37</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E37" s="7">
         <f>MayRaw!E37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="7">
         <f>MayRaw!F37</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G37" s="7">
         <f>MayRaw!G37</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="H37" s="7">
         <f>MayRaw!H37</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I37" s="7">
         <f>MayRaw!I37</f>
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="J37" s="8">
         <f>MayRaw!J37</f>
-        <v>0</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -4899,7 +4902,7 @@
       </c>
       <c r="B38" s="10">
         <f>MayRaw!B38</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C38" s="10">
         <f>MayRaw!C38</f>
@@ -4915,11 +4918,11 @@
       </c>
       <c r="F38" s="10">
         <f>MayRaw!F38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10">
         <f>MayRaw!G38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="10">
         <f>MayRaw!H38</f>
@@ -4927,11 +4930,11 @@
       </c>
       <c r="I38" s="10">
         <f>MayRaw!I38</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J38" s="11">
         <f>MayRaw!J38</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -4940,7 +4943,7 @@
       </c>
       <c r="B39" s="7">
         <f>MayRaw!B39</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C39" s="7">
         <f>MayRaw!C39</f>
@@ -4948,19 +4951,19 @@
       </c>
       <c r="D39" s="7">
         <f>MayRaw!D39</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
         <f>MayRaw!E39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="7">
         <f>MayRaw!F39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G39" s="7">
         <f>MayRaw!G39</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H39" s="7">
         <f>MayRaw!H39</f>
@@ -4968,11 +4971,11 @@
       </c>
       <c r="I39" s="7">
         <f>MayRaw!I39</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J39" s="8">
         <f>MayRaw!J39</f>
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -4989,11 +4992,11 @@
       </c>
       <c r="D40" s="19">
         <f>MayRaw!D40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" s="19">
         <f>MayRaw!E40</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" s="19">
         <f>MayRaw!F40</f>
@@ -5001,7 +5004,7 @@
       </c>
       <c r="G40" s="19">
         <f>MayRaw!G40</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H40" s="19">
         <f>MayRaw!H40</f>
@@ -5030,19 +5033,19 @@
       </c>
       <c r="D41" s="22">
         <f>MayRaw!D41</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="22">
         <f>MayRaw!E41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="22">
         <f>MayRaw!F41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="22">
         <f>MayRaw!G41</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H41" s="22">
         <f>MayRaw!H41</f>
@@ -5153,7 +5156,7 @@
       </c>
       <c r="D44" s="19">
         <f>MayRaw!D44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" s="19">
         <f>MayRaw!E44</f>
@@ -5165,7 +5168,7 @@
       </c>
       <c r="G44" s="19">
         <f>MayRaw!G44</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44" s="19">
         <f>MayRaw!H44</f>
@@ -5186,7 +5189,7 @@
       </c>
       <c r="B45" s="7">
         <f>MayRaw!B45</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C45" s="7">
         <f>MayRaw!C45</f>
@@ -5202,11 +5205,11 @@
       </c>
       <c r="F45" s="7">
         <f>MayRaw!F45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="7">
         <f>MayRaw!G45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="7">
         <f>MayRaw!H45</f>
@@ -5214,11 +5217,11 @@
       </c>
       <c r="I45" s="7">
         <f>MayRaw!I45</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J45" s="8">
         <f>MayRaw!J45</f>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5227,7 +5230,7 @@
       </c>
       <c r="B46" s="10">
         <f>MayRaw!B46</f>
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="C46" s="10">
         <f>MayRaw!C46</f>
@@ -5235,7 +5238,7 @@
       </c>
       <c r="D46" s="10">
         <f>MayRaw!D46</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="10">
         <f>MayRaw!E46</f>
@@ -5243,11 +5246,11 @@
       </c>
       <c r="F46" s="10">
         <f>MayRaw!F46</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G46" s="10">
         <f>MayRaw!G46</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H46" s="10">
         <f>MayRaw!H46</f>
@@ -5255,11 +5258,11 @@
       </c>
       <c r="I46" s="10">
         <f>MayRaw!I46</f>
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="J46" s="11">
         <f>MayRaw!J46</f>
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5268,7 +5271,7 @@
       </c>
       <c r="B47" s="7">
         <f>MayRaw!B47</f>
-        <v>0</v>
+        <v>1632</v>
       </c>
       <c r="C47" s="7">
         <f>MayRaw!C47</f>
@@ -5276,7 +5279,7 @@
       </c>
       <c r="D47" s="7">
         <f>MayRaw!D47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7">
         <f>MayRaw!E47</f>
@@ -5284,23 +5287,23 @@
       </c>
       <c r="F47" s="7">
         <f>MayRaw!F47</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G47" s="7">
         <f>MayRaw!G47</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H47" s="7">
         <f>MayRaw!H47</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I47" s="7">
         <f>MayRaw!I47</f>
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="J47" s="8">
         <f>MayRaw!J47</f>
-        <v>0</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5309,7 +5312,7 @@
       </c>
       <c r="B48" s="10">
         <f>MayRaw!B48</f>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="C48" s="10">
         <f>MayRaw!C48</f>
@@ -5317,31 +5320,31 @@
       </c>
       <c r="D48" s="10">
         <f>MayRaw!D48</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E48" s="10">
         <f>MayRaw!E48</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="10">
         <f>MayRaw!F48</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G48" s="10">
         <f>MayRaw!G48</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H48" s="10">
         <f>MayRaw!H48</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I48" s="10">
         <f>MayRaw!I48</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J48" s="11">
         <f>MayRaw!J48</f>
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5350,7 +5353,7 @@
       </c>
       <c r="B49" s="7">
         <f>MayRaw!B49</f>
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="C49" s="7">
         <f>MayRaw!C49</f>
@@ -5358,19 +5361,19 @@
       </c>
       <c r="D49" s="7">
         <f>MayRaw!D49</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E49" s="7">
         <f>MayRaw!E49</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F49" s="7">
         <f>MayRaw!F49</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G49" s="7">
         <f>MayRaw!G49</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H49" s="7">
         <f>MayRaw!H49</f>
@@ -5378,11 +5381,11 @@
       </c>
       <c r="I49" s="7">
         <f>MayRaw!I49</f>
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J49" s="8">
         <f>MayRaw!J49</f>
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5391,7 +5394,7 @@
       </c>
       <c r="B50" s="10">
         <f>MayRaw!B50</f>
-        <v>0</v>
+        <v>1472</v>
       </c>
       <c r="C50" s="10">
         <f>MayRaw!C50</f>
@@ -5399,31 +5402,31 @@
       </c>
       <c r="D50" s="10">
         <f>MayRaw!D50</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E50" s="10">
         <f>MayRaw!E50</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50" s="10">
         <f>MayRaw!F50</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G50" s="10">
         <f>MayRaw!G50</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H50" s="10">
         <f>MayRaw!H50</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I50" s="10">
         <f>MayRaw!I50</f>
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J50" s="11">
         <f>MayRaw!J50</f>
-        <v>0</v>
+        <v>724</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5432,7 +5435,7 @@
       </c>
       <c r="B51" s="7">
         <f>MayRaw!B51</f>
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="C51" s="7">
         <f>MayRaw!C51</f>
@@ -5440,7 +5443,7 @@
       </c>
       <c r="D51" s="7">
         <f>MayRaw!D51</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E51" s="7">
         <f>MayRaw!E51</f>
@@ -5448,11 +5451,11 @@
       </c>
       <c r="F51" s="7">
         <f>MayRaw!F51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="7">
         <f>MayRaw!G51</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H51" s="7">
         <f>MayRaw!H51</f>
@@ -5460,11 +5463,11 @@
       </c>
       <c r="I51" s="7">
         <f>MayRaw!I51</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="J51" s="8">
         <f>MayRaw!J51</f>
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5473,7 +5476,7 @@
       </c>
       <c r="B52" s="10">
         <f>MayRaw!B52</f>
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="C52" s="10">
         <f>MayRaw!C52</f>
@@ -5481,7 +5484,7 @@
       </c>
       <c r="D52" s="10">
         <f>MayRaw!D52</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E52" s="10">
         <f>MayRaw!E52</f>
@@ -5489,11 +5492,11 @@
       </c>
       <c r="F52" s="10">
         <f>MayRaw!F52</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G52" s="10">
         <f>MayRaw!G52</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H52" s="10">
         <f>MayRaw!H52</f>
@@ -5501,11 +5504,11 @@
       </c>
       <c r="I52" s="10">
         <f>MayRaw!I52</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="J52" s="11">
         <f>MayRaw!J52</f>
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5514,7 +5517,7 @@
       </c>
       <c r="B53" s="7">
         <f>MayRaw!B53</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="C53" s="7">
         <f>MayRaw!C53</f>
@@ -5522,11 +5525,11 @@
       </c>
       <c r="D53" s="7">
         <f>MayRaw!D53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="7">
         <f>MayRaw!E53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="7">
         <f>MayRaw!F53</f>
@@ -5534,7 +5537,7 @@
       </c>
       <c r="G53" s="7">
         <f>MayRaw!G53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="7">
         <f>MayRaw!H53</f>
@@ -5542,11 +5545,11 @@
       </c>
       <c r="I53" s="7">
         <f>MayRaw!I53</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J53" s="8">
         <f>MayRaw!J53</f>
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5555,7 +5558,7 @@
       </c>
       <c r="B54" s="10">
         <f>MayRaw!B54</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C54" s="10">
         <f>MayRaw!C54</f>
@@ -5563,7 +5566,7 @@
       </c>
       <c r="D54" s="10">
         <f>MayRaw!D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="10">
         <f>MayRaw!E54</f>
@@ -5575,7 +5578,7 @@
       </c>
       <c r="G54" s="10">
         <f>MayRaw!G54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="10">
         <f>MayRaw!H54</f>
@@ -5583,11 +5586,11 @@
       </c>
       <c r="I54" s="10">
         <f>MayRaw!I54</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J54" s="11">
         <f>MayRaw!J54</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5596,7 +5599,7 @@
       </c>
       <c r="B55" s="7">
         <f>MayRaw!B55</f>
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="C55" s="7">
         <f>MayRaw!C55</f>
@@ -5604,7 +5607,7 @@
       </c>
       <c r="D55" s="7">
         <f>MayRaw!D55</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7">
         <f>MayRaw!E55</f>
@@ -5612,11 +5615,11 @@
       </c>
       <c r="F55" s="7">
         <f>MayRaw!F55</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55" s="7">
         <f>MayRaw!G55</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H55" s="7">
         <f>MayRaw!H55</f>
@@ -5624,11 +5627,11 @@
       </c>
       <c r="I55" s="7">
         <f>MayRaw!I55</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J55" s="8">
         <f>MayRaw!J55</f>
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5637,7 +5640,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -5645,31 +5648,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5686,19 +5689,19 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -5719,7 +5722,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>34274</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -5727,31 +5730,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1621</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2517</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15097</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19177</v>
       </c>
     </row>
   </sheetData>
@@ -5763,12 +5766,1773 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284CB9D0-7A01-4B30-8E43-182276E1F8BB}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2824</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>127</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>608</v>
+      </c>
+      <c r="J2">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>858</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>278</v>
+      </c>
+      <c r="J3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3008</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>197</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>864</v>
+      </c>
+      <c r="J4">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2770</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>276</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>352</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1424</v>
+      </c>
+      <c r="J6">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>414</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>296</v>
+      </c>
+      <c r="J7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>172</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>86</v>
+      </c>
+      <c r="J8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>312</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>226</v>
+      </c>
+      <c r="J13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>156</v>
+      </c>
+      <c r="J14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>176</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>144</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>104</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>92</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1092</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>83</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>576</v>
+      </c>
+      <c r="J17">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1104</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>93</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>670</v>
+      </c>
+      <c r="J19">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>984</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>612</v>
+      </c>
+      <c r="J21">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>36</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1490</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>109</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>163</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>384</v>
+      </c>
+      <c r="J23">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>3812</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>176</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>69</v>
+      </c>
+      <c r="G24">
+        <v>246</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>966</v>
+      </c>
+      <c r="J24">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>288</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>124</v>
+      </c>
+      <c r="J25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>340</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>126</v>
+      </c>
+      <c r="J27">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>44</v>
+      </c>
+      <c r="J28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>1076</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>462</v>
+      </c>
+      <c r="J29">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>22</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>38</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>894</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>94</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>139</v>
+      </c>
+      <c r="H32">
+        <v>27</v>
+      </c>
+      <c r="I32">
+        <v>668</v>
+      </c>
+      <c r="J32">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>960</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>44</v>
+      </c>
+      <c r="G33">
+        <v>64</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>676</v>
+      </c>
+      <c r="J33">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>146</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>109</v>
+      </c>
+      <c r="J34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2450</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>178</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35">
+        <v>246</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1112</v>
+      </c>
+      <c r="J35">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>342</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>172</v>
+      </c>
+      <c r="J36">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1144</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>98</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>23</v>
+      </c>
+      <c r="G37">
+        <v>122</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>682</v>
+      </c>
+      <c r="J37">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>18</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>34</v>
+      </c>
+      <c r="J39">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>164</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>98</v>
+      </c>
+      <c r="J45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>658</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>502</v>
+      </c>
+      <c r="J46">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1632</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>498</v>
+      </c>
+      <c r="J47">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>540</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>37</v>
+      </c>
+      <c r="G48">
+        <v>45</v>
+      </c>
+      <c r="H48">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>214</v>
+      </c>
+      <c r="J48">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>494</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>34</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>286</v>
+      </c>
+      <c r="J49">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1472</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>39</v>
+      </c>
+      <c r="G50">
+        <v>84</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>748</v>
+      </c>
+      <c r="J50">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>478</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>256</v>
+      </c>
+      <c r="J51">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>628</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>29</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>42</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>342</v>
+      </c>
+      <c r="J52">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>226</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>46</v>
+      </c>
+      <c r="J53">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>52</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>466</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>174</v>
+      </c>
+      <c r="J55">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EFA31D-AAE1-4962-A53A-CC8F4A35CF31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681E96BF-A7CF-4451-89A7-4477897E0488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="104">
   <si>
     <t>Library</t>
   </si>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>13716</v>
+        <v>16674</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1037,31 +1037,31 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>452</v>
+        <v>554</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>255</v>
+        <v>324</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>740</v>
+        <v>914</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>3250</v>
+        <v>3942</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>10466</v>
+        <v>12732</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>4472</v>
+        <v>5354</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>1692</v>
+        <v>2076</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>2780</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>15882</v>
+        <v>19528</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1119,31 +1119,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>894</v>
+        <v>1083</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>1217</v>
+        <v>1484</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>4300</v>
+        <v>5478</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>11582</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1164,15 +1164,15 @@
       </c>
       <c r="E5" s="7">
         <f>January!E5+February!E5+March!E5+April!E5+May!E5+June!E5+July!E5+August!E5+September!E5+October!E5+November!E5+December!E5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <f>January!F5+February!F5+March!F5+April!F5+May!F5+June!F5+July!F5+August!F5+September!F5+October!F5+November!F5+December!F5</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7">
         <f>January!G5+February!G5+March!G5+April!G5+May!G5+June!G5+July!G5+August!G5+September!G5+October!G5+November!G5+December!G5</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5" s="7">
         <f>January!H5+February!H5+March!H5+April!H5+May!H5+June!H5+July!H5+August!H5+September!H5+October!H5+November!H5+December!H5</f>
@@ -1180,11 +1180,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>16862</v>
+        <v>19610</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1201,19 +1201,19 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>1098</v>
+        <v>1357</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>1498</v>
+        <v>1816</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
@@ -1221,11 +1221,11 @@
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>6928</v>
+        <v>8260</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>9934</v>
+        <v>11350</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2160</v>
+        <v>2348</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1242,31 +1242,31 @@
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>1210</v>
+        <v>1294</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>950</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1028</v>
+        <v>1266</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1283,19 +1283,19 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>542</v>
+        <v>658</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>486</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>838</v>
+        <v>906</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1447,27 +1447,27 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>832</v>
+        <v>900</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1400</v>
+        <v>1668</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1488,19 +1488,19 @@
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>1086</v>
+        <v>1286</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>314</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1432</v>
+        <v>1742</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1529,31 +1529,31 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>1052</v>
+        <v>1248</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>380</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>864</v>
+        <v>1082</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1570,19 +1570,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>664</v>
+        <v>836</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>200</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>5994</v>
+        <v>7180</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1652,31 +1652,31 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>380</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>2856</v>
+        <v>3470</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>3138</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>758</v>
+        <v>808</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1693,19 +1693,19 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>632</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>5280</v>
+        <v>6240</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1734,31 +1734,31 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>2992</v>
+        <v>3622</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>2288</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>5164</v>
+        <v>6056</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1816,19 +1816,19 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
@@ -1836,11 +1836,11 @@
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>2954</v>
+        <v>3396</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>2210</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>7136</v>
+        <v>8550</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1898,31 +1898,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>792</v>
+        <v>915</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>2218</v>
+        <v>2590</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>4918</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>20076</v>
+        <v>23280</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1939,31 +1939,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>985</v>
+        <v>1165</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>1441</v>
+        <v>1694</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>5468</v>
+        <v>6324</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>14608</v>
+        <v>16956</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1618</v>
+        <v>1920</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
@@ -1988,11 +1988,11 @@
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>778</v>
+        <v>910</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>840</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2044</v>
+        <v>2444</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2062,19 +2062,19 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>1100</v>
+        <v>1304</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>944</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>434</v>
+        <v>522</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="F28" s="10">
         <f>January!F28+February!F28+March!F28+April!F28+May!F28+June!F28+July!F28+August!F28+September!F28+October!F28+November!F28+December!F28</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>336</v>
+        <v>404</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>4292</v>
+        <v>5164</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
@@ -2152,11 +2152,11 @@
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>1870</v>
+        <v>2286</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>2422</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D30" s="10">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
@@ -2193,23 +2193,23 @@
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>680</v>
+        <v>752</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
@@ -2234,23 +2234,23 @@
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>472</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>5312</v>
+        <v>6408</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2267,31 +2267,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>353</v>
+        <v>426</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>867</v>
+        <v>1017</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>3816</v>
+        <v>4592</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>1496</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>4748</v>
+        <v>5554</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2308,31 +2308,31 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>3370</v>
+        <v>3926</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>1378</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>2030</v>
+        <v>2470</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2349,19 +2349,19 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>301</v>
+        <v>375</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>1437</v>
+        <v>1759</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>593</v>
+        <v>711</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>11378</v>
+        <v>13482</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2390,31 +2390,31 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>895</v>
+        <v>1085</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>1228</v>
+        <v>1461</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>5206</v>
+        <v>6070</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>6172</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>1962</v>
+        <v>2412</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2431,19 +2431,19 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
@@ -2451,11 +2451,11 @@
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>1048</v>
+        <v>1302</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>914</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>5562</v>
+        <v>6768</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2472,19 +2472,19 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>574</v>
+        <v>720</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>728</v>
+        <v>920</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>3318</v>
+        <v>4122</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>2244</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="D38" s="10">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" s="10">
         <f>January!E38+February!E38+March!E38+April!E38+May!E38+June!E38+July!E38+August!E38+September!E38+October!E38+November!E38+December!E38</f>
@@ -2521,11 +2521,11 @@
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>1003</v>
+        <v>1465</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
@@ -2562,11 +2562,11 @@
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
@@ -2574,11 +2574,11 @@
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>751</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F41" s="22">
         <f>January!F41+February!F41+March!F41+April!F41+May!F41+June!F41+July!F41+August!F41+September!F41+October!F41+November!F41+December!F41</f>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>744</v>
+        <v>960</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="D45" s="7">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7">
         <f>January!E45+February!E45+March!E45+April!E45+May!E45+June!E45+July!E45+August!E45+September!E45+October!E45+November!E45+December!E45</f>
@@ -2808,11 +2808,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>421</v>
+        <v>559</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>323</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>3546</v>
+        <v>4290</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2841,19 +2841,19 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>2330</v>
+        <v>2782</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>1216</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>7684</v>
+        <v>8724</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
@@ -2902,11 +2902,11 @@
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>2440</v>
+        <v>2858</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>5244</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>2154</v>
+        <v>2574</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2923,31 +2923,31 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>930</v>
+        <v>1096</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>1224</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>2690</v>
+        <v>3198</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>1388</v>
+        <v>1646</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>1302</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>8294</v>
+        <v>9922</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3005,31 +3005,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>3856</v>
+        <v>4616</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>4438</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>1976</v>
+        <v>2286</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3046,31 +3046,31 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>1066</v>
+        <v>1210</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>910</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>4418</v>
+        <v>5044</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3087,19 +3087,19 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
@@ -3107,11 +3107,11 @@
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>2746</v>
+        <v>3100</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>1672</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>914</v>
+        <v>1224</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
@@ -3136,11 +3136,11 @@
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>584</v>
+        <v>812</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3169,11 +3169,11 @@
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" s="10">
         <f>January!F54+February!F54+March!F54+April!F54+May!F54+June!F54+July!F54+August!F54+September!F54+October!F54+November!F54+December!F54</f>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>1670</v>
+        <v>2176</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
@@ -3218,23 +3218,23 @@
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>626</v>
+        <v>886</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>1044</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>4534</v>
+        <v>5398</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3251,31 +3251,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>3634</v>
+        <v>4270</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>181294</v>
+        <v>215496</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3333,31 +3333,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>8276</v>
+        <v>9927</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>731</v>
+        <v>835</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>4641</v>
+        <v>5419</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>13648</v>
+        <v>16181</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>847</v>
+        <v>961</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>79425</v>
+        <v>94668</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>101869</v>
+        <v>120828</v>
       </c>
     </row>
   </sheetData>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B2" s="4">
         <f>JuneRaw!B2</f>
-        <v>0</v>
+        <v>2958</v>
       </c>
       <c r="C2" s="4">
         <f>JuneRaw!C2</f>
@@ -7601,31 +7601,31 @@
       </c>
       <c r="D2" s="4">
         <f>JuneRaw!D2</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4">
         <f>JuneRaw!E2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
         <f>JuneRaw!F2</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4">
         <f>JuneRaw!G2</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H2" s="4">
         <f>JuneRaw!H2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4">
         <f>JuneRaw!I2</f>
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="J2" s="5">
         <f>JuneRaw!J2</f>
-        <v>0</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="B3" s="7">
         <f>JuneRaw!B3</f>
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="C3" s="7">
         <f>JuneRaw!C3</f>
@@ -7642,31 +7642,31 @@
       </c>
       <c r="D3" s="7">
         <f>JuneRaw!D3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7">
         <f>JuneRaw!E3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7">
         <f>JuneRaw!F3</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3" s="7">
         <f>JuneRaw!G3</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H3" s="7">
         <f>JuneRaw!H3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <f>JuneRaw!I3</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J3" s="8">
         <f>JuneRaw!J3</f>
-        <v>0</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7675,7 +7675,7 @@
       </c>
       <c r="B4" s="10">
         <f>JuneRaw!B4</f>
-        <v>0</v>
+        <v>3646</v>
       </c>
       <c r="C4" s="10">
         <f>JuneRaw!C4</f>
@@ -7683,31 +7683,31 @@
       </c>
       <c r="D4" s="10">
         <f>JuneRaw!D4</f>
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="E4" s="10">
         <f>JuneRaw!E4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10">
         <f>JuneRaw!F4</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G4" s="10">
         <f>JuneRaw!G4</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="H4" s="10">
         <f>JuneRaw!H4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="10">
         <f>JuneRaw!I4</f>
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="J4" s="11">
         <f>JuneRaw!J4</f>
-        <v>0</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B5" s="7">
         <f>JuneRaw!B5</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7">
         <f>JuneRaw!C5</f>
@@ -7728,15 +7728,15 @@
       </c>
       <c r="E5" s="7">
         <f>JuneRaw!E5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <f>JuneRaw!F5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7">
         <f>JuneRaw!G5</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="7">
         <f>JuneRaw!H5</f>
@@ -7744,11 +7744,11 @@
       </c>
       <c r="I5" s="7">
         <f>JuneRaw!I5</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J5" s="8">
         <f>JuneRaw!J5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B6" s="10">
         <f>JuneRaw!B6</f>
-        <v>0</v>
+        <v>2748</v>
       </c>
       <c r="C6" s="10">
         <f>JuneRaw!C6</f>
@@ -7765,19 +7765,19 @@
       </c>
       <c r="D6" s="10">
         <f>JuneRaw!D6</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="E6" s="10">
         <f>JuneRaw!E6</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="10">
         <f>JuneRaw!F6</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G6" s="10">
         <f>JuneRaw!G6</f>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="H6" s="10">
         <f>JuneRaw!H6</f>
@@ -7785,11 +7785,11 @@
       </c>
       <c r="I6" s="10">
         <f>JuneRaw!I6</f>
-        <v>0</v>
+        <v>1332</v>
       </c>
       <c r="J6" s="11">
         <f>JuneRaw!J6</f>
-        <v>0</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="B7" s="7">
         <f>JuneRaw!B7</f>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C7" s="7">
         <f>JuneRaw!C7</f>
@@ -7806,31 +7806,31 @@
       </c>
       <c r="D7" s="7">
         <f>JuneRaw!D7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
         <f>JuneRaw!E7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <f>JuneRaw!F7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="7">
         <f>JuneRaw!G7</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="7">
         <f>JuneRaw!H7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
         <f>JuneRaw!I7</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J7" s="8">
         <f>JuneRaw!J7</f>
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="B8" s="10">
         <f>JuneRaw!B8</f>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="C8" s="10">
         <f>JuneRaw!C8</f>
@@ -7847,19 +7847,19 @@
       </c>
       <c r="D8" s="10">
         <f>JuneRaw!D8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="10">
         <f>JuneRaw!E8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="10">
         <f>JuneRaw!F8</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="10">
         <f>JuneRaw!G8</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H8" s="10">
         <f>JuneRaw!H8</f>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="I8" s="10">
         <f>JuneRaw!I8</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J8" s="11">
         <f>JuneRaw!J8</f>
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B9" s="7">
         <f>JuneRaw!B9</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C9" s="7">
         <f>JuneRaw!C9</f>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="D9" s="7">
         <f>JuneRaw!D9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <f>JuneRaw!E9</f>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="G9" s="7">
         <f>JuneRaw!G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7">
         <f>JuneRaw!H9</f>
@@ -7908,11 +7908,11 @@
       </c>
       <c r="I9" s="7">
         <f>JuneRaw!I9</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J9" s="8">
         <f>JuneRaw!J9</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="B12" s="13">
         <f>JuneRaw!B12</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C12" s="13">
         <f>JuneRaw!C12</f>
@@ -8011,27 +8011,27 @@
       </c>
       <c r="D12" s="13">
         <f>JuneRaw!D12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="13">
         <f>JuneRaw!E12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
         <f>JuneRaw!F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13">
         <f>JuneRaw!G12</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="13">
         <f>JuneRaw!H12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="13">
         <f>JuneRaw!I12</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J12" s="14">
         <f>JuneRaw!J12</f>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B13" s="16">
         <f>JuneRaw!B13</f>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="C13" s="16">
         <f>JuneRaw!C13</f>
@@ -8052,19 +8052,19 @@
       </c>
       <c r="D13" s="16">
         <f>JuneRaw!D13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16">
         <f>JuneRaw!E13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="16">
         <f>JuneRaw!F13</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="16">
         <f>JuneRaw!G13</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="16">
         <f>JuneRaw!H13</f>
@@ -8072,11 +8072,11 @@
       </c>
       <c r="I13" s="16">
         <f>JuneRaw!I13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J13" s="17">
         <f>JuneRaw!J13</f>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="B14" s="13">
         <f>JuneRaw!B14</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C14" s="13">
         <f>JuneRaw!C14</f>
@@ -8093,31 +8093,31 @@
       </c>
       <c r="D14" s="13">
         <f>JuneRaw!D14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13">
         <f>JuneRaw!E14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="13">
         <f>JuneRaw!F14</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G14" s="13">
         <f>JuneRaw!G14</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H14" s="13">
         <f>JuneRaw!H14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="13">
         <f>JuneRaw!I14</f>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J14" s="14">
         <f>JuneRaw!J14</f>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="B15" s="16">
         <f>JuneRaw!B15</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C15" s="16">
         <f>JuneRaw!C15</f>
@@ -8134,19 +8134,19 @@
       </c>
       <c r="D15" s="16">
         <f>JuneRaw!D15</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15" s="16">
         <f>JuneRaw!E15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="16">
         <f>JuneRaw!F15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="16">
         <f>JuneRaw!G15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" s="16">
         <f>JuneRaw!H15</f>
@@ -8154,11 +8154,11 @@
       </c>
       <c r="I15" s="16">
         <f>JuneRaw!I15</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="J15" s="17">
         <f>JuneRaw!J15</f>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="B16" s="10">
         <f>JuneRaw!B16</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10">
         <f>JuneRaw!C16</f>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="D16" s="10">
         <f>JuneRaw!D16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10">
         <f>JuneRaw!E16</f>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="G16" s="10">
         <f>JuneRaw!G16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="10">
         <f>JuneRaw!H16</f>
@@ -8195,11 +8195,11 @@
       </c>
       <c r="I16" s="10">
         <f>JuneRaw!I16</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J16" s="11">
         <f>JuneRaw!J16</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -8208,7 +8208,7 @@
       </c>
       <c r="B17" s="7">
         <f>JuneRaw!B17</f>
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="C17" s="7">
         <f>JuneRaw!C17</f>
@@ -8216,31 +8216,31 @@
       </c>
       <c r="D17" s="7">
         <f>JuneRaw!D17</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E17" s="7">
         <f>JuneRaw!E17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="7">
         <f>JuneRaw!F17</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G17" s="7">
         <f>JuneRaw!G17</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <f>JuneRaw!H17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
         <f>JuneRaw!I17</f>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="J17" s="8">
         <f>JuneRaw!J17</f>
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="B18" s="10">
         <f>JuneRaw!B18</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C18" s="10">
         <f>JuneRaw!C18</f>
@@ -8257,19 +8257,19 @@
       </c>
       <c r="D18" s="10">
         <f>JuneRaw!D18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10">
         <f>JuneRaw!E18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10">
         <f>JuneRaw!F18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
         <f>JuneRaw!G18</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="10">
         <f>JuneRaw!H18</f>
@@ -8277,11 +8277,11 @@
       </c>
       <c r="I18" s="10">
         <f>JuneRaw!I18</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J18" s="11">
         <f>JuneRaw!J18</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="B19" s="7">
         <f>JuneRaw!B19</f>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="C19" s="7">
         <f>JuneRaw!C19</f>
@@ -8298,31 +8298,31 @@
       </c>
       <c r="D19" s="7">
         <f>JuneRaw!D19</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E19" s="7">
         <f>JuneRaw!E19</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19" s="7">
         <f>JuneRaw!F19</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7">
         <f>JuneRaw!G19</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <f>JuneRaw!H19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
         <f>JuneRaw!I19</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="J19" s="8">
         <f>JuneRaw!J19</f>
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B21" s="7">
         <f>JuneRaw!B21</f>
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="C21" s="7">
         <f>JuneRaw!C21</f>
@@ -8380,19 +8380,19 @@
       </c>
       <c r="D21" s="7">
         <f>JuneRaw!D21</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7">
         <f>JuneRaw!E21</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" s="7">
         <f>JuneRaw!F21</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G21" s="7">
         <f>JuneRaw!G21</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <f>JuneRaw!H21</f>
@@ -8400,11 +8400,11 @@
       </c>
       <c r="I21" s="7">
         <f>JuneRaw!I21</f>
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="J21" s="8">
         <f>JuneRaw!J21</f>
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="B22" s="10">
         <f>JuneRaw!B22</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C22" s="10">
         <f>JuneRaw!C22</f>
@@ -8441,11 +8441,11 @@
       </c>
       <c r="I22" s="10">
         <f>JuneRaw!I22</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J22" s="11">
         <f>JuneRaw!J22</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -8454,7 +8454,7 @@
       </c>
       <c r="B23" s="7">
         <f>JuneRaw!B23</f>
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="C23" s="7">
         <f>JuneRaw!C23</f>
@@ -8462,31 +8462,31 @@
       </c>
       <c r="D23" s="7">
         <f>JuneRaw!D23</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E23" s="7">
         <f>JuneRaw!E23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="7">
         <f>JuneRaw!F23</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G23" s="7">
         <f>JuneRaw!G23</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <f>JuneRaw!H23</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
         <f>JuneRaw!I23</f>
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="J23" s="8">
         <f>JuneRaw!J23</f>
-        <v>0</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="B24" s="10">
         <f>JuneRaw!B24</f>
-        <v>0</v>
+        <v>3204</v>
       </c>
       <c r="C24" s="10">
         <f>JuneRaw!C24</f>
@@ -8503,31 +8503,31 @@
       </c>
       <c r="D24" s="10">
         <f>JuneRaw!D24</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E24" s="10">
         <f>JuneRaw!E24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="10">
         <f>JuneRaw!F24</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G24" s="10">
         <f>JuneRaw!G24</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="H24" s="10">
         <f>JuneRaw!H24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="10">
         <f>JuneRaw!I24</f>
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="J24" s="11">
         <f>JuneRaw!J24</f>
-        <v>0</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B25" s="7">
         <f>JuneRaw!B25</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="C25" s="7">
         <f>JuneRaw!C25</f>
@@ -8544,7 +8544,7 @@
       </c>
       <c r="D25" s="7">
         <f>JuneRaw!D25</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E25" s="7">
         <f>JuneRaw!E25</f>
@@ -8552,11 +8552,11 @@
       </c>
       <c r="F25" s="7">
         <f>JuneRaw!F25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7">
         <f>JuneRaw!G25</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H25" s="7">
         <f>JuneRaw!H25</f>
@@ -8564,11 +8564,11 @@
       </c>
       <c r="I25" s="7">
         <f>JuneRaw!I25</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J25" s="8">
         <f>JuneRaw!J25</f>
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B27" s="7">
         <f>JuneRaw!B27</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C27" s="7">
         <f>JuneRaw!C27</f>
@@ -8626,19 +8626,19 @@
       </c>
       <c r="D27" s="7">
         <f>JuneRaw!D27</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="7">
         <f>JuneRaw!E27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="7">
         <f>JuneRaw!F27</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G27" s="7">
         <f>JuneRaw!G27</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H27" s="7">
         <f>JuneRaw!H27</f>
@@ -8646,11 +8646,11 @@
       </c>
       <c r="I27" s="7">
         <f>JuneRaw!I27</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J27" s="8">
         <f>JuneRaw!J27</f>
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="B28" s="10">
         <f>JuneRaw!B28</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C28" s="10">
         <f>JuneRaw!C28</f>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="D28" s="10">
         <f>JuneRaw!D28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="10">
         <f>JuneRaw!E28</f>
@@ -8675,11 +8675,11 @@
       </c>
       <c r="F28" s="10">
         <f>JuneRaw!F28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
         <f>JuneRaw!G28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="10">
         <f>JuneRaw!H28</f>
@@ -8687,11 +8687,11 @@
       </c>
       <c r="I28" s="10">
         <f>JuneRaw!I28</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J28" s="11">
         <f>JuneRaw!J28</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="B29" s="7">
         <f>JuneRaw!B29</f>
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="C29" s="7">
         <f>JuneRaw!C29</f>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="D29" s="7">
         <f>JuneRaw!D29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="7">
         <f>JuneRaw!E29</f>
@@ -8716,11 +8716,11 @@
       </c>
       <c r="F29" s="7">
         <f>JuneRaw!F29</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7">
         <f>JuneRaw!G29</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H29" s="7">
         <f>JuneRaw!H29</f>
@@ -8728,11 +8728,11 @@
       </c>
       <c r="I29" s="7">
         <f>JuneRaw!I29</f>
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="J29" s="8">
         <f>JuneRaw!J29</f>
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B30" s="10">
         <f>JuneRaw!B30</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C30" s="10">
         <f>JuneRaw!C30</f>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="D30" s="10">
         <f>JuneRaw!D30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="10">
         <f>JuneRaw!E30</f>
@@ -8757,23 +8757,23 @@
       </c>
       <c r="F30" s="10">
         <f>JuneRaw!F30</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="10">
         <f>JuneRaw!G30</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="10">
         <f>JuneRaw!H30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="10">
         <f>JuneRaw!I30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J30" s="11">
         <f>JuneRaw!J30</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="B31" s="7">
         <f>JuneRaw!B31</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C31" s="7">
         <f>JuneRaw!C31</f>
@@ -8790,7 +8790,7 @@
       </c>
       <c r="D31" s="7">
         <f>JuneRaw!D31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="7">
         <f>JuneRaw!E31</f>
@@ -8798,23 +8798,23 @@
       </c>
       <c r="F31" s="7">
         <f>JuneRaw!F31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="7">
         <f>JuneRaw!G31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="7">
         <f>JuneRaw!H31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
         <f>JuneRaw!I31</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J31" s="8">
         <f>JuneRaw!J31</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B32" s="10">
         <f>JuneRaw!B32</f>
-        <v>0</v>
+        <v>1096</v>
       </c>
       <c r="C32" s="10">
         <f>JuneRaw!C32</f>
@@ -8831,31 +8831,31 @@
       </c>
       <c r="D32" s="10">
         <f>JuneRaw!D32</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E32" s="10">
         <f>JuneRaw!E32</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F32" s="10">
         <f>JuneRaw!F32</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G32" s="10">
         <f>JuneRaw!G32</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H32" s="10">
         <f>JuneRaw!H32</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I32" s="10">
         <f>JuneRaw!I32</f>
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="J32" s="11">
         <f>JuneRaw!J32</f>
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B33" s="7">
         <f>JuneRaw!B33</f>
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="C33" s="7">
         <f>JuneRaw!C33</f>
@@ -8872,31 +8872,31 @@
       </c>
       <c r="D33" s="7">
         <f>JuneRaw!D33</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E33" s="7">
         <f>JuneRaw!E33</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="7">
         <f>JuneRaw!F33</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G33" s="7">
         <f>JuneRaw!G33</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H33" s="7">
         <f>JuneRaw!H33</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I33" s="7">
         <f>JuneRaw!I33</f>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="J33" s="8">
         <f>JuneRaw!J33</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B34" s="10">
         <f>JuneRaw!B34</f>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="C34" s="10">
         <f>JuneRaw!C34</f>
@@ -8913,19 +8913,19 @@
       </c>
       <c r="D34" s="10">
         <f>JuneRaw!D34</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E34" s="10">
         <f>JuneRaw!E34</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F34" s="10">
         <f>JuneRaw!F34</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34" s="10">
         <f>JuneRaw!G34</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H34" s="10">
         <f>JuneRaw!H34</f>
@@ -8933,11 +8933,11 @@
       </c>
       <c r="I34" s="10">
         <f>JuneRaw!I34</f>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="J34" s="11">
         <f>JuneRaw!J34</f>
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="B35" s="7">
         <f>JuneRaw!B35</f>
-        <v>0</v>
+        <v>2104</v>
       </c>
       <c r="C35" s="7">
         <f>JuneRaw!C35</f>
@@ -8954,31 +8954,31 @@
       </c>
       <c r="D35" s="7">
         <f>JuneRaw!D35</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="E35" s="7">
         <f>JuneRaw!E35</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="7">
         <f>JuneRaw!F35</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G35" s="7">
         <f>JuneRaw!G35</f>
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="H35" s="7">
         <f>JuneRaw!H35</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35" s="7">
         <f>JuneRaw!I35</f>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="J35" s="8">
         <f>JuneRaw!J35</f>
-        <v>0</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="B36" s="10">
         <f>JuneRaw!B36</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C36" s="10">
         <f>JuneRaw!C36</f>
@@ -8995,19 +8995,19 @@
       </c>
       <c r="D36" s="10">
         <f>JuneRaw!D36</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E36" s="10">
         <f>JuneRaw!E36</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="10">
         <f>JuneRaw!F36</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" s="10">
         <f>JuneRaw!G36</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H36" s="10">
         <f>JuneRaw!H36</f>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="I36" s="10">
         <f>JuneRaw!I36</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J36" s="11">
         <f>JuneRaw!J36</f>
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="B37" s="7">
         <f>JuneRaw!B37</f>
-        <v>0</v>
+        <v>1206</v>
       </c>
       <c r="C37" s="7">
         <f>JuneRaw!C37</f>
@@ -9036,19 +9036,19 @@
       </c>
       <c r="D37" s="7">
         <f>JuneRaw!D37</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E37" s="7">
         <f>JuneRaw!E37</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37" s="7">
         <f>JuneRaw!F37</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G37" s="7">
         <f>JuneRaw!G37</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H37" s="7">
         <f>JuneRaw!H37</f>
@@ -9056,11 +9056,11 @@
       </c>
       <c r="I37" s="7">
         <f>JuneRaw!I37</f>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="J37" s="8">
         <f>JuneRaw!J37</f>
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="B38" s="10">
         <f>JuneRaw!B38</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C38" s="10">
         <f>JuneRaw!C38</f>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="D38" s="10">
         <f>JuneRaw!D38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="10">
         <f>JuneRaw!E38</f>
@@ -9085,11 +9085,11 @@
       </c>
       <c r="F38" s="10">
         <f>JuneRaw!F38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10">
         <f>JuneRaw!G38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="10">
         <f>JuneRaw!H38</f>
@@ -9097,11 +9097,11 @@
       </c>
       <c r="I38" s="10">
         <f>JuneRaw!I38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="11">
         <f>JuneRaw!J38</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="B39" s="7">
         <f>JuneRaw!B39</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="C39" s="7">
         <f>JuneRaw!C39</f>
@@ -9118,7 +9118,7 @@
       </c>
       <c r="D39" s="7">
         <f>JuneRaw!D39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="7">
         <f>JuneRaw!E39</f>
@@ -9126,11 +9126,11 @@
       </c>
       <c r="F39" s="7">
         <f>JuneRaw!F39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7">
         <f>JuneRaw!G39</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" s="7">
         <f>JuneRaw!H39</f>
@@ -9138,11 +9138,11 @@
       </c>
       <c r="I39" s="7">
         <f>JuneRaw!I39</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J39" s="8">
         <f>JuneRaw!J39</f>
-        <v>0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="E41" s="22">
         <f>JuneRaw!E41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="22">
         <f>JuneRaw!F41</f>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="G41" s="22">
         <f>JuneRaw!G41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" s="22">
         <f>JuneRaw!H41</f>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="B45" s="7">
         <f>JuneRaw!B45</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="C45" s="7">
         <f>JuneRaw!C45</f>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="D45" s="7">
         <f>JuneRaw!D45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="7">
         <f>JuneRaw!E45</f>
@@ -9372,11 +9372,11 @@
       </c>
       <c r="F45" s="7">
         <f>JuneRaw!F45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="7">
         <f>JuneRaw!G45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45" s="7">
         <f>JuneRaw!H45</f>
@@ -9384,11 +9384,11 @@
       </c>
       <c r="I45" s="7">
         <f>JuneRaw!I45</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J45" s="8">
         <f>JuneRaw!J45</f>
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="B46" s="10">
         <f>JuneRaw!B46</f>
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="C46" s="10">
         <f>JuneRaw!C46</f>
@@ -9405,19 +9405,19 @@
       </c>
       <c r="D46" s="10">
         <f>JuneRaw!D46</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E46" s="10">
         <f>JuneRaw!E46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="10">
         <f>JuneRaw!F46</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G46" s="10">
         <f>JuneRaw!G46</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H46" s="10">
         <f>JuneRaw!H46</f>
@@ -9425,11 +9425,11 @@
       </c>
       <c r="I46" s="10">
         <f>JuneRaw!I46</f>
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="J46" s="11">
         <f>JuneRaw!J46</f>
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B47" s="7">
         <f>JuneRaw!B47</f>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="C47" s="7">
         <f>JuneRaw!C47</f>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="D47" s="7">
         <f>JuneRaw!D47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7">
         <f>JuneRaw!E47</f>
@@ -9454,11 +9454,11 @@
       </c>
       <c r="F47" s="7">
         <f>JuneRaw!F47</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G47" s="7">
         <f>JuneRaw!G47</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H47" s="7">
         <f>JuneRaw!H47</f>
@@ -9466,11 +9466,11 @@
       </c>
       <c r="I47" s="7">
         <f>JuneRaw!I47</f>
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="J47" s="8">
         <f>JuneRaw!J47</f>
-        <v>0</v>
+        <v>622</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="B48" s="10">
         <f>JuneRaw!B48</f>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="C48" s="10">
         <f>JuneRaw!C48</f>
@@ -9487,31 +9487,31 @@
       </c>
       <c r="D48" s="10">
         <f>JuneRaw!D48</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E48" s="10">
         <f>JuneRaw!E48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="10">
         <f>JuneRaw!F48</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G48" s="10">
         <f>JuneRaw!G48</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H48" s="10">
         <f>JuneRaw!H48</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48" s="10">
         <f>JuneRaw!I48</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="J48" s="11">
         <f>JuneRaw!J48</f>
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B49" s="7">
         <f>JuneRaw!B49</f>
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="C49" s="7">
         <f>JuneRaw!C49</f>
@@ -9528,19 +9528,19 @@
       </c>
       <c r="D49" s="7">
         <f>JuneRaw!D49</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E49" s="7">
         <f>JuneRaw!E49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="7">
         <f>JuneRaw!F49</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G49" s="7">
         <f>JuneRaw!G49</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H49" s="7">
         <f>JuneRaw!H49</f>
@@ -9548,11 +9548,11 @@
       </c>
       <c r="I49" s="7">
         <f>JuneRaw!I49</f>
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="J49" s="8">
         <f>JuneRaw!J49</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B50" s="10">
         <f>JuneRaw!B50</f>
-        <v>0</v>
+        <v>1628</v>
       </c>
       <c r="C50" s="10">
         <f>JuneRaw!C50</f>
@@ -9569,31 +9569,31 @@
       </c>
       <c r="D50" s="10">
         <f>JuneRaw!D50</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E50" s="10">
         <f>JuneRaw!E50</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="10">
         <f>JuneRaw!F50</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G50" s="10">
         <f>JuneRaw!G50</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H50" s="10">
         <f>JuneRaw!H50</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I50" s="10">
         <f>JuneRaw!I50</f>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="J50" s="11">
         <f>JuneRaw!J50</f>
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="B51" s="7">
         <f>JuneRaw!B51</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C51" s="7">
         <f>JuneRaw!C51</f>
@@ -9610,31 +9610,31 @@
       </c>
       <c r="D51" s="7">
         <f>JuneRaw!D51</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E51" s="7">
         <f>JuneRaw!E51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="7">
         <f>JuneRaw!F51</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G51" s="7">
         <f>JuneRaw!G51</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H51" s="7">
         <f>JuneRaw!H51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
         <f>JuneRaw!I51</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J51" s="8">
         <f>JuneRaw!J51</f>
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="B52" s="10">
         <f>JuneRaw!B52</f>
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="C52" s="10">
         <f>JuneRaw!C52</f>
@@ -9651,19 +9651,19 @@
       </c>
       <c r="D52" s="10">
         <f>JuneRaw!D52</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E52" s="10">
         <f>JuneRaw!E52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="10">
         <f>JuneRaw!F52</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G52" s="10">
         <f>JuneRaw!G52</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H52" s="10">
         <f>JuneRaw!H52</f>
@@ -9671,11 +9671,11 @@
       </c>
       <c r="I52" s="10">
         <f>JuneRaw!I52</f>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="J52" s="11">
         <f>JuneRaw!J52</f>
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B53" s="7">
         <f>JuneRaw!B53</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C53" s="7">
         <f>JuneRaw!C53</f>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="D53" s="7">
         <f>JuneRaw!D53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="7">
         <f>JuneRaw!E53</f>
@@ -9700,11 +9700,11 @@
       </c>
       <c r="F53" s="7">
         <f>JuneRaw!F53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" s="7">
         <f>JuneRaw!G53</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H53" s="7">
         <f>JuneRaw!H53</f>
@@ -9712,11 +9712,11 @@
       </c>
       <c r="I53" s="7">
         <f>JuneRaw!I53</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J53" s="8">
         <f>JuneRaw!J53</f>
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="B54" s="10">
         <f>JuneRaw!B54</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C54" s="10">
         <f>JuneRaw!C54</f>
@@ -9733,11 +9733,11 @@
       </c>
       <c r="D54" s="10">
         <f>JuneRaw!D54</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E54" s="10">
         <f>JuneRaw!E54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="10">
         <f>JuneRaw!F54</f>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="G54" s="10">
         <f>JuneRaw!G54</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H54" s="10">
         <f>JuneRaw!H54</f>
@@ -9753,11 +9753,11 @@
       </c>
       <c r="I54" s="10">
         <f>JuneRaw!I54</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J54" s="11">
         <f>JuneRaw!J54</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B55" s="7">
         <f>JuneRaw!B55</f>
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="C55" s="7">
         <f>JuneRaw!C55</f>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="D55" s="7">
         <f>JuneRaw!D55</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7">
         <f>JuneRaw!E55</f>
@@ -9782,23 +9782,23 @@
       </c>
       <c r="F55" s="7">
         <f>JuneRaw!F55</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G55" s="7">
         <f>JuneRaw!G55</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H55" s="7">
         <f>JuneRaw!H55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
         <f>JuneRaw!I55</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J55" s="8">
         <f>JuneRaw!J55</f>
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -9815,31 +9815,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>34202</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -9897,31 +9897,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1651</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2533</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15243</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18959</v>
       </c>
     </row>
   </sheetData>
@@ -9933,12 +9933,1773 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCCA3B6-BCDB-4F08-B4A5-E8BE75D95F50}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2958</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>102</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <v>174</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>692</v>
+      </c>
+      <c r="J2">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>882</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>384</v>
+      </c>
+      <c r="J3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3646</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>189</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>267</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>1178</v>
+      </c>
+      <c r="J4">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>56</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2748</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>259</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>318</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1332</v>
+      </c>
+      <c r="J6">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>188</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>238</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>116</v>
+      </c>
+      <c r="J8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>268</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>310</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>196</v>
+      </c>
+      <c r="J14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>218</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>172</v>
+      </c>
+      <c r="J15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1186</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>83</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>614</v>
+      </c>
+      <c r="J17">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>26</v>
+      </c>
+      <c r="J18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>960</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>74</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>630</v>
+      </c>
+      <c r="J19">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>892</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>56</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>442</v>
+      </c>
+      <c r="J21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>68</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>42</v>
+      </c>
+      <c r="J22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1414</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>57</v>
+      </c>
+      <c r="G23">
+        <v>123</v>
+      </c>
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>372</v>
+      </c>
+      <c r="J23">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>3204</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>180</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>68</v>
+      </c>
+      <c r="G24">
+        <v>253</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>856</v>
+      </c>
+      <c r="J24">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>302</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>27</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>132</v>
+      </c>
+      <c r="J25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>400</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>204</v>
+      </c>
+      <c r="J27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>68</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>872</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>416</v>
+      </c>
+      <c r="J29">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>22</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>46</v>
+      </c>
+      <c r="J31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1096</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>73</v>
+      </c>
+      <c r="G32">
+        <v>150</v>
+      </c>
+      <c r="H32">
+        <v>39</v>
+      </c>
+      <c r="I32">
+        <v>776</v>
+      </c>
+      <c r="J32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>806</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>35</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>556</v>
+      </c>
+      <c r="J33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>440</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>57</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>74</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>322</v>
+      </c>
+      <c r="J34">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2104</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>190</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <v>233</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>864</v>
+      </c>
+      <c r="J35">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>450</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>254</v>
+      </c>
+      <c r="J36">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1206</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>146</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>41</v>
+      </c>
+      <c r="G37">
+        <v>192</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>804</v>
+      </c>
+      <c r="J37">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>462</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>128</v>
+      </c>
+      <c r="J39">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>216</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>138</v>
+      </c>
+      <c r="J45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>744</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>28</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>452</v>
+      </c>
+      <c r="J46">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1040</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>418</v>
+      </c>
+      <c r="J47">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>420</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>166</v>
+      </c>
+      <c r="J48">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>508</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>258</v>
+      </c>
+      <c r="J49">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1628</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>29</v>
+      </c>
+      <c r="G50">
+        <v>72</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>760</v>
+      </c>
+      <c r="J50">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>310</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>31</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>144</v>
+      </c>
+      <c r="J51">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>626</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>33</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>354</v>
+      </c>
+      <c r="J52">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>310</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>82</v>
+      </c>
+      <c r="J53">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>506</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>26</v>
+      </c>
+      <c r="G55">
+        <v>29</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>260</v>
+      </c>
+      <c r="J55">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681E96BF-A7CF-4451-89A7-4477897E0488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E8F1C-D512-44C2-B8D8-A8867D207192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="104">
   <si>
     <t>Library</t>
   </si>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>16674</v>
+        <v>19706</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1037,31 +1037,31 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>554</v>
+        <v>655</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>914</v>
+        <v>1074</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>3942</v>
+        <v>4762</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>12732</v>
+        <v>14944</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>5354</v>
+        <v>6326</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>2076</v>
+        <v>2418</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>3278</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>19528</v>
+        <v>22412</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1119,31 +1119,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>1083</v>
+        <v>1255</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>1484</v>
+        <v>1729</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>5478</v>
+        <v>6470</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>14050</v>
+        <v>15942</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>19610</v>
+        <v>22752</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1201,31 +1201,31 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>1357</v>
+        <v>1604</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>1816</v>
+        <v>2149</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>8260</v>
+        <v>9630</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>11350</v>
+        <v>13122</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2348</v>
+        <v>2774</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1242,31 +1242,31 @@
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>1294</v>
+        <v>1494</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>1054</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1266</v>
+        <v>1490</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
@@ -1291,11 +1291,11 @@
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>608</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="F9" s="7">
         <f>January!F9+February!F9+March!F9+April!F9+May!F9+June!F9+July!F9+August!F9+September!F9+October!F9+November!F9+December!F9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>906</v>
+        <v>1090</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1447,19 +1447,19 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>900</v>
+        <v>1084</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>1668</v>
+        <v>2044</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1496,11 +1496,11 @@
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>1286</v>
+        <v>1486</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>382</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>1742</v>
+        <v>2008</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1529,19 +1529,19 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
@@ -1549,11 +1549,11 @@
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>1248</v>
+        <v>1430</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>494</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1082</v>
+        <v>1362</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1570,19 +1570,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>836</v>
+        <v>1014</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>246</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>372</v>
+        <v>476</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1619,11 +1619,11 @@
       </c>
       <c r="F16" s="10">
         <f>January!F16+February!F16+March!F16+April!F16+May!F16+June!F16+July!F16+August!F16+September!F16+October!F16+November!F16+December!F16</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>7180</v>
+        <v>8428</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1652,19 +1652,19 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>463</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
@@ -1672,11 +1672,11 @@
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>3470</v>
+        <v>4096</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>3710</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>808</v>
+        <v>892</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>656</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>6240</v>
+        <v>7372</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1734,31 +1734,31 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>508</v>
+        <v>618</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>3622</v>
+        <v>4264</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>2618</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B20" s="10">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20" s="10">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="J20" s="11">
         <f>January!J20+February!J20+March!J20+April!J20+May!J20+June!J20+July!J20+August!J20+September!J20+October!J20+November!J20+December!J20</f>
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>6056</v>
+        <v>6948</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
@@ -1824,11 +1824,11 @@
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
@@ -1836,11 +1836,11 @@
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>3396</v>
+        <v>3790</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>2660</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="D22" s="10">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>8550</v>
+        <v>9734</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1898,31 +1898,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>544</v>
+        <v>647</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>915</v>
+        <v>1069</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>2590</v>
+        <v>2868</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>5960</v>
+        <v>6866</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>23280</v>
+        <v>27282</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1939,31 +1939,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>1165</v>
+        <v>1327</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>1694</v>
+        <v>1953</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>6324</v>
+        <v>7428</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>16956</v>
+        <v>19854</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>1920</v>
+        <v>2162</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1980,19 +1980,19 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>910</v>
+        <v>1032</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>1010</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2444</v>
+        <v>2924</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2062,19 +2062,19 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>1304</v>
+        <v>1514</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>1140</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>522</v>
+        <v>604</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="F28" s="10">
         <f>January!F28+February!F28+March!F28+April!F28+May!F28+June!F28+July!F28+August!F28+September!F28+October!F28+November!F28+December!F28</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>5164</v>
+        <v>6100</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2144,19 +2144,19 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>2286</v>
+        <v>2702</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>2878</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2193,23 +2193,23 @@
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>752</v>
+        <v>850</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>498</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>6408</v>
+        <v>7670</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2267,31 +2267,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>426</v>
+        <v>548</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>1017</v>
+        <v>1228</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>4592</v>
+        <v>5550</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>1816</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>5554</v>
+        <v>6380</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
@@ -2316,23 +2316,23 @@
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>3926</v>
+        <v>4528</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>1628</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>2470</v>
+        <v>2742</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2349,19 +2349,19 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>1759</v>
+        <v>1929</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>711</v>
+        <v>813</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>13482</v>
+        <v>15860</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2390,31 +2390,31 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>1085</v>
+        <v>1270</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>1461</v>
+        <v>1688</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>6070</v>
+        <v>7012</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>7412</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>2412</v>
+        <v>2910</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2431,19 +2431,19 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
@@ -2451,11 +2451,11 @@
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>1302</v>
+        <v>1490</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>1110</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>6768</v>
+        <v>7834</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2472,19 +2472,19 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>720</v>
+        <v>825</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>920</v>
+        <v>1059</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>4122</v>
+        <v>4782</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>2646</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2521,11 +2521,11 @@
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>1465</v>
+        <v>1555</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
@@ -2562,11 +2562,11 @@
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
@@ -2574,11 +2574,11 @@
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>1085</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>960</v>
+        <v>1045</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="D45" s="7">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E45" s="7">
         <f>January!E45+February!E45+March!E45+April!E45+May!E45+June!E45+July!E45+August!E45+September!E45+October!E45+November!E45+December!E45</f>
@@ -2808,11 +2808,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>4290</v>
+        <v>5110</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
@@ -2849,11 +2849,11 @@
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>2782</v>
+        <v>3346</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>1508</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>8724</v>
+        <v>9766</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
@@ -2902,11 +2902,11 @@
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>2858</v>
+        <v>3184</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>5866</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>2574</v>
+        <v>2974</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
@@ -2931,23 +2931,23 @@
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>1096</v>
+        <v>1250</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>1478</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>3198</v>
+        <v>3764</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>1646</v>
+        <v>1878</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>1552</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>9922</v>
+        <v>11544</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3005,31 +3005,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>4616</v>
+        <v>5332</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>5306</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>2286</v>
+        <v>2638</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3046,19 +3046,19 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>1210</v>
+        <v>1336</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>1076</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>5044</v>
+        <v>5674</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3087,31 +3087,31 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>3100</v>
+        <v>3444</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>1944</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1224</v>
+        <v>1468</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
@@ -3136,11 +3136,11 @@
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>812</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
@@ -3177,11 +3177,11 @@
       </c>
       <c r="F54" s="10">
         <f>January!F54+February!F54+March!F54+April!F54+May!F54+June!F54+July!F54+August!F54+September!F54+October!F54+November!F54+December!F54</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>2176</v>
+        <v>2544</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>886</v>
+        <v>1112</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>1290</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>5398</v>
+        <v>6504</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3251,19 +3251,19 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -3271,11 +3271,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>4270</v>
+        <v>5014</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>215496</v>
+        <v>250541</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3333,31 +3333,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>9927</v>
+        <v>11532</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>835</v>
+        <v>940</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>5419</v>
+        <v>6404</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>16181</v>
+        <v>18876</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>961</v>
+        <v>1096</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>94668</v>
+        <v>109814</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>120828</v>
+        <v>140727</v>
       </c>
     </row>
   </sheetData>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="B2" s="4">
         <f>JulyRaw!B2</f>
-        <v>0</v>
+        <v>3032</v>
       </c>
       <c r="C2" s="4">
         <f>JulyRaw!C2</f>
@@ -11768,31 +11768,31 @@
       </c>
       <c r="D2" s="4">
         <f>JulyRaw!D2</f>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4">
         <f>JulyRaw!E2</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4">
         <f>JulyRaw!F2</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4">
         <f>JulyRaw!G2</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H2" s="4">
         <f>JulyRaw!H2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
         <f>JulyRaw!I2</f>
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="J2" s="5">
         <f>JulyRaw!J2</f>
-        <v>0</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B3" s="7">
         <f>JulyRaw!B3</f>
-        <v>0</v>
+        <v>972</v>
       </c>
       <c r="C3" s="7">
         <f>JulyRaw!C3</f>
@@ -11809,31 +11809,31 @@
       </c>
       <c r="D3" s="7">
         <f>JulyRaw!D3</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E3" s="7">
         <f>JulyRaw!E3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7">
         <f>JulyRaw!F3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7">
         <f>JulyRaw!G3</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H3" s="7">
         <f>JulyRaw!H3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="7">
         <f>JulyRaw!I3</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="J3" s="8">
         <f>JulyRaw!J3</f>
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="B4" s="10">
         <f>JulyRaw!B4</f>
-        <v>0</v>
+        <v>2884</v>
       </c>
       <c r="C4" s="10">
         <f>JulyRaw!C4</f>
@@ -11850,31 +11850,31 @@
       </c>
       <c r="D4" s="10">
         <f>JulyRaw!D4</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E4" s="10">
         <f>JulyRaw!E4</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4" s="10">
         <f>JulyRaw!F4</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G4" s="10">
         <f>JulyRaw!G4</f>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="H4" s="10">
         <f>JulyRaw!H4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="10">
         <f>JulyRaw!I4</f>
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="J4" s="11">
         <f>JulyRaw!J4</f>
-        <v>0</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="B5" s="7">
         <f>JulyRaw!B5</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7">
         <f>JulyRaw!C5</f>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="I5" s="7">
         <f>JulyRaw!I5</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J5" s="8">
         <f>JulyRaw!J5</f>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="B6" s="10">
         <f>JulyRaw!B6</f>
-        <v>0</v>
+        <v>3142</v>
       </c>
       <c r="C6" s="10">
         <f>JulyRaw!C6</f>
@@ -11932,31 +11932,31 @@
       </c>
       <c r="D6" s="10">
         <f>JulyRaw!D6</f>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E6" s="10">
         <f>JulyRaw!E6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="10">
         <f>JulyRaw!F6</f>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G6" s="10">
         <f>JulyRaw!G6</f>
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="H6" s="10">
         <f>JulyRaw!H6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="10">
         <f>JulyRaw!I6</f>
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="J6" s="11">
         <f>JulyRaw!J6</f>
-        <v>0</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="B7" s="7">
         <f>JulyRaw!B7</f>
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="C7" s="7">
         <f>JulyRaw!C7</f>
@@ -11973,31 +11973,31 @@
       </c>
       <c r="D7" s="7">
         <f>JulyRaw!D7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <f>JulyRaw!E7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7">
         <f>JulyRaw!F7</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G7" s="7">
         <f>JulyRaw!G7</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <f>JulyRaw!H7</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
         <f>JulyRaw!I7</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J7" s="8">
         <f>JulyRaw!J7</f>
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="B8" s="10">
         <f>JulyRaw!B8</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="C8" s="10">
         <f>JulyRaw!C8</f>
@@ -12014,7 +12014,7 @@
       </c>
       <c r="D8" s="10">
         <f>JulyRaw!D8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
         <f>JulyRaw!E8</f>
@@ -12022,11 +12022,11 @@
       </c>
       <c r="F8" s="10">
         <f>JulyRaw!F8</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G8" s="10">
         <f>JulyRaw!G8</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H8" s="10">
         <f>JulyRaw!H8</f>
@@ -12034,11 +12034,11 @@
       </c>
       <c r="I8" s="10">
         <f>JulyRaw!I8</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J8" s="11">
         <f>JulyRaw!J8</f>
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="B9" s="7">
         <f>JulyRaw!B9</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C9" s="7">
         <f>JulyRaw!C9</f>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="D9" s="7">
         <f>JulyRaw!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
         <f>JulyRaw!E9</f>
@@ -12063,11 +12063,11 @@
       </c>
       <c r="F9" s="7">
         <f>JulyRaw!F9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
         <f>JulyRaw!G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7">
         <f>JulyRaw!H9</f>
@@ -12075,11 +12075,11 @@
       </c>
       <c r="I9" s="7">
         <f>JulyRaw!I9</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J9" s="8">
         <f>JulyRaw!J9</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="B12" s="13">
         <f>JulyRaw!B12</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C12" s="13">
         <f>JulyRaw!C12</f>
@@ -12178,19 +12178,19 @@
       </c>
       <c r="D12" s="13">
         <f>JulyRaw!D12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="13">
         <f>JulyRaw!E12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="13">
         <f>JulyRaw!F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13">
         <f>JulyRaw!G12</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="13">
         <f>JulyRaw!H12</f>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="I12" s="13">
         <f>JulyRaw!I12</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J12" s="14">
         <f>JulyRaw!J12</f>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="B13" s="16">
         <f>JulyRaw!B13</f>
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="C13" s="16">
         <f>JulyRaw!C13</f>
@@ -12227,11 +12227,11 @@
       </c>
       <c r="F13" s="16">
         <f>JulyRaw!F13</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="16">
         <f>JulyRaw!G13</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13" s="16">
         <f>JulyRaw!H13</f>
@@ -12239,11 +12239,11 @@
       </c>
       <c r="I13" s="16">
         <f>JulyRaw!I13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J13" s="17">
         <f>JulyRaw!J13</f>
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="B14" s="13">
         <f>JulyRaw!B14</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="C14" s="13">
         <f>JulyRaw!C14</f>
@@ -12260,19 +12260,19 @@
       </c>
       <c r="D14" s="13">
         <f>JulyRaw!D14</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E14" s="13">
         <f>JulyRaw!E14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="13">
         <f>JulyRaw!F14</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G14" s="13">
         <f>JulyRaw!G14</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H14" s="13">
         <f>JulyRaw!H14</f>
@@ -12280,11 +12280,11 @@
       </c>
       <c r="I14" s="13">
         <f>JulyRaw!I14</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="J14" s="14">
         <f>JulyRaw!J14</f>
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -12293,7 +12293,7 @@
       </c>
       <c r="B15" s="16">
         <f>JulyRaw!B15</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="C15" s="16">
         <f>JulyRaw!C15</f>
@@ -12301,19 +12301,19 @@
       </c>
       <c r="D15" s="16">
         <f>JulyRaw!D15</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E15" s="16">
         <f>JulyRaw!E15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="16">
         <f>JulyRaw!F15</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G15" s="16">
         <f>JulyRaw!G15</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H15" s="16">
         <f>JulyRaw!H15</f>
@@ -12321,11 +12321,11 @@
       </c>
       <c r="I15" s="16">
         <f>JulyRaw!I15</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="J15" s="17">
         <f>JulyRaw!J15</f>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -12334,7 +12334,7 @@
       </c>
       <c r="B16" s="10">
         <f>JulyRaw!B16</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10">
         <f>JulyRaw!C16</f>
@@ -12350,11 +12350,11 @@
       </c>
       <c r="F16" s="10">
         <f>JulyRaw!F16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="10">
         <f>JulyRaw!G16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="10">
         <f>JulyRaw!H16</f>
@@ -12362,11 +12362,11 @@
       </c>
       <c r="I16" s="10">
         <f>JulyRaw!I16</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J16" s="11">
         <f>JulyRaw!J16</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="B17" s="7">
         <f>JulyRaw!B17</f>
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="C17" s="7">
         <f>JulyRaw!C17</f>
@@ -12383,19 +12383,19 @@
       </c>
       <c r="D17" s="7">
         <f>JulyRaw!D17</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E17" s="7">
         <f>JulyRaw!E17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7">
         <f>JulyRaw!F17</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7">
         <f>JulyRaw!G17</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <f>JulyRaw!H17</f>
@@ -12403,11 +12403,11 @@
       </c>
       <c r="I17" s="7">
         <f>JulyRaw!I17</f>
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="J17" s="8">
         <f>JulyRaw!J17</f>
-        <v>0</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="B18" s="10">
         <f>JulyRaw!B18</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C18" s="10">
         <f>JulyRaw!C18</f>
@@ -12424,7 +12424,7 @@
       </c>
       <c r="D18" s="10">
         <f>JulyRaw!D18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="10">
         <f>JulyRaw!E18</f>
@@ -12432,11 +12432,11 @@
       </c>
       <c r="F18" s="10">
         <f>JulyRaw!F18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
         <f>JulyRaw!G18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="10">
         <f>JulyRaw!H18</f>
@@ -12444,11 +12444,11 @@
       </c>
       <c r="I18" s="10">
         <f>JulyRaw!I18</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J18" s="11">
         <f>JulyRaw!J18</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="B19" s="7">
         <f>JulyRaw!B19</f>
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="C19" s="7">
         <f>JulyRaw!C19</f>
@@ -12465,31 +12465,31 @@
       </c>
       <c r="D19" s="7">
         <f>JulyRaw!D19</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E19" s="7">
         <f>JulyRaw!E19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="7">
         <f>JulyRaw!F19</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7">
         <f>JulyRaw!G19</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <f>JulyRaw!H19</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
         <f>JulyRaw!I19</f>
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J19" s="8">
         <f>JulyRaw!J19</f>
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="B20" s="10">
         <f>JulyRaw!B20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="10">
         <f>JulyRaw!C20</f>
@@ -12530,7 +12530,7 @@
       </c>
       <c r="J20" s="11">
         <f>JulyRaw!J20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="B21" s="7">
         <f>JulyRaw!B21</f>
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="C21" s="7">
         <f>JulyRaw!C21</f>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="D21" s="7">
         <f>JulyRaw!D21</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E21" s="7">
         <f>JulyRaw!E21</f>
@@ -12555,11 +12555,11 @@
       </c>
       <c r="F21" s="7">
         <f>JulyRaw!F21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7">
         <f>JulyRaw!G21</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <f>JulyRaw!H21</f>
@@ -12567,11 +12567,11 @@
       </c>
       <c r="I21" s="7">
         <f>JulyRaw!I21</f>
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="J21" s="8">
         <f>JulyRaw!J21</f>
-        <v>0</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="B22" s="10">
         <f>JulyRaw!B22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C22" s="10">
         <f>JulyRaw!C22</f>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="D22" s="10">
         <f>JulyRaw!D22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="10">
         <f>JulyRaw!E22</f>
@@ -12596,11 +12596,11 @@
       </c>
       <c r="F22" s="10">
         <f>JulyRaw!F22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10">
         <f>JulyRaw!G22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="10">
         <f>JulyRaw!H22</f>
@@ -12608,11 +12608,11 @@
       </c>
       <c r="I22" s="10">
         <f>JulyRaw!I22</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J22" s="11">
         <f>JulyRaw!J22</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="B23" s="7">
         <f>JulyRaw!B23</f>
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="C23" s="7">
         <f>JulyRaw!C23</f>
@@ -12629,31 +12629,31 @@
       </c>
       <c r="D23" s="7">
         <f>JulyRaw!D23</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E23" s="7">
         <f>JulyRaw!E23</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="7">
         <f>JulyRaw!F23</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7">
         <f>JulyRaw!G23</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
         <f>JulyRaw!H23</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I23" s="7">
         <f>JulyRaw!I23</f>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="J23" s="8">
         <f>JulyRaw!J23</f>
-        <v>0</v>
+        <v>906</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -12662,7 +12662,7 @@
       </c>
       <c r="B24" s="10">
         <f>JulyRaw!B24</f>
-        <v>0</v>
+        <v>4002</v>
       </c>
       <c r="C24" s="10">
         <f>JulyRaw!C24</f>
@@ -12670,31 +12670,31 @@
       </c>
       <c r="D24" s="10">
         <f>JulyRaw!D24</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E24" s="10">
         <f>JulyRaw!E24</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F24" s="10">
         <f>JulyRaw!F24</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G24" s="10">
         <f>JulyRaw!G24</f>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="H24" s="10">
         <f>JulyRaw!H24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="10">
         <f>JulyRaw!I24</f>
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="J24" s="11">
         <f>JulyRaw!J24</f>
-        <v>0</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="B25" s="7">
         <f>JulyRaw!B25</f>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="C25" s="7">
         <f>JulyRaw!C25</f>
@@ -12711,19 +12711,19 @@
       </c>
       <c r="D25" s="7">
         <f>JulyRaw!D25</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E25" s="7">
         <f>JulyRaw!E25</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="7">
         <f>JulyRaw!F25</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7">
         <f>JulyRaw!G25</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H25" s="7">
         <f>JulyRaw!H25</f>
@@ -12731,11 +12731,11 @@
       </c>
       <c r="I25" s="7">
         <f>JulyRaw!I25</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J25" s="8">
         <f>JulyRaw!J25</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="B27" s="7">
         <f>JulyRaw!B27</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="C27" s="7">
         <f>JulyRaw!C27</f>
@@ -12793,19 +12793,19 @@
       </c>
       <c r="D27" s="7">
         <f>JulyRaw!D27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="7">
         <f>JulyRaw!E27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="7">
         <f>JulyRaw!F27</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G27" s="7">
         <f>JulyRaw!G27</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H27" s="7">
         <f>JulyRaw!H27</f>
@@ -12813,11 +12813,11 @@
       </c>
       <c r="I27" s="7">
         <f>JulyRaw!I27</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J27" s="8">
         <f>JulyRaw!J27</f>
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B28" s="10">
         <f>JulyRaw!B28</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C28" s="10">
         <f>JulyRaw!C28</f>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="D28" s="10">
         <f>JulyRaw!D28</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28" s="10">
         <f>JulyRaw!E28</f>
@@ -12842,11 +12842,11 @@
       </c>
       <c r="F28" s="10">
         <f>JulyRaw!F28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10">
         <f>JulyRaw!G28</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H28" s="10">
         <f>JulyRaw!H28</f>
@@ -12854,11 +12854,11 @@
       </c>
       <c r="I28" s="10">
         <f>JulyRaw!I28</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J28" s="11">
         <f>JulyRaw!J28</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -12867,7 +12867,7 @@
       </c>
       <c r="B29" s="7">
         <f>JulyRaw!B29</f>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="C29" s="7">
         <f>JulyRaw!C29</f>
@@ -12875,19 +12875,19 @@
       </c>
       <c r="D29" s="7">
         <f>JulyRaw!D29</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E29" s="7">
         <f>JulyRaw!E29</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="7">
         <f>JulyRaw!F29</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G29" s="7">
         <f>JulyRaw!G29</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H29" s="7">
         <f>JulyRaw!H29</f>
@@ -12895,11 +12895,11 @@
       </c>
       <c r="I29" s="7">
         <f>JulyRaw!I29</f>
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="J29" s="8">
         <f>JulyRaw!J29</f>
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="B30" s="10">
         <f>JulyRaw!B30</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C30" s="10">
         <f>JulyRaw!C30</f>
@@ -12924,23 +12924,23 @@
       </c>
       <c r="F30" s="10">
         <f>JulyRaw!F30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="10">
         <f>JulyRaw!G30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="10">
         <f>JulyRaw!H30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="10">
         <f>JulyRaw!I30</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J30" s="11">
         <f>JulyRaw!J30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -12949,7 +12949,7 @@
       </c>
       <c r="B31" s="7">
         <f>JulyRaw!B31</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C31" s="7">
         <f>JulyRaw!C31</f>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="D31" s="7">
         <f>JulyRaw!D31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7">
         <f>JulyRaw!E31</f>
@@ -12965,11 +12965,11 @@
       </c>
       <c r="F31" s="7">
         <f>JulyRaw!F31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="7">
         <f>JulyRaw!G31</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="7">
         <f>JulyRaw!H31</f>
@@ -12977,11 +12977,11 @@
       </c>
       <c r="I31" s="7">
         <f>JulyRaw!I31</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J31" s="8">
         <f>JulyRaw!J31</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="B32" s="10">
         <f>JulyRaw!B32</f>
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="C32" s="10">
         <f>JulyRaw!C32</f>
@@ -12998,31 +12998,31 @@
       </c>
       <c r="D32" s="10">
         <f>JulyRaw!D32</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E32" s="10">
         <f>JulyRaw!E32</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F32" s="10">
         <f>JulyRaw!F32</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="G32" s="10">
         <f>JulyRaw!G32</f>
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="H32" s="10">
         <f>JulyRaw!H32</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I32" s="10">
         <f>JulyRaw!I32</f>
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="J32" s="11">
         <f>JulyRaw!J32</f>
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="B33" s="7">
         <f>JulyRaw!B33</f>
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="C33" s="7">
         <f>JulyRaw!C33</f>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="D33" s="7">
         <f>JulyRaw!D33</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E33" s="7">
         <f>JulyRaw!E33</f>
@@ -13047,23 +13047,23 @@
       </c>
       <c r="F33" s="7">
         <f>JulyRaw!F33</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G33" s="7">
         <f>JulyRaw!G33</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <f>JulyRaw!H33</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="7">
         <f>JulyRaw!I33</f>
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="J33" s="8">
         <f>JulyRaw!J33</f>
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="B34" s="10">
         <f>JulyRaw!B34</f>
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="C34" s="10">
         <f>JulyRaw!C34</f>
@@ -13080,19 +13080,19 @@
       </c>
       <c r="D34" s="10">
         <f>JulyRaw!D34</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E34" s="10">
         <f>JulyRaw!E34</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="10">
         <f>JulyRaw!F34</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="10">
         <f>JulyRaw!G34</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H34" s="10">
         <f>JulyRaw!H34</f>
@@ -13100,11 +13100,11 @@
       </c>
       <c r="I34" s="10">
         <f>JulyRaw!I34</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J34" s="11">
         <f>JulyRaw!J34</f>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="B35" s="7">
         <f>JulyRaw!B35</f>
-        <v>0</v>
+        <v>2378</v>
       </c>
       <c r="C35" s="7">
         <f>JulyRaw!C35</f>
@@ -13121,31 +13121,31 @@
       </c>
       <c r="D35" s="7">
         <f>JulyRaw!D35</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E35" s="7">
         <f>JulyRaw!E35</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35" s="7">
         <f>JulyRaw!F35</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G35" s="7">
         <f>JulyRaw!G35</f>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="H35" s="7">
         <f>JulyRaw!H35</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" s="7">
         <f>JulyRaw!I35</f>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="J35" s="8">
         <f>JulyRaw!J35</f>
-        <v>0</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -13154,7 +13154,7 @@
       </c>
       <c r="B36" s="10">
         <f>JulyRaw!B36</f>
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="C36" s="10">
         <f>JulyRaw!C36</f>
@@ -13162,19 +13162,19 @@
       </c>
       <c r="D36" s="10">
         <f>JulyRaw!D36</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E36" s="10">
         <f>JulyRaw!E36</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36" s="10">
         <f>JulyRaw!F36</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G36" s="10">
         <f>JulyRaw!G36</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H36" s="10">
         <f>JulyRaw!H36</f>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="I36" s="10">
         <f>JulyRaw!I36</f>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="J36" s="11">
         <f>JulyRaw!J36</f>
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="B37" s="7">
         <f>JulyRaw!B37</f>
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="C37" s="7">
         <f>JulyRaw!C37</f>
@@ -13203,19 +13203,19 @@
       </c>
       <c r="D37" s="7">
         <f>JulyRaw!D37</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E37" s="7">
         <f>JulyRaw!E37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="7">
         <f>JulyRaw!F37</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G37" s="7">
         <f>JulyRaw!G37</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H37" s="7">
         <f>JulyRaw!H37</f>
@@ -13223,11 +13223,11 @@
       </c>
       <c r="I37" s="7">
         <f>JulyRaw!I37</f>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="J37" s="8">
         <f>JulyRaw!J37</f>
-        <v>0</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="B38" s="10">
         <f>JulyRaw!B38</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C38" s="10">
         <f>JulyRaw!C38</f>
@@ -13252,11 +13252,11 @@
       </c>
       <c r="F38" s="10">
         <f>JulyRaw!F38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10">
         <f>JulyRaw!G38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="10">
         <f>JulyRaw!H38</f>
@@ -13264,11 +13264,11 @@
       </c>
       <c r="I38" s="10">
         <f>JulyRaw!I38</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="11">
         <f>JulyRaw!J38</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B39" s="7">
         <f>JulyRaw!B39</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C39" s="7">
         <f>JulyRaw!C39</f>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="D39" s="7">
         <f>JulyRaw!D39</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E39" s="7">
         <f>JulyRaw!E39</f>
@@ -13293,11 +13293,11 @@
       </c>
       <c r="F39" s="7">
         <f>JulyRaw!F39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="7">
         <f>JulyRaw!G39</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H39" s="7">
         <f>JulyRaw!H39</f>
@@ -13305,11 +13305,11 @@
       </c>
       <c r="I39" s="7">
         <f>JulyRaw!I39</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J39" s="8">
         <f>JulyRaw!J39</f>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="B45" s="7">
         <f>JulyRaw!B45</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C45" s="7">
         <f>JulyRaw!C45</f>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="D45" s="7">
         <f>JulyRaw!D45</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="7">
         <f>JulyRaw!E45</f>
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F45" s="7">
         <f>JulyRaw!F45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="7">
         <f>JulyRaw!G45</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H45" s="7">
         <f>JulyRaw!H45</f>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="I45" s="7">
         <f>JulyRaw!I45</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J45" s="8">
         <f>JulyRaw!J45</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="B46" s="10">
         <f>JulyRaw!B46</f>
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="C46" s="10">
         <f>JulyRaw!C46</f>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="D46" s="10">
         <f>JulyRaw!D46</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E46" s="10">
         <f>JulyRaw!E46</f>
@@ -13580,11 +13580,11 @@
       </c>
       <c r="F46" s="10">
         <f>JulyRaw!F46</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G46" s="10">
         <f>JulyRaw!G46</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H46" s="10">
         <f>JulyRaw!H46</f>
@@ -13592,11 +13592,11 @@
       </c>
       <c r="I46" s="10">
         <f>JulyRaw!I46</f>
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="J46" s="11">
         <f>JulyRaw!J46</f>
-        <v>0</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="B47" s="7">
         <f>JulyRaw!B47</f>
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="C47" s="7">
         <f>JulyRaw!C47</f>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="D47" s="7">
         <f>JulyRaw!D47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7">
         <f>JulyRaw!E47</f>
@@ -13621,11 +13621,11 @@
       </c>
       <c r="F47" s="7">
         <f>JulyRaw!F47</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G47" s="7">
         <f>JulyRaw!G47</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H47" s="7">
         <f>JulyRaw!H47</f>
@@ -13633,11 +13633,11 @@
       </c>
       <c r="I47" s="7">
         <f>JulyRaw!I47</f>
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="J47" s="8">
         <f>JulyRaw!J47</f>
-        <v>0</v>
+        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="B48" s="10">
         <f>JulyRaw!B48</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C48" s="10">
         <f>JulyRaw!C48</f>
@@ -13654,7 +13654,7 @@
       </c>
       <c r="D48" s="10">
         <f>JulyRaw!D48</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E48" s="10">
         <f>JulyRaw!E48</f>
@@ -13662,23 +13662,23 @@
       </c>
       <c r="F48" s="10">
         <f>JulyRaw!F48</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G48" s="10">
         <f>JulyRaw!G48</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H48" s="10">
         <f>JulyRaw!H48</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I48" s="10">
         <f>JulyRaw!I48</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="J48" s="11">
         <f>JulyRaw!J48</f>
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="B49" s="7">
         <f>JulyRaw!B49</f>
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="C49" s="7">
         <f>JulyRaw!C49</f>
@@ -13695,19 +13695,19 @@
       </c>
       <c r="D49" s="7">
         <f>JulyRaw!D49</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7">
         <f>JulyRaw!E49</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" s="7">
         <f>JulyRaw!F49</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G49" s="7">
         <f>JulyRaw!G49</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H49" s="7">
         <f>JulyRaw!H49</f>
@@ -13715,11 +13715,11 @@
       </c>
       <c r="I49" s="7">
         <f>JulyRaw!I49</f>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="J49" s="8">
         <f>JulyRaw!J49</f>
-        <v>0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="B50" s="10">
         <f>JulyRaw!B50</f>
-        <v>0</v>
+        <v>1622</v>
       </c>
       <c r="C50" s="10">
         <f>JulyRaw!C50</f>
@@ -13736,31 +13736,31 @@
       </c>
       <c r="D50" s="10">
         <f>JulyRaw!D50</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E50" s="10">
         <f>JulyRaw!E50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="10">
         <f>JulyRaw!F50</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G50" s="10">
         <f>JulyRaw!G50</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H50" s="10">
         <f>JulyRaw!H50</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I50" s="10">
         <f>JulyRaw!I50</f>
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="J50" s="11">
         <f>JulyRaw!J50</f>
-        <v>0</v>
+        <v>906</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -13769,7 +13769,7 @@
       </c>
       <c r="B51" s="7">
         <f>JulyRaw!B51</f>
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="C51" s="7">
         <f>JulyRaw!C51</f>
@@ -13777,19 +13777,19 @@
       </c>
       <c r="D51" s="7">
         <f>JulyRaw!D51</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E51" s="7">
         <f>JulyRaw!E51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7">
         <f>JulyRaw!F51</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G51" s="7">
         <f>JulyRaw!G51</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H51" s="7">
         <f>JulyRaw!H51</f>
@@ -13797,11 +13797,11 @@
       </c>
       <c r="I51" s="7">
         <f>JulyRaw!I51</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J51" s="8">
         <f>JulyRaw!J51</f>
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -13810,7 +13810,7 @@
       </c>
       <c r="B52" s="10">
         <f>JulyRaw!B52</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C52" s="10">
         <f>JulyRaw!C52</f>
@@ -13818,31 +13818,31 @@
       </c>
       <c r="D52" s="10">
         <f>JulyRaw!D52</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E52" s="10">
         <f>JulyRaw!E52</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" s="10">
         <f>JulyRaw!F52</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G52" s="10">
         <f>JulyRaw!G52</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H52" s="10">
         <f>JulyRaw!H52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="10">
         <f>JulyRaw!I52</f>
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="J52" s="11">
         <f>JulyRaw!J52</f>
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="B53" s="7">
         <f>JulyRaw!B53</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C53" s="7">
         <f>JulyRaw!C53</f>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="D53" s="7">
         <f>JulyRaw!D53</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" s="7">
         <f>JulyRaw!E53</f>
@@ -13867,11 +13867,11 @@
       </c>
       <c r="F53" s="7">
         <f>JulyRaw!F53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="7">
         <f>JulyRaw!G53</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H53" s="7">
         <f>JulyRaw!H53</f>
@@ -13879,11 +13879,11 @@
       </c>
       <c r="I53" s="7">
         <f>JulyRaw!I53</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J53" s="8">
         <f>JulyRaw!J53</f>
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="B54" s="10">
         <f>JulyRaw!B54</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C54" s="10">
         <f>JulyRaw!C54</f>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="D54" s="10">
         <f>JulyRaw!D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="10">
         <f>JulyRaw!E54</f>
@@ -13908,11 +13908,11 @@
       </c>
       <c r="F54" s="10">
         <f>JulyRaw!F54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10">
         <f>JulyRaw!G54</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" s="10">
         <f>JulyRaw!H54</f>
@@ -13920,11 +13920,11 @@
       </c>
       <c r="I54" s="10">
         <f>JulyRaw!I54</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J54" s="11">
         <f>JulyRaw!J54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="B55" s="7">
         <f>JulyRaw!B55</f>
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="C55" s="7">
         <f>JulyRaw!C55</f>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="D55" s="7">
         <f>JulyRaw!D55</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E55" s="7">
         <f>JulyRaw!E55</f>
@@ -13949,11 +13949,11 @@
       </c>
       <c r="F55" s="7">
         <f>JulyRaw!F55</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G55" s="7">
         <f>JulyRaw!G55</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H55" s="7">
         <f>JulyRaw!H55</f>
@@ -13961,11 +13961,11 @@
       </c>
       <c r="I55" s="7">
         <f>JulyRaw!I55</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J55" s="8">
         <f>JulyRaw!J55</f>
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>1106</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -13982,19 +13982,19 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -14002,11 +14002,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -14056,7 +14056,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>35045</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -14064,31 +14064,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1605</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2695</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15146</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19899</v>
       </c>
     </row>
   </sheetData>
@@ -14100,12 +14100,1773 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A79BFB6-AEEF-403D-9ED1-62F772905CD7}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3032</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>101</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>160</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>820</v>
+      </c>
+      <c r="J2">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>972</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>342</v>
+      </c>
+      <c r="J3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2884</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>245</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>992</v>
+      </c>
+      <c r="J4">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3142</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>247</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>83</v>
+      </c>
+      <c r="G6">
+        <v>333</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1370</v>
+      </c>
+      <c r="J6">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>426</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>224</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>74</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>184</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>184</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>376</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>266</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>182</v>
+      </c>
+      <c r="J14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>280</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>178</v>
+      </c>
+      <c r="J15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>104</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>98</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1248</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>104</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>626</v>
+      </c>
+      <c r="J17">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1132</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>110</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>642</v>
+      </c>
+      <c r="J19">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>892</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>394</v>
+      </c>
+      <c r="J21">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1184</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>103</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <v>154</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>278</v>
+      </c>
+      <c r="J23">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>4002</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>162</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>86</v>
+      </c>
+      <c r="G24">
+        <v>259</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1104</v>
+      </c>
+      <c r="J24">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>242</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>122</v>
+      </c>
+      <c r="J25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>480</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>210</v>
+      </c>
+      <c r="J27">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
+      <c r="J28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>936</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>416</v>
+      </c>
+      <c r="J29">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>62</v>
+      </c>
+      <c r="J31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1262</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>122</v>
+      </c>
+      <c r="G32">
+        <v>211</v>
+      </c>
+      <c r="H32">
+        <v>51</v>
+      </c>
+      <c r="I32">
+        <v>958</v>
+      </c>
+      <c r="J32">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>826</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>47</v>
+      </c>
+      <c r="G33">
+        <v>58</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>602</v>
+      </c>
+      <c r="J33">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>272</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>170</v>
+      </c>
+      <c r="J34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2378</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>185</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>227</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>942</v>
+      </c>
+      <c r="J35">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>498</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>36</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>188</v>
+      </c>
+      <c r="J36">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1066</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>105</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>139</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>660</v>
+      </c>
+      <c r="J37">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>52</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>85</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>66</v>
+      </c>
+      <c r="J45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>820</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>41</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>564</v>
+      </c>
+      <c r="J46">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1042</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>326</v>
+      </c>
+      <c r="J47">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>400</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>154</v>
+      </c>
+      <c r="J48">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>566</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>232</v>
+      </c>
+      <c r="J49">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1622</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>51</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>27</v>
+      </c>
+      <c r="G50">
+        <v>80</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>716</v>
+      </c>
+      <c r="J50">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>352</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>126</v>
+      </c>
+      <c r="J51">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>630</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>24</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>344</v>
+      </c>
+      <c r="J52">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>244</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>48</v>
+      </c>
+      <c r="J53">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>368</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>226</v>
+      </c>
+      <c r="J55">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E8F1C-D512-44C2-B8D8-A8867D207192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33AF74-89CD-457E-A475-34BBC55501E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="104">
   <si>
     <t>Library</t>
   </si>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>19706</v>
+        <v>23044</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1037,19 +1037,19 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>655</v>
+        <v>760</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>1074</v>
+        <v>1232</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
@@ -1057,11 +1057,11 @@
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>4762</v>
+        <v>5366</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>14944</v>
+        <v>17678</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>6326</v>
+        <v>7542</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>453</v>
+        <v>539</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>2418</v>
+        <v>2884</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>3908</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>22412</v>
+        <v>25782</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1119,31 +1119,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>1255</v>
+        <v>1449</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>1729</v>
+        <v>1996</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>6470</v>
+        <v>7542</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>15942</v>
+        <v>18240</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D5" s="7">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7">
         <f>January!E5+February!E5+March!E5+April!E5+May!E5+June!E5+July!E5+August!E5+September!E5+October!E5+November!E5+December!E5</f>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="F5" s="7">
         <f>January!F5+February!F5+March!F5+April!F5+May!F5+June!F5+July!F5+August!F5+September!F5+October!F5+November!F5+December!F5</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="7">
         <f>January!G5+February!G5+March!G5+April!G5+May!G5+June!G5+July!G5+August!G5+September!G5+October!G5+November!G5+December!G5</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
         <f>January!H5+February!H5+March!H5+April!H5+May!H5+June!H5+July!H5+August!H5+September!H5+October!H5+November!H5+December!H5</f>
@@ -1180,11 +1180,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>22752</v>
+        <v>26022</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1201,31 +1201,31 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>1604</v>
+        <v>1824</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>2149</v>
+        <v>2437</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>9630</v>
+        <v>11188</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>13122</v>
+        <v>14834</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>2774</v>
+        <v>3118</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1242,31 +1242,31 @@
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>1494</v>
+        <v>1714</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>1280</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1490</v>
+        <v>1788</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
@@ -1291,11 +1291,11 @@
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>738</v>
+        <v>860</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>752</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>666</v>
+        <v>740</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="F9" s="7">
         <f>January!F9+February!F9+March!F9+April!F9+May!F9+June!F9+July!F9+August!F9+September!F9+October!F9+November!F9+December!F9</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B10" s="10">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -1373,11 +1373,11 @@
       </c>
       <c r="F10" s="10">
         <f>January!F10+February!F10+March!F10+April!F10+May!F10+June!F10+July!F10+August!F10+September!F10+October!F10+November!F10+December!F10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="10">
         <f>January!G10+February!G10+March!G10+April!G10+May!G10+June!G10+July!G10+August!G10+September!G10+October!G10+November!G10+December!G10</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="10">
         <f>January!H10+February!H10+March!H10+April!H10+May!H10+June!H10+July!H10+August!H10+September!H10+October!H10+November!H10+December!H10</f>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I10" s="10">
         <f>January!I10+February!I10+March!I10+April!I10+May!I10+June!I10+July!I10+August!I10+September!I10+October!I10+November!I10+December!I10</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11">
         <f>January!J10+February!J10+March!J10+April!J10+May!J10+June!J10+July!J10+August!J10+September!J10+October!J10+November!J10+December!J10</f>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>1090</v>
+        <v>1298</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1447,19 +1447,19 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>1084</v>
+        <v>1292</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>2044</v>
+        <v>2476</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1488,19 +1488,19 @@
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>1486</v>
+        <v>1670</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>558</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>2008</v>
+        <v>2354</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1529,31 +1529,31 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>1430</v>
+        <v>1656</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>578</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1362</v>
+        <v>1608</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1570,19 +1570,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>1014</v>
+        <v>1202</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>348</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>476</v>
+        <v>602</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
@@ -1619,11 +1619,11 @@
       </c>
       <c r="F16" s="10">
         <f>January!F16+February!F16+March!F16+April!F16+May!F16+June!F16+July!F16+August!F16+September!F16+October!F16+November!F16+December!F16</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>417</v>
+        <v>535</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>8428</v>
+        <v>9636</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1652,31 +1652,31 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>4096</v>
+        <v>4628</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>4332</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>892</v>
+        <v>924</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>710</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>7372</v>
+        <v>8400</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1734,19 +1734,19 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
@@ -1754,11 +1754,11 @@
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>4264</v>
+        <v>4778</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>3108</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B20" s="10">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C20" s="10">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
@@ -1775,19 +1775,19 @@
       </c>
       <c r="D20" s="10">
         <f>January!D20+February!D20+March!D20+April!D20+May!D20+June!D20+July!D20+August!D20+September!D20+October!D20+November!D20+December!D20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="10">
         <f>January!E20+February!E20+March!E20+April!E20+May!E20+June!E20+July!E20+August!E20+September!E20+October!E20+November!E20+December!E20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="10">
         <f>January!F20+February!F20+March!F20+April!F20+May!F20+June!F20+July!F20+August!F20+September!F20+October!F20+November!F20+December!F20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10">
         <f>January!G20+February!G20+March!G20+April!G20+May!G20+June!G20+July!G20+August!G20+September!G20+October!G20+November!G20+December!G20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" s="10">
         <f>January!H20+February!H20+March!H20+April!H20+May!H20+June!H20+July!H20+August!H20+September!H20+October!H20+November!H20+December!H20</f>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I20" s="10">
         <f>January!I20+February!I20+March!I20+April!I20+May!I20+June!I20+July!I20+August!I20+September!I20+October!I20+November!I20+December!I20</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J20" s="11">
         <f>January!J20+February!J20+March!J20+April!J20+May!J20+June!J20+July!J20+August!J20+September!J20+October!J20+November!J20+December!J20</f>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>6948</v>
+        <v>7956</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1816,31 +1816,31 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>3790</v>
+        <v>4386</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>3158</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1857,19 +1857,19 @@
       </c>
       <c r="D22" s="10">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>9734</v>
+        <v>11158</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1898,31 +1898,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>647</v>
+        <v>758</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>1069</v>
+        <v>1237</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>2868</v>
+        <v>3162</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>6866</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>27282</v>
+        <v>31658</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1939,31 +1939,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>1327</v>
+        <v>1534</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>565</v>
+        <v>669</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>1953</v>
+        <v>2280</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>7428</v>
+        <v>8502</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>19854</v>
+        <v>23156</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>2162</v>
+        <v>2406</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
@@ -1988,23 +1988,23 @@
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>1032</v>
+        <v>1164</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>1130</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>2924</v>
+        <v>3346</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2062,19 +2062,19 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>1514</v>
+        <v>1740</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>1410</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>604</v>
+        <v>722</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="F28" s="10">
         <f>January!F28+February!F28+March!F28+April!F28+May!F28+June!F28+July!F28+August!F28+September!F28+October!F28+November!F28+December!F28</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>6100</v>
+        <v>7118</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2144,19 +2144,19 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>2702</v>
+        <v>3068</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>3398</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>460</v>
+        <v>546</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2193,11 +2193,11 @@
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
@@ -2205,11 +2205,11 @@
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>850</v>
+        <v>962</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>534</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>7670</v>
+        <v>8976</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2267,31 +2267,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>620</v>
+        <v>735</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>548</v>
+        <v>641</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>1228</v>
+        <v>1441</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>5550</v>
+        <v>6430</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>2120</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>6380</v>
+        <v>7242</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2308,31 +2308,31 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>4528</v>
+        <v>5094</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>1852</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>2742</v>
+        <v>3132</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>1929</v>
+        <v>2223</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>813</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>15860</v>
+        <v>18542</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2390,31 +2390,31 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>1270</v>
+        <v>1486</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>1688</v>
+        <v>1967</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>7012</v>
+        <v>8126</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>8848</v>
+        <v>10416</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>2910</v>
+        <v>3274</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2431,19 +2431,19 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
@@ -2451,11 +2451,11 @@
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>1490</v>
+        <v>1712</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>1420</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>7834</v>
+        <v>9070</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2472,31 +2472,31 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>825</v>
+        <v>998</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>1059</v>
+        <v>1271</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>4782</v>
+        <v>5424</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>3052</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="E38" s="10">
         <f>January!E38+February!E38+March!E38+April!E38+May!E38+June!E38+July!E38+August!E38+September!E38+October!E38+November!E38+December!E38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>1555</v>
+        <v>1735</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
@@ -2574,11 +2574,11 @@
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>1137</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B40" s="19">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C40" s="19">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
@@ -2603,11 +2603,11 @@
       </c>
       <c r="F40" s="19">
         <f>January!F40+February!F40+March!F40+April!F40+May!F40+June!F40+July!F40+August!F40+September!F40+October!F40+November!F40+December!F40</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="19">
         <f>January!G40+February!G40+March!G40+April!G40+May!G40+June!G40+July!G40+August!G40+September!G40+October!G40+November!G40+December!G40</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" s="19">
         <f>January!H40+February!H40+March!H40+April!H40+May!H40+June!H40+July!H40+August!H40+September!H40+October!H40+November!H40+December!H40</f>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="I40" s="19">
         <f>January!I40+February!I40+March!I40+April!I40+May!I40+June!I40+July!I40+August!I40+September!I40+October!I40+November!I40+December!I40</f>
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J40" s="20">
         <f>January!J40+February!J40+March!J40+April!J40+May!J40+June!J40+July!J40+August!J40+September!J40+October!J40+November!J40+December!J40</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B41" s="22">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="C41" s="22">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2656,11 +2656,11 @@
       </c>
       <c r="I41" s="22">
         <f>January!I41+February!I41+March!I41+April!I41+May!I41+June!I41+July!I41+August!I41+September!I41+October!I41+November!I41+December!I41</f>
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="J41" s="23">
         <f>January!J41+February!J41+March!J41+April!J41+May!J41+June!J41+July!J41+August!J41+September!J41+October!J41+November!J41+December!J41</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B42" s="19">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C42" s="19">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
@@ -2697,11 +2697,11 @@
       </c>
       <c r="I42" s="19">
         <f>January!I42+February!I42+March!I42+April!I42+May!I42+June!I42+July!I42+August!I42+September!I42+October!I42+November!I42+December!I42</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J42" s="20">
         <f>January!J42+February!J42+March!J42+April!J42+May!J42+June!J42+July!J42+August!J42+September!J42+October!J42+November!J42+December!J42</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B43" s="22">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C43" s="22">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
@@ -2718,31 +2718,31 @@
       </c>
       <c r="D43" s="22">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="22">
         <f>January!E43+February!E43+March!E43+April!E43+May!E43+June!E43+July!E43+August!E43+September!E43+October!E43+November!E43+December!E43</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="22">
         <f>January!F43+February!F43+March!F43+April!F43+May!F43+June!F43+July!F43+August!F43+September!F43+October!F43+November!F43+December!F43</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" s="22">
         <f>January!G43+February!G43+March!G43+April!G43+May!G43+June!G43+July!G43+August!G43+September!G43+October!G43+November!G43+December!G43</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H43" s="22">
         <f>January!H43+February!H43+March!H43+April!H43+May!H43+June!H43+July!H43+August!H43+September!H43+October!H43+November!H43+December!H43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="22">
         <f>January!I43+February!I43+March!I43+April!I43+May!I43+June!I43+July!I43+August!I43+September!I43+October!I43+November!I43+December!I43</f>
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="J43" s="23">
         <f>January!J43+February!J43+March!J43+April!J43+May!J43+June!J43+July!J43+August!J43+September!J43+October!J43+November!J43+December!J43</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>1045</v>
+        <v>1145</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2808,11 +2808,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>420</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>5110</v>
+        <v>5980</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
@@ -2849,11 +2849,11 @@
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>3346</v>
+        <v>3838</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>1764</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>9766</v>
+        <v>11266</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
@@ -2890,11 +2890,11 @@
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
@@ -2902,11 +2902,11 @@
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>3184</v>
+        <v>3592</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>6582</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>2974</v>
+        <v>3490</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2923,31 +2923,31 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>1250</v>
+        <v>1432</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>1724</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>3764</v>
+        <v>4384</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>1878</v>
+        <v>2206</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>1886</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>11544</v>
+        <v>13528</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3005,31 +3005,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>677</v>
+        <v>781</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>5332</v>
+        <v>6092</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>6212</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>2638</v>
+        <v>2926</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
@@ -3054,11 +3054,11 @@
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>1336</v>
+        <v>1442</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>1302</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>5674</v>
+        <v>6358</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3087,31 +3087,31 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>3444</v>
+        <v>3842</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>2230</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1468</v>
+        <v>1698</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
@@ -3136,11 +3136,11 @@
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>1008</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
@@ -3177,11 +3177,11 @@
       </c>
       <c r="F54" s="10">
         <f>January!F54+February!F54+March!F54+April!F54+May!F54+June!F54+July!F54+August!F54+September!F54+October!F54+November!F54+December!F54</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>2544</v>
+        <v>3000</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>1112</v>
+        <v>1254</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>1432</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>6504</v>
+        <v>7736</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3251,31 +3251,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>5014</v>
+        <v>5820</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>1490</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>893</v>
+        <v>1013</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -3292,31 +3292,31 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>782</v>
+        <v>886</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>250541</v>
+        <v>289478</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3333,31 +3333,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>11532</v>
+        <v>13408</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>940</v>
+        <v>1067</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>6404</v>
+        <v>7344</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>18876</v>
+        <v>21819</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>1096</v>
+        <v>1214</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>109814</v>
+        <v>125708</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>140727</v>
+        <v>163770</v>
       </c>
     </row>
   </sheetData>
@@ -15927,7 +15927,7 @@
       </c>
       <c r="B2" s="4">
         <f>AugustRaw!B2</f>
-        <v>0</v>
+        <v>3338</v>
       </c>
       <c r="C2" s="4">
         <f>AugustRaw!C2</f>
@@ -15935,19 +15935,19 @@
       </c>
       <c r="D2" s="4">
         <f>AugustRaw!D2</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E2" s="4">
         <f>AugustRaw!E2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
         <f>AugustRaw!F2</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" s="4">
         <f>AugustRaw!G2</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="H2" s="4">
         <f>AugustRaw!H2</f>
@@ -15955,11 +15955,11 @@
       </c>
       <c r="I2" s="4">
         <f>AugustRaw!I2</f>
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="J2" s="5">
         <f>AugustRaw!J2</f>
-        <v>0</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B3" s="7">
         <f>AugustRaw!B3</f>
-        <v>0</v>
+        <v>1216</v>
       </c>
       <c r="C3" s="7">
         <f>AugustRaw!C3</f>
@@ -15976,31 +15976,31 @@
       </c>
       <c r="D3" s="7">
         <f>AugustRaw!D3</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E3" s="7">
         <f>AugustRaw!E3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="7">
         <f>AugustRaw!F3</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7">
         <f>AugustRaw!G3</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H3" s="7">
         <f>AugustRaw!H3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <f>AugustRaw!I3</f>
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="J3" s="8">
         <f>AugustRaw!J3</f>
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="B4" s="10">
         <f>AugustRaw!B4</f>
-        <v>0</v>
+        <v>3370</v>
       </c>
       <c r="C4" s="10">
         <f>AugustRaw!C4</f>
@@ -16017,31 +16017,31 @@
       </c>
       <c r="D4" s="10">
         <f>AugustRaw!D4</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="E4" s="10">
         <f>AugustRaw!E4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10">
         <f>AugustRaw!F4</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G4" s="10">
         <f>AugustRaw!G4</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="H4" s="10">
         <f>AugustRaw!H4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="10">
         <f>AugustRaw!I4</f>
-        <v>0</v>
+        <v>1072</v>
       </c>
       <c r="J4" s="11">
         <f>AugustRaw!J4</f>
-        <v>0</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="B5" s="7">
         <f>AugustRaw!B5</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C5" s="7">
         <f>AugustRaw!C5</f>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="D5" s="7">
         <f>AugustRaw!D5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
         <f>AugustRaw!E5</f>
@@ -16066,11 +16066,11 @@
       </c>
       <c r="F5" s="7">
         <f>AugustRaw!F5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>AugustRaw!G5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7">
         <f>AugustRaw!H5</f>
@@ -16078,11 +16078,11 @@
       </c>
       <c r="I5" s="7">
         <f>AugustRaw!I5</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J5" s="8">
         <f>AugustRaw!J5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -16091,7 +16091,7 @@
       </c>
       <c r="B6" s="10">
         <f>AugustRaw!B6</f>
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="C6" s="10">
         <f>AugustRaw!C6</f>
@@ -16099,31 +16099,31 @@
       </c>
       <c r="D6" s="10">
         <f>AugustRaw!D6</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="E6" s="10">
         <f>AugustRaw!E6</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6" s="10">
         <f>AugustRaw!F6</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G6" s="10">
         <f>AugustRaw!G6</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="H6" s="10">
         <f>AugustRaw!H6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="10">
         <f>AugustRaw!I6</f>
-        <v>0</v>
+        <v>1558</v>
       </c>
       <c r="J6" s="11">
         <f>AugustRaw!J6</f>
-        <v>0</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -16132,7 +16132,7 @@
       </c>
       <c r="B7" s="7">
         <f>AugustRaw!B7</f>
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C7" s="7">
         <f>AugustRaw!C7</f>
@@ -16140,31 +16140,31 @@
       </c>
       <c r="D7" s="7">
         <f>AugustRaw!D7</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7">
         <f>AugustRaw!E7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
         <f>AugustRaw!F7</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7">
         <f>AugustRaw!G7</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <f>AugustRaw!H7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
         <f>AugustRaw!I7</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="J7" s="8">
         <f>AugustRaw!J7</f>
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -16173,7 +16173,7 @@
       </c>
       <c r="B8" s="10">
         <f>AugustRaw!B8</f>
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="C8" s="10">
         <f>AugustRaw!C8</f>
@@ -16181,7 +16181,7 @@
       </c>
       <c r="D8" s="10">
         <f>AugustRaw!D8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
         <f>AugustRaw!E8</f>
@@ -16189,11 +16189,11 @@
       </c>
       <c r="F8" s="10">
         <f>AugustRaw!F8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="10">
         <f>AugustRaw!G8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="10">
         <f>AugustRaw!H8</f>
@@ -16201,11 +16201,11 @@
       </c>
       <c r="I8" s="10">
         <f>AugustRaw!I8</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J8" s="11">
         <f>AugustRaw!J8</f>
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -16214,7 +16214,7 @@
       </c>
       <c r="B9" s="7">
         <f>AugustRaw!B9</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C9" s="7">
         <f>AugustRaw!C9</f>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="D9" s="7">
         <f>AugustRaw!D9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
         <f>AugustRaw!E9</f>
@@ -16230,11 +16230,11 @@
       </c>
       <c r="F9" s="7">
         <f>AugustRaw!F9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
         <f>AugustRaw!G9</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="7">
         <f>AugustRaw!H9</f>
@@ -16242,11 +16242,11 @@
       </c>
       <c r="I9" s="7">
         <f>AugustRaw!I9</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J9" s="8">
         <f>AugustRaw!J9</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="B10" s="10">
         <f>AugustRaw!B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10">
         <f>AugustRaw!C10</f>
@@ -16271,11 +16271,11 @@
       </c>
       <c r="F10" s="10">
         <f>AugustRaw!F10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="10">
         <f>AugustRaw!G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="10">
         <f>AugustRaw!H10</f>
@@ -16283,7 +16283,7 @@
       </c>
       <c r="I10" s="10">
         <f>AugustRaw!I10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="11">
         <f>AugustRaw!J10</f>
@@ -16337,7 +16337,7 @@
       </c>
       <c r="B12" s="13">
         <f>AugustRaw!B12</f>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="C12" s="13">
         <f>AugustRaw!C12</f>
@@ -16345,19 +16345,19 @@
       </c>
       <c r="D12" s="13">
         <f>AugustRaw!D12</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12" s="13">
         <f>AugustRaw!E12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
         <f>AugustRaw!F12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="13">
         <f>AugustRaw!G12</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H12" s="13">
         <f>AugustRaw!H12</f>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="I12" s="13">
         <f>AugustRaw!I12</f>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J12" s="14">
         <f>AugustRaw!J12</f>
@@ -16378,7 +16378,7 @@
       </c>
       <c r="B13" s="16">
         <f>AugustRaw!B13</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="C13" s="16">
         <f>AugustRaw!C13</f>
@@ -16386,19 +16386,19 @@
       </c>
       <c r="D13" s="16">
         <f>AugustRaw!D13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16">
         <f>AugustRaw!E13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="16">
         <f>AugustRaw!F13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="16">
         <f>AugustRaw!G13</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H13" s="16">
         <f>AugustRaw!H13</f>
@@ -16406,11 +16406,11 @@
       </c>
       <c r="I13" s="16">
         <f>AugustRaw!I13</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="J13" s="17">
         <f>AugustRaw!J13</f>
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -16419,7 +16419,7 @@
       </c>
       <c r="B14" s="13">
         <f>AugustRaw!B14</f>
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C14" s="13">
         <f>AugustRaw!C14</f>
@@ -16427,31 +16427,31 @@
       </c>
       <c r="D14" s="13">
         <f>AugustRaw!D14</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E14" s="13">
         <f>AugustRaw!E14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="13">
         <f>AugustRaw!F14</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G14" s="13">
         <f>AugustRaw!G14</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H14" s="13">
         <f>AugustRaw!H14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="13">
         <f>AugustRaw!I14</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J14" s="14">
         <f>AugustRaw!J14</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="B15" s="16">
         <f>AugustRaw!B15</f>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="C15" s="16">
         <f>AugustRaw!C15</f>
@@ -16468,19 +16468,19 @@
       </c>
       <c r="D15" s="16">
         <f>AugustRaw!D15</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15" s="16">
         <f>AugustRaw!E15</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F15" s="16">
         <f>AugustRaw!F15</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" s="16">
         <f>AugustRaw!G15</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H15" s="16">
         <f>AugustRaw!H15</f>
@@ -16488,11 +16488,11 @@
       </c>
       <c r="I15" s="16">
         <f>AugustRaw!I15</f>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="J15" s="17">
         <f>AugustRaw!J15</f>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -16501,7 +16501,7 @@
       </c>
       <c r="B16" s="10">
         <f>AugustRaw!B16</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C16" s="10">
         <f>AugustRaw!C16</f>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="D16" s="10">
         <f>AugustRaw!D16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="10">
         <f>AugustRaw!E16</f>
@@ -16517,11 +16517,11 @@
       </c>
       <c r="F16" s="10">
         <f>AugustRaw!F16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="10">
         <f>AugustRaw!G16</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="10">
         <f>AugustRaw!H16</f>
@@ -16529,11 +16529,11 @@
       </c>
       <c r="I16" s="10">
         <f>AugustRaw!I16</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J16" s="11">
         <f>AugustRaw!J16</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="B17" s="7">
         <f>AugustRaw!B17</f>
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="C17" s="7">
         <f>AugustRaw!C17</f>
@@ -16550,31 +16550,31 @@
       </c>
       <c r="D17" s="7">
         <f>AugustRaw!D17</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7">
         <f>AugustRaw!E17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="7">
         <f>AugustRaw!F17</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7">
         <f>AugustRaw!G17</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <f>AugustRaw!H17</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
         <f>AugustRaw!I17</f>
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="J17" s="8">
         <f>AugustRaw!J17</f>
-        <v>0</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="B18" s="10">
         <f>AugustRaw!B18</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C18" s="10">
         <f>AugustRaw!C18</f>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="D18" s="10">
         <f>AugustRaw!D18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10">
         <f>AugustRaw!E18</f>
@@ -16599,11 +16599,11 @@
       </c>
       <c r="F18" s="10">
         <f>AugustRaw!F18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
         <f>AugustRaw!G18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="10">
         <f>AugustRaw!H18</f>
@@ -16611,11 +16611,11 @@
       </c>
       <c r="I18" s="10">
         <f>AugustRaw!I18</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18" s="11">
         <f>AugustRaw!J18</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="B19" s="7">
         <f>AugustRaw!B19</f>
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="C19" s="7">
         <f>AugustRaw!C19</f>
@@ -16632,19 +16632,19 @@
       </c>
       <c r="D19" s="7">
         <f>AugustRaw!D19</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E19" s="7">
         <f>AugustRaw!E19</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F19" s="7">
         <f>AugustRaw!F19</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7">
         <f>AugustRaw!G19</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7">
         <f>AugustRaw!H19</f>
@@ -16652,11 +16652,11 @@
       </c>
       <c r="I19" s="7">
         <f>AugustRaw!I19</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="J19" s="8">
         <f>AugustRaw!J19</f>
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -16665,7 +16665,7 @@
       </c>
       <c r="B20" s="10">
         <f>AugustRaw!B20</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C20" s="10">
         <f>AugustRaw!C20</f>
@@ -16673,19 +16673,19 @@
       </c>
       <c r="D20" s="10">
         <f>AugustRaw!D20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="10">
         <f>AugustRaw!E20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="10">
         <f>AugustRaw!F20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10">
         <f>AugustRaw!G20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" s="10">
         <f>AugustRaw!H20</f>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="I20" s="10">
         <f>AugustRaw!I20</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J20" s="11">
         <f>AugustRaw!J20</f>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="B21" s="7">
         <f>AugustRaw!B21</f>
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="C21" s="7">
         <f>AugustRaw!C21</f>
@@ -16714,31 +16714,31 @@
       </c>
       <c r="D21" s="7">
         <f>AugustRaw!D21</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E21" s="7">
         <f>AugustRaw!E21</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7">
         <f>AugustRaw!F21</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7">
         <f>AugustRaw!G21</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7">
         <f>AugustRaw!H21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
         <f>AugustRaw!I21</f>
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="J21" s="8">
         <f>AugustRaw!J21</f>
-        <v>0</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -16747,7 +16747,7 @@
       </c>
       <c r="B22" s="10">
         <f>AugustRaw!B22</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C22" s="10">
         <f>AugustRaw!C22</f>
@@ -16755,19 +16755,19 @@
       </c>
       <c r="D22" s="10">
         <f>AugustRaw!D22</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22" s="10">
         <f>AugustRaw!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10">
         <f>AugustRaw!F22</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" s="10">
         <f>AugustRaw!G22</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H22" s="10">
         <f>AugustRaw!H22</f>
@@ -16775,11 +16775,11 @@
       </c>
       <c r="I22" s="10">
         <f>AugustRaw!I22</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J22" s="11">
         <f>AugustRaw!J22</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="B23" s="7">
         <f>AugustRaw!B23</f>
-        <v>0</v>
+        <v>1424</v>
       </c>
       <c r="C23" s="7">
         <f>AugustRaw!C23</f>
@@ -16796,31 +16796,31 @@
       </c>
       <c r="D23" s="7">
         <f>AugustRaw!D23</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E23" s="7">
         <f>AugustRaw!E23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="7">
         <f>AugustRaw!F23</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G23" s="7">
         <f>AugustRaw!G23</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <f>AugustRaw!H23</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
         <f>AugustRaw!I23</f>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="J23" s="8">
         <f>AugustRaw!J23</f>
-        <v>0</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="B24" s="10">
         <f>AugustRaw!B24</f>
-        <v>0</v>
+        <v>4376</v>
       </c>
       <c r="C24" s="10">
         <f>AugustRaw!C24</f>
@@ -16837,31 +16837,31 @@
       </c>
       <c r="D24" s="10">
         <f>AugustRaw!D24</f>
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="E24" s="10">
         <f>AugustRaw!E24</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F24" s="10">
         <f>AugustRaw!F24</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G24" s="10">
         <f>AugustRaw!G24</f>
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="H24" s="10">
         <f>AugustRaw!H24</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="10">
         <f>AugustRaw!I24</f>
-        <v>0</v>
+        <v>1074</v>
       </c>
       <c r="J24" s="11">
         <f>AugustRaw!J24</f>
-        <v>0</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -16870,7 +16870,7 @@
       </c>
       <c r="B25" s="7">
         <f>AugustRaw!B25</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C25" s="7">
         <f>AugustRaw!C25</f>
@@ -16878,7 +16878,7 @@
       </c>
       <c r="D25" s="7">
         <f>AugustRaw!D25</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E25" s="7">
         <f>AugustRaw!E25</f>
@@ -16886,23 +16886,23 @@
       </c>
       <c r="F25" s="7">
         <f>AugustRaw!F25</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25" s="7">
         <f>AugustRaw!G25</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H25" s="7">
         <f>AugustRaw!H25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
         <f>AugustRaw!I25</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J25" s="8">
         <f>AugustRaw!J25</f>
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -16952,7 +16952,7 @@
       </c>
       <c r="B27" s="7">
         <f>AugustRaw!B27</f>
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="C27" s="7">
         <f>AugustRaw!C27</f>
@@ -16960,19 +16960,19 @@
       </c>
       <c r="D27" s="7">
         <f>AugustRaw!D27</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E27" s="7">
         <f>AugustRaw!E27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="7">
         <f>AugustRaw!F27</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" s="7">
         <f>AugustRaw!G27</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H27" s="7">
         <f>AugustRaw!H27</f>
@@ -16980,11 +16980,11 @@
       </c>
       <c r="I27" s="7">
         <f>AugustRaw!I27</f>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="J27" s="8">
         <f>AugustRaw!J27</f>
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="B28" s="10">
         <f>AugustRaw!B28</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="C28" s="10">
         <f>AugustRaw!C28</f>
@@ -17001,7 +17001,7 @@
       </c>
       <c r="D28" s="10">
         <f>AugustRaw!D28</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E28" s="10">
         <f>AugustRaw!E28</f>
@@ -17009,11 +17009,11 @@
       </c>
       <c r="F28" s="10">
         <f>AugustRaw!F28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
         <f>AugustRaw!G28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28" s="10">
         <f>AugustRaw!H28</f>
@@ -17021,11 +17021,11 @@
       </c>
       <c r="I28" s="10">
         <f>AugustRaw!I28</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J28" s="11">
         <f>AugustRaw!J28</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="B29" s="7">
         <f>AugustRaw!B29</f>
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="C29" s="7">
         <f>AugustRaw!C29</f>
@@ -17042,19 +17042,19 @@
       </c>
       <c r="D29" s="7">
         <f>AugustRaw!D29</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7">
         <f>AugustRaw!E29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="7">
         <f>AugustRaw!F29</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G29" s="7">
         <f>AugustRaw!G29</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H29" s="7">
         <f>AugustRaw!H29</f>
@@ -17062,11 +17062,11 @@
       </c>
       <c r="I29" s="7">
         <f>AugustRaw!I29</f>
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="J29" s="8">
         <f>AugustRaw!J29</f>
-        <v>0</v>
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="B30" s="10">
         <f>AugustRaw!B30</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C30" s="10">
         <f>AugustRaw!C30</f>
@@ -17091,11 +17091,11 @@
       </c>
       <c r="F30" s="10">
         <f>AugustRaw!F30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10">
         <f>AugustRaw!G30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="10">
         <f>AugustRaw!H30</f>
@@ -17103,11 +17103,11 @@
       </c>
       <c r="I30" s="10">
         <f>AugustRaw!I30</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J30" s="11">
         <f>AugustRaw!J30</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="B31" s="7">
         <f>AugustRaw!B31</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C31" s="7">
         <f>AugustRaw!C31</f>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="D31" s="7">
         <f>AugustRaw!D31</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E31" s="7">
         <f>AugustRaw!E31</f>
@@ -17132,11 +17132,11 @@
       </c>
       <c r="F31" s="7">
         <f>AugustRaw!F31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="7">
         <f>AugustRaw!G31</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7">
         <f>AugustRaw!H31</f>
@@ -17144,11 +17144,11 @@
       </c>
       <c r="I31" s="7">
         <f>AugustRaw!I31</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J31" s="8">
         <f>AugustRaw!J31</f>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="B32" s="10">
         <f>AugustRaw!B32</f>
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="C32" s="10">
         <f>AugustRaw!C32</f>
@@ -17165,31 +17165,31 @@
       </c>
       <c r="D32" s="10">
         <f>AugustRaw!D32</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E32" s="10">
         <f>AugustRaw!E32</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32" s="10">
         <f>AugustRaw!F32</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G32" s="10">
         <f>AugustRaw!G32</f>
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="H32" s="10">
         <f>AugustRaw!H32</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I32" s="10">
         <f>AugustRaw!I32</f>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="J32" s="11">
         <f>AugustRaw!J32</f>
-        <v>0</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -17198,7 +17198,7 @@
       </c>
       <c r="B33" s="7">
         <f>AugustRaw!B33</f>
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="C33" s="7">
         <f>AugustRaw!C33</f>
@@ -17206,31 +17206,31 @@
       </c>
       <c r="D33" s="7">
         <f>AugustRaw!D33</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E33" s="7">
         <f>AugustRaw!E33</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="7">
         <f>AugustRaw!F33</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7">
         <f>AugustRaw!G33</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <f>AugustRaw!H33</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I33" s="7">
         <f>AugustRaw!I33</f>
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="J33" s="8">
         <f>AugustRaw!J33</f>
-        <v>0</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="B34" s="10">
         <f>AugustRaw!B34</f>
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="C34" s="10">
         <f>AugustRaw!C34</f>
@@ -17247,7 +17247,7 @@
       </c>
       <c r="D34" s="10">
         <f>AugustRaw!D34</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E34" s="10">
         <f>AugustRaw!E34</f>
@@ -17255,11 +17255,11 @@
       </c>
       <c r="F34" s="10">
         <f>AugustRaw!F34</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="10">
         <f>AugustRaw!G34</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H34" s="10">
         <f>AugustRaw!H34</f>
@@ -17267,11 +17267,11 @@
       </c>
       <c r="I34" s="10">
         <f>AugustRaw!I34</f>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="J34" s="11">
         <f>AugustRaw!J34</f>
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B35" s="7">
         <f>AugustRaw!B35</f>
-        <v>0</v>
+        <v>2682</v>
       </c>
       <c r="C35" s="7">
         <f>AugustRaw!C35</f>
@@ -17288,31 +17288,31 @@
       </c>
       <c r="D35" s="7">
         <f>AugustRaw!D35</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="E35" s="7">
         <f>AugustRaw!E35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F35" s="7">
         <f>AugustRaw!F35</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G35" s="7">
         <f>AugustRaw!G35</f>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="H35" s="7">
         <f>AugustRaw!H35</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35" s="7">
         <f>AugustRaw!I35</f>
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="J35" s="8">
         <f>AugustRaw!J35</f>
-        <v>0</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -17321,7 +17321,7 @@
       </c>
       <c r="B36" s="10">
         <f>AugustRaw!B36</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="C36" s="10">
         <f>AugustRaw!C36</f>
@@ -17329,19 +17329,19 @@
       </c>
       <c r="D36" s="10">
         <f>AugustRaw!D36</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E36" s="10">
         <f>AugustRaw!E36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="10">
         <f>AugustRaw!F36</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G36" s="10">
         <f>AugustRaw!G36</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H36" s="10">
         <f>AugustRaw!H36</f>
@@ -17349,11 +17349,11 @@
       </c>
       <c r="I36" s="10">
         <f>AugustRaw!I36</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J36" s="11">
         <f>AugustRaw!J36</f>
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -17362,7 +17362,7 @@
       </c>
       <c r="B37" s="7">
         <f>AugustRaw!B37</f>
-        <v>0</v>
+        <v>1236</v>
       </c>
       <c r="C37" s="7">
         <f>AugustRaw!C37</f>
@@ -17370,31 +17370,31 @@
       </c>
       <c r="D37" s="7">
         <f>AugustRaw!D37</f>
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="E37" s="7">
         <f>AugustRaw!E37</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F37" s="7">
         <f>AugustRaw!F37</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G37" s="7">
         <f>AugustRaw!G37</f>
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H37" s="7">
         <f>AugustRaw!H37</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
         <f>AugustRaw!I37</f>
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J37" s="8">
         <f>AugustRaw!J37</f>
-        <v>0</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B38" s="10">
         <f>AugustRaw!B38</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C38" s="10">
         <f>AugustRaw!C38</f>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="E38" s="10">
         <f>AugustRaw!E38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="10">
         <f>AugustRaw!F38</f>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="G38" s="10">
         <f>AugustRaw!G38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="10">
         <f>AugustRaw!H38</f>
@@ -17431,11 +17431,11 @@
       </c>
       <c r="I38" s="10">
         <f>AugustRaw!I38</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" s="11">
         <f>AugustRaw!J38</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="B39" s="7">
         <f>AugustRaw!B39</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="C39" s="7">
         <f>AugustRaw!C39</f>
@@ -17452,7 +17452,7 @@
       </c>
       <c r="D39" s="7">
         <f>AugustRaw!D39</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
         <f>AugustRaw!E39</f>
@@ -17464,7 +17464,7 @@
       </c>
       <c r="G39" s="7">
         <f>AugustRaw!G39</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H39" s="7">
         <f>AugustRaw!H39</f>
@@ -17472,11 +17472,11 @@
       </c>
       <c r="I39" s="7">
         <f>AugustRaw!I39</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J39" s="8">
         <f>AugustRaw!J39</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="B40" s="19">
         <f>AugustRaw!B40</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C40" s="19">
         <f>AugustRaw!C40</f>
@@ -17501,11 +17501,11 @@
       </c>
       <c r="F40" s="19">
         <f>AugustRaw!F40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="19">
         <f>AugustRaw!G40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="19">
         <f>AugustRaw!H40</f>
@@ -17513,11 +17513,11 @@
       </c>
       <c r="I40" s="19">
         <f>AugustRaw!I40</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J40" s="20">
         <f>AugustRaw!J40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="B41" s="22">
         <f>AugustRaw!B41</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C41" s="22">
         <f>AugustRaw!C41</f>
@@ -17534,7 +17534,7 @@
       </c>
       <c r="D41" s="22">
         <f>AugustRaw!D41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="22">
         <f>AugustRaw!E41</f>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="G41" s="22">
         <f>AugustRaw!G41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="22">
         <f>AugustRaw!H41</f>
@@ -17554,11 +17554,11 @@
       </c>
       <c r="I41" s="22">
         <f>AugustRaw!I41</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J41" s="23">
         <f>AugustRaw!J41</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -17567,7 +17567,7 @@
       </c>
       <c r="B42" s="19">
         <f>AugustRaw!B42</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C42" s="19">
         <f>AugustRaw!C42</f>
@@ -17595,11 +17595,11 @@
       </c>
       <c r="I42" s="19">
         <f>AugustRaw!I42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="20">
         <f>AugustRaw!J42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B43" s="22">
         <f>AugustRaw!B43</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C43" s="22">
         <f>AugustRaw!C43</f>
@@ -17616,31 +17616,31 @@
       </c>
       <c r="D43" s="22">
         <f>AugustRaw!D43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="22">
         <f>AugustRaw!E43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="22">
         <f>AugustRaw!F43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="22">
         <f>AugustRaw!G43</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" s="22">
         <f>AugustRaw!H43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="22">
         <f>AugustRaw!I43</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J43" s="23">
         <f>AugustRaw!J43</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -17690,7 +17690,7 @@
       </c>
       <c r="B45" s="7">
         <f>AugustRaw!B45</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C45" s="7">
         <f>AugustRaw!C45</f>
@@ -17706,11 +17706,11 @@
       </c>
       <c r="F45" s="7">
         <f>AugustRaw!F45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="7">
         <f>AugustRaw!G45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="7">
         <f>AugustRaw!H45</f>
@@ -17718,11 +17718,11 @@
       </c>
       <c r="I45" s="7">
         <f>AugustRaw!I45</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J45" s="8">
         <f>AugustRaw!J45</f>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="B46" s="10">
         <f>AugustRaw!B46</f>
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="C46" s="10">
         <f>AugustRaw!C46</f>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="D46" s="10">
         <f>AugustRaw!D46</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E46" s="10">
         <f>AugustRaw!E46</f>
@@ -17747,11 +17747,11 @@
       </c>
       <c r="F46" s="10">
         <f>AugustRaw!F46</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G46" s="10">
         <f>AugustRaw!G46</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H46" s="10">
         <f>AugustRaw!H46</f>
@@ -17759,11 +17759,11 @@
       </c>
       <c r="I46" s="10">
         <f>AugustRaw!I46</f>
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="J46" s="11">
         <f>AugustRaw!J46</f>
-        <v>0</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -17772,7 +17772,7 @@
       </c>
       <c r="B47" s="7">
         <f>AugustRaw!B47</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="C47" s="7">
         <f>AugustRaw!C47</f>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="D47" s="7">
         <f>AugustRaw!D47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7">
         <f>AugustRaw!E47</f>
@@ -17788,11 +17788,11 @@
       </c>
       <c r="F47" s="7">
         <f>AugustRaw!F47</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G47" s="7">
         <f>AugustRaw!G47</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H47" s="7">
         <f>AugustRaw!H47</f>
@@ -17800,11 +17800,11 @@
       </c>
       <c r="I47" s="7">
         <f>AugustRaw!I47</f>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="J47" s="8">
         <f>AugustRaw!J47</f>
-        <v>0</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -17813,7 +17813,7 @@
       </c>
       <c r="B48" s="10">
         <f>AugustRaw!B48</f>
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="C48" s="10">
         <f>AugustRaw!C48</f>
@@ -17821,31 +17821,31 @@
       </c>
       <c r="D48" s="10">
         <f>AugustRaw!D48</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E48" s="10">
         <f>AugustRaw!E48</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="10">
         <f>AugustRaw!F48</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G48" s="10">
         <f>AugustRaw!G48</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H48" s="10">
         <f>AugustRaw!H48</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I48" s="10">
         <f>AugustRaw!I48</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="J48" s="11">
         <f>AugustRaw!J48</f>
-        <v>0</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -17854,7 +17854,7 @@
       </c>
       <c r="B49" s="7">
         <f>AugustRaw!B49</f>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="C49" s="7">
         <f>AugustRaw!C49</f>
@@ -17862,19 +17862,19 @@
       </c>
       <c r="D49" s="7">
         <f>AugustRaw!D49</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E49" s="7">
         <f>AugustRaw!E49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="7">
         <f>AugustRaw!F49</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G49" s="7">
         <f>AugustRaw!G49</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H49" s="7">
         <f>AugustRaw!H49</f>
@@ -17882,11 +17882,11 @@
       </c>
       <c r="I49" s="7">
         <f>AugustRaw!I49</f>
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="J49" s="8">
         <f>AugustRaw!J49</f>
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="B50" s="10">
         <f>AugustRaw!B50</f>
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="C50" s="10">
         <f>AugustRaw!C50</f>
@@ -17903,31 +17903,31 @@
       </c>
       <c r="D50" s="10">
         <f>AugustRaw!D50</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E50" s="10">
         <f>AugustRaw!E50</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F50" s="10">
         <f>AugustRaw!F50</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G50" s="10">
         <f>AugustRaw!G50</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H50" s="10">
         <f>AugustRaw!H50</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I50" s="10">
         <f>AugustRaw!I50</f>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="J50" s="11">
         <f>AugustRaw!J50</f>
-        <v>0</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -17936,7 +17936,7 @@
       </c>
       <c r="B51" s="7">
         <f>AugustRaw!B51</f>
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="C51" s="7">
         <f>AugustRaw!C51</f>
@@ -17944,7 +17944,7 @@
       </c>
       <c r="D51" s="7">
         <f>AugustRaw!D51</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E51" s="7">
         <f>AugustRaw!E51</f>
@@ -17952,11 +17952,11 @@
       </c>
       <c r="F51" s="7">
         <f>AugustRaw!F51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="7">
         <f>AugustRaw!G51</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H51" s="7">
         <f>AugustRaw!H51</f>
@@ -17964,11 +17964,11 @@
       </c>
       <c r="I51" s="7">
         <f>AugustRaw!I51</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J51" s="8">
         <f>AugustRaw!J51</f>
-        <v>0</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="B52" s="10">
         <f>AugustRaw!B52</f>
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="C52" s="10">
         <f>AugustRaw!C52</f>
@@ -17985,31 +17985,31 @@
       </c>
       <c r="D52" s="10">
         <f>AugustRaw!D52</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E52" s="10">
         <f>AugustRaw!E52</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" s="10">
         <f>AugustRaw!F52</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G52" s="10">
         <f>AugustRaw!G52</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H52" s="10">
         <f>AugustRaw!H52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="10">
         <f>AugustRaw!I52</f>
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="J52" s="11">
         <f>AugustRaw!J52</f>
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="B53" s="7">
         <f>AugustRaw!B53</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C53" s="7">
         <f>AugustRaw!C53</f>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="D53" s="7">
         <f>AugustRaw!D53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="7">
         <f>AugustRaw!E53</f>
@@ -18034,11 +18034,11 @@
       </c>
       <c r="F53" s="7">
         <f>AugustRaw!F53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="7">
         <f>AugustRaw!G53</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="7">
         <f>AugustRaw!H53</f>
@@ -18046,11 +18046,11 @@
       </c>
       <c r="I53" s="7">
         <f>AugustRaw!I53</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J53" s="8">
         <f>AugustRaw!J53</f>
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -18059,7 +18059,7 @@
       </c>
       <c r="B54" s="10">
         <f>AugustRaw!B54</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C54" s="10">
         <f>AugustRaw!C54</f>
@@ -18067,7 +18067,7 @@
       </c>
       <c r="D54" s="10">
         <f>AugustRaw!D54</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E54" s="10">
         <f>AugustRaw!E54</f>
@@ -18075,11 +18075,11 @@
       </c>
       <c r="F54" s="10">
         <f>AugustRaw!F54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="10">
         <f>AugustRaw!G54</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H54" s="10">
         <f>AugustRaw!H54</f>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="I54" s="10">
         <f>AugustRaw!I54</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J54" s="11">
         <f>AugustRaw!J54</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -18100,7 +18100,7 @@
       </c>
       <c r="B55" s="7">
         <f>AugustRaw!B55</f>
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="C55" s="7">
         <f>AugustRaw!C55</f>
@@ -18108,7 +18108,7 @@
       </c>
       <c r="D55" s="7">
         <f>AugustRaw!D55</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55" s="7">
         <f>AugustRaw!E55</f>
@@ -18116,11 +18116,11 @@
       </c>
       <c r="F55" s="7">
         <f>AugustRaw!F55</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G55" s="7">
         <f>AugustRaw!G55</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H55" s="7">
         <f>AugustRaw!H55</f>
@@ -18128,11 +18128,11 @@
       </c>
       <c r="I55" s="7">
         <f>AugustRaw!I55</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J55" s="8">
         <f>AugustRaw!J55</f>
-        <v>0</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -18141,7 +18141,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -18149,31 +18149,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -18182,7 +18182,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -18190,31 +18190,31 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -18223,7 +18223,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>38937</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -18231,31 +18231,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1876</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2943</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15894</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23043</v>
       </c>
     </row>
   </sheetData>
@@ -18267,12 +18267,1773 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968ED2F1-F23E-4A67-BB1A-EADC3CF6F211}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3338</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>158</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>604</v>
+      </c>
+      <c r="J2">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1216</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>86</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>466</v>
+      </c>
+      <c r="J3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3370</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>194</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>267</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1072</v>
+      </c>
+      <c r="J4">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3270</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>220</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>61</v>
+      </c>
+      <c r="G6">
+        <v>288</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1558</v>
+      </c>
+      <c r="J6">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>344</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>220</v>
+      </c>
+      <c r="J7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>298</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>122</v>
+      </c>
+      <c r="J8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>208</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>208</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>432</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>184</v>
+      </c>
+      <c r="J13">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>346</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>226</v>
+      </c>
+      <c r="J14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>246</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>188</v>
+      </c>
+      <c r="J15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>126</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>118</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1208</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>64</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>532</v>
+      </c>
+      <c r="J17">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1028</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>514</v>
+      </c>
+      <c r="J19">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1008</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>82</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>596</v>
+      </c>
+      <c r="J21">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>78</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1424</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>111</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>168</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>294</v>
+      </c>
+      <c r="J23">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>4376</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>207</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <v>327</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1074</v>
+      </c>
+      <c r="J24">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>244</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>132</v>
+      </c>
+      <c r="J25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>422</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>226</v>
+      </c>
+      <c r="J27">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>58</v>
+      </c>
+      <c r="J28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>1018</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>31</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>366</v>
+      </c>
+      <c r="J29">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>86</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>64</v>
+      </c>
+      <c r="J30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>46</v>
+      </c>
+      <c r="J31">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1306</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>115</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>93</v>
+      </c>
+      <c r="G32">
+        <v>213</v>
+      </c>
+      <c r="H32">
+        <v>26</v>
+      </c>
+      <c r="I32">
+        <v>880</v>
+      </c>
+      <c r="J32">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>862</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <v>58</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>566</v>
+      </c>
+      <c r="J33">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>390</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>43</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>294</v>
+      </c>
+      <c r="J34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2682</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>216</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>56</v>
+      </c>
+      <c r="G35">
+        <v>279</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>1114</v>
+      </c>
+      <c r="J35">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>364</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>222</v>
+      </c>
+      <c r="J36">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1236</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>173</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>212</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>642</v>
+      </c>
+      <c r="J37">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>180</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>82</v>
+      </c>
+      <c r="J39">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>24</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>28</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>46</v>
+      </c>
+      <c r="J45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>870</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>492</v>
+      </c>
+      <c r="J46">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1500</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>58</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>408</v>
+      </c>
+      <c r="J47">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>516</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>22</v>
+      </c>
+      <c r="I48">
+        <v>182</v>
+      </c>
+      <c r="J48">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>620</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>34</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>328</v>
+      </c>
+      <c r="J49">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1984</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>104</v>
+      </c>
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>760</v>
+      </c>
+      <c r="J50">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>288</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>106</v>
+      </c>
+      <c r="J51">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>684</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>46</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>398</v>
+      </c>
+      <c r="J52">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>230</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>58</v>
+      </c>
+      <c r="J53">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>40</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>456</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>142</v>
+      </c>
+      <c r="J55">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33AF74-89CD-457E-A475-34BBC55501E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882375DD-0A0F-4F0E-A266-A239E0179BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="104">
   <si>
     <t>Library</t>
   </si>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>23044</v>
+        <v>25934</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1037,31 +1037,31 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>760</v>
+        <v>840</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>1232</v>
+        <v>1372</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>5366</v>
+        <v>5818</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>17678</v>
+        <v>20116</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>7542</v>
+        <v>8714</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>2884</v>
+        <v>3168</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>4658</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>25782</v>
+        <v>28198</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1119,31 +1119,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>1449</v>
+        <v>1634</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>1996</v>
+        <v>2237</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>7542</v>
+        <v>8098</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>18240</v>
+        <v>20100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="D5" s="7">
         <f>January!D5+February!D5+March!D5+April!D5+May!D5+June!D5+July!D5+August!D5+September!D5+October!D5+November!D5+December!D5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="7">
         <f>January!E5+February!E5+March!E5+April!E5+May!E5+June!E5+July!E5+August!E5+September!E5+October!E5+November!E5+December!E5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="7">
         <f>January!F5+February!F5+March!F5+April!F5+May!F5+June!F5+July!F5+August!F5+September!F5+October!F5+November!F5+December!F5</f>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="G5" s="7">
         <f>January!G5+February!G5+March!G5+April!G5+May!G5+June!G5+July!G5+August!G5+September!G5+October!G5+November!G5+December!G5</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <f>January!H5+February!H5+March!H5+April!H5+May!H5+June!H5+July!H5+August!H5+September!H5+October!H5+November!H5+December!H5</f>
@@ -1180,11 +1180,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>26022</v>
+        <v>29250</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>1824</v>
+        <v>2064</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
@@ -1209,23 +1209,23 @@
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>561</v>
+        <v>641</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>2437</v>
+        <v>2757</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>11188</v>
+        <v>12194</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>14834</v>
+        <v>17056</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>3118</v>
+        <v>3454</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1242,31 +1242,31 @@
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>1714</v>
+        <v>1874</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>1404</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1788</v>
+        <v>1888</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
@@ -1291,11 +1291,11 @@
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>860</v>
+        <v>924</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>928</v>
+        <v>964</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>740</v>
+        <v>808</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>148</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>1298</v>
+        <v>1394</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
@@ -1467,11 +1467,11 @@
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>1292</v>
+        <v>1372</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>2476</v>
+        <v>2770</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
@@ -1496,11 +1496,11 @@
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>1670</v>
+        <v>1764</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>806</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>2354</v>
+        <v>2586</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1529,19 +1529,19 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
@@ -1549,11 +1549,11 @@
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>1656</v>
+        <v>1780</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>698</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1608</v>
+        <v>1906</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1570,19 +1570,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>1202</v>
+        <v>1376</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>406</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>535</v>
+        <v>591</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>9636</v>
+        <v>11056</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1652,19 +1652,19 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>631</v>
+        <v>721</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
@@ -1672,11 +1672,11 @@
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>4628</v>
+        <v>5016</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>5008</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>924</v>
+        <v>1022</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1693,31 +1693,31 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>734</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>8400</v>
+        <v>9300</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1734,31 +1734,31 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>4778</v>
+        <v>5126</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>3622</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B20" s="10">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C20" s="10">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
@@ -1783,11 +1783,11 @@
       </c>
       <c r="F20" s="10">
         <f>January!F20+February!F20+March!F20+April!F20+May!F20+June!F20+July!F20+August!F20+September!F20+October!F20+November!F20+December!F20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="10">
         <f>January!G20+February!G20+March!G20+April!G20+May!G20+June!G20+July!G20+August!G20+September!G20+October!G20+November!G20+December!G20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="10">
         <f>January!H20+February!H20+March!H20+April!H20+May!H20+June!H20+July!H20+August!H20+September!H20+October!H20+November!H20+December!H20</f>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="I20" s="10">
         <f>January!I20+February!I20+March!I20+April!I20+May!I20+June!I20+July!I20+August!I20+September!I20+October!I20+November!I20+December!I20</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J20" s="11">
         <f>January!J20+February!J20+March!J20+April!J20+May!J20+June!J20+July!J20+August!J20+September!J20+October!J20+November!J20+December!J20</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>7956</v>
+        <v>8914</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1816,31 +1816,31 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>618</v>
+        <v>726</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>4386</v>
+        <v>4756</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>3570</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>432</v>
+        <v>504</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1857,19 +1857,19 @@
       </c>
       <c r="D22" s="10">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>11158</v>
+        <v>12724</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1898,31 +1898,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>758</v>
+        <v>872</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>1237</v>
+        <v>1404</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>3162</v>
+        <v>3558</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>7996</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>31658</v>
+        <v>35360</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1939,31 +1939,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>1534</v>
+        <v>1740</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>2280</v>
+        <v>2585</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>8502</v>
+        <v>9262</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>23156</v>
+        <v>26098</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>2406</v>
+        <v>2762</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
@@ -1988,11 +1988,11 @@
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>1164</v>
+        <v>1266</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>1242</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>3346</v>
+        <v>3742</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2062,31 +2062,31 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>1740</v>
+        <v>1914</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>1606</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>722</v>
+        <v>820</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>200</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>7118</v>
+        <v>7960</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2144,19 +2144,19 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>3068</v>
+        <v>3322</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>4050</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>546</v>
+        <v>638</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="D30" s="10">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
@@ -2193,11 +2193,11 @@
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
@@ -2205,11 +2205,11 @@
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>8976</v>
+        <v>10180</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2267,31 +2267,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>735</v>
+        <v>814</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>1441</v>
+        <v>1574</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>6430</v>
+        <v>7038</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>2546</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>7242</v>
+        <v>8122</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
@@ -2316,23 +2316,23 @@
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>5094</v>
+        <v>5624</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>2148</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>3132</v>
+        <v>3456</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2349,19 +2349,19 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>2223</v>
+        <v>2441</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>909</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>18542</v>
+        <v>20716</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2390,31 +2390,31 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>1486</v>
+        <v>1693</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>1967</v>
+        <v>2215</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>8126</v>
+        <v>8962</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>10416</v>
+        <v>11754</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>3274</v>
+        <v>3572</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2431,19 +2431,19 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
@@ -2451,11 +2451,11 @@
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>1712</v>
+        <v>1824</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>1562</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>9070</v>
+        <v>10116</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2472,31 +2472,31 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>998</v>
+        <v>1147</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>1271</v>
+        <v>1482</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>5424</v>
+        <v>5828</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>3646</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="D38" s="10">
         <f>January!D38+February!D38+March!D38+April!D38+May!D38+June!D38+July!D38+August!D38+September!D38+October!D38+November!D38+December!D38</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38" s="10">
         <f>January!E38+February!E38+March!E38+April!E38+May!E38+June!E38+July!E38+August!E38+September!E38+October!E38+November!E38+December!E38</f>
@@ -2521,11 +2521,11 @@
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>1735</v>
+        <v>1935</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2554,19 +2554,19 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
@@ -2574,11 +2574,11 @@
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>1235</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B40" s="19">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="C40" s="19">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
@@ -2595,19 +2595,19 @@
       </c>
       <c r="D40" s="19">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" s="19">
         <f>January!E40+February!E40+March!E40+April!E40+May!E40+June!E40+July!E40+August!E40+September!E40+October!E40+November!E40+December!E40</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" s="19">
         <f>January!F40+February!F40+March!F40+April!F40+May!F40+June!F40+July!F40+August!F40+September!F40+October!F40+November!F40+December!F40</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" s="19">
         <f>January!G40+February!G40+March!G40+April!G40+May!G40+June!G40+July!G40+August!G40+September!G40+October!G40+November!G40+December!G40</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H40" s="19">
         <f>January!H40+February!H40+March!H40+April!H40+May!H40+June!H40+July!H40+August!H40+September!H40+October!H40+November!H40+December!H40</f>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="I40" s="19">
         <f>January!I40+February!I40+March!I40+April!I40+May!I40+June!I40+July!I40+August!I40+September!I40+October!I40+November!I40+December!I40</f>
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="J40" s="20">
         <f>January!J40+February!J40+March!J40+April!J40+May!J40+June!J40+July!J40+August!J40+September!J40+October!J40+November!J40+December!J40</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B41" s="22">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>538</v>
+        <v>736</v>
       </c>
       <c r="C41" s="22">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
@@ -2644,11 +2644,11 @@
       </c>
       <c r="F41" s="22">
         <f>January!F41+February!F41+March!F41+April!F41+May!F41+June!F41+July!F41+August!F41+September!F41+October!F41+November!F41+December!F41</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2656,11 +2656,11 @@
       </c>
       <c r="I41" s="22">
         <f>January!I41+February!I41+March!I41+April!I41+May!I41+June!I41+July!I41+August!I41+September!I41+October!I41+November!I41+December!I41</f>
-        <v>530</v>
+        <v>678</v>
       </c>
       <c r="J41" s="23">
         <f>January!J41+February!J41+March!J41+April!J41+May!J41+June!J41+July!J41+August!J41+September!J41+October!J41+November!J41+December!J41</f>
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B42" s="19">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C42" s="19">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
@@ -2697,11 +2697,11 @@
       </c>
       <c r="I42" s="19">
         <f>January!I42+February!I42+March!I42+April!I42+May!I42+June!I42+July!I42+August!I42+September!I42+October!I42+November!I42+December!I42</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J42" s="20">
         <f>January!J42+February!J42+March!J42+April!J42+May!J42+June!J42+July!J42+August!J42+September!J42+October!J42+November!J42+December!J42</f>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B43" s="22">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C43" s="22">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D43" s="22">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="22">
         <f>January!E43+February!E43+March!E43+April!E43+May!E43+June!E43+July!E43+August!E43+September!E43+October!E43+November!E43+December!E43</f>
@@ -2726,11 +2726,11 @@
       </c>
       <c r="F43" s="22">
         <f>January!F43+February!F43+March!F43+April!F43+May!F43+June!F43+July!F43+August!F43+September!F43+October!F43+November!F43+December!F43</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G43" s="22">
         <f>January!G43+February!G43+March!G43+April!G43+May!G43+June!G43+July!G43+August!G43+September!G43+October!G43+November!G43+December!G43</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H43" s="22">
         <f>January!H43+February!H43+March!H43+April!H43+May!H43+June!H43+July!H43+August!H43+September!H43+October!H43+November!H43+December!H43</f>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="I43" s="22">
         <f>January!I43+February!I43+March!I43+April!I43+May!I43+June!I43+July!I43+August!I43+September!I43+October!I43+November!I43+December!I43</f>
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="J43" s="23">
         <f>January!J43+February!J43+March!J43+April!J43+May!J43+June!J43+July!J43+August!J43+September!J43+October!J43+November!J43+December!J43</f>
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>1145</v>
+        <v>1257</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="D45" s="7">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E45" s="7">
         <f>January!E45+February!E45+March!E45+April!E45+May!E45+June!E45+July!E45+August!E45+September!E45+October!E45+November!E45+December!E45</f>
@@ -2808,11 +2808,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>474</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>5980</v>
+        <v>6760</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
@@ -2849,11 +2849,11 @@
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>3838</v>
+        <v>4176</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>2142</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>11266</v>
+        <v>12680</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2882,19 +2882,19 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
@@ -2902,11 +2902,11 @@
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>3592</v>
+        <v>3900</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>7674</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>3490</v>
+        <v>4070</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
@@ -2931,23 +2931,23 @@
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>1432</v>
+        <v>1604</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>2058</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>4384</v>
+        <v>5014</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>2206</v>
+        <v>2470</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>2178</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>13528</v>
+        <v>15166</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3005,31 +3005,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>374</v>
+        <v>463</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>781</v>
+        <v>912</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>6092</v>
+        <v>6640</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>7436</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>2926</v>
+        <v>3222</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
@@ -3054,11 +3054,11 @@
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>1442</v>
+        <v>1538</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>1484</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>6358</v>
+        <v>7154</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3087,31 +3087,31 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>3842</v>
+        <v>4128</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>2516</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1698</v>
+        <v>1946</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>1180</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>3000</v>
+        <v>3676</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
@@ -3218,23 +3218,23 @@
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>1254</v>
+        <v>1414</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>1746</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>7736</v>
+        <v>8656</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3251,19 +3251,19 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -3271,11 +3271,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>5820</v>
+        <v>6292</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>1916</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>1013</v>
+        <v>1369</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -3292,19 +3292,19 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -3312,11 +3312,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>886</v>
+        <v>1163</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>289478</v>
+        <v>325111</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3333,31 +3333,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>13408</v>
+        <v>15220</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>1067</v>
+        <v>1170</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>7344</v>
+        <v>8208</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>21819</v>
+        <v>24598</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>1214</v>
+        <v>1315</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>125708</v>
+        <v>137222</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>163770</v>
+        <v>187889</v>
       </c>
     </row>
   </sheetData>
@@ -20094,7 +20094,7 @@
       </c>
       <c r="B2" s="4">
         <f>SeptemberRaw!B2</f>
-        <v>0</v>
+        <v>2890</v>
       </c>
       <c r="C2" s="4">
         <f>SeptemberRaw!C2</f>
@@ -20102,31 +20102,31 @@
       </c>
       <c r="D2" s="4">
         <f>SeptemberRaw!D2</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4">
         <f>SeptemberRaw!E2</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4">
         <f>SeptemberRaw!F2</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4">
         <f>SeptemberRaw!G2</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H2" s="4">
         <f>SeptemberRaw!H2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
         <f>SeptemberRaw!I2</f>
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="J2" s="5">
         <f>SeptemberRaw!J2</f>
-        <v>0</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -20135,7 +20135,7 @@
       </c>
       <c r="B3" s="7">
         <f>SeptemberRaw!B3</f>
-        <v>0</v>
+        <v>1172</v>
       </c>
       <c r="C3" s="7">
         <f>SeptemberRaw!C3</f>
@@ -20143,31 +20143,31 @@
       </c>
       <c r="D3" s="7">
         <f>SeptemberRaw!D3</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7">
         <f>SeptemberRaw!E3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="7">
         <f>SeptemberRaw!F3</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7">
         <f>SeptemberRaw!G3</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H3" s="7">
         <f>SeptemberRaw!H3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="7">
         <f>SeptemberRaw!I3</f>
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J3" s="8">
         <f>SeptemberRaw!J3</f>
-        <v>0</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="B4" s="10">
         <f>SeptemberRaw!B4</f>
-        <v>0</v>
+        <v>2416</v>
       </c>
       <c r="C4" s="10">
         <f>SeptemberRaw!C4</f>
@@ -20184,31 +20184,31 @@
       </c>
       <c r="D4" s="10">
         <f>SeptemberRaw!D4</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E4" s="10">
         <f>SeptemberRaw!E4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="10">
         <f>SeptemberRaw!F4</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G4" s="10">
         <f>SeptemberRaw!G4</f>
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="H4" s="10">
         <f>SeptemberRaw!H4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="10">
         <f>SeptemberRaw!I4</f>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="J4" s="11">
         <f>SeptemberRaw!J4</f>
-        <v>0</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -20217,7 +20217,7 @@
       </c>
       <c r="B5" s="7">
         <f>SeptemberRaw!B5</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7">
         <f>SeptemberRaw!C5</f>
@@ -20225,11 +20225,11 @@
       </c>
       <c r="D5" s="7">
         <f>SeptemberRaw!D5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
         <f>SeptemberRaw!E5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <f>SeptemberRaw!F5</f>
@@ -20237,7 +20237,7 @@
       </c>
       <c r="G5" s="7">
         <f>SeptemberRaw!G5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="7">
         <f>SeptemberRaw!H5</f>
@@ -20245,11 +20245,11 @@
       </c>
       <c r="I5" s="7">
         <f>SeptemberRaw!I5</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J5" s="8">
         <f>SeptemberRaw!J5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="B6" s="10">
         <f>SeptemberRaw!B6</f>
-        <v>0</v>
+        <v>3228</v>
       </c>
       <c r="C6" s="10">
         <f>SeptemberRaw!C6</f>
@@ -20266,7 +20266,7 @@
       </c>
       <c r="D6" s="10">
         <f>SeptemberRaw!D6</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E6" s="10">
         <f>SeptemberRaw!E6</f>
@@ -20274,23 +20274,23 @@
       </c>
       <c r="F6" s="10">
         <f>SeptemberRaw!F6</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G6" s="10">
         <f>SeptemberRaw!G6</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H6" s="10">
         <f>SeptemberRaw!H6</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="10">
         <f>SeptemberRaw!I6</f>
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="J6" s="11">
         <f>SeptemberRaw!J6</f>
-        <v>0</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -20299,7 +20299,7 @@
       </c>
       <c r="B7" s="7">
         <f>SeptemberRaw!B7</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="C7" s="7">
         <f>SeptemberRaw!C7</f>
@@ -20307,31 +20307,31 @@
       </c>
       <c r="D7" s="7">
         <f>SeptemberRaw!D7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <f>SeptemberRaw!E7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <f>SeptemberRaw!F7</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7">
         <f>SeptemberRaw!G7</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <f>SeptemberRaw!H7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
         <f>SeptemberRaw!I7</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J7" s="8">
         <f>SeptemberRaw!J7</f>
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B8" s="10">
         <f>SeptemberRaw!B8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C8" s="10">
         <f>SeptemberRaw!C8</f>
@@ -20348,7 +20348,7 @@
       </c>
       <c r="D8" s="10">
         <f>SeptemberRaw!D8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="10">
         <f>SeptemberRaw!E8</f>
@@ -20356,11 +20356,11 @@
       </c>
       <c r="F8" s="10">
         <f>SeptemberRaw!F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
         <f>SeptemberRaw!G8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="10">
         <f>SeptemberRaw!H8</f>
@@ -20368,11 +20368,11 @@
       </c>
       <c r="I8" s="10">
         <f>SeptemberRaw!I8</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J8" s="11">
         <f>SeptemberRaw!J8</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -20381,7 +20381,7 @@
       </c>
       <c r="B9" s="7">
         <f>SeptemberRaw!B9</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7">
         <f>SeptemberRaw!C9</f>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D9" s="7">
         <f>SeptemberRaw!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
         <f>SeptemberRaw!E9</f>
@@ -20401,7 +20401,7 @@
       </c>
       <c r="G9" s="7">
         <f>SeptemberRaw!G9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
         <f>SeptemberRaw!H9</f>
@@ -20409,11 +20409,11 @@
       </c>
       <c r="I9" s="7">
         <f>SeptemberRaw!I9</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J9" s="8">
         <f>SeptemberRaw!J9</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -20504,7 +20504,7 @@
       </c>
       <c r="B12" s="13">
         <f>SeptemberRaw!B12</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C12" s="13">
         <f>SeptemberRaw!C12</f>
@@ -20512,7 +20512,7 @@
       </c>
       <c r="D12" s="13">
         <f>SeptemberRaw!D12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="13">
         <f>SeptemberRaw!E12</f>
@@ -20520,11 +20520,11 @@
       </c>
       <c r="F12" s="13">
         <f>SeptemberRaw!F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13">
         <f>SeptemberRaw!G12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="13">
         <f>SeptemberRaw!H12</f>
@@ -20532,11 +20532,11 @@
       </c>
       <c r="I12" s="13">
         <f>SeptemberRaw!I12</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J12" s="14">
         <f>SeptemberRaw!J12</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B13" s="16">
         <f>SeptemberRaw!B13</f>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="C13" s="16">
         <f>SeptemberRaw!C13</f>
@@ -20553,7 +20553,7 @@
       </c>
       <c r="D13" s="16">
         <f>SeptemberRaw!D13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="16">
         <f>SeptemberRaw!E13</f>
@@ -20561,11 +20561,11 @@
       </c>
       <c r="F13" s="16">
         <f>SeptemberRaw!F13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="16">
         <f>SeptemberRaw!G13</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="16">
         <f>SeptemberRaw!H13</f>
@@ -20573,11 +20573,11 @@
       </c>
       <c r="I13" s="16">
         <f>SeptemberRaw!I13</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J13" s="17">
         <f>SeptemberRaw!J13</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -20586,7 +20586,7 @@
       </c>
       <c r="B14" s="13">
         <f>SeptemberRaw!B14</f>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C14" s="13">
         <f>SeptemberRaw!C14</f>
@@ -20594,19 +20594,19 @@
       </c>
       <c r="D14" s="13">
         <f>SeptemberRaw!D14</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E14" s="13">
         <f>SeptemberRaw!E14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="13">
         <f>SeptemberRaw!F14</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G14" s="13">
         <f>SeptemberRaw!G14</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H14" s="13">
         <f>SeptemberRaw!H14</f>
@@ -20614,11 +20614,11 @@
       </c>
       <c r="I14" s="13">
         <f>SeptemberRaw!I14</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="J14" s="14">
         <f>SeptemberRaw!J14</f>
-        <v>0</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -20627,7 +20627,7 @@
       </c>
       <c r="B15" s="16">
         <f>SeptemberRaw!B15</f>
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="C15" s="16">
         <f>SeptemberRaw!C15</f>
@@ -20635,19 +20635,19 @@
       </c>
       <c r="D15" s="16">
         <f>SeptemberRaw!D15</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E15" s="16">
         <f>SeptemberRaw!E15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="16">
         <f>SeptemberRaw!F15</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15" s="16">
         <f>SeptemberRaw!G15</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H15" s="16">
         <f>SeptemberRaw!H15</f>
@@ -20655,11 +20655,11 @@
       </c>
       <c r="I15" s="16">
         <f>SeptemberRaw!I15</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J15" s="17">
         <f>SeptemberRaw!J15</f>
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -20668,7 +20668,7 @@
       </c>
       <c r="B16" s="10">
         <f>SeptemberRaw!B16</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C16" s="10">
         <f>SeptemberRaw!C16</f>
@@ -20676,7 +20676,7 @@
       </c>
       <c r="D16" s="10">
         <f>SeptemberRaw!D16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="10">
         <f>SeptemberRaw!E16</f>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="G16" s="10">
         <f>SeptemberRaw!G16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="10">
         <f>SeptemberRaw!H16</f>
@@ -20696,11 +20696,11 @@
       </c>
       <c r="I16" s="10">
         <f>SeptemberRaw!I16</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J16" s="11">
         <f>SeptemberRaw!J16</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -20709,7 +20709,7 @@
       </c>
       <c r="B17" s="7">
         <f>SeptemberRaw!B17</f>
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="C17" s="7">
         <f>SeptemberRaw!C17</f>
@@ -20717,19 +20717,19 @@
       </c>
       <c r="D17" s="7">
         <f>SeptemberRaw!D17</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E17" s="7">
         <f>SeptemberRaw!E17</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7">
         <f>SeptemberRaw!F17</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7">
         <f>SeptemberRaw!G17</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <f>SeptemberRaw!H17</f>
@@ -20737,11 +20737,11 @@
       </c>
       <c r="I17" s="7">
         <f>SeptemberRaw!I17</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="J17" s="8">
         <f>SeptemberRaw!J17</f>
-        <v>0</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -20750,7 +20750,7 @@
       </c>
       <c r="B18" s="10">
         <f>SeptemberRaw!B18</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C18" s="10">
         <f>SeptemberRaw!C18</f>
@@ -20758,31 +20758,31 @@
       </c>
       <c r="D18" s="10">
         <f>SeptemberRaw!D18</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10">
         <f>SeptemberRaw!E18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10">
         <f>SeptemberRaw!F18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10">
         <f>SeptemberRaw!G18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="10">
         <f>SeptemberRaw!H18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="10">
         <f>SeptemberRaw!I18</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J18" s="11">
         <f>SeptemberRaw!J18</f>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="B19" s="7">
         <f>SeptemberRaw!B19</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="C19" s="7">
         <f>SeptemberRaw!C19</f>
@@ -20799,31 +20799,31 @@
       </c>
       <c r="D19" s="7">
         <f>SeptemberRaw!D19</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E19" s="7">
         <f>SeptemberRaw!E19</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F19" s="7">
         <f>SeptemberRaw!F19</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7">
         <f>SeptemberRaw!G19</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <f>SeptemberRaw!H19</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
         <f>SeptemberRaw!I19</f>
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="J19" s="8">
         <f>SeptemberRaw!J19</f>
-        <v>0</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -20832,7 +20832,7 @@
       </c>
       <c r="B20" s="10">
         <f>SeptemberRaw!B20</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C20" s="10">
         <f>SeptemberRaw!C20</f>
@@ -20848,11 +20848,11 @@
       </c>
       <c r="F20" s="10">
         <f>SeptemberRaw!F20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10">
         <f>SeptemberRaw!G20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="10">
         <f>SeptemberRaw!H20</f>
@@ -20860,11 +20860,11 @@
       </c>
       <c r="I20" s="10">
         <f>SeptemberRaw!I20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="11">
         <f>SeptemberRaw!J20</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="B21" s="7">
         <f>SeptemberRaw!B21</f>
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="C21" s="7">
         <f>SeptemberRaw!C21</f>
@@ -20881,31 +20881,31 @@
       </c>
       <c r="D21" s="7">
         <f>SeptemberRaw!D21</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E21" s="7">
         <f>SeptemberRaw!E21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="7">
         <f>SeptemberRaw!F21</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7">
         <f>SeptemberRaw!G21</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <f>SeptemberRaw!H21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
         <f>SeptemberRaw!I21</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="J21" s="8">
         <f>SeptemberRaw!J21</f>
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -20914,7 +20914,7 @@
       </c>
       <c r="B22" s="10">
         <f>SeptemberRaw!B22</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10">
         <f>SeptemberRaw!C22</f>
@@ -20922,19 +20922,19 @@
       </c>
       <c r="D22" s="10">
         <f>SeptemberRaw!D22</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="10">
         <f>SeptemberRaw!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10">
         <f>SeptemberRaw!F22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="10">
         <f>SeptemberRaw!G22</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="10">
         <f>SeptemberRaw!H22</f>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="I22" s="10">
         <f>SeptemberRaw!I22</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J22" s="11">
         <f>SeptemberRaw!J22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -20955,7 +20955,7 @@
       </c>
       <c r="B23" s="7">
         <f>SeptemberRaw!B23</f>
-        <v>0</v>
+        <v>1566</v>
       </c>
       <c r="C23" s="7">
         <f>SeptemberRaw!C23</f>
@@ -20963,31 +20963,31 @@
       </c>
       <c r="D23" s="7">
         <f>SeptemberRaw!D23</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E23" s="7">
         <f>SeptemberRaw!E23</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="7">
         <f>SeptemberRaw!F23</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7">
         <f>SeptemberRaw!G23</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
         <f>SeptemberRaw!H23</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
         <f>SeptemberRaw!I23</f>
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J23" s="8">
         <f>SeptemberRaw!J23</f>
-        <v>0</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -20996,7 +20996,7 @@
       </c>
       <c r="B24" s="10">
         <f>SeptemberRaw!B24</f>
-        <v>0</v>
+        <v>3702</v>
       </c>
       <c r="C24" s="10">
         <f>SeptemberRaw!C24</f>
@@ -21004,31 +21004,31 @@
       </c>
       <c r="D24" s="10">
         <f>SeptemberRaw!D24</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="E24" s="10">
         <f>SeptemberRaw!E24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="10">
         <f>SeptemberRaw!F24</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G24" s="10">
         <f>SeptemberRaw!G24</f>
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="H24" s="10">
         <f>SeptemberRaw!H24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I24" s="10">
         <f>SeptemberRaw!I24</f>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="J24" s="11">
         <f>SeptemberRaw!J24</f>
-        <v>0</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="B25" s="7">
         <f>SeptemberRaw!B25</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="C25" s="7">
         <f>SeptemberRaw!C25</f>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="D25" s="7">
         <f>SeptemberRaw!D25</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E25" s="7">
         <f>SeptemberRaw!E25</f>
@@ -21053,11 +21053,11 @@
       </c>
       <c r="F25" s="7">
         <f>SeptemberRaw!F25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7">
         <f>SeptemberRaw!G25</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H25" s="7">
         <f>SeptemberRaw!H25</f>
@@ -21065,11 +21065,11 @@
       </c>
       <c r="I25" s="7">
         <f>SeptemberRaw!I25</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J25" s="8">
         <f>SeptemberRaw!J25</f>
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="B27" s="7">
         <f>SeptemberRaw!B27</f>
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="C27" s="7">
         <f>SeptemberRaw!C27</f>
@@ -21127,31 +21127,31 @@
       </c>
       <c r="D27" s="7">
         <f>SeptemberRaw!D27</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E27" s="7">
         <f>SeptemberRaw!E27</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" s="7">
         <f>SeptemberRaw!F27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="7">
         <f>SeptemberRaw!G27</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <f>SeptemberRaw!H27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
         <f>SeptemberRaw!I27</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J27" s="8">
         <f>SeptemberRaw!J27</f>
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B28" s="10">
         <f>SeptemberRaw!B28</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C28" s="10">
         <f>SeptemberRaw!C28</f>
@@ -21168,7 +21168,7 @@
       </c>
       <c r="D28" s="10">
         <f>SeptemberRaw!D28</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E28" s="10">
         <f>SeptemberRaw!E28</f>
@@ -21180,7 +21180,7 @@
       </c>
       <c r="G28" s="10">
         <f>SeptemberRaw!G28</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H28" s="10">
         <f>SeptemberRaw!H28</f>
@@ -21188,11 +21188,11 @@
       </c>
       <c r="I28" s="10">
         <f>SeptemberRaw!I28</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J28" s="11">
         <f>SeptemberRaw!J28</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -21201,7 +21201,7 @@
       </c>
       <c r="B29" s="7">
         <f>SeptemberRaw!B29</f>
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="C29" s="7">
         <f>SeptemberRaw!C29</f>
@@ -21209,19 +21209,19 @@
       </c>
       <c r="D29" s="7">
         <f>SeptemberRaw!D29</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7">
         <f>SeptemberRaw!E29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="7">
         <f>SeptemberRaw!F29</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G29" s="7">
         <f>SeptemberRaw!G29</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H29" s="7">
         <f>SeptemberRaw!H29</f>
@@ -21229,11 +21229,11 @@
       </c>
       <c r="I29" s="7">
         <f>SeptemberRaw!I29</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J29" s="8">
         <f>SeptemberRaw!J29</f>
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -21242,7 +21242,7 @@
       </c>
       <c r="B30" s="10">
         <f>SeptemberRaw!B30</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C30" s="10">
         <f>SeptemberRaw!C30</f>
@@ -21250,7 +21250,7 @@
       </c>
       <c r="D30" s="10">
         <f>SeptemberRaw!D30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="10">
         <f>SeptemberRaw!E30</f>
@@ -21258,11 +21258,11 @@
       </c>
       <c r="F30" s="10">
         <f>SeptemberRaw!F30</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="10">
         <f>SeptemberRaw!G30</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30" s="10">
         <f>SeptemberRaw!H30</f>
@@ -21270,11 +21270,11 @@
       </c>
       <c r="I30" s="10">
         <f>SeptemberRaw!I30</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J30" s="11">
         <f>SeptemberRaw!J30</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -21283,7 +21283,7 @@
       </c>
       <c r="B31" s="7">
         <f>SeptemberRaw!B31</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C31" s="7">
         <f>SeptemberRaw!C31</f>
@@ -21291,7 +21291,7 @@
       </c>
       <c r="D31" s="7">
         <f>SeptemberRaw!D31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="7">
         <f>SeptemberRaw!E31</f>
@@ -21303,7 +21303,7 @@
       </c>
       <c r="G31" s="7">
         <f>SeptemberRaw!G31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="7">
         <f>SeptemberRaw!H31</f>
@@ -21311,11 +21311,11 @@
       </c>
       <c r="I31" s="7">
         <f>SeptemberRaw!I31</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J31" s="8">
         <f>SeptemberRaw!J31</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -21324,7 +21324,7 @@
       </c>
       <c r="B32" s="10">
         <f>SeptemberRaw!B32</f>
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="C32" s="10">
         <f>SeptemberRaw!C32</f>
@@ -21332,31 +21332,31 @@
       </c>
       <c r="D32" s="10">
         <f>SeptemberRaw!D32</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E32" s="10">
         <f>SeptemberRaw!E32</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32" s="10">
         <f>SeptemberRaw!F32</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G32" s="10">
         <f>SeptemberRaw!G32</f>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H32" s="10">
         <f>SeptemberRaw!H32</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I32" s="10">
         <f>SeptemberRaw!I32</f>
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="J32" s="11">
         <f>SeptemberRaw!J32</f>
-        <v>0</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="B33" s="7">
         <f>SeptemberRaw!B33</f>
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="C33" s="7">
         <f>SeptemberRaw!C33</f>
@@ -21373,7 +21373,7 @@
       </c>
       <c r="D33" s="7">
         <f>SeptemberRaw!D33</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E33" s="7">
         <f>SeptemberRaw!E33</f>
@@ -21381,23 +21381,23 @@
       </c>
       <c r="F33" s="7">
         <f>SeptemberRaw!F33</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G33" s="7">
         <f>SeptemberRaw!G33</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H33" s="7">
         <f>SeptemberRaw!H33</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I33" s="7">
         <f>SeptemberRaw!I33</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="J33" s="8">
         <f>SeptemberRaw!J33</f>
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -21406,7 +21406,7 @@
       </c>
       <c r="B34" s="10">
         <f>SeptemberRaw!B34</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="C34" s="10">
         <f>SeptemberRaw!C34</f>
@@ -21414,19 +21414,19 @@
       </c>
       <c r="D34" s="10">
         <f>SeptemberRaw!D34</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E34" s="10">
         <f>SeptemberRaw!E34</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="10">
         <f>SeptemberRaw!F34</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="10">
         <f>SeptemberRaw!G34</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H34" s="10">
         <f>SeptemberRaw!H34</f>
@@ -21434,11 +21434,11 @@
       </c>
       <c r="I34" s="10">
         <f>SeptemberRaw!I34</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J34" s="11">
         <f>SeptemberRaw!J34</f>
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -21447,7 +21447,7 @@
       </c>
       <c r="B35" s="7">
         <f>SeptemberRaw!B35</f>
-        <v>0</v>
+        <v>2174</v>
       </c>
       <c r="C35" s="7">
         <f>SeptemberRaw!C35</f>
@@ -21455,31 +21455,31 @@
       </c>
       <c r="D35" s="7">
         <f>SeptemberRaw!D35</f>
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="E35" s="7">
         <f>SeptemberRaw!E35</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35" s="7">
         <f>SeptemberRaw!F35</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G35" s="7">
         <f>SeptemberRaw!G35</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <f>SeptemberRaw!H35</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35" s="7">
         <f>SeptemberRaw!I35</f>
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="J35" s="8">
         <f>SeptemberRaw!J35</f>
-        <v>0</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="B36" s="10">
         <f>SeptemberRaw!B36</f>
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="C36" s="10">
         <f>SeptemberRaw!C36</f>
@@ -21496,19 +21496,19 @@
       </c>
       <c r="D36" s="10">
         <f>SeptemberRaw!D36</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E36" s="10">
         <f>SeptemberRaw!E36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="10">
         <f>SeptemberRaw!F36</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G36" s="10">
         <f>SeptemberRaw!G36</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H36" s="10">
         <f>SeptemberRaw!H36</f>
@@ -21516,11 +21516,11 @@
       </c>
       <c r="I36" s="10">
         <f>SeptemberRaw!I36</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J36" s="11">
         <f>SeptemberRaw!J36</f>
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -21529,7 +21529,7 @@
       </c>
       <c r="B37" s="7">
         <f>SeptemberRaw!B37</f>
-        <v>0</v>
+        <v>1046</v>
       </c>
       <c r="C37" s="7">
         <f>SeptemberRaw!C37</f>
@@ -21537,31 +21537,31 @@
       </c>
       <c r="D37" s="7">
         <f>SeptemberRaw!D37</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E37" s="7">
         <f>SeptemberRaw!E37</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37" s="7">
         <f>SeptemberRaw!F37</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G37" s="7">
         <f>SeptemberRaw!G37</f>
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="H37" s="7">
         <f>SeptemberRaw!H37</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
         <f>SeptemberRaw!I37</f>
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="J37" s="8">
         <f>SeptemberRaw!J37</f>
-        <v>0</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -21570,7 +21570,7 @@
       </c>
       <c r="B38" s="10">
         <f>SeptemberRaw!B38</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C38" s="10">
         <f>SeptemberRaw!C38</f>
@@ -21578,7 +21578,7 @@
       </c>
       <c r="D38" s="10">
         <f>SeptemberRaw!D38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" s="10">
         <f>SeptemberRaw!E38</f>
@@ -21586,11 +21586,11 @@
       </c>
       <c r="F38" s="10">
         <f>SeptemberRaw!F38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10">
         <f>SeptemberRaw!G38</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="10">
         <f>SeptemberRaw!H38</f>
@@ -21598,11 +21598,11 @@
       </c>
       <c r="I38" s="10">
         <f>SeptemberRaw!I38</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38" s="11">
         <f>SeptemberRaw!J38</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -21611,7 +21611,7 @@
       </c>
       <c r="B39" s="7">
         <f>SeptemberRaw!B39</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C39" s="7">
         <f>SeptemberRaw!C39</f>
@@ -21619,19 +21619,19 @@
       </c>
       <c r="D39" s="7">
         <f>SeptemberRaw!D39</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7">
         <f>SeptemberRaw!E39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="7">
         <f>SeptemberRaw!F39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7">
         <f>SeptemberRaw!G39</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H39" s="7">
         <f>SeptemberRaw!H39</f>
@@ -21639,11 +21639,11 @@
       </c>
       <c r="I39" s="7">
         <f>SeptemberRaw!I39</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J39" s="8">
         <f>SeptemberRaw!J39</f>
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -21652,7 +21652,7 @@
       </c>
       <c r="B40" s="19">
         <f>SeptemberRaw!B40</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C40" s="19">
         <f>SeptemberRaw!C40</f>
@@ -21660,19 +21660,19 @@
       </c>
       <c r="D40" s="19">
         <f>SeptemberRaw!D40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="19">
         <f>SeptemberRaw!E40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="19">
         <f>SeptemberRaw!F40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="19">
         <f>SeptemberRaw!G40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H40" s="19">
         <f>SeptemberRaw!H40</f>
@@ -21680,11 +21680,11 @@
       </c>
       <c r="I40" s="19">
         <f>SeptemberRaw!I40</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J40" s="20">
         <f>SeptemberRaw!J40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -21693,7 +21693,7 @@
       </c>
       <c r="B41" s="22">
         <f>SeptemberRaw!B41</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="C41" s="22">
         <f>SeptemberRaw!C41</f>
@@ -21701,7 +21701,7 @@
       </c>
       <c r="D41" s="22">
         <f>SeptemberRaw!D41</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="22">
         <f>SeptemberRaw!E41</f>
@@ -21709,11 +21709,11 @@
       </c>
       <c r="F41" s="22">
         <f>SeptemberRaw!F41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="22">
         <f>SeptemberRaw!G41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="22">
         <f>SeptemberRaw!H41</f>
@@ -21721,11 +21721,11 @@
       </c>
       <c r="I41" s="22">
         <f>SeptemberRaw!I41</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J41" s="23">
         <f>SeptemberRaw!J41</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B42" s="19">
         <f>SeptemberRaw!B42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" s="19">
         <f>SeptemberRaw!C42</f>
@@ -21762,11 +21762,11 @@
       </c>
       <c r="I42" s="19">
         <f>SeptemberRaw!I42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="20">
         <f>SeptemberRaw!J42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -21775,7 +21775,7 @@
       </c>
       <c r="B43" s="22">
         <f>SeptemberRaw!B43</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C43" s="22">
         <f>SeptemberRaw!C43</f>
@@ -21783,7 +21783,7 @@
       </c>
       <c r="D43" s="22">
         <f>SeptemberRaw!D43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="22">
         <f>SeptemberRaw!E43</f>
@@ -21791,11 +21791,11 @@
       </c>
       <c r="F43" s="22">
         <f>SeptemberRaw!F43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="22">
         <f>SeptemberRaw!G43</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="22">
         <f>SeptemberRaw!H43</f>
@@ -21803,11 +21803,11 @@
       </c>
       <c r="I43" s="22">
         <f>SeptemberRaw!I43</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J43" s="23">
         <f>SeptemberRaw!J43</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -21857,7 +21857,7 @@
       </c>
       <c r="B45" s="7">
         <f>SeptemberRaw!B45</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C45" s="7">
         <f>SeptemberRaw!C45</f>
@@ -21865,7 +21865,7 @@
       </c>
       <c r="D45" s="7">
         <f>SeptemberRaw!D45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7">
         <f>SeptemberRaw!E45</f>
@@ -21873,11 +21873,11 @@
       </c>
       <c r="F45" s="7">
         <f>SeptemberRaw!F45</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="7">
         <f>SeptemberRaw!G45</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="7">
         <f>SeptemberRaw!H45</f>
@@ -21885,11 +21885,11 @@
       </c>
       <c r="I45" s="7">
         <f>SeptemberRaw!I45</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J45" s="8">
         <f>SeptemberRaw!J45</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="B46" s="10">
         <f>SeptemberRaw!B46</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="C46" s="10">
         <f>SeptemberRaw!C46</f>
@@ -21906,7 +21906,7 @@
       </c>
       <c r="D46" s="10">
         <f>SeptemberRaw!D46</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E46" s="10">
         <f>SeptemberRaw!E46</f>
@@ -21914,11 +21914,11 @@
       </c>
       <c r="F46" s="10">
         <f>SeptemberRaw!F46</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G46" s="10">
         <f>SeptemberRaw!G46</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H46" s="10">
         <f>SeptemberRaw!H46</f>
@@ -21926,11 +21926,11 @@
       </c>
       <c r="I46" s="10">
         <f>SeptemberRaw!I46</f>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="J46" s="11">
         <f>SeptemberRaw!J46</f>
-        <v>0</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -21939,7 +21939,7 @@
       </c>
       <c r="B47" s="7">
         <f>SeptemberRaw!B47</f>
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="C47" s="7">
         <f>SeptemberRaw!C47</f>
@@ -21947,19 +21947,19 @@
       </c>
       <c r="D47" s="7">
         <f>SeptemberRaw!D47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7">
         <f>SeptemberRaw!E47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="7">
         <f>SeptemberRaw!F47</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G47" s="7">
         <f>SeptemberRaw!G47</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H47" s="7">
         <f>SeptemberRaw!H47</f>
@@ -21967,11 +21967,11 @@
       </c>
       <c r="I47" s="7">
         <f>SeptemberRaw!I47</f>
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="J47" s="8">
         <f>SeptemberRaw!J47</f>
-        <v>0</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -21980,7 +21980,7 @@
       </c>
       <c r="B48" s="10">
         <f>SeptemberRaw!B48</f>
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="C48" s="10">
         <f>SeptemberRaw!C48</f>
@@ -21988,7 +21988,7 @@
       </c>
       <c r="D48" s="10">
         <f>SeptemberRaw!D48</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E48" s="10">
         <f>SeptemberRaw!E48</f>
@@ -21996,23 +21996,23 @@
       </c>
       <c r="F48" s="10">
         <f>SeptemberRaw!F48</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G48" s="10">
         <f>SeptemberRaw!G48</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H48" s="10">
         <f>SeptemberRaw!H48</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I48" s="10">
         <f>SeptemberRaw!I48</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="J48" s="11">
         <f>SeptemberRaw!J48</f>
-        <v>0</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -22021,7 +22021,7 @@
       </c>
       <c r="B49" s="7">
         <f>SeptemberRaw!B49</f>
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="C49" s="7">
         <f>SeptemberRaw!C49</f>
@@ -22029,19 +22029,19 @@
       </c>
       <c r="D49" s="7">
         <f>SeptemberRaw!D49</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7">
         <f>SeptemberRaw!E49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="7">
         <f>SeptemberRaw!F49</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G49" s="7">
         <f>SeptemberRaw!G49</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H49" s="7">
         <f>SeptemberRaw!H49</f>
@@ -22049,11 +22049,11 @@
       </c>
       <c r="I49" s="7">
         <f>SeptemberRaw!I49</f>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="J49" s="8">
         <f>SeptemberRaw!J49</f>
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -22062,7 +22062,7 @@
       </c>
       <c r="B50" s="10">
         <f>SeptemberRaw!B50</f>
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="C50" s="10">
         <f>SeptemberRaw!C50</f>
@@ -22070,31 +22070,31 @@
       </c>
       <c r="D50" s="10">
         <f>SeptemberRaw!D50</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E50" s="10">
         <f>SeptemberRaw!E50</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F50" s="10">
         <f>SeptemberRaw!F50</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G50" s="10">
         <f>SeptemberRaw!G50</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="H50" s="10">
         <f>SeptemberRaw!H50</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I50" s="10">
         <f>SeptemberRaw!I50</f>
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="J50" s="11">
         <f>SeptemberRaw!J50</f>
-        <v>0</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -22103,7 +22103,7 @@
       </c>
       <c r="B51" s="7">
         <f>SeptemberRaw!B51</f>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="C51" s="7">
         <f>SeptemberRaw!C51</f>
@@ -22111,7 +22111,7 @@
       </c>
       <c r="D51" s="7">
         <f>SeptemberRaw!D51</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E51" s="7">
         <f>SeptemberRaw!E51</f>
@@ -22119,11 +22119,11 @@
       </c>
       <c r="F51" s="7">
         <f>SeptemberRaw!F51</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G51" s="7">
         <f>SeptemberRaw!G51</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H51" s="7">
         <f>SeptemberRaw!H51</f>
@@ -22131,11 +22131,11 @@
       </c>
       <c r="I51" s="7">
         <f>SeptemberRaw!I51</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="J51" s="8">
         <f>SeptemberRaw!J51</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -22144,7 +22144,7 @@
       </c>
       <c r="B52" s="10">
         <f>SeptemberRaw!B52</f>
-        <v>0</v>
+        <v>796</v>
       </c>
       <c r="C52" s="10">
         <f>SeptemberRaw!C52</f>
@@ -22152,31 +22152,31 @@
       </c>
       <c r="D52" s="10">
         <f>SeptemberRaw!D52</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E52" s="10">
         <f>SeptemberRaw!E52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="10">
         <f>SeptemberRaw!F52</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G52" s="10">
         <f>SeptemberRaw!G52</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H52" s="10">
         <f>SeptemberRaw!H52</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I52" s="10">
         <f>SeptemberRaw!I52</f>
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J52" s="11">
         <f>SeptemberRaw!J52</f>
-        <v>0</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -22185,7 +22185,7 @@
       </c>
       <c r="B53" s="7">
         <f>SeptemberRaw!B53</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="C53" s="7">
         <f>SeptemberRaw!C53</f>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="D53" s="7">
         <f>SeptemberRaw!D53</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E53" s="7">
         <f>SeptemberRaw!E53</f>
@@ -22205,7 +22205,7 @@
       </c>
       <c r="G53" s="7">
         <f>SeptemberRaw!G53</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H53" s="7">
         <f>SeptemberRaw!H53</f>
@@ -22213,11 +22213,11 @@
       </c>
       <c r="I53" s="7">
         <f>SeptemberRaw!I53</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J53" s="8">
         <f>SeptemberRaw!J53</f>
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -22226,7 +22226,7 @@
       </c>
       <c r="B54" s="10">
         <f>SeptemberRaw!B54</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C54" s="10">
         <f>SeptemberRaw!C54</f>
@@ -22234,7 +22234,7 @@
       </c>
       <c r="D54" s="10">
         <f>SeptemberRaw!D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="10">
         <f>SeptemberRaw!E54</f>
@@ -22246,7 +22246,7 @@
       </c>
       <c r="G54" s="10">
         <f>SeptemberRaw!G54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="10">
         <f>SeptemberRaw!H54</f>
@@ -22254,11 +22254,11 @@
       </c>
       <c r="I54" s="10">
         <f>SeptemberRaw!I54</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J54" s="11">
         <f>SeptemberRaw!J54</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -22267,7 +22267,7 @@
       </c>
       <c r="B55" s="7">
         <f>SeptemberRaw!B55</f>
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="C55" s="7">
         <f>SeptemberRaw!C55</f>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="D55" s="7">
         <f>SeptemberRaw!D55</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55" s="7">
         <f>SeptemberRaw!E55</f>
@@ -22283,23 +22283,23 @@
       </c>
       <c r="F55" s="7">
         <f>SeptemberRaw!F55</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G55" s="7">
         <f>SeptemberRaw!G55</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H55" s="7">
         <f>SeptemberRaw!H55</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" s="7">
         <f>SeptemberRaw!I55</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J55" s="8">
         <f>SeptemberRaw!J55</f>
-        <v>0</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -22316,19 +22316,19 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -22336,11 +22336,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -22349,7 +22349,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -22357,19 +22357,19 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -22377,11 +22377,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -22390,7 +22390,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>35633</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -22398,31 +22398,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1812</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2779</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11514</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24119</v>
       </c>
     </row>
   </sheetData>
@@ -22434,12 +22434,1773 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA334AD-2ADE-48B8-8564-C073D8851F0D}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2890</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>140</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>452</v>
+      </c>
+      <c r="J2">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1172</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>57</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>284</v>
+      </c>
+      <c r="J3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2416</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>185</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>53</v>
+      </c>
+      <c r="G4">
+        <v>241</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>556</v>
+      </c>
+      <c r="J4">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3228</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>240</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>320</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1006</v>
+      </c>
+      <c r="J6">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>336</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>160</v>
+      </c>
+      <c r="J7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+      <c r="J8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>294</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>94</v>
+      </c>
+      <c r="J13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>232</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>124</v>
+      </c>
+      <c r="J14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>298</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>174</v>
+      </c>
+      <c r="J15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>56</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1420</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>388</v>
+      </c>
+      <c r="J17">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>900</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>84</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>348</v>
+      </c>
+      <c r="J19">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>958</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>51</v>
+      </c>
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>370</v>
+      </c>
+      <c r="J21">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>72</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>42</v>
+      </c>
+      <c r="J22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1566</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>114</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>46</v>
+      </c>
+      <c r="G23">
+        <v>167</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>396</v>
+      </c>
+      <c r="J23">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>3702</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>206</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>94</v>
+      </c>
+      <c r="G24">
+        <v>305</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>760</v>
+      </c>
+      <c r="J24">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>356</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>102</v>
+      </c>
+      <c r="J25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>396</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>174</v>
+      </c>
+      <c r="J27">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>34</v>
+      </c>
+      <c r="J28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>842</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>254</v>
+      </c>
+      <c r="J29">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>56</v>
+      </c>
+      <c r="J30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>148</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1204</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>79</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>49</v>
+      </c>
+      <c r="G32">
+        <v>133</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>608</v>
+      </c>
+      <c r="J32">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>880</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>51</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>530</v>
+      </c>
+      <c r="J33">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>324</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>218</v>
+      </c>
+      <c r="J34">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2174</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>207</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>37</v>
+      </c>
+      <c r="G35">
+        <v>248</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>836</v>
+      </c>
+      <c r="J35">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>298</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>112</v>
+      </c>
+      <c r="J36">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1046</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>149</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>57</v>
+      </c>
+      <c r="G37">
+        <v>211</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>404</v>
+      </c>
+      <c r="J37">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>62</v>
+      </c>
+      <c r="J39">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>104</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>198</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>148</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>24</v>
+      </c>
+      <c r="J43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>112</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>76</v>
+      </c>
+      <c r="J45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>780</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>18</v>
+      </c>
+      <c r="G46">
+        <v>31</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>338</v>
+      </c>
+      <c r="J46">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1414</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>22</v>
+      </c>
+      <c r="G47">
+        <v>26</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>308</v>
+      </c>
+      <c r="J47">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>580</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>46</v>
+      </c>
+      <c r="G48">
+        <v>52</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>172</v>
+      </c>
+      <c r="J48">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>630</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>264</v>
+      </c>
+      <c r="J49">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>1638</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>89</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>31</v>
+      </c>
+      <c r="G50">
+        <v>131</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>548</v>
+      </c>
+      <c r="J50">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>296</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>33</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>37</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>96</v>
+      </c>
+      <c r="J51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>796</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>27</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>286</v>
+      </c>
+      <c r="J52">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>248</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>32</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>16</v>
+      </c>
+      <c r="J54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>676</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>160</v>
+      </c>
+      <c r="J55">
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882375DD-0A0F-4F0E-A266-A239E0179BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C48E0E-EC05-4843-9A7E-DF68AF7C7A50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="104">
   <si>
     <t>Library</t>
   </si>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>25934</v>
+        <v>28998</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1037,31 +1037,31 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>840</v>
+        <v>945</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>1372</v>
+        <v>1530</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>5818</v>
+        <v>6314</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>20116</v>
+        <v>22684</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>8714</v>
+        <v>9568</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
@@ -1086,23 +1086,23 @@
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>196</v>
+        <v>360</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>596</v>
+        <v>799</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>3168</v>
+        <v>3408</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>5546</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>28198</v>
+        <v>30934</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1119,31 +1119,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>1634</v>
+        <v>1796</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>2237</v>
+        <v>2484</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>8098</v>
+        <v>8626</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>20100</v>
+        <v>22308</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1180,11 +1180,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>29250</v>
+        <v>32462</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1201,31 +1201,31 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>2064</v>
+        <v>2335</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>2757</v>
+        <v>3104</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>12194</v>
+        <v>13292</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>17056</v>
+        <v>19170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>3454</v>
+        <v>3764</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1250,23 +1250,23 @@
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>1874</v>
+        <v>1956</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>1580</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>1888</v>
+        <v>2020</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1283,19 +1283,19 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>924</v>
+        <v>980</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>964</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>808</v>
+        <v>924</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>634</v>
+        <v>688</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>174</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>1394</v>
+        <v>1660</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1447,19 +1447,19 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
@@ -1467,11 +1467,11 @@
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>1372</v>
+        <v>1586</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>2770</v>
+        <v>3266</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
@@ -1496,11 +1496,11 @@
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>1764</v>
+        <v>1912</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>1006</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>2586</v>
+        <v>2822</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1529,19 +1529,19 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
@@ -1549,11 +1549,11 @@
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>1780</v>
+        <v>1896</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>806</v>
+        <v>926</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>1906</v>
+        <v>2080</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1570,19 +1570,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>1376</v>
+        <v>1504</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>670</v>
+        <v>718</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>11056</v>
+        <v>12450</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1652,31 +1652,31 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>721</v>
+        <v>795</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>5016</v>
+        <v>5466</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>6040</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>1022</v>
+        <v>1128</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>820</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>9300</v>
+        <v>10188</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1734,31 +1734,31 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>762</v>
+        <v>817</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>5126</v>
+        <v>5412</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>4174</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B20" s="10">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20" s="10">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
@@ -1783,11 +1783,11 @@
       </c>
       <c r="F20" s="10">
         <f>January!F20+February!F20+March!F20+April!F20+May!F20+June!F20+July!F20+August!F20+September!F20+October!F20+November!F20+December!F20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="10">
         <f>January!G20+February!G20+March!G20+April!G20+May!G20+June!G20+July!G20+August!G20+September!G20+October!G20+November!G20+December!G20</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="10">
         <f>January!H20+February!H20+March!H20+April!H20+May!H20+June!H20+July!H20+August!H20+September!H20+October!H20+November!H20+December!H20</f>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="I20" s="10">
         <f>January!I20+February!I20+March!I20+April!I20+May!I20+June!I20+July!I20+August!I20+September!I20+October!I20+November!I20+December!I20</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J20" s="11">
         <f>January!J20+February!J20+March!J20+April!J20+May!J20+June!J20+July!J20+August!J20+September!J20+October!J20+November!J20+December!J20</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>8914</v>
+        <v>9768</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1816,31 +1816,31 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>726</v>
+        <v>794</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>4756</v>
+        <v>5200</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>4158</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>12724</v>
+        <v>14332</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1898,31 +1898,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>872</v>
+        <v>1001</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>1404</v>
+        <v>1574</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>3558</v>
+        <v>3886</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>9166</v>
+        <v>10446</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>35360</v>
+        <v>39290</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1939,31 +1939,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>1740</v>
+        <v>1942</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>2585</v>
+        <v>2865</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>9262</v>
+        <v>10130</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>26098</v>
+        <v>29160</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>2762</v>
+        <v>3144</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
@@ -1988,11 +1988,11 @@
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>1266</v>
+        <v>1434</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>1496</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>3742</v>
+        <v>4234</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2062,19 +2062,19 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
@@ -2082,11 +2082,11 @@
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>1914</v>
+        <v>2080</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>1828</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>820</v>
+        <v>918</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="F28" s="10">
         <f>January!F28+February!F28+March!F28+April!F28+May!F28+June!F28+July!F28+August!F28+September!F28+October!F28+November!F28+December!F28</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>264</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>7960</v>
+        <v>8884</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
@@ -2152,23 +2152,23 @@
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>3322</v>
+        <v>3588</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>4638</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2185,11 +2185,11 @@
       </c>
       <c r="D30" s="10">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
@@ -2205,11 +2205,11 @@
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>168</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>1110</v>
+        <v>1264</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>698</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>10180</v>
+        <v>11430</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2267,31 +2267,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>814</v>
+        <v>959</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>690</v>
+        <v>757</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>1574</v>
+        <v>1789</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>7038</v>
+        <v>7664</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>3142</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>8122</v>
+        <v>9198</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
@@ -2316,23 +2316,23 @@
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>585</v>
+        <v>635</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>5624</v>
+        <v>6252</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>2498</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>3456</v>
+        <v>3812</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>2441</v>
+        <v>2605</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>1015</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>20716</v>
+        <v>23024</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2390,31 +2390,31 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>1693</v>
+        <v>1909</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>2215</v>
+        <v>2480</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>8962</v>
+        <v>9728</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>11754</v>
+        <v>13296</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>3572</v>
+        <v>3954</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
@@ -2439,23 +2439,23 @@
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>1824</v>
+        <v>1976</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>1748</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>10116</v>
+        <v>11056</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2472,19 +2472,19 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>1147</v>
+        <v>1259</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>1482</v>
+        <v>1623</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>5828</v>
+        <v>6216</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>4288</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2521,11 +2521,11 @@
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>1935</v>
+        <v>2069</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2554,31 +2554,31 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>562</v>
+        <v>634</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>1373</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B40" s="19">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C40" s="19">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="I40" s="19">
         <f>January!I40+February!I40+March!I40+April!I40+May!I40+June!I40+July!I40+August!I40+September!I40+October!I40+November!I40+December!I40</f>
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="J40" s="20">
         <f>January!J40+February!J40+March!J40+April!J40+May!J40+June!J40+July!J40+August!J40+September!J40+October!J40+November!J40+December!J40</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B41" s="22">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>736</v>
+        <v>934</v>
       </c>
       <c r="C41" s="22">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2656,11 +2656,11 @@
       </c>
       <c r="I41" s="22">
         <f>January!I41+February!I41+March!I41+April!I41+May!I41+June!I41+July!I41+August!I41+September!I41+October!I41+November!I41+December!I41</f>
-        <v>678</v>
+        <v>858</v>
       </c>
       <c r="J41" s="23">
         <f>January!J41+February!J41+March!J41+April!J41+May!J41+June!J41+July!J41+August!J41+September!J41+October!J41+November!J41+December!J41</f>
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B42" s="19">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C42" s="19">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
@@ -2697,11 +2697,11 @@
       </c>
       <c r="I42" s="19">
         <f>January!I42+February!I42+March!I42+April!I42+May!I42+June!I42+July!I42+August!I42+September!I42+October!I42+November!I42+December!I42</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J42" s="20">
         <f>January!J42+February!J42+March!J42+April!J42+May!J42+June!J42+July!J42+August!J42+September!J42+October!J42+November!J42+December!J42</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B43" s="22">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="C43" s="22">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
@@ -2718,11 +2718,11 @@
       </c>
       <c r="D43" s="22">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E43" s="22">
         <f>January!E43+February!E43+March!E43+April!E43+May!E43+June!E43+July!E43+August!E43+September!E43+October!E43+November!E43+December!E43</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="22">
         <f>January!F43+February!F43+March!F43+April!F43+May!F43+June!F43+July!F43+August!F43+September!F43+October!F43+November!F43+December!F43</f>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G43" s="22">
         <f>January!G43+February!G43+March!G43+April!G43+May!G43+June!G43+July!G43+August!G43+September!G43+October!G43+November!G43+December!G43</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H43" s="22">
         <f>January!H43+February!H43+March!H43+April!H43+May!H43+June!H43+July!H43+August!H43+September!H43+October!H43+November!H43+December!H43</f>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="I43" s="22">
         <f>January!I43+February!I43+March!I43+April!I43+May!I43+June!I43+July!I43+August!I43+September!I43+October!I43+November!I43+December!I43</f>
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="J43" s="23">
         <f>January!J43+February!J43+March!J43+April!J43+May!J43+June!J43+July!J43+August!J43+September!J43+October!J43+November!J43+December!J43</f>
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>1257</v>
+        <v>1479</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2800,19 +2800,19 @@
       </c>
       <c r="D45" s="7">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E45" s="7">
         <f>January!E45+February!E45+March!E45+April!E45+May!E45+June!E45+July!E45+August!E45+September!E45+October!E45+November!E45+December!E45</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>747</v>
+        <v>815</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>510</v>
+        <v>664</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>6760</v>
+        <v>7530</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2841,19 +2841,19 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>4176</v>
+        <v>4560</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>2584</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>12680</v>
+        <v>14194</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2882,31 +2882,31 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>3900</v>
+        <v>4296</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>8780</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>4070</v>
+        <v>4578</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2923,31 +2923,31 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>1604</v>
+        <v>1750</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>2466</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>5014</v>
+        <v>5702</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>2470</v>
+        <v>2706</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>2544</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>15166</v>
+        <v>17302</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
@@ -3013,23 +3013,23 @@
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>912</v>
+        <v>1026</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>6640</v>
+        <v>7470</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>8526</v>
+        <v>9832</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>3222</v>
+        <v>3546</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
@@ -3054,23 +3054,23 @@
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>1538</v>
+        <v>1628</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>1684</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>7154</v>
+        <v>7960</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3087,31 +3087,31 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>4128</v>
+        <v>4446</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>3026</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>1946</v>
+        <v>2152</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
@@ -3136,11 +3136,11 @@
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>568</v>
+        <v>620</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>1378</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>3676</v>
+        <v>4346</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3210,31 +3210,31 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>1414</v>
+        <v>1586</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>2262</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>8656</v>
+        <v>9828</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3251,19 +3251,19 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -3271,11 +3271,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>6292</v>
+        <v>6898</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>2364</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>1369</v>
+        <v>1644</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -3292,11 +3292,11 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -3312,11 +3312,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>1163</v>
+        <v>1398</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>325111</v>
+        <v>362398</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3333,31 +3333,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>15220</v>
+        <v>17090</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>1170</v>
+        <v>1262</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>8208</v>
+        <v>9199</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>24598</v>
+        <v>27551</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>1315</v>
+        <v>1448</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>137222</v>
+        <v>149354</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>187889</v>
+        <v>213044</v>
       </c>
     </row>
   </sheetData>
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B2" s="4">
         <f>OctoberRaw!B2</f>
-        <v>0</v>
+        <v>3064</v>
       </c>
       <c r="C2" s="4">
         <f>OctoberRaw!C2</f>
@@ -26662,31 +26662,31 @@
       </c>
       <c r="D2" s="4">
         <f>OctoberRaw!D2</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E2" s="4">
         <f>OctoberRaw!E2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4">
         <f>OctoberRaw!F2</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4">
         <f>OctoberRaw!G2</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="H2" s="4">
         <f>OctoberRaw!H2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
         <f>OctoberRaw!I2</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="J2" s="5">
         <f>OctoberRaw!J2</f>
-        <v>0</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -26695,7 +26695,7 @@
       </c>
       <c r="B3" s="7">
         <f>OctoberRaw!B3</f>
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="C3" s="7">
         <f>OctoberRaw!C3</f>
@@ -26703,7 +26703,7 @@
       </c>
       <c r="D3" s="7">
         <f>OctoberRaw!D3</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E3" s="7">
         <f>OctoberRaw!E3</f>
@@ -26711,23 +26711,23 @@
       </c>
       <c r="F3" s="7">
         <f>OctoberRaw!F3</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="G3" s="7">
         <f>OctoberRaw!G3</f>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="H3" s="7">
         <f>OctoberRaw!H3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <f>OctoberRaw!I3</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="J3" s="8">
         <f>OctoberRaw!J3</f>
-        <v>0</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -26736,7 +26736,7 @@
       </c>
       <c r="B4" s="10">
         <f>OctoberRaw!B4</f>
-        <v>0</v>
+        <v>2736</v>
       </c>
       <c r="C4" s="10">
         <f>OctoberRaw!C4</f>
@@ -26744,31 +26744,31 @@
       </c>
       <c r="D4" s="10">
         <f>OctoberRaw!D4</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E4" s="10">
         <f>OctoberRaw!E4</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="10">
         <f>OctoberRaw!F4</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G4" s="10">
         <f>OctoberRaw!G4</f>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="H4" s="10">
         <f>OctoberRaw!H4</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I4" s="10">
         <f>OctoberRaw!I4</f>
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="J4" s="11">
         <f>OctoberRaw!J4</f>
-        <v>0</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="B5" s="7">
         <f>OctoberRaw!B5</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7">
         <f>OctoberRaw!C5</f>
@@ -26805,11 +26805,11 @@
       </c>
       <c r="I5" s="7">
         <f>OctoberRaw!I5</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="8">
         <f>OctoberRaw!J5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -26818,7 +26818,7 @@
       </c>
       <c r="B6" s="10">
         <f>OctoberRaw!B6</f>
-        <v>0</v>
+        <v>3212</v>
       </c>
       <c r="C6" s="10">
         <f>OctoberRaw!C6</f>
@@ -26826,31 +26826,31 @@
       </c>
       <c r="D6" s="10">
         <f>OctoberRaw!D6</f>
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="E6" s="10">
         <f>OctoberRaw!E6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10">
         <f>OctoberRaw!F6</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G6" s="10">
         <f>OctoberRaw!G6</f>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="H6" s="10">
         <f>OctoberRaw!H6</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="10">
         <f>OctoberRaw!I6</f>
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="J6" s="11">
         <f>OctoberRaw!J6</f>
-        <v>0</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -26859,7 +26859,7 @@
       </c>
       <c r="B7" s="7">
         <f>OctoberRaw!B7</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C7" s="7">
         <f>OctoberRaw!C7</f>
@@ -26875,23 +26875,23 @@
       </c>
       <c r="F7" s="7">
         <f>OctoberRaw!F7</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7">
         <f>OctoberRaw!G7</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <f>OctoberRaw!H7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
         <f>OctoberRaw!I7</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J7" s="8">
         <f>OctoberRaw!J7</f>
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -26900,7 +26900,7 @@
       </c>
       <c r="B8" s="10">
         <f>OctoberRaw!B8</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C8" s="10">
         <f>OctoberRaw!C8</f>
@@ -26908,19 +26908,19 @@
       </c>
       <c r="D8" s="10">
         <f>OctoberRaw!D8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="10">
         <f>OctoberRaw!E8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="10">
         <f>OctoberRaw!F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
         <f>OctoberRaw!G8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="10">
         <f>OctoberRaw!H8</f>
@@ -26928,11 +26928,11 @@
       </c>
       <c r="I8" s="10">
         <f>OctoberRaw!I8</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J8" s="11">
         <f>OctoberRaw!J8</f>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="B9" s="7">
         <f>OctoberRaw!B9</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C9" s="7">
         <f>OctoberRaw!C9</f>
@@ -26949,7 +26949,7 @@
       </c>
       <c r="D9" s="7">
         <f>OctoberRaw!D9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <f>OctoberRaw!E9</f>
@@ -26961,7 +26961,7 @@
       </c>
       <c r="G9" s="7">
         <f>OctoberRaw!G9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="7">
         <f>OctoberRaw!H9</f>
@@ -26969,11 +26969,11 @@
       </c>
       <c r="I9" s="7">
         <f>OctoberRaw!I9</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J9" s="8">
         <f>OctoberRaw!J9</f>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -27064,7 +27064,7 @@
       </c>
       <c r="B12" s="13">
         <f>OctoberRaw!B12</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="C12" s="13">
         <f>OctoberRaw!C12</f>
@@ -27072,19 +27072,19 @@
       </c>
       <c r="D12" s="13">
         <f>OctoberRaw!D12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="13">
         <f>OctoberRaw!E12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13">
         <f>OctoberRaw!F12</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="13">
         <f>OctoberRaw!G12</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12" s="13">
         <f>OctoberRaw!H12</f>
@@ -27092,11 +27092,11 @@
       </c>
       <c r="I12" s="13">
         <f>OctoberRaw!I12</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="J12" s="14">
         <f>OctoberRaw!J12</f>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="B13" s="16">
         <f>OctoberRaw!B13</f>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="C13" s="16">
         <f>OctoberRaw!C13</f>
@@ -27113,7 +27113,7 @@
       </c>
       <c r="D13" s="16">
         <f>OctoberRaw!D13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="16">
         <f>OctoberRaw!E13</f>
@@ -27121,11 +27121,11 @@
       </c>
       <c r="F13" s="16">
         <f>OctoberRaw!F13</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" s="16">
         <f>OctoberRaw!G13</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H13" s="16">
         <f>OctoberRaw!H13</f>
@@ -27133,11 +27133,11 @@
       </c>
       <c r="I13" s="16">
         <f>OctoberRaw!I13</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J13" s="17">
         <f>OctoberRaw!J13</f>
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -27146,7 +27146,7 @@
       </c>
       <c r="B14" s="13">
         <f>OctoberRaw!B14</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="C14" s="13">
         <f>OctoberRaw!C14</f>
@@ -27154,19 +27154,19 @@
       </c>
       <c r="D14" s="13">
         <f>OctoberRaw!D14</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E14" s="13">
         <f>OctoberRaw!E14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="13">
         <f>OctoberRaw!F14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="13">
         <f>OctoberRaw!G14</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H14" s="13">
         <f>OctoberRaw!H14</f>
@@ -27174,11 +27174,11 @@
       </c>
       <c r="I14" s="13">
         <f>OctoberRaw!I14</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J14" s="14">
         <f>OctoberRaw!J14</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -27187,7 +27187,7 @@
       </c>
       <c r="B15" s="16">
         <f>OctoberRaw!B15</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="C15" s="16">
         <f>OctoberRaw!C15</f>
@@ -27195,19 +27195,19 @@
       </c>
       <c r="D15" s="16">
         <f>OctoberRaw!D15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E15" s="16">
         <f>OctoberRaw!E15</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="16">
         <f>OctoberRaw!F15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="16">
         <f>OctoberRaw!G15</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H15" s="16">
         <f>OctoberRaw!H15</f>
@@ -27215,11 +27215,11 @@
       </c>
       <c r="I15" s="16">
         <f>OctoberRaw!I15</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J15" s="17">
         <f>OctoberRaw!J15</f>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -27228,7 +27228,7 @@
       </c>
       <c r="B16" s="10">
         <f>OctoberRaw!B16</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10">
         <f>OctoberRaw!C16</f>
@@ -27236,7 +27236,7 @@
       </c>
       <c r="D16" s="10">
         <f>OctoberRaw!D16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="10">
         <f>OctoberRaw!E16</f>
@@ -27248,7 +27248,7 @@
       </c>
       <c r="G16" s="10">
         <f>OctoberRaw!G16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="10">
         <f>OctoberRaw!H16</f>
@@ -27256,11 +27256,11 @@
       </c>
       <c r="I16" s="10">
         <f>OctoberRaw!I16</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J16" s="11">
         <f>OctoberRaw!J16</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -27269,7 +27269,7 @@
       </c>
       <c r="B17" s="7">
         <f>OctoberRaw!B17</f>
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="C17" s="7">
         <f>OctoberRaw!C17</f>
@@ -27277,31 +27277,31 @@
       </c>
       <c r="D17" s="7">
         <f>OctoberRaw!D17</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E17" s="7">
         <f>OctoberRaw!E17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="7">
         <f>OctoberRaw!F17</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7">
         <f>OctoberRaw!G17</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <f>OctoberRaw!H17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
         <f>OctoberRaw!I17</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J17" s="8">
         <f>OctoberRaw!J17</f>
-        <v>0</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B18" s="10">
         <f>OctoberRaw!B18</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C18" s="10">
         <f>OctoberRaw!C18</f>
@@ -27318,7 +27318,7 @@
       </c>
       <c r="D18" s="10">
         <f>OctoberRaw!D18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10">
         <f>OctoberRaw!E18</f>
@@ -27326,11 +27326,11 @@
       </c>
       <c r="F18" s="10">
         <f>OctoberRaw!F18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10">
         <f>OctoberRaw!G18</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="10">
         <f>OctoberRaw!H18</f>
@@ -27338,11 +27338,11 @@
       </c>
       <c r="I18" s="10">
         <f>OctoberRaw!I18</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J18" s="11">
         <f>OctoberRaw!J18</f>
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -27351,7 +27351,7 @@
       </c>
       <c r="B19" s="7">
         <f>OctoberRaw!B19</f>
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="C19" s="7">
         <f>OctoberRaw!C19</f>
@@ -27359,31 +27359,31 @@
       </c>
       <c r="D19" s="7">
         <f>OctoberRaw!D19</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E19" s="7">
         <f>OctoberRaw!E19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" s="7">
         <f>OctoberRaw!F19</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G19" s="7">
         <f>OctoberRaw!G19</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <f>OctoberRaw!H19</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
         <f>OctoberRaw!I19</f>
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="J19" s="8">
         <f>OctoberRaw!J19</f>
-        <v>0</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -27392,7 +27392,7 @@
       </c>
       <c r="B20" s="10">
         <f>OctoberRaw!B20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" s="10">
         <f>OctoberRaw!C20</f>
@@ -27408,11 +27408,11 @@
       </c>
       <c r="F20" s="10">
         <f>OctoberRaw!F20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10">
         <f>OctoberRaw!G20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="10">
         <f>OctoberRaw!H20</f>
@@ -27420,11 +27420,11 @@
       </c>
       <c r="I20" s="10">
         <f>OctoberRaw!I20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="11">
         <f>OctoberRaw!J20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -27433,7 +27433,7 @@
       </c>
       <c r="B21" s="7">
         <f>OctoberRaw!B21</f>
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="C21" s="7">
         <f>OctoberRaw!C21</f>
@@ -27441,31 +27441,31 @@
       </c>
       <c r="D21" s="7">
         <f>OctoberRaw!D21</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E21" s="7">
         <f>OctoberRaw!E21</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="7">
         <f>OctoberRaw!F21</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7">
         <f>OctoberRaw!G21</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H21" s="7">
         <f>OctoberRaw!H21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="7">
         <f>OctoberRaw!I21</f>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="J21" s="8">
         <f>OctoberRaw!J21</f>
-        <v>0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -27474,7 +27474,7 @@
       </c>
       <c r="B22" s="10">
         <f>OctoberRaw!B22</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C22" s="10">
         <f>OctoberRaw!C22</f>
@@ -27490,11 +27490,11 @@
       </c>
       <c r="F22" s="10">
         <f>OctoberRaw!F22</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G22" s="10">
         <f>OctoberRaw!G22</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="10">
         <f>OctoberRaw!H22</f>
@@ -27502,11 +27502,11 @@
       </c>
       <c r="I22" s="10">
         <f>OctoberRaw!I22</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J22" s="11">
         <f>OctoberRaw!J22</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -27515,7 +27515,7 @@
       </c>
       <c r="B23" s="7">
         <f>OctoberRaw!B23</f>
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="C23" s="7">
         <f>OctoberRaw!C23</f>
@@ -27523,31 +27523,31 @@
       </c>
       <c r="D23" s="7">
         <f>OctoberRaw!D23</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E23" s="7">
         <f>OctoberRaw!E23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="7">
         <f>OctoberRaw!F23</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7">
         <f>OctoberRaw!G23</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <f>OctoberRaw!H23</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
         <f>OctoberRaw!I23</f>
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="J23" s="8">
         <f>OctoberRaw!J23</f>
-        <v>0</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -27556,7 +27556,7 @@
       </c>
       <c r="B24" s="10">
         <f>OctoberRaw!B24</f>
-        <v>0</v>
+        <v>3930</v>
       </c>
       <c r="C24" s="10">
         <f>OctoberRaw!C24</f>
@@ -27564,31 +27564,31 @@
       </c>
       <c r="D24" s="10">
         <f>OctoberRaw!D24</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="E24" s="10">
         <f>OctoberRaw!E24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="10">
         <f>OctoberRaw!F24</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G24" s="10">
         <f>OctoberRaw!G24</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H24" s="10">
         <f>OctoberRaw!H24</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I24" s="10">
         <f>OctoberRaw!I24</f>
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="J24" s="11">
         <f>OctoberRaw!J24</f>
-        <v>0</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -27597,7 +27597,7 @@
       </c>
       <c r="B25" s="7">
         <f>OctoberRaw!B25</f>
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="C25" s="7">
         <f>OctoberRaw!C25</f>
@@ -27605,7 +27605,7 @@
       </c>
       <c r="D25" s="7">
         <f>OctoberRaw!D25</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E25" s="7">
         <f>OctoberRaw!E25</f>
@@ -27613,11 +27613,11 @@
       </c>
       <c r="F25" s="7">
         <f>OctoberRaw!F25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7">
         <f>OctoberRaw!G25</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H25" s="7">
         <f>OctoberRaw!H25</f>
@@ -27625,11 +27625,11 @@
       </c>
       <c r="I25" s="7">
         <f>OctoberRaw!I25</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="J25" s="8">
         <f>OctoberRaw!J25</f>
-        <v>0</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="B27" s="7">
         <f>OctoberRaw!B27</f>
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="C27" s="7">
         <f>OctoberRaw!C27</f>
@@ -27687,19 +27687,19 @@
       </c>
       <c r="D27" s="7">
         <f>OctoberRaw!D27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7">
         <f>OctoberRaw!E27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="7">
         <f>OctoberRaw!F27</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" s="7">
         <f>OctoberRaw!G27</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H27" s="7">
         <f>OctoberRaw!H27</f>
@@ -27707,11 +27707,11 @@
       </c>
       <c r="I27" s="7">
         <f>OctoberRaw!I27</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="J27" s="8">
         <f>OctoberRaw!J27</f>
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -27720,7 +27720,7 @@
       </c>
       <c r="B28" s="10">
         <f>OctoberRaw!B28</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C28" s="10">
         <f>OctoberRaw!C28</f>
@@ -27728,7 +27728,7 @@
       </c>
       <c r="D28" s="10">
         <f>OctoberRaw!D28</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E28" s="10">
         <f>OctoberRaw!E28</f>
@@ -27736,11 +27736,11 @@
       </c>
       <c r="F28" s="10">
         <f>OctoberRaw!F28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
         <f>OctoberRaw!G28</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H28" s="10">
         <f>OctoberRaw!H28</f>
@@ -27748,11 +27748,11 @@
       </c>
       <c r="I28" s="10">
         <f>OctoberRaw!I28</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J28" s="11">
         <f>OctoberRaw!J28</f>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="B29" s="7">
         <f>OctoberRaw!B29</f>
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="C29" s="7">
         <f>OctoberRaw!C29</f>
@@ -27769,7 +27769,7 @@
       </c>
       <c r="D29" s="7">
         <f>OctoberRaw!D29</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7">
         <f>OctoberRaw!E29</f>
@@ -27777,23 +27777,23 @@
       </c>
       <c r="F29" s="7">
         <f>OctoberRaw!F29</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G29" s="7">
         <f>OctoberRaw!G29</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H29" s="7">
         <f>OctoberRaw!H29</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
         <f>OctoberRaw!I29</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="J29" s="8">
         <f>OctoberRaw!J29</f>
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -27802,7 +27802,7 @@
       </c>
       <c r="B30" s="10">
         <f>OctoberRaw!B30</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C30" s="10">
         <f>OctoberRaw!C30</f>
@@ -27810,11 +27810,11 @@
       </c>
       <c r="D30" s="10">
         <f>OctoberRaw!D30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="10">
         <f>OctoberRaw!E30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
         <f>OctoberRaw!F30</f>
@@ -27822,7 +27822,7 @@
       </c>
       <c r="G30" s="10">
         <f>OctoberRaw!G30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="10">
         <f>OctoberRaw!H30</f>
@@ -27830,11 +27830,11 @@
       </c>
       <c r="I30" s="10">
         <f>OctoberRaw!I30</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J30" s="11">
         <f>OctoberRaw!J30</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="B31" s="7">
         <f>OctoberRaw!B31</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C31" s="7">
         <f>OctoberRaw!C31</f>
@@ -27851,7 +27851,7 @@
       </c>
       <c r="D31" s="7">
         <f>OctoberRaw!D31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <f>OctoberRaw!E31</f>
@@ -27859,11 +27859,11 @@
       </c>
       <c r="F31" s="7">
         <f>OctoberRaw!F31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="7">
         <f>OctoberRaw!G31</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="7">
         <f>OctoberRaw!H31</f>
@@ -27871,11 +27871,11 @@
       </c>
       <c r="I31" s="7">
         <f>OctoberRaw!I31</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J31" s="8">
         <f>OctoberRaw!J31</f>
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -27884,7 +27884,7 @@
       </c>
       <c r="B32" s="10">
         <f>OctoberRaw!B32</f>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="C32" s="10">
         <f>OctoberRaw!C32</f>
@@ -27892,31 +27892,31 @@
       </c>
       <c r="D32" s="10">
         <f>OctoberRaw!D32</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E32" s="10">
         <f>OctoberRaw!E32</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="10">
         <f>OctoberRaw!F32</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G32" s="10">
         <f>OctoberRaw!G32</f>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="H32" s="10">
         <f>OctoberRaw!H32</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I32" s="10">
         <f>OctoberRaw!I32</f>
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="J32" s="11">
         <f>OctoberRaw!J32</f>
-        <v>0</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -27925,7 +27925,7 @@
       </c>
       <c r="B33" s="7">
         <f>OctoberRaw!B33</f>
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="C33" s="7">
         <f>OctoberRaw!C33</f>
@@ -27933,7 +27933,7 @@
       </c>
       <c r="D33" s="7">
         <f>OctoberRaw!D33</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E33" s="7">
         <f>OctoberRaw!E33</f>
@@ -27941,23 +27941,23 @@
       </c>
       <c r="F33" s="7">
         <f>OctoberRaw!F33</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G33" s="7">
         <f>OctoberRaw!G33</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <f>OctoberRaw!H33</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I33" s="7">
         <f>OctoberRaw!I33</f>
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="J33" s="8">
         <f>OctoberRaw!J33</f>
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -27966,7 +27966,7 @@
       </c>
       <c r="B34" s="10">
         <f>OctoberRaw!B34</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="C34" s="10">
         <f>OctoberRaw!C34</f>
@@ -27974,7 +27974,7 @@
       </c>
       <c r="D34" s="10">
         <f>OctoberRaw!D34</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E34" s="10">
         <f>OctoberRaw!E34</f>
@@ -27982,11 +27982,11 @@
       </c>
       <c r="F34" s="10">
         <f>OctoberRaw!F34</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="10">
         <f>OctoberRaw!G34</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H34" s="10">
         <f>OctoberRaw!H34</f>
@@ -27994,11 +27994,11 @@
       </c>
       <c r="I34" s="10">
         <f>OctoberRaw!I34</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J34" s="11">
         <f>OctoberRaw!J34</f>
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="B35" s="7">
         <f>OctoberRaw!B35</f>
-        <v>0</v>
+        <v>2308</v>
       </c>
       <c r="C35" s="7">
         <f>OctoberRaw!C35</f>
@@ -28015,31 +28015,31 @@
       </c>
       <c r="D35" s="7">
         <f>OctoberRaw!D35</f>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="E35" s="7">
         <f>OctoberRaw!E35</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="7">
         <f>OctoberRaw!F35</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G35" s="7">
         <f>OctoberRaw!G35</f>
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="H35" s="7">
         <f>OctoberRaw!H35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
         <f>OctoberRaw!I35</f>
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="J35" s="8">
         <f>OctoberRaw!J35</f>
-        <v>0</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="B36" s="10">
         <f>OctoberRaw!B36</f>
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="C36" s="10">
         <f>OctoberRaw!C36</f>
@@ -28056,7 +28056,7 @@
       </c>
       <c r="D36" s="10">
         <f>OctoberRaw!D36</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="10">
         <f>OctoberRaw!E36</f>
@@ -28064,23 +28064,23 @@
       </c>
       <c r="F36" s="10">
         <f>OctoberRaw!F36</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G36" s="10">
         <f>OctoberRaw!G36</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H36" s="10">
         <f>OctoberRaw!H36</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="10">
         <f>OctoberRaw!I36</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="J36" s="11">
         <f>OctoberRaw!J36</f>
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="B37" s="7">
         <f>OctoberRaw!B37</f>
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="C37" s="7">
         <f>OctoberRaw!C37</f>
@@ -28097,19 +28097,19 @@
       </c>
       <c r="D37" s="7">
         <f>OctoberRaw!D37</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E37" s="7">
         <f>OctoberRaw!E37</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="7">
         <f>OctoberRaw!F37</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G37" s="7">
         <f>OctoberRaw!G37</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="H37" s="7">
         <f>OctoberRaw!H37</f>
@@ -28117,11 +28117,11 @@
       </c>
       <c r="I37" s="7">
         <f>OctoberRaw!I37</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="J37" s="8">
         <f>OctoberRaw!J37</f>
-        <v>0</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -28130,7 +28130,7 @@
       </c>
       <c r="B38" s="10">
         <f>OctoberRaw!B38</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C38" s="10">
         <f>OctoberRaw!C38</f>
@@ -28146,11 +28146,11 @@
       </c>
       <c r="F38" s="10">
         <f>OctoberRaw!F38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10">
         <f>OctoberRaw!G38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="10">
         <f>OctoberRaw!H38</f>
@@ -28158,11 +28158,11 @@
       </c>
       <c r="I38" s="10">
         <f>OctoberRaw!I38</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="11">
         <f>OctoberRaw!J38</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -28171,7 +28171,7 @@
       </c>
       <c r="B39" s="7">
         <f>OctoberRaw!B39</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C39" s="7">
         <f>OctoberRaw!C39</f>
@@ -28179,31 +28179,31 @@
       </c>
       <c r="D39" s="7">
         <f>OctoberRaw!D39</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E39" s="7">
         <f>OctoberRaw!E39</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F39" s="7">
         <f>OctoberRaw!F39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="7">
         <f>OctoberRaw!G39</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <f>OctoberRaw!H39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
         <f>OctoberRaw!I39</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J39" s="8">
         <f>OctoberRaw!J39</f>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="B40" s="19">
         <f>OctoberRaw!B40</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C40" s="19">
         <f>OctoberRaw!C40</f>
@@ -28240,11 +28240,11 @@
       </c>
       <c r="I40" s="19">
         <f>OctoberRaw!I40</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J40" s="20">
         <f>OctoberRaw!J40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -28253,7 +28253,7 @@
       </c>
       <c r="B41" s="22">
         <f>OctoberRaw!B41</f>
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="C41" s="22">
         <f>OctoberRaw!C41</f>
@@ -28261,7 +28261,7 @@
       </c>
       <c r="D41" s="22">
         <f>OctoberRaw!D41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E41" s="22">
         <f>OctoberRaw!E41</f>
@@ -28273,7 +28273,7 @@
       </c>
       <c r="G41" s="22">
         <f>OctoberRaw!G41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="22">
         <f>OctoberRaw!H41</f>
@@ -28281,11 +28281,11 @@
       </c>
       <c r="I41" s="22">
         <f>OctoberRaw!I41</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J41" s="23">
         <f>OctoberRaw!J41</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -28294,7 +28294,7 @@
       </c>
       <c r="B42" s="19">
         <f>OctoberRaw!B42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42" s="19">
         <f>OctoberRaw!C42</f>
@@ -28322,11 +28322,11 @@
       </c>
       <c r="I42" s="19">
         <f>OctoberRaw!I42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="20">
         <f>OctoberRaw!J42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -28335,7 +28335,7 @@
       </c>
       <c r="B43" s="22">
         <f>OctoberRaw!B43</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C43" s="22">
         <f>OctoberRaw!C43</f>
@@ -28343,11 +28343,11 @@
       </c>
       <c r="D43" s="22">
         <f>OctoberRaw!D43</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E43" s="22">
         <f>OctoberRaw!E43</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="22">
         <f>OctoberRaw!F43</f>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="G43" s="22">
         <f>OctoberRaw!G43</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H43" s="22">
         <f>OctoberRaw!H43</f>
@@ -28363,11 +28363,11 @@
       </c>
       <c r="I43" s="22">
         <f>OctoberRaw!I43</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J43" s="23">
         <f>OctoberRaw!J43</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -28417,7 +28417,7 @@
       </c>
       <c r="B45" s="7">
         <f>OctoberRaw!B45</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="C45" s="7">
         <f>OctoberRaw!C45</f>
@@ -28425,19 +28425,19 @@
       </c>
       <c r="D45" s="7">
         <f>OctoberRaw!D45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7">
         <f>OctoberRaw!E45</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F45" s="7">
         <f>OctoberRaw!F45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="7">
         <f>OctoberRaw!G45</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H45" s="7">
         <f>OctoberRaw!H45</f>
@@ -28445,11 +28445,11 @@
       </c>
       <c r="I45" s="7">
         <f>OctoberRaw!I45</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J45" s="8">
         <f>OctoberRaw!J45</f>
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -28458,7 +28458,7 @@
       </c>
       <c r="B46" s="10">
         <f>OctoberRaw!B46</f>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="C46" s="10">
         <f>OctoberRaw!C46</f>
@@ -28466,19 +28466,19 @@
       </c>
       <c r="D46" s="10">
         <f>OctoberRaw!D46</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E46" s="10">
         <f>OctoberRaw!E46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="10">
         <f>OctoberRaw!F46</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G46" s="10">
         <f>OctoberRaw!G46</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H46" s="10">
         <f>OctoberRaw!H46</f>
@@ -28486,11 +28486,11 @@
       </c>
       <c r="I46" s="10">
         <f>OctoberRaw!I46</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J46" s="11">
         <f>OctoberRaw!J46</f>
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -28499,7 +28499,7 @@
       </c>
       <c r="B47" s="7">
         <f>OctoberRaw!B47</f>
-        <v>0</v>
+        <v>1514</v>
       </c>
       <c r="C47" s="7">
         <f>OctoberRaw!C47</f>
@@ -28507,31 +28507,31 @@
       </c>
       <c r="D47" s="7">
         <f>OctoberRaw!D47</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E47" s="7">
         <f>OctoberRaw!E47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="7">
         <f>OctoberRaw!F47</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G47" s="7">
         <f>OctoberRaw!G47</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H47" s="7">
         <f>OctoberRaw!H47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" s="7">
         <f>OctoberRaw!I47</f>
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J47" s="8">
         <f>OctoberRaw!J47</f>
-        <v>0</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -28540,7 +28540,7 @@
       </c>
       <c r="B48" s="10">
         <f>OctoberRaw!B48</f>
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="C48" s="10">
         <f>OctoberRaw!C48</f>
@@ -28548,31 +28548,31 @@
       </c>
       <c r="D48" s="10">
         <f>OctoberRaw!D48</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E48" s="10">
         <f>OctoberRaw!E48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="10">
         <f>OctoberRaw!F48</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G48" s="10">
         <f>OctoberRaw!G48</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H48" s="10">
         <f>OctoberRaw!H48</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" s="10">
         <f>OctoberRaw!I48</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J48" s="11">
         <f>OctoberRaw!J48</f>
-        <v>0</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -28581,7 +28581,7 @@
       </c>
       <c r="B49" s="7">
         <f>OctoberRaw!B49</f>
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="C49" s="7">
         <f>OctoberRaw!C49</f>
@@ -28589,19 +28589,19 @@
       </c>
       <c r="D49" s="7">
         <f>OctoberRaw!D49</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E49" s="7">
         <f>OctoberRaw!E49</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F49" s="7">
         <f>OctoberRaw!F49</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G49" s="7">
         <f>OctoberRaw!G49</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H49" s="7">
         <f>OctoberRaw!H49</f>
@@ -28609,11 +28609,11 @@
       </c>
       <c r="I49" s="7">
         <f>OctoberRaw!I49</f>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="J49" s="8">
         <f>OctoberRaw!J49</f>
-        <v>0</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -28622,7 +28622,7 @@
       </c>
       <c r="B50" s="10">
         <f>OctoberRaw!B50</f>
-        <v>0</v>
+        <v>2136</v>
       </c>
       <c r="C50" s="10">
         <f>OctoberRaw!C50</f>
@@ -28630,7 +28630,7 @@
       </c>
       <c r="D50" s="10">
         <f>OctoberRaw!D50</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E50" s="10">
         <f>OctoberRaw!E50</f>
@@ -28638,23 +28638,23 @@
       </c>
       <c r="F50" s="10">
         <f>OctoberRaw!F50</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G50" s="10">
         <f>OctoberRaw!G50</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="H50" s="10">
         <f>OctoberRaw!H50</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I50" s="10">
         <f>OctoberRaw!I50</f>
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="J50" s="11">
         <f>OctoberRaw!J50</f>
-        <v>0</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -28663,7 +28663,7 @@
       </c>
       <c r="B51" s="7">
         <f>OctoberRaw!B51</f>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="C51" s="7">
         <f>OctoberRaw!C51</f>
@@ -28671,7 +28671,7 @@
       </c>
       <c r="D51" s="7">
         <f>OctoberRaw!D51</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E51" s="7">
         <f>OctoberRaw!E51</f>
@@ -28679,23 +28679,23 @@
       </c>
       <c r="F51" s="7">
         <f>OctoberRaw!F51</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G51" s="7">
         <f>OctoberRaw!G51</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H51" s="7">
         <f>OctoberRaw!H51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
         <f>OctoberRaw!I51</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J51" s="8">
         <f>OctoberRaw!J51</f>
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -28704,7 +28704,7 @@
       </c>
       <c r="B52" s="10">
         <f>OctoberRaw!B52</f>
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="C52" s="10">
         <f>OctoberRaw!C52</f>
@@ -28712,31 +28712,31 @@
       </c>
       <c r="D52" s="10">
         <f>OctoberRaw!D52</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E52" s="10">
         <f>OctoberRaw!E52</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F52" s="10">
         <f>OctoberRaw!F52</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G52" s="10">
         <f>OctoberRaw!G52</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H52" s="10">
         <f>OctoberRaw!H52</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" s="10">
         <f>OctoberRaw!I52</f>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="J52" s="11">
         <f>OctoberRaw!J52</f>
-        <v>0</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -28745,7 +28745,7 @@
       </c>
       <c r="B53" s="7">
         <f>OctoberRaw!B53</f>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C53" s="7">
         <f>OctoberRaw!C53</f>
@@ -28753,7 +28753,7 @@
       </c>
       <c r="D53" s="7">
         <f>OctoberRaw!D53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="7">
         <f>OctoberRaw!E53</f>
@@ -28761,11 +28761,11 @@
       </c>
       <c r="F53" s="7">
         <f>OctoberRaw!F53</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G53" s="7">
         <f>OctoberRaw!G53</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H53" s="7">
         <f>OctoberRaw!H53</f>
@@ -28773,11 +28773,11 @@
       </c>
       <c r="I53" s="7">
         <f>OctoberRaw!I53</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J53" s="8">
         <f>OctoberRaw!J53</f>
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -28786,7 +28786,7 @@
       </c>
       <c r="B54" s="10">
         <f>OctoberRaw!B54</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C54" s="10">
         <f>OctoberRaw!C54</f>
@@ -28794,7 +28794,7 @@
       </c>
       <c r="D54" s="10">
         <f>OctoberRaw!D54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E54" s="10">
         <f>OctoberRaw!E54</f>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="G54" s="10">
         <f>OctoberRaw!G54</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" s="10">
         <f>OctoberRaw!H54</f>
@@ -28814,11 +28814,11 @@
       </c>
       <c r="I54" s="10">
         <f>OctoberRaw!I54</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J54" s="11">
         <f>OctoberRaw!J54</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -28827,7 +28827,7 @@
       </c>
       <c r="B55" s="7">
         <f>OctoberRaw!B55</f>
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="C55" s="7">
         <f>OctoberRaw!C55</f>
@@ -28835,31 +28835,31 @@
       </c>
       <c r="D55" s="7">
         <f>OctoberRaw!D55</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E55" s="7">
         <f>OctoberRaw!E55</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" s="7">
         <f>OctoberRaw!F55</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G55" s="7">
         <f>OctoberRaw!G55</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H55" s="7">
         <f>OctoberRaw!H55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
         <f>OctoberRaw!I55</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="J55" s="8">
         <f>OctoberRaw!J55</f>
-        <v>0</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>1172</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -28876,19 +28876,19 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
@@ -28896,11 +28896,11 @@
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -28909,7 +28909,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -28917,11 +28917,11 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
@@ -28929,7 +28929,7 @@
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -28937,11 +28937,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -28950,7 +28950,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>37287</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -28958,31 +28958,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2953</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12132</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25155</v>
       </c>
     </row>
   </sheetData>
@@ -28994,12 +28994,1775 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EDC6F-90A6-4086-B305-126909618543}">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3064</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>158</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>496</v>
+      </c>
+      <c r="J2">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>854</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>164</v>
+      </c>
+      <c r="G3">
+        <v>203</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>240</v>
+      </c>
+      <c r="J3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2736</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>162</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>247</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>528</v>
+      </c>
+      <c r="J4">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3212</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>271</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>347</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>1098</v>
+      </c>
+      <c r="J6">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>310</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>82</v>
+      </c>
+      <c r="J7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>132</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>266</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>214</v>
+      </c>
+      <c r="J12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>496</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>148</v>
+      </c>
+      <c r="J13">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>236</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>116</v>
+      </c>
+      <c r="J14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>174</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>128</v>
+      </c>
+      <c r="J15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1394</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>74</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>450</v>
+      </c>
+      <c r="J17">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>106</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>888</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>286</v>
+      </c>
+      <c r="J19">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>854</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>68</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>444</v>
+      </c>
+      <c r="J21">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>76</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1608</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>129</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>170</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>328</v>
+      </c>
+      <c r="J23">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>3930</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>202</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>280</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>868</v>
+      </c>
+      <c r="J24">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>382</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>168</v>
+      </c>
+      <c r="J25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>492</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>166</v>
+      </c>
+      <c r="J27">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>924</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>266</v>
+      </c>
+      <c r="J29">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>60</v>
+      </c>
+      <c r="J30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>154</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>48</v>
+      </c>
+      <c r="J31">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>1250</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>145</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>67</v>
+      </c>
+      <c r="G32">
+        <v>215</v>
+      </c>
+      <c r="H32">
+        <v>33</v>
+      </c>
+      <c r="I32">
+        <v>626</v>
+      </c>
+      <c r="J32">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>1076</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>628</v>
+      </c>
+      <c r="J33">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>356</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>164</v>
+      </c>
+      <c r="J34">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2308</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>216</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <v>265</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>766</v>
+      </c>
+      <c r="J35">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>382</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>27</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>152</v>
+      </c>
+      <c r="J36">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>940</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>112</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>26</v>
+      </c>
+      <c r="G37">
+        <v>141</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>388</v>
+      </c>
+      <c r="J37">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>134</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>57</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>72</v>
+      </c>
+      <c r="J39">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>198</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>180</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>38</v>
+      </c>
+      <c r="J43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>222</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>13</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>68</v>
+      </c>
+      <c r="J45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>770</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>38</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>384</v>
+      </c>
+      <c r="J46">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1514</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>396</v>
+      </c>
+      <c r="J47">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>508</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>22</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>146</v>
+      </c>
+      <c r="J48">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>688</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>28</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>236</v>
+      </c>
+      <c r="J49">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>2136</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>54</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
+      </c>
+      <c r="G50">
+        <v>114</v>
+      </c>
+      <c r="H50">
+        <v>7</v>
+      </c>
+      <c r="I50">
+        <v>830</v>
+      </c>
+      <c r="J50">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>324</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>29</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>35</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>90</v>
+      </c>
+      <c r="J51">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>806</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>39</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>65</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>318</v>
+      </c>
+      <c r="J52">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>206</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>52</v>
+      </c>
+      <c r="J53">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>16</v>
+      </c>
+      <c r="J54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>670</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>172</v>
+      </c>
+      <c r="J55">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C48E0E-EC05-4843-9A7E-DF68AF7C7A50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70517A50-9149-4A28-A6E7-B97CD652CB4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="104">
   <si>
     <t>Library</t>
   </si>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>28998</v>
+        <v>31798</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1037,31 +1037,31 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>945</v>
+        <v>1023</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>1530</v>
+        <v>1670</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>6314</v>
+        <v>6724</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>22684</v>
+        <v>25074</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>9568</v>
+        <v>10428</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>799</v>
+        <v>923</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>3408</v>
+        <v>3668</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>6160</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>30934</v>
+        <v>33624</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>1796</v>
+        <v>1977</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
@@ -1127,23 +1127,23 @@
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>597</v>
+        <v>654</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>2484</v>
+        <v>2722</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>8626</v>
+        <v>9230</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>22308</v>
+        <v>24394</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="F5" s="7">
         <f>January!F5+February!F5+March!F5+April!F5+May!F5+June!F5+July!F5+August!F5+September!F5+October!F5+November!F5+December!F5</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="7">
         <f>January!G5+February!G5+March!G5+April!G5+May!G5+June!G5+July!G5+August!G5+September!G5+October!G5+November!G5+December!G5</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <f>January!H5+February!H5+March!H5+April!H5+May!H5+June!H5+July!H5+August!H5+September!H5+October!H5+November!H5+December!H5</f>
@@ -1180,11 +1180,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>32462</v>
+        <v>35264</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1201,31 +1201,31 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>2335</v>
+        <v>2534</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>712</v>
+        <v>809</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>3104</v>
+        <v>3401</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>13292</v>
+        <v>14098</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>19170</v>
+        <v>21166</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>3764</v>
+        <v>4026</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1242,31 +1242,31 @@
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>1956</v>
+        <v>2060</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>1808</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>2020</v>
+        <v>2118</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1283,19 +1283,19 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>980</v>
+        <v>1032</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>1040</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>924</v>
+        <v>1024</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
@@ -1344,11 +1344,11 @@
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>688</v>
+        <v>732</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>236</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B10" s="10">
         <f>January!B10+February!B10+March!B10+April!B10+May!B10+June!B10+July!B10+August!B10+September!B10+October!B10+November!B10+December!B10</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10">
         <f>January!C10+February!C10+March!C10+April!C10+May!C10+June!C10+July!C10+August!C10+September!C10+October!C10+November!C10+December!C10</f>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J10" s="11">
         <f>January!J10+February!J10+March!J10+April!J10+May!J10+June!J10+July!J10+August!J10+September!J10+October!J10+November!J10+December!J10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>1660</v>
+        <v>1868</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
@@ -1467,11 +1467,11 @@
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>1586</v>
+        <v>1768</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>3266</v>
+        <v>3636</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
@@ -1496,11 +1496,11 @@
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>1912</v>
+        <v>2048</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>1354</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>2822</v>
+        <v>3100</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
@@ -1537,23 +1537,23 @@
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>1896</v>
+        <v>2072</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>926</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>2080</v>
+        <v>2394</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1570,31 +1570,31 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>1504</v>
+        <v>1654</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>576</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>718</v>
+        <v>796</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D16" s="10">
         <f>January!D16+February!D16+March!D16+April!D16+May!D16+June!D16+July!D16+August!D16+September!D16+October!D16+November!D16+December!D16</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" s="10">
         <f>January!E16+February!E16+March!E16+April!E16+May!E16+June!E16+July!E16+August!E16+September!E16+October!E16+November!E16+December!E16</f>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>631</v>
+        <v>697</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>12450</v>
+        <v>13548</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1652,31 +1652,31 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>795</v>
+        <v>884</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>5466</v>
+        <v>5814</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>6984</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>1128</v>
+        <v>1216</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
@@ -1701,23 +1701,23 @@
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>912</v>
+        <v>976</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>10188</v>
+        <v>11288</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1734,31 +1734,31 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>817</v>
+        <v>873</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>5412</v>
+        <v>5680</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>4776</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B20" s="10">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="10">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
@@ -1783,11 +1783,11 @@
       </c>
       <c r="F20" s="10">
         <f>January!F20+February!F20+March!F20+April!F20+May!F20+June!F20+July!F20+August!F20+September!F20+October!F20+November!F20+December!F20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="10">
         <f>January!G20+February!G20+March!G20+April!G20+May!G20+June!G20+July!G20+August!G20+September!G20+October!G20+November!G20+December!G20</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H20" s="10">
         <f>January!H20+February!H20+March!H20+April!H20+May!H20+June!H20+July!H20+August!H20+September!H20+October!H20+November!H20+December!H20</f>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="I20" s="10">
         <f>January!I20+February!I20+March!I20+April!I20+May!I20+June!I20+July!I20+August!I20+September!I20+October!I20+November!I20+December!I20</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" s="11">
         <f>January!J20+February!J20+March!J20+April!J20+May!J20+June!J20+July!J20+August!J20+September!J20+October!J20+November!J20+December!J20</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>9768</v>
+        <v>10624</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1816,31 +1816,31 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>794</v>
+        <v>843</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>5200</v>
+        <v>5560</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>4568</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1861,15 +1861,15 @@
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>14332</v>
+        <v>15706</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1898,31 +1898,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>1001</v>
+        <v>1120</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>1574</v>
+        <v>1738</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>3886</v>
+        <v>4140</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>10446</v>
+        <v>11566</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>39290</v>
+        <v>42992</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1939,31 +1939,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>1942</v>
+        <v>2103</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>838</v>
+        <v>958</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>2865</v>
+        <v>3150</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>10130</v>
+        <v>11050</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>29160</v>
+        <v>31942</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>3144</v>
+        <v>3428</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1980,19 +1980,19 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>1434</v>
+        <v>1530</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>1710</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>4234</v>
+        <v>4512</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2062,31 +2062,31 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>2080</v>
+        <v>2220</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>2154</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>918</v>
+        <v>958</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="D28" s="10">
         <f>January!D28+February!D28+March!D28+April!D28+May!D28+June!D28+July!D28+August!D28+September!D28+October!D28+November!D28+December!D28</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10">
         <f>January!E28+February!E28+March!E28+April!E28+May!E28+June!E28+July!E28+August!E28+September!E28+October!E28+November!E28+December!E28</f>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G28" s="10">
         <f>January!G28+February!G28+March!G28+April!G28+May!G28+June!G28+July!G28+August!G28+September!G28+October!G28+November!G28+December!G28</f>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H28" s="10">
         <f>January!H28+February!H28+March!H28+April!H28+May!H28+June!H28+July!H28+August!H28+September!H28+October!H28+November!H28+December!H28</f>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>8884</v>
+        <v>9716</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2144,19 +2144,19 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>3588</v>
+        <v>3854</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>5296</v>
+        <v>5862</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>722</v>
+        <v>916</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2189,27 +2189,27 @@
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>530</v>
+        <v>660</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>192</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>1264</v>
+        <v>1370</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>804</v>
+        <v>882</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>11430</v>
+        <v>12408</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>959</v>
+        <v>1057</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
@@ -2275,23 +2275,23 @@
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>757</v>
+        <v>800</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>1789</v>
+        <v>1930</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>7664</v>
+        <v>8178</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>3766</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>9198</v>
+        <v>10046</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2308,31 +2308,31 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>459</v>
+        <v>497</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>6252</v>
+        <v>6710</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>2946</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>3812</v>
+        <v>4076</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
@@ -2357,11 +2357,11 @@
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>2605</v>
+        <v>2717</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>1207</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>23024</v>
+        <v>25410</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2390,31 +2390,31 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>1909</v>
+        <v>2149</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>2480</v>
+        <v>2793</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>9728</v>
+        <v>10596</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>13296</v>
+        <v>14814</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>3954</v>
+        <v>4402</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
@@ -2439,11 +2439,11 @@
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
@@ -2451,11 +2451,11 @@
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>1976</v>
+        <v>2130</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>1978</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>11056</v>
+        <v>12196</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2472,31 +2472,31 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>1259</v>
+        <v>1385</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>1623</v>
+        <v>1782</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>6216</v>
+        <v>6728</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>4840</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2521,11 +2521,11 @@
       </c>
       <c r="F38" s="10">
         <f>January!F38+February!F38+March!F38+April!F38+May!F38+June!F38+July!F38+August!F38+September!F38+October!F38+November!F38+December!F38</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="10">
         <f>January!G38+February!G38+March!G38+April!G38+May!G38+June!G38+July!G38+August!G38+September!G38+October!G38+November!G38+December!G38</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H38" s="10">
         <f>January!H38+February!H38+March!H38+April!H38+May!H38+June!H38+July!H38+August!H38+September!H38+October!H38+November!H38+December!H38</f>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>2069</v>
+        <v>2211</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
@@ -2562,23 +2562,23 @@
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>634</v>
+        <v>694</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>1435</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B40" s="19">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="C40" s="19">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D40" s="19">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E40" s="19">
         <f>January!E40+February!E40+March!E40+April!E40+May!E40+June!E40+July!E40+August!E40+September!E40+October!E40+November!E40+December!E40</f>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G40" s="19">
         <f>January!G40+February!G40+March!G40+April!G40+May!G40+June!G40+July!G40+August!G40+September!G40+October!G40+November!G40+December!G40</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H40" s="19">
         <f>January!H40+February!H40+March!H40+April!H40+May!H40+June!H40+July!H40+August!H40+September!H40+October!H40+November!H40+December!H40</f>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="I40" s="19">
         <f>January!I40+February!I40+March!I40+April!I40+May!I40+June!I40+July!I40+August!I40+September!I40+October!I40+November!I40+December!I40</f>
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J40" s="20">
         <f>January!J40+February!J40+March!J40+April!J40+May!J40+June!J40+July!J40+August!J40+September!J40+October!J40+November!J40+December!J40</f>
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B41" s="22">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>934</v>
+        <v>1092</v>
       </c>
       <c r="C41" s="22">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2656,11 +2656,11 @@
       </c>
       <c r="I41" s="22">
         <f>January!I41+February!I41+March!I41+April!I41+May!I41+June!I41+July!I41+August!I41+September!I41+October!I41+November!I41+December!I41</f>
-        <v>858</v>
+        <v>958</v>
       </c>
       <c r="J41" s="23">
         <f>January!J41+February!J41+March!J41+April!J41+May!J41+June!J41+July!J41+August!J41+September!J41+October!J41+November!J41+December!J41</f>
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B42" s="19">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C42" s="19">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
@@ -2697,11 +2697,11 @@
       </c>
       <c r="I42" s="19">
         <f>January!I42+February!I42+March!I42+April!I42+May!I42+June!I42+July!I42+August!I42+September!I42+October!I42+November!I42+December!I42</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J42" s="20">
         <f>January!J42+February!J42+March!J42+April!J42+May!J42+June!J42+July!J42+August!J42+September!J42+October!J42+November!J42+December!J42</f>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B43" s="22">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C43" s="22">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D43" s="22">
         <f>January!D43+February!D43+March!D43+April!D43+May!D43+June!D43+July!D43+August!D43+September!D43+October!D43+November!D43+December!D43</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E43" s="22">
         <f>January!E43+February!E43+March!E43+April!E43+May!E43+June!E43+July!E43+August!E43+September!E43+October!E43+November!E43+December!E43</f>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G43" s="22">
         <f>January!G43+February!G43+March!G43+April!G43+May!G43+June!G43+July!G43+August!G43+September!G43+October!G43+November!G43+December!G43</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H43" s="22">
         <f>January!H43+February!H43+March!H43+April!H43+May!H43+June!H43+July!H43+August!H43+September!H43+October!H43+November!H43+December!H43</f>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="I43" s="22">
         <f>January!I43+February!I43+March!I43+April!I43+May!I43+June!I43+July!I43+August!I43+September!I43+October!I43+November!I43+December!I43</f>
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J43" s="23">
         <f>January!J43+February!J43+March!J43+April!J43+May!J43+June!J43+July!J43+August!J43+September!J43+October!J43+November!J43+December!J43</f>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>1479</v>
+        <v>1586</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="D45" s="7">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E45" s="7">
         <f>January!E45+February!E45+March!E45+April!E45+May!E45+June!E45+July!E45+August!E45+September!E45+October!E45+November!E45+December!E45</f>
@@ -2808,11 +2808,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>815</v>
+        <v>855</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>664</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>7530</v>
+        <v>8572</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2841,19 +2841,19 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>4560</v>
+        <v>5028</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>2970</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>14194</v>
+        <v>15846</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2882,31 +2882,31 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>4296</v>
+        <v>4580</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>9898</v>
+        <v>11266</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>4578</v>
+        <v>4906</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
@@ -2931,23 +2931,23 @@
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>1750</v>
+        <v>1892</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>2828</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>5702</v>
+        <v>6642</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>2706</v>
+        <v>3018</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>2996</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>17302</v>
+        <v>19452</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3005,31 +3005,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>517</v>
+        <v>649</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>1026</v>
+        <v>1209</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>7470</v>
+        <v>8064</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>9832</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>3546</v>
+        <v>3866</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
@@ -3054,11 +3054,11 @@
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>1628</v>
+        <v>1698</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>1918</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>7960</v>
+        <v>8918</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3087,31 +3087,31 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>4446</v>
+        <v>4788</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>3514</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>2152</v>
+        <v>2346</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>1532</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D54" s="10">
         <f>January!D54+February!D54+March!D54+April!D54+May!D54+June!D54+July!D54+August!D54+September!D54+October!D54+November!D54+December!D54</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E54" s="10">
         <f>January!E54+February!E54+March!E54+April!E54+May!E54+June!E54+July!E54+August!E54+September!E54+October!E54+November!E54+December!E54</f>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>4346</v>
+        <v>4980</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3210,19 +3210,19 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>1586</v>
+        <v>1742</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>2760</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>9828</v>
+        <v>10998</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3251,31 +3251,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>601</v>
+        <v>658</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>6898</v>
+        <v>7542</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>2930</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>1644</v>
+        <v>1866</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -3312,11 +3312,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>1398</v>
+        <v>1533</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>246</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>362398</v>
+        <v>398128</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3333,31 +3333,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>17090</v>
+        <v>18842</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>1262</v>
+        <v>1340</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>9199</v>
+        <v>10231</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>27551</v>
+        <v>30413</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>1448</v>
+        <v>1587</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>149354</v>
+        <v>160540</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>213044</v>
+        <v>237588</v>
       </c>
     </row>
   </sheetData>
@@ -30823,7 +30823,7 @@
       </c>
       <c r="B2" s="4">
         <f>NovemberRaw!B2</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="C2" s="4">
         <f>NovemberRaw!C2</f>
@@ -30831,31 +30831,31 @@
       </c>
       <c r="D2" s="4">
         <f>NovemberRaw!D2</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4">
         <f>NovemberRaw!E2</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4">
         <f>NovemberRaw!F2</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G2" s="4">
         <f>NovemberRaw!G2</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H2" s="4">
         <f>NovemberRaw!H2</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="4">
         <f>NovemberRaw!I2</f>
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="J2" s="5">
         <f>NovemberRaw!J2</f>
-        <v>0</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -30864,7 +30864,7 @@
       </c>
       <c r="B3" s="7">
         <f>NovemberRaw!B3</f>
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="C3" s="7">
         <f>NovemberRaw!C3</f>
@@ -30872,31 +30872,31 @@
       </c>
       <c r="D3" s="7">
         <f>NovemberRaw!D3</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7">
         <f>NovemberRaw!E3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7">
         <f>NovemberRaw!F3</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7">
         <f>NovemberRaw!G3</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="H3" s="7">
         <f>NovemberRaw!H3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <f>NovemberRaw!I3</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J3" s="8">
         <f>NovemberRaw!J3</f>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="B4" s="10">
         <f>NovemberRaw!B4</f>
-        <v>0</v>
+        <v>2690</v>
       </c>
       <c r="C4" s="10">
         <f>NovemberRaw!C4</f>
@@ -30913,7 +30913,7 @@
       </c>
       <c r="D4" s="10">
         <f>NovemberRaw!D4</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="E4" s="10">
         <f>NovemberRaw!E4</f>
@@ -30921,23 +30921,23 @@
       </c>
       <c r="F4" s="10">
         <f>NovemberRaw!F4</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G4" s="10">
         <f>NovemberRaw!G4</f>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="H4" s="10">
         <f>NovemberRaw!H4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="10">
         <f>NovemberRaw!I4</f>
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="J4" s="11">
         <f>NovemberRaw!J4</f>
-        <v>0</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -30946,7 +30946,7 @@
       </c>
       <c r="B5" s="7">
         <f>NovemberRaw!B5</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C5" s="7">
         <f>NovemberRaw!C5</f>
@@ -30962,11 +30962,11 @@
       </c>
       <c r="F5" s="7">
         <f>NovemberRaw!F5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>NovemberRaw!G5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <f>NovemberRaw!H5</f>
@@ -30974,11 +30974,11 @@
       </c>
       <c r="I5" s="7">
         <f>NovemberRaw!I5</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J5" s="8">
         <f>NovemberRaw!J5</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -30987,7 +30987,7 @@
       </c>
       <c r="B6" s="10">
         <f>NovemberRaw!B6</f>
-        <v>0</v>
+        <v>2802</v>
       </c>
       <c r="C6" s="10">
         <f>NovemberRaw!C6</f>
@@ -30995,31 +30995,31 @@
       </c>
       <c r="D6" s="10">
         <f>NovemberRaw!D6</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="E6" s="10">
         <f>NovemberRaw!E6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
         <f>NovemberRaw!F6</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G6" s="10">
         <f>NovemberRaw!G6</f>
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="H6" s="10">
         <f>NovemberRaw!H6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="10">
         <f>NovemberRaw!I6</f>
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="J6" s="11">
         <f>NovemberRaw!J6</f>
-        <v>0</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -31028,7 +31028,7 @@
       </c>
       <c r="B7" s="7">
         <f>NovemberRaw!B7</f>
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="C7" s="7">
         <f>NovemberRaw!C7</f>
@@ -31036,31 +31036,31 @@
       </c>
       <c r="D7" s="7">
         <f>NovemberRaw!D7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7">
         <f>NovemberRaw!E7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
         <f>NovemberRaw!F7</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7">
         <f>NovemberRaw!G7</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <f>NovemberRaw!H7</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
         <f>NovemberRaw!I7</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J7" s="8">
         <f>NovemberRaw!J7</f>
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -31069,7 +31069,7 @@
       </c>
       <c r="B8" s="10">
         <f>NovemberRaw!B8</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C8" s="10">
         <f>NovemberRaw!C8</f>
@@ -31077,19 +31077,19 @@
       </c>
       <c r="D8" s="10">
         <f>NovemberRaw!D8</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8" s="10">
         <f>NovemberRaw!E8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
         <f>NovemberRaw!F8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="10">
         <f>NovemberRaw!G8</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H8" s="10">
         <f>NovemberRaw!H8</f>
@@ -31097,11 +31097,11 @@
       </c>
       <c r="I8" s="10">
         <f>NovemberRaw!I8</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J8" s="11">
         <f>NovemberRaw!J8</f>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -31110,7 +31110,7 @@
       </c>
       <c r="B9" s="7">
         <f>NovemberRaw!B9</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9" s="7">
         <f>NovemberRaw!C9</f>
@@ -31118,7 +31118,7 @@
       </c>
       <c r="D9" s="7">
         <f>NovemberRaw!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
         <f>NovemberRaw!E9</f>
@@ -31130,7 +31130,7 @@
       </c>
       <c r="G9" s="7">
         <f>NovemberRaw!G9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
         <f>NovemberRaw!H9</f>
@@ -31138,11 +31138,11 @@
       </c>
       <c r="I9" s="7">
         <f>NovemberRaw!I9</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J9" s="8">
         <f>NovemberRaw!J9</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -31151,7 +31151,7 @@
       </c>
       <c r="B10" s="10">
         <f>NovemberRaw!B10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10">
         <f>NovemberRaw!C10</f>
@@ -31183,7 +31183,7 @@
       </c>
       <c r="J10" s="11">
         <f>NovemberRaw!J10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="B12" s="13">
         <f>NovemberRaw!B12</f>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="C12" s="13">
         <f>NovemberRaw!C12</f>
@@ -31241,7 +31241,7 @@
       </c>
       <c r="D12" s="13">
         <f>NovemberRaw!D12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="13">
         <f>NovemberRaw!E12</f>
@@ -31249,11 +31249,11 @@
       </c>
       <c r="F12" s="13">
         <f>NovemberRaw!F12</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="13">
         <f>NovemberRaw!G12</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="13">
         <f>NovemberRaw!H12</f>
@@ -31261,11 +31261,11 @@
       </c>
       <c r="I12" s="13">
         <f>NovemberRaw!I12</f>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="J12" s="14">
         <f>NovemberRaw!J12</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -31274,7 +31274,7 @@
       </c>
       <c r="B13" s="16">
         <f>NovemberRaw!B13</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="C13" s="16">
         <f>NovemberRaw!C13</f>
@@ -31282,7 +31282,7 @@
       </c>
       <c r="D13" s="16">
         <f>NovemberRaw!D13</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="16">
         <f>NovemberRaw!E13</f>
@@ -31290,11 +31290,11 @@
       </c>
       <c r="F13" s="16">
         <f>NovemberRaw!F13</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="16">
         <f>NovemberRaw!G13</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H13" s="16">
         <f>NovemberRaw!H13</f>
@@ -31302,11 +31302,11 @@
       </c>
       <c r="I13" s="16">
         <f>NovemberRaw!I13</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="J13" s="17">
         <f>NovemberRaw!J13</f>
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -31315,7 +31315,7 @@
       </c>
       <c r="B14" s="13">
         <f>NovemberRaw!B14</f>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="C14" s="13">
         <f>NovemberRaw!C14</f>
@@ -31323,7 +31323,7 @@
       </c>
       <c r="D14" s="13">
         <f>NovemberRaw!D14</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="13">
         <f>NovemberRaw!E14</f>
@@ -31331,23 +31331,23 @@
       </c>
       <c r="F14" s="13">
         <f>NovemberRaw!F14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="13">
         <f>NovemberRaw!G14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" s="13">
         <f>NovemberRaw!H14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="13">
         <f>NovemberRaw!I14</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="J14" s="14">
         <f>NovemberRaw!J14</f>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="B15" s="16">
         <f>NovemberRaw!B15</f>
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="C15" s="16">
         <f>NovemberRaw!C15</f>
@@ -31364,31 +31364,31 @@
       </c>
       <c r="D15" s="16">
         <f>NovemberRaw!D15</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="16">
         <f>NovemberRaw!E15</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" s="16">
         <f>NovemberRaw!F15</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="16">
         <f>NovemberRaw!G15</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H15" s="16">
         <f>NovemberRaw!H15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="16">
         <f>NovemberRaw!I15</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J15" s="17">
         <f>NovemberRaw!J15</f>
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -31397,7 +31397,7 @@
       </c>
       <c r="B16" s="10">
         <f>NovemberRaw!B16</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C16" s="10">
         <f>NovemberRaw!C16</f>
@@ -31405,7 +31405,7 @@
       </c>
       <c r="D16" s="10">
         <f>NovemberRaw!D16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="10">
         <f>NovemberRaw!E16</f>
@@ -31417,7 +31417,7 @@
       </c>
       <c r="G16" s="10">
         <f>NovemberRaw!G16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="10">
         <f>NovemberRaw!H16</f>
@@ -31425,11 +31425,11 @@
       </c>
       <c r="I16" s="10">
         <f>NovemberRaw!I16</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J16" s="11">
         <f>NovemberRaw!J16</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -31438,7 +31438,7 @@
       </c>
       <c r="B17" s="7">
         <f>NovemberRaw!B17</f>
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="C17" s="7">
         <f>NovemberRaw!C17</f>
@@ -31446,31 +31446,31 @@
       </c>
       <c r="D17" s="7">
         <f>NovemberRaw!D17</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7">
         <f>NovemberRaw!E17</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="7">
         <f>NovemberRaw!F17</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7">
         <f>NovemberRaw!G17</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <f>NovemberRaw!H17</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
         <f>NovemberRaw!I17</f>
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="J17" s="8">
         <f>NovemberRaw!J17</f>
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -31479,7 +31479,7 @@
       </c>
       <c r="B18" s="10">
         <f>NovemberRaw!B18</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C18" s="10">
         <f>NovemberRaw!C18</f>
@@ -31487,7 +31487,7 @@
       </c>
       <c r="D18" s="10">
         <f>NovemberRaw!D18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="10">
         <f>NovemberRaw!E18</f>
@@ -31495,23 +31495,23 @@
       </c>
       <c r="F18" s="10">
         <f>NovemberRaw!F18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10">
         <f>NovemberRaw!G18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="10">
         <f>NovemberRaw!H18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="10">
         <f>NovemberRaw!I18</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J18" s="11">
         <f>NovemberRaw!J18</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -31520,7 +31520,7 @@
       </c>
       <c r="B19" s="7">
         <f>NovemberRaw!B19</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="C19" s="7">
         <f>NovemberRaw!C19</f>
@@ -31528,31 +31528,31 @@
       </c>
       <c r="D19" s="7">
         <f>NovemberRaw!D19</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E19" s="7">
         <f>NovemberRaw!E19</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F19" s="7">
         <f>NovemberRaw!F19</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7">
         <f>NovemberRaw!G19</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <f>NovemberRaw!H19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
         <f>NovemberRaw!I19</f>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J19" s="8">
         <f>NovemberRaw!J19</f>
-        <v>0</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -31561,7 +31561,7 @@
       </c>
       <c r="B20" s="10">
         <f>NovemberRaw!B20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="10">
         <f>NovemberRaw!C20</f>
@@ -31577,11 +31577,11 @@
       </c>
       <c r="F20" s="10">
         <f>NovemberRaw!F20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="10">
         <f>NovemberRaw!G20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="10">
         <f>NovemberRaw!H20</f>
@@ -31589,11 +31589,11 @@
       </c>
       <c r="I20" s="10">
         <f>NovemberRaw!I20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="11">
         <f>NovemberRaw!J20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -31602,7 +31602,7 @@
       </c>
       <c r="B21" s="7">
         <f>NovemberRaw!B21</f>
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="C21" s="7">
         <f>NovemberRaw!C21</f>
@@ -31610,31 +31610,31 @@
       </c>
       <c r="D21" s="7">
         <f>NovemberRaw!D21</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E21" s="7">
         <f>NovemberRaw!E21</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="7">
         <f>NovemberRaw!F21</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7">
         <f>NovemberRaw!G21</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <f>NovemberRaw!H21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7">
         <f>NovemberRaw!I21</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="J21" s="8">
         <f>NovemberRaw!J21</f>
-        <v>0</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -31643,7 +31643,7 @@
       </c>
       <c r="B22" s="10">
         <f>NovemberRaw!B22</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C22" s="10">
         <f>NovemberRaw!C22</f>
@@ -31655,15 +31655,15 @@
       </c>
       <c r="E22" s="10">
         <f>NovemberRaw!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10">
         <f>NovemberRaw!F22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10">
         <f>NovemberRaw!G22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="10">
         <f>NovemberRaw!H22</f>
@@ -31671,11 +31671,11 @@
       </c>
       <c r="I22" s="10">
         <f>NovemberRaw!I22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="11">
         <f>NovemberRaw!J22</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -31684,7 +31684,7 @@
       </c>
       <c r="B23" s="7">
         <f>NovemberRaw!B23</f>
-        <v>0</v>
+        <v>1374</v>
       </c>
       <c r="C23" s="7">
         <f>NovemberRaw!C23</f>
@@ -31692,31 +31692,31 @@
       </c>
       <c r="D23" s="7">
         <f>NovemberRaw!D23</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="E23" s="7">
         <f>NovemberRaw!E23</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="7">
         <f>NovemberRaw!F23</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7">
         <f>NovemberRaw!G23</f>
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <f>NovemberRaw!H23</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7">
         <f>NovemberRaw!I23</f>
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="J23" s="8">
         <f>NovemberRaw!J23</f>
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -31725,7 +31725,7 @@
       </c>
       <c r="B24" s="10">
         <f>NovemberRaw!B24</f>
-        <v>0</v>
+        <v>3702</v>
       </c>
       <c r="C24" s="10">
         <f>NovemberRaw!C24</f>
@@ -31733,31 +31733,31 @@
       </c>
       <c r="D24" s="10">
         <f>NovemberRaw!D24</f>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="E24" s="10">
         <f>NovemberRaw!E24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="10">
         <f>NovemberRaw!F24</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G24" s="10">
         <f>NovemberRaw!G24</f>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="H24" s="10">
         <f>NovemberRaw!H24</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24" s="10">
         <f>NovemberRaw!I24</f>
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="J24" s="11">
         <f>NovemberRaw!J24</f>
-        <v>0</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="B25" s="7">
         <f>NovemberRaw!B25</f>
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="C25" s="7">
         <f>NovemberRaw!C25</f>
@@ -31774,19 +31774,19 @@
       </c>
       <c r="D25" s="7">
         <f>NovemberRaw!D25</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E25" s="7">
         <f>NovemberRaw!E25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="7">
         <f>NovemberRaw!F25</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="7">
         <f>NovemberRaw!G25</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H25" s="7">
         <f>NovemberRaw!H25</f>
@@ -31794,11 +31794,11 @@
       </c>
       <c r="I25" s="7">
         <f>NovemberRaw!I25</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="J25" s="8">
         <f>NovemberRaw!J25</f>
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -31848,7 +31848,7 @@
       </c>
       <c r="B27" s="7">
         <f>NovemberRaw!B27</f>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="C27" s="7">
         <f>NovemberRaw!C27</f>
@@ -31856,31 +31856,31 @@
       </c>
       <c r="D27" s="7">
         <f>NovemberRaw!D27</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7">
         <f>NovemberRaw!E27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="7">
         <f>NovemberRaw!F27</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G27" s="7">
         <f>NovemberRaw!G27</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <f>NovemberRaw!H27</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7">
         <f>NovemberRaw!I27</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J27" s="8">
         <f>NovemberRaw!J27</f>
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -31889,7 +31889,7 @@
       </c>
       <c r="B28" s="10">
         <f>NovemberRaw!B28</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C28" s="10">
         <f>NovemberRaw!C28</f>
@@ -31897,7 +31897,7 @@
       </c>
       <c r="D28" s="10">
         <f>NovemberRaw!D28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E28" s="10">
         <f>NovemberRaw!E28</f>
@@ -31909,7 +31909,7 @@
       </c>
       <c r="G28" s="10">
         <f>NovemberRaw!G28</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28" s="10">
         <f>NovemberRaw!H28</f>
@@ -31917,11 +31917,11 @@
       </c>
       <c r="I28" s="10">
         <f>NovemberRaw!I28</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J28" s="11">
         <f>NovemberRaw!J28</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -31930,7 +31930,7 @@
       </c>
       <c r="B29" s="7">
         <f>NovemberRaw!B29</f>
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="C29" s="7">
         <f>NovemberRaw!C29</f>
@@ -31938,19 +31938,19 @@
       </c>
       <c r="D29" s="7">
         <f>NovemberRaw!D29</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7">
         <f>NovemberRaw!E29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="7">
         <f>NovemberRaw!F29</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G29" s="7">
         <f>NovemberRaw!G29</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H29" s="7">
         <f>NovemberRaw!H29</f>
@@ -31958,11 +31958,11 @@
       </c>
       <c r="I29" s="7">
         <f>NovemberRaw!I29</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="J29" s="8">
         <f>NovemberRaw!J29</f>
-        <v>0</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -31971,7 +31971,7 @@
       </c>
       <c r="B30" s="10">
         <f>NovemberRaw!B30</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C30" s="10">
         <f>NovemberRaw!C30</f>
@@ -31983,27 +31983,27 @@
       </c>
       <c r="E30" s="10">
         <f>NovemberRaw!E30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
         <f>NovemberRaw!F30</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G30" s="10">
         <f>NovemberRaw!G30</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H30" s="10">
         <f>NovemberRaw!H30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="10">
         <f>NovemberRaw!I30</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J30" s="11">
         <f>NovemberRaw!J30</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -32012,7 +32012,7 @@
       </c>
       <c r="B31" s="7">
         <f>NovemberRaw!B31</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C31" s="7">
         <f>NovemberRaw!C31</f>
@@ -32020,7 +32020,7 @@
       </c>
       <c r="D31" s="7">
         <f>NovemberRaw!D31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <f>NovemberRaw!E31</f>
@@ -32028,11 +32028,11 @@
       </c>
       <c r="F31" s="7">
         <f>NovemberRaw!F31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="7">
         <f>NovemberRaw!G31</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="7">
         <f>NovemberRaw!H31</f>
@@ -32040,11 +32040,11 @@
       </c>
       <c r="I31" s="7">
         <f>NovemberRaw!I31</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J31" s="8">
         <f>NovemberRaw!J31</f>
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -32053,7 +32053,7 @@
       </c>
       <c r="B32" s="10">
         <f>NovemberRaw!B32</f>
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="C32" s="10">
         <f>NovemberRaw!C32</f>
@@ -32061,7 +32061,7 @@
       </c>
       <c r="D32" s="10">
         <f>NovemberRaw!D32</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E32" s="10">
         <f>NovemberRaw!E32</f>
@@ -32069,23 +32069,23 @@
       </c>
       <c r="F32" s="10">
         <f>NovemberRaw!F32</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G32" s="10">
         <f>NovemberRaw!G32</f>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="H32" s="10">
         <f>NovemberRaw!H32</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I32" s="10">
         <f>NovemberRaw!I32</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="J32" s="11">
         <f>NovemberRaw!J32</f>
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -32094,7 +32094,7 @@
       </c>
       <c r="B33" s="7">
         <f>NovemberRaw!B33</f>
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="C33" s="7">
         <f>NovemberRaw!C33</f>
@@ -32102,31 +32102,31 @@
       </c>
       <c r="D33" s="7">
         <f>NovemberRaw!D33</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E33" s="7">
         <f>NovemberRaw!E33</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="7">
         <f>NovemberRaw!F33</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7">
         <f>NovemberRaw!G33</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H33" s="7">
         <f>NovemberRaw!H33</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I33" s="7">
         <f>NovemberRaw!I33</f>
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J33" s="8">
         <f>NovemberRaw!J33</f>
-        <v>0</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -32135,7 +32135,7 @@
       </c>
       <c r="B34" s="10">
         <f>NovemberRaw!B34</f>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="C34" s="10">
         <f>NovemberRaw!C34</f>
@@ -32143,7 +32143,7 @@
       </c>
       <c r="D34" s="10">
         <f>NovemberRaw!D34</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E34" s="10">
         <f>NovemberRaw!E34</f>
@@ -32151,11 +32151,11 @@
       </c>
       <c r="F34" s="10">
         <f>NovemberRaw!F34</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G34" s="10">
         <f>NovemberRaw!G34</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H34" s="10">
         <f>NovemberRaw!H34</f>
@@ -32163,11 +32163,11 @@
       </c>
       <c r="I34" s="10">
         <f>NovemberRaw!I34</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J34" s="11">
         <f>NovemberRaw!J34</f>
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -32176,7 +32176,7 @@
       </c>
       <c r="B35" s="7">
         <f>NovemberRaw!B35</f>
-        <v>0</v>
+        <v>2386</v>
       </c>
       <c r="C35" s="7">
         <f>NovemberRaw!C35</f>
@@ -32184,31 +32184,31 @@
       </c>
       <c r="D35" s="7">
         <f>NovemberRaw!D35</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E35" s="7">
         <f>NovemberRaw!E35</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F35" s="7">
         <f>NovemberRaw!F35</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G35" s="7">
         <f>NovemberRaw!G35</f>
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="H35" s="7">
         <f>NovemberRaw!H35</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I35" s="7">
         <f>NovemberRaw!I35</f>
-        <v>0</v>
+        <v>868</v>
       </c>
       <c r="J35" s="8">
         <f>NovemberRaw!J35</f>
-        <v>0</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -32217,7 +32217,7 @@
       </c>
       <c r="B36" s="10">
         <f>NovemberRaw!B36</f>
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="C36" s="10">
         <f>NovemberRaw!C36</f>
@@ -32225,7 +32225,7 @@
       </c>
       <c r="D36" s="10">
         <f>NovemberRaw!D36</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E36" s="10">
         <f>NovemberRaw!E36</f>
@@ -32233,11 +32233,11 @@
       </c>
       <c r="F36" s="10">
         <f>NovemberRaw!F36</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G36" s="10">
         <f>NovemberRaw!G36</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H36" s="10">
         <f>NovemberRaw!H36</f>
@@ -32245,11 +32245,11 @@
       </c>
       <c r="I36" s="10">
         <f>NovemberRaw!I36</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="J36" s="11">
         <f>NovemberRaw!J36</f>
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -32258,7 +32258,7 @@
       </c>
       <c r="B37" s="7">
         <f>NovemberRaw!B37</f>
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="C37" s="7">
         <f>NovemberRaw!C37</f>
@@ -32266,31 +32266,31 @@
       </c>
       <c r="D37" s="7">
         <f>NovemberRaw!D37</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E37" s="7">
         <f>NovemberRaw!E37</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="7">
         <f>NovemberRaw!F37</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7">
         <f>NovemberRaw!G37</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="H37" s="7">
         <f>NovemberRaw!H37</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
         <f>NovemberRaw!I37</f>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="J37" s="8">
         <f>NovemberRaw!J37</f>
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -32299,7 +32299,7 @@
       </c>
       <c r="B38" s="10">
         <f>NovemberRaw!B38</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C38" s="10">
         <f>NovemberRaw!C38</f>
@@ -32315,11 +32315,11 @@
       </c>
       <c r="F38" s="10">
         <f>NovemberRaw!F38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10">
         <f>NovemberRaw!G38</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="10">
         <f>NovemberRaw!H38</f>
@@ -32327,11 +32327,11 @@
       </c>
       <c r="I38" s="10">
         <f>NovemberRaw!I38</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J38" s="11">
         <f>NovemberRaw!J38</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -32340,7 +32340,7 @@
       </c>
       <c r="B39" s="7">
         <f>NovemberRaw!B39</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C39" s="7">
         <f>NovemberRaw!C39</f>
@@ -32348,7 +32348,7 @@
       </c>
       <c r="D39" s="7">
         <f>NovemberRaw!D39</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E39" s="7">
         <f>NovemberRaw!E39</f>
@@ -32356,23 +32356,23 @@
       </c>
       <c r="F39" s="7">
         <f>NovemberRaw!F39</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" s="7">
         <f>NovemberRaw!G39</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <f>NovemberRaw!H39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
         <f>NovemberRaw!I39</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J39" s="8">
         <f>NovemberRaw!J39</f>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -32381,7 +32381,7 @@
       </c>
       <c r="B40" s="19">
         <f>NovemberRaw!B40</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C40" s="19">
         <f>NovemberRaw!C40</f>
@@ -32389,7 +32389,7 @@
       </c>
       <c r="D40" s="19">
         <f>NovemberRaw!D40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" s="19">
         <f>NovemberRaw!E40</f>
@@ -32401,7 +32401,7 @@
       </c>
       <c r="G40" s="19">
         <f>NovemberRaw!G40</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H40" s="19">
         <f>NovemberRaw!H40</f>
@@ -32409,11 +32409,11 @@
       </c>
       <c r="I40" s="19">
         <f>NovemberRaw!I40</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J40" s="20">
         <f>NovemberRaw!J40</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -32422,7 +32422,7 @@
       </c>
       <c r="B41" s="22">
         <f>NovemberRaw!B41</f>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="C41" s="22">
         <f>NovemberRaw!C41</f>
@@ -32430,7 +32430,7 @@
       </c>
       <c r="D41" s="22">
         <f>NovemberRaw!D41</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="22">
         <f>NovemberRaw!E41</f>
@@ -32442,7 +32442,7 @@
       </c>
       <c r="G41" s="22">
         <f>NovemberRaw!G41</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" s="22">
         <f>NovemberRaw!H41</f>
@@ -32450,11 +32450,11 @@
       </c>
       <c r="I41" s="22">
         <f>NovemberRaw!I41</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="23">
         <f>NovemberRaw!J41</f>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -32463,7 +32463,7 @@
       </c>
       <c r="B42" s="19">
         <f>NovemberRaw!B42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" s="19">
         <f>NovemberRaw!C42</f>
@@ -32491,11 +32491,11 @@
       </c>
       <c r="I42" s="19">
         <f>NovemberRaw!I42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="20">
         <f>NovemberRaw!J42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -32504,7 +32504,7 @@
       </c>
       <c r="B43" s="22">
         <f>NovemberRaw!B43</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C43" s="22">
         <f>NovemberRaw!C43</f>
@@ -32512,7 +32512,7 @@
       </c>
       <c r="D43" s="22">
         <f>NovemberRaw!D43</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="22">
         <f>NovemberRaw!E43</f>
@@ -32524,7 +32524,7 @@
       </c>
       <c r="G43" s="22">
         <f>NovemberRaw!G43</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" s="22">
         <f>NovemberRaw!H43</f>
@@ -32532,11 +32532,11 @@
       </c>
       <c r="I43" s="22">
         <f>NovemberRaw!I43</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J43" s="23">
         <f>NovemberRaw!J43</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -32586,7 +32586,7 @@
       </c>
       <c r="B45" s="7">
         <f>NovemberRaw!B45</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C45" s="7">
         <f>NovemberRaw!C45</f>
@@ -32594,7 +32594,7 @@
       </c>
       <c r="D45" s="7">
         <f>NovemberRaw!D45</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7">
         <f>NovemberRaw!E45</f>
@@ -32602,11 +32602,11 @@
       </c>
       <c r="F45" s="7">
         <f>NovemberRaw!F45</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G45" s="7">
         <f>NovemberRaw!G45</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H45" s="7">
         <f>NovemberRaw!H45</f>
@@ -32614,11 +32614,11 @@
       </c>
       <c r="I45" s="7">
         <f>NovemberRaw!I45</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J45" s="8">
         <f>NovemberRaw!J45</f>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -32627,7 +32627,7 @@
       </c>
       <c r="B46" s="10">
         <f>NovemberRaw!B46</f>
-        <v>0</v>
+        <v>1042</v>
       </c>
       <c r="C46" s="10">
         <f>NovemberRaw!C46</f>
@@ -32635,19 +32635,19 @@
       </c>
       <c r="D46" s="10">
         <f>NovemberRaw!D46</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E46" s="10">
         <f>NovemberRaw!E46</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F46" s="10">
         <f>NovemberRaw!F46</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G46" s="10">
         <f>NovemberRaw!G46</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H46" s="10">
         <f>NovemberRaw!H46</f>
@@ -32655,11 +32655,11 @@
       </c>
       <c r="I46" s="10">
         <f>NovemberRaw!I46</f>
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="J46" s="11">
         <f>NovemberRaw!J46</f>
-        <v>0</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -32668,7 +32668,7 @@
       </c>
       <c r="B47" s="7">
         <f>NovemberRaw!B47</f>
-        <v>0</v>
+        <v>1652</v>
       </c>
       <c r="C47" s="7">
         <f>NovemberRaw!C47</f>
@@ -32676,31 +32676,31 @@
       </c>
       <c r="D47" s="7">
         <f>NovemberRaw!D47</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" s="7">
         <f>NovemberRaw!E47</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47" s="7">
         <f>NovemberRaw!F47</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G47" s="7">
         <f>NovemberRaw!G47</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H47" s="7">
         <f>NovemberRaw!H47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="7">
         <f>NovemberRaw!I47</f>
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J47" s="8">
         <f>NovemberRaw!J47</f>
-        <v>0</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -32709,7 +32709,7 @@
       </c>
       <c r="B48" s="10">
         <f>NovemberRaw!B48</f>
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="C48" s="10">
         <f>NovemberRaw!C48</f>
@@ -32717,7 +32717,7 @@
       </c>
       <c r="D48" s="10">
         <f>NovemberRaw!D48</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E48" s="10">
         <f>NovemberRaw!E48</f>
@@ -32725,23 +32725,23 @@
       </c>
       <c r="F48" s="10">
         <f>NovemberRaw!F48</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G48" s="10">
         <f>NovemberRaw!G48</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H48" s="10">
         <f>NovemberRaw!H48</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" s="10">
         <f>NovemberRaw!I48</f>
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J48" s="11">
         <f>NovemberRaw!J48</f>
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -32750,7 +32750,7 @@
       </c>
       <c r="B49" s="7">
         <f>NovemberRaw!B49</f>
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="C49" s="7">
         <f>NovemberRaw!C49</f>
@@ -32758,19 +32758,19 @@
       </c>
       <c r="D49" s="7">
         <f>NovemberRaw!D49</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E49" s="7">
         <f>NovemberRaw!E49</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49" s="7">
         <f>NovemberRaw!F49</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G49" s="7">
         <f>NovemberRaw!G49</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H49" s="7">
         <f>NovemberRaw!H49</f>
@@ -32778,11 +32778,11 @@
       </c>
       <c r="I49" s="7">
         <f>NovemberRaw!I49</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="J49" s="8">
         <f>NovemberRaw!J49</f>
-        <v>0</v>
+        <v>628</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -32791,7 +32791,7 @@
       </c>
       <c r="B50" s="10">
         <f>NovemberRaw!B50</f>
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="C50" s="10">
         <f>NovemberRaw!C50</f>
@@ -32799,31 +32799,31 @@
       </c>
       <c r="D50" s="10">
         <f>NovemberRaw!D50</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="E50" s="10">
         <f>NovemberRaw!E50</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F50" s="10">
         <f>NovemberRaw!F50</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G50" s="10">
         <f>NovemberRaw!G50</f>
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="H50" s="10">
         <f>NovemberRaw!H50</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I50" s="10">
         <f>NovemberRaw!I50</f>
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="J50" s="11">
         <f>NovemberRaw!J50</f>
-        <v>0</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -32832,7 +32832,7 @@
       </c>
       <c r="B51" s="7">
         <f>NovemberRaw!B51</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C51" s="7">
         <f>NovemberRaw!C51</f>
@@ -32840,7 +32840,7 @@
       </c>
       <c r="D51" s="7">
         <f>NovemberRaw!D51</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E51" s="7">
         <f>NovemberRaw!E51</f>
@@ -32848,11 +32848,11 @@
       </c>
       <c r="F51" s="7">
         <f>NovemberRaw!F51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" s="7">
         <f>NovemberRaw!G51</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H51" s="7">
         <f>NovemberRaw!H51</f>
@@ -32860,11 +32860,11 @@
       </c>
       <c r="I51" s="7">
         <f>NovemberRaw!I51</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J51" s="8">
         <f>NovemberRaw!J51</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -32873,7 +32873,7 @@
       </c>
       <c r="B52" s="10">
         <f>NovemberRaw!B52</f>
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="C52" s="10">
         <f>NovemberRaw!C52</f>
@@ -32881,31 +32881,31 @@
       </c>
       <c r="D52" s="10">
         <f>NovemberRaw!D52</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E52" s="10">
         <f>NovemberRaw!E52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="10">
         <f>NovemberRaw!F52</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G52" s="10">
         <f>NovemberRaw!G52</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H52" s="10">
         <f>NovemberRaw!H52</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" s="10">
         <f>NovemberRaw!I52</f>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="J52" s="11">
         <f>NovemberRaw!J52</f>
-        <v>0</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -32914,7 +32914,7 @@
       </c>
       <c r="B53" s="7">
         <f>NovemberRaw!B53</f>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C53" s="7">
         <f>NovemberRaw!C53</f>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="I53" s="7">
         <f>NovemberRaw!I53</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J53" s="8">
         <f>NovemberRaw!J53</f>
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -32955,7 +32955,7 @@
       </c>
       <c r="B54" s="10">
         <f>NovemberRaw!B54</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C54" s="10">
         <f>NovemberRaw!C54</f>
@@ -32963,7 +32963,7 @@
       </c>
       <c r="D54" s="10">
         <f>NovemberRaw!D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="10">
         <f>NovemberRaw!E54</f>
@@ -32975,7 +32975,7 @@
       </c>
       <c r="G54" s="10">
         <f>NovemberRaw!G54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="10">
         <f>NovemberRaw!H54</f>
@@ -32983,11 +32983,11 @@
       </c>
       <c r="I54" s="10">
         <f>NovemberRaw!I54</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J54" s="11">
         <f>NovemberRaw!J54</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -32996,7 +32996,7 @@
       </c>
       <c r="B55" s="7">
         <f>NovemberRaw!B55</f>
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="C55" s="7">
         <f>NovemberRaw!C55</f>
@@ -33004,19 +33004,19 @@
       </c>
       <c r="D55" s="7">
         <f>NovemberRaw!D55</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7">
         <f>NovemberRaw!E55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7">
         <f>NovemberRaw!F55</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G55" s="7">
         <f>NovemberRaw!G55</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H55" s="7">
         <f>NovemberRaw!H55</f>
@@ -33024,11 +33024,11 @@
       </c>
       <c r="I55" s="7">
         <f>NovemberRaw!I55</f>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="J55" s="8">
         <f>NovemberRaw!J55</f>
-        <v>0</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -33037,7 +33037,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -33045,31 +33045,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -33078,7 +33078,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -33086,7 +33086,7 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
@@ -33098,7 +33098,7 @@
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -33106,11 +33106,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -33119,7 +33119,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>0</v>
+        <v>35730</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -33127,31 +33127,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2862</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11186</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24544</v>
       </c>
     </row>
   </sheetData>
@@ -33163,12 +33163,1773 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3368A3-76CA-4C7F-BBF6-FE5579FAD35B}">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2800</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>78</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>140</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>410</v>
+      </c>
+      <c r="J2">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>860</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>73</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>260</v>
+      </c>
+      <c r="J3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2690</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>181</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>238</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>604</v>
+      </c>
+      <c r="J4">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2802</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>199</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>97</v>
+      </c>
+      <c r="G6">
+        <v>297</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>806</v>
+      </c>
+      <c r="J6">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>262</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>104</v>
+      </c>
+      <c r="J7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>52</v>
+      </c>
+      <c r="J8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>44</v>
+      </c>
+      <c r="J9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>208</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>182</v>
+      </c>
+      <c r="J12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>370</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>136</v>
+      </c>
+      <c r="J13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>278</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>176</v>
+      </c>
+      <c r="J14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>314</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>66</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1098</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>348</v>
+      </c>
+      <c r="J17">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1100</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>268</v>
+      </c>
+      <c r="J19">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>856</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>49</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>360</v>
+      </c>
+      <c r="J21">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1374</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>119</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>164</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>254</v>
+      </c>
+      <c r="J23">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>3702</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>161</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>120</v>
+      </c>
+      <c r="G24">
+        <v>285</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>920</v>
+      </c>
+      <c r="J24">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>284</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>96</v>
+      </c>
+      <c r="J25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>278</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>35</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>140</v>
+      </c>
+      <c r="J27">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>16</v>
+      </c>
+      <c r="J28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>832</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>266</v>
+      </c>
+      <c r="J29">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>194</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>76</v>
+      </c>
+      <c r="G30">
+        <v>77</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>130</v>
+      </c>
+      <c r="J30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>106</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>978</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>43</v>
+      </c>
+      <c r="G32">
+        <v>141</v>
+      </c>
+      <c r="H32">
+        <v>19</v>
+      </c>
+      <c r="I32">
+        <v>514</v>
+      </c>
+      <c r="J32">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>848</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>38</v>
+      </c>
+      <c r="G33">
+        <v>46</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>458</v>
+      </c>
+      <c r="J33">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>264</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>112</v>
+      </c>
+      <c r="J34">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2386</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>240</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>68</v>
+      </c>
+      <c r="G35">
+        <v>313</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>868</v>
+      </c>
+      <c r="J35">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>448</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>154</v>
+      </c>
+      <c r="J36">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1140</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>126</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>31</v>
+      </c>
+      <c r="G37">
+        <v>159</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>512</v>
+      </c>
+      <c r="J37">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>142</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>60</v>
+      </c>
+      <c r="J39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>158</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>107</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>40</v>
+      </c>
+      <c r="J45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>1042</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>26</v>
+      </c>
+      <c r="G46">
+        <v>54</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>468</v>
+      </c>
+      <c r="J46">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1652</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>28</v>
+      </c>
+      <c r="G47">
+        <v>36</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>284</v>
+      </c>
+      <c r="J47">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>328</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>142</v>
+      </c>
+      <c r="J48">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>940</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>16</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>312</v>
+      </c>
+      <c r="J49">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>2150</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>132</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <v>183</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>594</v>
+      </c>
+      <c r="J50">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>320</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>70</v>
+      </c>
+      <c r="J51">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>958</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>34</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>342</v>
+      </c>
+      <c r="J52">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>194</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>36</v>
+      </c>
+      <c r="J53">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>634</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>156</v>
+      </c>
+      <c r="J55">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/statistics_files/2023/2023.g.requests.statistics.xlsx
+++ b/statistics_files/2023/2023.g.requests.statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70517A50-9149-4A28-A6E7-B97CD652CB4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4536AAAD-90A9-4D20-BBFC-A9B4BA4F7DBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" tabRatio="894" xr2:uid="{A4AFB16E-7F1D-4821-8B9E-72BCB5FA7E88}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="104">
   <si>
     <t>Library</t>
   </si>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B2" s="4">
         <f>January!B2+February!B2+March!B2+April!B2+May!B2+June!B2+July!B2+August!B2+September!B2+October!B2+November!B2+December!B2</f>
-        <v>31798</v>
+        <v>33924</v>
       </c>
       <c r="C2" s="4">
         <f>January!C2+February!C2+March!C2+April!C2+May!C2+June!C2+July!C2+August!C2+September!C2+October!C2+November!C2+December!C2</f>
@@ -1037,31 +1037,31 @@
       </c>
       <c r="D2" s="4">
         <f>January!D2+February!D2+March!D2+April!D2+May!D2+June!D2+July!D2+August!D2+September!D2+October!D2+November!D2+December!D2</f>
-        <v>1023</v>
+        <v>1098</v>
       </c>
       <c r="E2" s="4">
         <f>January!E2+February!E2+March!E2+April!E2+May!E2+June!E2+July!E2+August!E2+September!E2+October!E2+November!E2+December!E2</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4">
         <f>January!F2+February!F2+March!F2+April!F2+May!F2+June!F2+July!F2+August!F2+September!F2+October!F2+November!F2+December!F2</f>
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="G2" s="4">
         <f>January!G2+February!G2+March!G2+April!G2+May!G2+June!G2+July!G2+August!G2+September!G2+October!G2+November!G2+December!G2</f>
-        <v>1670</v>
+        <v>1794</v>
       </c>
       <c r="H2" s="4">
         <f>January!H2+February!H2+March!H2+April!H2+May!H2+June!H2+July!H2+August!H2+September!H2+October!H2+November!H2+December!H2</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="4">
         <f>January!I2+February!I2+March!I2+April!I2+May!I2+June!I2+July!I2+August!I2+September!I2+October!I2+November!I2+December!I2</f>
-        <v>6724</v>
+        <v>7034</v>
       </c>
       <c r="J2" s="5">
         <f>January!J2+February!J2+March!J2+April!J2+May!J2+June!J2+July!J2+August!J2+September!J2+October!J2+November!J2+December!J2</f>
-        <v>25074</v>
+        <v>26890</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B3" s="7">
         <f>January!B3+February!B3+March!B3+April!B3+May!B3+June!B3+July!B3+August!B3+September!B3+October!B3+November!B3+December!B3</f>
-        <v>10428</v>
+        <v>11168</v>
       </c>
       <c r="C3" s="7">
         <f>January!C3+February!C3+March!C3+April!C3+May!C3+June!C3+July!C3+August!C3+September!C3+October!C3+November!C3+December!C3</f>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="D3" s="7">
         <f>January!D3+February!D3+March!D3+April!D3+May!D3+June!D3+July!D3+August!D3+September!D3+October!D3+November!D3+December!D3</f>
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="E3" s="7">
         <f>January!E3+February!E3+March!E3+April!E3+May!E3+June!E3+July!E3+August!E3+September!E3+October!E3+November!E3+December!E3</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3" s="7">
         <f>January!F3+February!F3+March!F3+April!F3+May!F3+June!F3+July!F3+August!F3+September!F3+October!F3+November!F3+December!F3</f>
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="G3" s="7">
         <f>January!G3+February!G3+March!G3+April!G3+May!G3+June!G3+July!G3+August!G3+September!G3+October!G3+November!G3+December!G3</f>
-        <v>923</v>
+        <v>971</v>
       </c>
       <c r="H3" s="7">
         <f>January!H3+February!H3+March!H3+April!H3+May!H3+June!H3+July!H3+August!H3+September!H3+October!H3+November!H3+December!H3</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7">
         <f>January!I3+February!I3+March!I3+April!I3+May!I3+June!I3+July!I3+August!I3+September!I3+October!I3+November!I3+December!I3</f>
-        <v>3668</v>
+        <v>3898</v>
       </c>
       <c r="J3" s="8">
         <f>January!J3+February!J3+March!J3+April!J3+May!J3+June!J3+July!J3+August!J3+September!J3+October!J3+November!J3+December!J3</f>
-        <v>6760</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B4" s="10">
         <f>January!B4+February!B4+March!B4+April!B4+May!B4+June!B4+July!B4+August!B4+September!B4+October!B4+November!B4+December!B4</f>
-        <v>33624</v>
+        <v>36154</v>
       </c>
       <c r="C4" s="10">
         <f>January!C4+February!C4+March!C4+April!C4+May!C4+June!C4+July!C4+August!C4+September!C4+October!C4+November!C4+December!C4</f>
@@ -1119,31 +1119,31 @@
       </c>
       <c r="D4" s="10">
         <f>January!D4+February!D4+March!D4+April!D4+May!D4+June!D4+July!D4+August!D4+September!D4+October!D4+November!D4+December!D4</f>
-        <v>1977</v>
+        <v>2108</v>
       </c>
       <c r="E4" s="10">
         <f>January!E4+February!E4+March!E4+April!E4+May!E4+June!E4+July!E4+August!E4+September!E4+October!E4+November!E4+December!E4</f>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F4" s="10">
         <f>January!F4+February!F4+March!F4+April!F4+May!F4+June!F4+July!F4+August!F4+September!F4+October!F4+November!F4+December!F4</f>
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="G4" s="10">
         <f>January!G4+February!G4+March!G4+April!G4+May!G4+June!G4+July!G4+August!G4+September!G4+October!G4+November!G4+December!G4</f>
-        <v>2722</v>
+        <v>2914</v>
       </c>
       <c r="H4" s="10">
         <f>January!H4+February!H4+March!H4+April!H4+May!H4+June!H4+July!H4+August!H4+September!H4+October!H4+November!H4+December!H4</f>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I4" s="10">
         <f>January!I4+February!I4+March!I4+April!I4+May!I4+June!I4+July!I4+August!I4+September!I4+October!I4+November!I4+December!I4</f>
-        <v>9230</v>
+        <v>9754</v>
       </c>
       <c r="J4" s="11">
         <f>January!J4+February!J4+March!J4+April!J4+May!J4+June!J4+July!J4+August!J4+September!J4+October!J4+November!J4+December!J4</f>
-        <v>24394</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B5" s="7">
         <f>January!B5+February!B5+March!B5+April!B5+May!B5+June!B5+July!B5+August!B5+September!B5+October!B5+November!B5+December!B5</f>
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="C5" s="7">
         <f>January!C5+February!C5+March!C5+April!C5+May!C5+June!C5+July!C5+August!C5+September!C5+October!C5+November!C5+December!C5</f>
@@ -1180,11 +1180,11 @@
       </c>
       <c r="I5" s="7">
         <f>January!I5+February!I5+March!I5+April!I5+May!I5+June!I5+July!I5+August!I5+September!I5+October!I5+November!I5+December!I5</f>
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="J5" s="8">
         <f>January!J5+February!J5+March!J5+April!J5+May!J5+June!J5+July!J5+August!J5+September!J5+October!J5+November!J5+December!J5</f>
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B6" s="10">
         <f>January!B6+February!B6+March!B6+April!B6+May!B6+June!B6+July!B6+August!B6+September!B6+October!B6+November!B6+December!B6</f>
-        <v>35264</v>
+        <v>37724</v>
       </c>
       <c r="C6" s="10">
         <f>January!C6+February!C6+March!C6+April!C6+May!C6+June!C6+July!C6+August!C6+September!C6+October!C6+November!C6+December!C6</f>
@@ -1201,31 +1201,31 @@
       </c>
       <c r="D6" s="10">
         <f>January!D6+February!D6+March!D6+April!D6+May!D6+June!D6+July!D6+August!D6+September!D6+October!D6+November!D6+December!D6</f>
-        <v>2534</v>
+        <v>2693</v>
       </c>
       <c r="E6" s="10">
         <f>January!E6+February!E6+March!E6+April!E6+May!E6+June!E6+July!E6+August!E6+September!E6+October!E6+November!E6+December!E6</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="10">
         <f>January!F6+February!F6+March!F6+April!F6+May!F6+June!F6+July!F6+August!F6+September!F6+October!F6+November!F6+December!F6</f>
-        <v>809</v>
+        <v>881</v>
       </c>
       <c r="G6" s="10">
         <f>January!G6+February!G6+March!G6+April!G6+May!G6+June!G6+July!G6+August!G6+September!G6+October!G6+November!G6+December!G6</f>
-        <v>3401</v>
+        <v>3634</v>
       </c>
       <c r="H6" s="10">
         <f>January!H6+February!H6+March!H6+April!H6+May!H6+June!H6+July!H6+August!H6+September!H6+October!H6+November!H6+December!H6</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I6" s="10">
         <f>January!I6+February!I6+March!I6+April!I6+May!I6+June!I6+July!I6+August!I6+September!I6+October!I6+November!I6+December!I6</f>
-        <v>14098</v>
+        <v>14974</v>
       </c>
       <c r="J6" s="11">
         <f>January!J6+February!J6+March!J6+April!J6+May!J6+June!J6+July!J6+August!J6+September!J6+October!J6+November!J6+December!J6</f>
-        <v>21166</v>
+        <v>22750</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B7" s="7">
         <f>January!B7+February!B7+March!B7+April!B7+May!B7+June!B7+July!B7+August!B7+September!B7+October!B7+November!B7+December!B7</f>
-        <v>4026</v>
+        <v>4370</v>
       </c>
       <c r="C7" s="7">
         <f>January!C7+February!C7+March!C7+April!C7+May!C7+June!C7+July!C7+August!C7+September!C7+October!C7+November!C7+December!C7</f>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="D7" s="7">
         <f>January!D7+February!D7+March!D7+April!D7+May!D7+June!D7+July!D7+August!D7+September!D7+October!D7+November!D7+December!D7</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7">
         <f>January!E7+February!E7+March!E7+April!E7+May!E7+June!E7+July!E7+August!E7+September!E7+October!E7+November!E7+December!E7</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7">
         <f>January!F7+February!F7+March!F7+April!F7+May!F7+June!F7+July!F7+August!F7+September!F7+October!F7+November!F7+December!F7</f>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="G7" s="7">
         <f>January!G7+February!G7+March!G7+April!G7+May!G7+June!G7+July!G7+August!G7+September!G7+October!G7+November!G7+December!G7</f>
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <f>January!H7+February!H7+March!H7+April!H7+May!H7+June!H7+July!H7+August!H7+September!H7+October!H7+November!H7+December!H7</f>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="I7" s="7">
         <f>January!I7+February!I7+March!I7+April!I7+May!I7+June!I7+July!I7+August!I7+September!I7+October!I7+November!I7+December!I7</f>
-        <v>2060</v>
+        <v>2198</v>
       </c>
       <c r="J7" s="8">
         <f>January!J7+February!J7+March!J7+April!J7+May!J7+June!J7+July!J7+August!J7+September!J7+October!J7+November!J7+December!J7</f>
-        <v>1966</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B8" s="10">
         <f>January!B8+February!B8+March!B8+April!B8+May!B8+June!B8+July!B8+August!B8+September!B8+October!B8+November!B8+December!B8</f>
-        <v>2118</v>
+        <v>2258</v>
       </c>
       <c r="C8" s="10">
         <f>January!C8+February!C8+March!C8+April!C8+May!C8+June!C8+July!C8+August!C8+September!C8+October!C8+November!C8+December!C8</f>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D8" s="10">
         <f>January!D8+February!D8+March!D8+April!D8+May!D8+June!D8+July!D8+August!D8+September!D8+October!D8+November!D8+December!D8</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="10">
         <f>January!E8+February!E8+March!E8+April!E8+May!E8+June!E8+July!E8+August!E8+September!E8+October!E8+November!E8+December!E8</f>
@@ -1291,11 +1291,11 @@
       </c>
       <c r="F8" s="10">
         <f>January!F8+February!F8+March!F8+April!F8+May!F8+June!F8+July!F8+August!F8+September!F8+October!F8+November!F8+December!F8</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G8" s="10">
         <f>January!G8+February!G8+March!G8+April!G8+May!G8+June!G8+July!G8+August!G8+September!G8+October!G8+November!G8+December!G8</f>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H8" s="10">
         <f>January!H8+February!H8+March!H8+April!H8+May!H8+June!H8+July!H8+August!H8+September!H8+October!H8+November!H8+December!H8</f>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="I8" s="10">
         <f>January!I8+February!I8+March!I8+April!I8+May!I8+June!I8+July!I8+August!I8+September!I8+October!I8+November!I8+December!I8</f>
-        <v>1032</v>
+        <v>1110</v>
       </c>
       <c r="J8" s="11">
         <f>January!J8+February!J8+March!J8+April!J8+May!J8+June!J8+July!J8+August!J8+September!J8+October!J8+November!J8+December!J8</f>
-        <v>1086</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B9" s="7">
         <f>January!B9+February!B9+March!B9+April!B9+May!B9+June!B9+July!B9+August!B9+September!B9+October!B9+November!B9+December!B9</f>
-        <v>1024</v>
+        <v>1170</v>
       </c>
       <c r="C9" s="7">
         <f>January!C9+February!C9+March!C9+April!C9+May!C9+June!C9+July!C9+August!C9+September!C9+October!C9+November!C9+December!C9</f>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D9" s="7">
         <f>January!D9+February!D9+March!D9+April!D9+May!D9+June!D9+July!D9+August!D9+September!D9+October!D9+November!D9+December!D9</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7">
         <f>January!E9+February!E9+March!E9+April!E9+May!E9+June!E9+July!E9+August!E9+September!E9+October!E9+November!E9+December!E9</f>
@@ -1332,23 +1332,23 @@
       </c>
       <c r="F9" s="7">
         <f>January!F9+February!F9+March!F9+April!F9+May!F9+June!F9+July!F9+August!F9+September!F9+October!F9+November!F9+December!F9</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9" s="7">
         <f>January!G9+February!G9+March!G9+April!G9+May!G9+June!G9+July!G9+August!G9+September!G9+October!G9+November!G9+December!G9</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H9" s="7">
         <f>January!H9+February!H9+March!H9+April!H9+May!H9+June!H9+July!H9+August!H9+September!H9+October!H9+November!H9+December!H9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
         <f>January!I9+February!I9+March!I9+April!I9+May!I9+June!I9+July!I9+August!I9+September!I9+October!I9+November!I9+December!I9</f>
-        <v>732</v>
+        <v>824</v>
       </c>
       <c r="J9" s="8">
         <f>January!J9+February!J9+March!J9+April!J9+May!J9+June!J9+July!J9+August!J9+September!J9+October!J9+November!J9+December!J9</f>
-        <v>292</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B12" s="13">
         <f>January!B12+February!B12+March!B12+April!B12+May!B12+June!B12+July!B12+August!B12+September!B12+October!B12+November!B12+December!B12</f>
-        <v>1868</v>
+        <v>1914</v>
       </c>
       <c r="C12" s="13">
         <f>January!C12+February!C12+March!C12+April!C12+May!C12+June!C12+July!C12+August!C12+September!C12+October!C12+November!C12+December!C12</f>
@@ -1447,31 +1447,31 @@
       </c>
       <c r="D12" s="13">
         <f>January!D12+February!D12+March!D12+April!D12+May!D12+June!D12+July!D12+August!D12+September!D12+October!D12+November!D12+December!D12</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="13">
         <f>January!E12+February!E12+March!E12+April!E12+May!E12+June!E12+July!E12+August!E12+September!E12+October!E12+November!E12+December!E12</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="13">
         <f>January!F12+February!F12+March!F12+April!F12+May!F12+June!F12+July!F12+August!F12+September!F12+October!F12+November!F12+December!F12</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" s="13">
         <f>January!G12+February!G12+March!G12+April!G12+May!G12+June!G12+July!G12+August!G12+September!G12+October!G12+November!G12+December!G12</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H12" s="13">
         <f>January!H12+February!H12+March!H12+April!H12+May!H12+June!H12+July!H12+August!H12+September!H12+October!H12+November!H12+December!H12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="13">
         <f>January!I12+February!I12+March!I12+April!I12+May!I12+June!I12+July!I12+August!I12+September!I12+October!I12+November!I12+December!I12</f>
-        <v>1768</v>
+        <v>1802</v>
       </c>
       <c r="J12" s="14">
         <f>January!J12+February!J12+March!J12+April!J12+May!J12+June!J12+July!J12+August!J12+September!J12+October!J12+November!J12+December!J12</f>
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B13" s="16">
         <f>January!B13+February!B13+March!B13+April!B13+May!B13+June!B13+July!B13+August!B13+September!B13+October!B13+November!B13+December!B13</f>
-        <v>3636</v>
+        <v>4042</v>
       </c>
       <c r="C13" s="16">
         <f>January!C13+February!C13+March!C13+April!C13+May!C13+June!C13+July!C13+August!C13+September!C13+October!C13+November!C13+December!C13</f>
@@ -1488,19 +1488,19 @@
       </c>
       <c r="D13" s="16">
         <f>January!D13+February!D13+March!D13+April!D13+May!D13+June!D13+July!D13+August!D13+September!D13+October!D13+November!D13+December!D13</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" s="16">
         <f>January!E13+February!E13+March!E13+April!E13+May!E13+June!E13+July!E13+August!E13+September!E13+October!E13+November!E13+December!E13</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="16">
         <f>January!F13+February!F13+March!F13+April!F13+May!F13+June!F13+July!F13+August!F13+September!F13+October!F13+November!F13+December!F13</f>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="G13" s="16">
         <f>January!G13+February!G13+March!G13+April!G13+May!G13+June!G13+July!G13+August!G13+September!G13+October!G13+November!G13+December!G13</f>
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="H13" s="16">
         <f>January!H13+February!H13+March!H13+April!H13+May!H13+June!H13+July!H13+August!H13+September!H13+October!H13+November!H13+December!H13</f>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="I13" s="16">
         <f>January!I13+February!I13+March!I13+April!I13+May!I13+June!I13+July!I13+August!I13+September!I13+October!I13+November!I13+December!I13</f>
-        <v>2048</v>
+        <v>2132</v>
       </c>
       <c r="J13" s="17">
         <f>January!J13+February!J13+March!J13+April!J13+May!J13+June!J13+July!J13+August!J13+September!J13+October!J13+November!J13+December!J13</f>
-        <v>1588</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B14" s="13">
         <f>January!B14+February!B14+March!B14+April!B14+May!B14+June!B14+July!B14+August!B14+September!B14+October!B14+November!B14+December!B14</f>
-        <v>3100</v>
+        <v>3362</v>
       </c>
       <c r="C14" s="13">
         <f>January!C14+February!C14+March!C14+April!C14+May!C14+June!C14+July!C14+August!C14+September!C14+October!C14+November!C14+December!C14</f>
@@ -1529,19 +1529,19 @@
       </c>
       <c r="D14" s="13">
         <f>January!D14+February!D14+March!D14+April!D14+May!D14+June!D14+July!D14+August!D14+September!D14+October!D14+November!D14+December!D14</f>
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E14" s="13">
         <f>January!E14+February!E14+March!E14+April!E14+May!E14+June!E14+July!E14+August!E14+September!E14+October!E14+November!E14+December!E14</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="13">
         <f>January!F14+February!F14+March!F14+April!F14+May!F14+June!F14+July!F14+August!F14+September!F14+October!F14+November!F14+December!F14</f>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G14" s="13">
         <f>January!G14+February!G14+March!G14+April!G14+May!G14+June!G14+July!G14+August!G14+September!G14+October!G14+November!G14+December!G14</f>
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="H14" s="13">
         <f>January!H14+February!H14+March!H14+April!H14+May!H14+June!H14+July!H14+August!H14+September!H14+October!H14+November!H14+December!H14</f>
@@ -1549,11 +1549,11 @@
       </c>
       <c r="I14" s="13">
         <f>January!I14+February!I14+March!I14+April!I14+May!I14+June!I14+July!I14+August!I14+September!I14+October!I14+November!I14+December!I14</f>
-        <v>2072</v>
+        <v>2216</v>
       </c>
       <c r="J14" s="14">
         <f>January!J14+February!J14+March!J14+April!J14+May!J14+June!J14+July!J14+August!J14+September!J14+October!J14+November!J14+December!J14</f>
-        <v>1028</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B15" s="16">
         <f>January!B15+February!B15+March!B15+April!B15+May!B15+June!B15+July!B15+August!B15+September!B15+October!B15+November!B15+December!B15</f>
-        <v>2394</v>
+        <v>2574</v>
       </c>
       <c r="C15" s="16">
         <f>January!C15+February!C15+March!C15+April!C15+May!C15+June!C15+July!C15+August!C15+September!C15+October!C15+November!C15+December!C15</f>
@@ -1570,19 +1570,19 @@
       </c>
       <c r="D15" s="16">
         <f>January!D15+February!D15+March!D15+April!D15+May!D15+June!D15+July!D15+August!D15+September!D15+October!D15+November!D15+December!D15</f>
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E15" s="16">
         <f>January!E15+February!E15+March!E15+April!E15+May!E15+June!E15+July!E15+August!E15+September!E15+October!E15+November!E15+December!E15</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F15" s="16">
         <f>January!F15+February!F15+March!F15+April!F15+May!F15+June!F15+July!F15+August!F15+September!F15+October!F15+November!F15+December!F15</f>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G15" s="16">
         <f>January!G15+February!G15+March!G15+April!G15+May!G15+June!G15+July!G15+August!G15+September!G15+October!G15+November!G15+December!G15</f>
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="H15" s="16">
         <f>January!H15+February!H15+March!H15+April!H15+May!H15+June!H15+July!H15+August!H15+September!H15+October!H15+November!H15+December!H15</f>
@@ -1590,11 +1590,11 @@
       </c>
       <c r="I15" s="16">
         <f>January!I15+February!I15+March!I15+April!I15+May!I15+June!I15+July!I15+August!I15+September!I15+October!I15+November!I15+December!I15</f>
-        <v>1654</v>
+        <v>1758</v>
       </c>
       <c r="J15" s="17">
         <f>January!J15+February!J15+March!J15+April!J15+May!J15+June!J15+July!J15+August!J15+September!J15+October!J15+November!J15+December!J15</f>
-        <v>740</v>
+        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B16" s="10">
         <f>January!B16+February!B16+March!B16+April!B16+May!B16+June!B16+July!B16+August!B16+September!B16+October!B16+November!B16+December!B16</f>
-        <v>796</v>
+        <v>894</v>
       </c>
       <c r="C16" s="10">
         <f>January!C16+February!C16+March!C16+April!C16+May!C16+June!C16+July!C16+August!C16+September!C16+October!C16+November!C16+December!C16</f>
@@ -1619,11 +1619,11 @@
       </c>
       <c r="F16" s="10">
         <f>January!F16+February!F16+March!F16+April!F16+May!F16+June!F16+July!F16+August!F16+September!F16+October!F16+November!F16+December!F16</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="10">
         <f>January!G16+February!G16+March!G16+April!G16+May!G16+June!G16+July!G16+August!G16+September!G16+October!G16+November!G16+December!G16</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" s="10">
         <f>January!H16+February!H16+March!H16+April!H16+May!H16+June!H16+July!H16+August!H16+September!H16+October!H16+November!H16+December!H16</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="I16" s="10">
         <f>January!I16+February!I16+March!I16+April!I16+May!I16+June!I16+July!I16+August!I16+September!I16+October!I16+November!I16+December!I16</f>
-        <v>697</v>
+        <v>765</v>
       </c>
       <c r="J16" s="11">
         <f>January!J16+February!J16+March!J16+April!J16+May!J16+June!J16+July!J16+August!J16+September!J16+October!J16+November!J16+December!J16</f>
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B17" s="7">
         <f>January!B17+February!B17+March!B17+April!B17+May!B17+June!B17+July!B17+August!B17+September!B17+October!B17+November!B17+December!B17</f>
-        <v>13548</v>
+        <v>14558</v>
       </c>
       <c r="C17" s="7">
         <f>January!C17+February!C17+March!C17+April!C17+May!C17+June!C17+July!C17+August!C17+September!C17+October!C17+November!C17+December!C17</f>
@@ -1652,31 +1652,31 @@
       </c>
       <c r="D17" s="7">
         <f>January!D17+February!D17+March!D17+April!D17+May!D17+June!D17+July!D17+August!D17+September!D17+October!D17+November!D17+December!D17</f>
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="E17" s="7">
         <f>January!E17+February!E17+March!E17+April!E17+May!E17+June!E17+July!E17+August!E17+September!E17+October!E17+November!E17+December!E17</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7">
         <f>January!F17+February!F17+March!F17+April!F17+May!F17+June!F17+July!F17+August!F17+September!F17+October!F17+November!F17+December!F17</f>
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7">
         <f>January!G17+February!G17+March!G17+April!G17+May!G17+June!G17+July!G17+August!G17+September!G17+October!G17+November!G17+December!G17</f>
-        <v>884</v>
+        <v>959</v>
       </c>
       <c r="H17" s="7">
         <f>January!H17+February!H17+March!H17+April!H17+May!H17+June!H17+July!H17+August!H17+September!H17+October!H17+November!H17+December!H17</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
         <f>January!I17+February!I17+March!I17+April!I17+May!I17+June!I17+July!I17+August!I17+September!I17+October!I17+November!I17+December!I17</f>
-        <v>5814</v>
+        <v>6248</v>
       </c>
       <c r="J17" s="8">
         <f>January!J17+February!J17+March!J17+April!J17+May!J17+June!J17+July!J17+August!J17+September!J17+October!J17+November!J17+December!J17</f>
-        <v>7734</v>
+        <v>8310</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B18" s="10">
         <f>January!B18+February!B18+March!B18+April!B18+May!B18+June!B18+July!B18+August!B18+September!B18+October!B18+November!B18+December!B18</f>
-        <v>1216</v>
+        <v>1304</v>
       </c>
       <c r="C18" s="10">
         <f>January!C18+February!C18+March!C18+April!C18+May!C18+June!C18+July!C18+August!C18+September!C18+October!C18+November!C18+December!C18</f>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D18" s="10">
         <f>January!D18+February!D18+March!D18+April!D18+May!D18+June!D18+July!D18+August!D18+September!D18+October!D18+November!D18+December!D18</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E18" s="10">
         <f>January!E18+February!E18+March!E18+April!E18+May!E18+June!E18+July!E18+August!E18+September!E18+October!E18+November!E18+December!E18</f>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="F18" s="10">
         <f>January!F18+February!F18+March!F18+April!F18+May!F18+June!F18+July!F18+August!F18+September!F18+October!F18+November!F18+December!F18</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="10">
         <f>January!G18+February!G18+March!G18+April!G18+May!G18+June!G18+July!G18+August!G18+September!G18+October!G18+November!G18+December!G18</f>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H18" s="10">
         <f>January!H18+February!H18+March!H18+April!H18+May!H18+June!H18+July!H18+August!H18+September!H18+October!H18+November!H18+December!H18</f>
@@ -1713,11 +1713,11 @@
       </c>
       <c r="I18" s="10">
         <f>January!I18+February!I18+March!I18+April!I18+May!I18+June!I18+July!I18+August!I18+September!I18+October!I18+November!I18+December!I18</f>
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="J18" s="11">
         <f>January!J18+February!J18+March!J18+April!J18+May!J18+June!J18+July!J18+August!J18+September!J18+October!J18+November!J18+December!J18</f>
-        <v>976</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B19" s="7">
         <f>January!B19+February!B19+March!B19+April!B19+May!B19+June!B19+July!B19+August!B19+September!B19+October!B19+November!B19+December!B19</f>
-        <v>11288</v>
+        <v>12254</v>
       </c>
       <c r="C19" s="7">
         <f>January!C19+February!C19+March!C19+April!C19+May!C19+June!C19+July!C19+August!C19+September!C19+October!C19+November!C19+December!C19</f>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="D19" s="7">
         <f>January!D19+February!D19+March!D19+April!D19+May!D19+June!D19+July!D19+August!D19+September!D19+October!D19+November!D19+December!D19</f>
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="E19" s="7">
         <f>January!E19+February!E19+March!E19+April!E19+May!E19+June!E19+July!E19+August!E19+September!E19+October!E19+November!E19+December!E19</f>
@@ -1742,23 +1742,23 @@
       </c>
       <c r="F19" s="7">
         <f>January!F19+February!F19+March!F19+April!F19+May!F19+June!F19+July!F19+August!F19+September!F19+October!F19+November!F19+December!F19</f>
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7">
         <f>January!G19+February!G19+March!G19+April!G19+May!G19+June!G19+July!G19+August!G19+September!G19+October!G19+November!G19+December!G19</f>
-        <v>873</v>
+        <v>911</v>
       </c>
       <c r="H19" s="7">
         <f>January!H19+February!H19+March!H19+April!H19+May!H19+June!H19+July!H19+August!H19+September!H19+October!H19+November!H19+December!H19</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I19" s="7">
         <f>January!I19+February!I19+March!I19+April!I19+May!I19+June!I19+July!I19+August!I19+September!I19+October!I19+November!I19+December!I19</f>
-        <v>5680</v>
+        <v>5874</v>
       </c>
       <c r="J19" s="8">
         <f>January!J19+February!J19+March!J19+April!J19+May!J19+June!J19+July!J19+August!J19+September!J19+October!J19+November!J19+December!J19</f>
-        <v>5608</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B20" s="10">
         <f>January!B20+February!B20+March!B20+April!B20+May!B20+June!B20+July!B20+August!B20+September!B20+October!B20+November!B20+December!B20</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10">
         <f>January!C20+February!C20+March!C20+April!C20+May!C20+June!C20+July!C20+August!C20+September!C20+October!C20+November!C20+December!C20</f>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I20" s="10">
         <f>January!I20+February!I20+March!I20+April!I20+May!I20+June!I20+July!I20+August!I20+September!I20+October!I20+November!I20+December!I20</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J20" s="11">
         <f>January!J20+February!J20+March!J20+April!J20+May!J20+June!J20+July!J20+August!J20+September!J20+October!J20+November!J20+December!J20</f>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B21" s="7">
         <f>January!B21+February!B21+March!B21+April!B21+May!B21+June!B21+July!B21+August!B21+September!B21+October!B21+November!B21+December!B21</f>
-        <v>10624</v>
+        <v>11458</v>
       </c>
       <c r="C21" s="7">
         <f>January!C21+February!C21+March!C21+April!C21+May!C21+June!C21+July!C21+August!C21+September!C21+October!C21+November!C21+December!C21</f>
@@ -1816,19 +1816,19 @@
       </c>
       <c r="D21" s="7">
         <f>January!D21+February!D21+March!D21+April!D21+May!D21+June!D21+July!D21+August!D21+September!D21+October!D21+November!D21+December!D21</f>
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="E21" s="7">
         <f>January!E21+February!E21+March!E21+April!E21+May!E21+June!E21+July!E21+August!E21+September!E21+October!E21+November!E21+December!E21</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F21" s="7">
         <f>January!F21+February!F21+March!F21+April!F21+May!F21+June!F21+July!F21+August!F21+September!F21+October!F21+November!F21+December!F21</f>
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G21" s="7">
         <f>January!G21+February!G21+March!G21+April!G21+May!G21+June!G21+July!G21+August!G21+September!G21+October!G21+November!G21+December!G21</f>
-        <v>843</v>
+        <v>895</v>
       </c>
       <c r="H21" s="7">
         <f>January!H21+February!H21+March!H21+April!H21+May!H21+June!H21+July!H21+August!H21+September!H21+October!H21+November!H21+December!H21</f>
@@ -1836,11 +1836,11 @@
       </c>
       <c r="I21" s="7">
         <f>January!I21+February!I21+March!I21+April!I21+May!I21+June!I21+July!I21+August!I21+September!I21+October!I21+November!I21+December!I21</f>
-        <v>5560</v>
+        <v>5908</v>
       </c>
       <c r="J21" s="8">
         <f>January!J21+February!J21+March!J21+April!J21+May!J21+June!J21+July!J21+August!J21+September!J21+October!J21+November!J21+December!J21</f>
-        <v>5064</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B22" s="10">
         <f>January!B22+February!B22+March!B22+April!B22+May!B22+June!B22+July!B22+August!B22+September!B22+October!B22+November!B22+December!B22</f>
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="C22" s="10">
         <f>January!C22+February!C22+March!C22+April!C22+May!C22+June!C22+July!C22+August!C22+September!C22+October!C22+November!C22+December!C22</f>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="D22" s="10">
         <f>January!D22+February!D22+March!D22+April!D22+May!D22+June!D22+July!D22+August!D22+September!D22+October!D22+November!D22+December!D22</f>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E22" s="10">
         <f>January!E22+February!E22+March!E22+April!E22+May!E22+June!E22+July!E22+August!E22+September!E22+October!E22+November!E22+December!E22</f>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="F22" s="10">
         <f>January!F22+February!F22+March!F22+April!F22+May!F22+June!F22+July!F22+August!F22+September!F22+October!F22+November!F22+December!F22</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G22" s="10">
         <f>January!G22+February!G22+March!G22+April!G22+May!G22+June!G22+July!G22+August!G22+September!G22+October!G22+November!G22+December!G22</f>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H22" s="10">
         <f>January!H22+February!H22+March!H22+April!H22+May!H22+June!H22+July!H22+August!H22+September!H22+October!H22+November!H22+December!H22</f>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="I22" s="10">
         <f>January!I22+February!I22+March!I22+April!I22+May!I22+June!I22+July!I22+August!I22+September!I22+October!I22+November!I22+December!I22</f>
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="J22" s="11">
         <f>January!J22+February!J22+March!J22+April!J22+May!J22+June!J22+July!J22+August!J22+September!J22+October!J22+November!J22+December!J22</f>
-        <v>280</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B23" s="7">
         <f>January!B23+February!B23+March!B23+April!B23+May!B23+June!B23+July!B23+August!B23+September!B23+October!B23+November!B23+December!B23</f>
-        <v>15706</v>
+        <v>16976</v>
       </c>
       <c r="C23" s="7">
         <f>January!C23+February!C23+March!C23+April!C23+May!C23+June!C23+July!C23+August!C23+September!C23+October!C23+November!C23+December!C23</f>
@@ -1898,31 +1898,31 @@
       </c>
       <c r="D23" s="7">
         <f>January!D23+February!D23+March!D23+April!D23+May!D23+June!D23+July!D23+August!D23+September!D23+October!D23+November!D23+December!D23</f>
-        <v>1120</v>
+        <v>1227</v>
       </c>
       <c r="E23" s="7">
         <f>January!E23+February!E23+March!E23+April!E23+May!E23+June!E23+July!E23+August!E23+September!E23+October!E23+November!E23+December!E23</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F23" s="7">
         <f>January!F23+February!F23+March!F23+April!F23+May!F23+June!F23+July!F23+August!F23+September!F23+October!F23+November!F23+December!F23</f>
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="G23" s="7">
         <f>January!G23+February!G23+March!G23+April!G23+May!G23+June!G23+July!G23+August!G23+September!G23+October!G23+November!G23+December!G23</f>
-        <v>1738</v>
+        <v>1915</v>
       </c>
       <c r="H23" s="7">
         <f>January!H23+February!H23+March!H23+April!H23+May!H23+June!H23+July!H23+August!H23+September!H23+October!H23+November!H23+December!H23</f>
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="I23" s="7">
         <f>January!I23+February!I23+March!I23+April!I23+May!I23+June!I23+July!I23+August!I23+September!I23+October!I23+November!I23+December!I23</f>
-        <v>4140</v>
+        <v>4440</v>
       </c>
       <c r="J23" s="8">
         <f>January!J23+February!J23+March!J23+April!J23+May!J23+June!J23+July!J23+August!J23+September!J23+October!J23+November!J23+December!J23</f>
-        <v>11566</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B24" s="10">
         <f>January!B24+February!B24+March!B24+April!B24+May!B24+June!B24+July!B24+August!B24+September!B24+October!B24+November!B24+December!B24</f>
-        <v>42992</v>
+        <v>46170</v>
       </c>
       <c r="C24" s="10">
         <f>January!C24+February!C24+March!C24+April!C24+May!C24+June!C24+July!C24+August!C24+September!C24+October!C24+November!C24+December!C24</f>
@@ -1939,31 +1939,31 @@
       </c>
       <c r="D24" s="10">
         <f>January!D24+February!D24+March!D24+April!D24+May!D24+June!D24+July!D24+August!D24+September!D24+October!D24+November!D24+December!D24</f>
-        <v>2103</v>
+        <v>2329</v>
       </c>
       <c r="E24" s="10">
         <f>January!E24+February!E24+March!E24+April!E24+May!E24+June!E24+July!E24+August!E24+September!E24+October!E24+November!E24+December!E24</f>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F24" s="10">
         <f>January!F24+February!F24+March!F24+April!F24+May!F24+June!F24+July!F24+August!F24+September!F24+October!F24+November!F24+December!F24</f>
-        <v>958</v>
+        <v>1055</v>
       </c>
       <c r="G24" s="10">
         <f>January!G24+February!G24+March!G24+April!G24+May!G24+June!G24+July!G24+August!G24+September!G24+October!G24+November!G24+December!G24</f>
-        <v>3150</v>
+        <v>3478</v>
       </c>
       <c r="H24" s="10">
         <f>January!H24+February!H24+March!H24+April!H24+May!H24+June!H24+July!H24+August!H24+September!H24+October!H24+November!H24+December!H24</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" s="10">
         <f>January!I24+February!I24+March!I24+April!I24+May!I24+June!I24+July!I24+August!I24+September!I24+October!I24+November!I24+December!I24</f>
-        <v>11050</v>
+        <v>11748</v>
       </c>
       <c r="J24" s="11">
         <f>January!J24+February!J24+March!J24+April!J24+May!J24+June!J24+July!J24+August!J24+September!J24+October!J24+November!J24+December!J24</f>
-        <v>31942</v>
+        <v>34422</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B25" s="7">
         <f>January!B25+February!B25+March!B25+April!B25+May!B25+June!B25+July!B25+August!B25+September!B25+October!B25+November!B25+December!B25</f>
-        <v>3428</v>
+        <v>3712</v>
       </c>
       <c r="C25" s="7">
         <f>January!C25+February!C25+March!C25+April!C25+May!C25+June!C25+July!C25+August!C25+September!C25+October!C25+November!C25+December!C25</f>
@@ -1980,19 +1980,19 @@
       </c>
       <c r="D25" s="7">
         <f>January!D25+February!D25+March!D25+April!D25+May!D25+June!D25+July!D25+August!D25+September!D25+October!D25+November!D25+December!D25</f>
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E25" s="7">
         <f>January!E25+February!E25+March!E25+April!E25+May!E25+June!E25+July!E25+August!E25+September!E25+October!E25+November!E25+December!E25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" s="7">
         <f>January!F25+February!F25+March!F25+April!F25+May!F25+June!F25+July!F25+August!F25+September!F25+October!F25+November!F25+December!F25</f>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7">
         <f>January!G25+February!G25+March!G25+April!G25+May!G25+June!G25+July!G25+August!G25+September!G25+October!G25+November!G25+December!G25</f>
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <f>January!H25+February!H25+March!H25+April!H25+May!H25+June!H25+July!H25+August!H25+September!H25+October!H25+November!H25+December!H25</f>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="I25" s="7">
         <f>January!I25+February!I25+March!I25+April!I25+May!I25+June!I25+July!I25+August!I25+September!I25+October!I25+November!I25+December!I25</f>
-        <v>1530</v>
+        <v>1674</v>
       </c>
       <c r="J25" s="8">
         <f>January!J25+February!J25+March!J25+April!J25+May!J25+June!J25+July!J25+August!J25+September!J25+October!J25+November!J25+December!J25</f>
-        <v>1898</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B27" s="7">
         <f>January!B27+February!B27+March!B27+April!B27+May!B27+June!B27+July!B27+August!B27+September!B27+October!B27+November!B27+December!B27</f>
-        <v>4512</v>
+        <v>4920</v>
       </c>
       <c r="C27" s="7">
         <f>January!C27+February!C27+March!C27+April!C27+May!C27+June!C27+July!C27+August!C27+September!C27+October!C27+November!C27+December!C27</f>
@@ -2062,31 +2062,31 @@
       </c>
       <c r="D27" s="7">
         <f>January!D27+February!D27+March!D27+April!D27+May!D27+June!D27+July!D27+August!D27+September!D27+October!D27+November!D27+December!D27</f>
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E27" s="7">
         <f>January!E27+February!E27+March!E27+April!E27+May!E27+June!E27+July!E27+August!E27+September!E27+October!E27+November!E27+December!E27</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7">
         <f>January!F27+February!F27+March!F27+April!F27+May!F27+June!F27+July!F27+August!F27+September!F27+October!F27+November!F27+December!F27</f>
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G27" s="7">
         <f>January!G27+February!G27+March!G27+April!G27+May!G27+June!G27+July!G27+August!G27+September!G27+October!G27+November!G27+December!G27</f>
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="H27" s="7">
         <f>January!H27+February!H27+March!H27+April!H27+May!H27+June!H27+July!H27+August!H27+September!H27+October!H27+November!H27+December!H27</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="7">
         <f>January!I27+February!I27+March!I27+April!I27+May!I27+June!I27+July!I27+August!I27+September!I27+October!I27+November!I27+December!I27</f>
-        <v>2220</v>
+        <v>2428</v>
       </c>
       <c r="J27" s="8">
         <f>January!J27+February!J27+March!J27+April!J27+May!J27+June!J27+July!J27+August!J27+September!J27+October!J27+November!J27+December!J27</f>
-        <v>2292</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B28" s="10">
         <f>January!B28+February!B28+March!B28+April!B28+May!B28+June!B28+July!B28+August!B28+September!B28+October!B28+November!B28+December!B28</f>
-        <v>958</v>
+        <v>1008</v>
       </c>
       <c r="C28" s="10">
         <f>January!C28+February!C28+March!C28+April!C28+May!C28+June!C28+July!C28+August!C28+September!C28+October!C28+November!C28+December!C28</f>
@@ -2123,11 +2123,11 @@
       </c>
       <c r="I28" s="10">
         <f>January!I28+February!I28+March!I28+April!I28+May!I28+June!I28+July!I28+August!I28+September!I28+October!I28+November!I28+December!I28</f>
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="J28" s="11">
         <f>January!J28+February!J28+March!J28+April!J28+May!J28+June!J28+July!J28+August!J28+September!J28+October!J28+November!J28+December!J28</f>
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B29" s="7">
         <f>January!B29+February!B29+March!B29+April!B29+May!B29+June!B29+July!B29+August!B29+September!B29+October!B29+November!B29+December!B29</f>
-        <v>9716</v>
+        <v>10588</v>
       </c>
       <c r="C29" s="7">
         <f>January!C29+February!C29+March!C29+April!C29+May!C29+June!C29+July!C29+August!C29+September!C29+October!C29+November!C29+December!C29</f>
@@ -2144,19 +2144,19 @@
       </c>
       <c r="D29" s="7">
         <f>January!D29+February!D29+March!D29+April!D29+May!D29+June!D29+July!D29+August!D29+September!D29+October!D29+November!D29+December!D29</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="7">
         <f>January!E29+February!E29+March!E29+April!E29+May!E29+June!E29+July!E29+August!E29+September!E29+October!E29+November!E29+December!E29</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" s="7">
         <f>January!F29+February!F29+March!F29+April!F29+May!F29+June!F29+July!F29+August!F29+September!F29+October!F29+November!F29+December!F29</f>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G29" s="7">
         <f>January!G29+February!G29+March!G29+April!G29+May!G29+June!G29+July!G29+August!G29+September!G29+October!G29+November!G29+December!G29</f>
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <f>January!H29+February!H29+March!H29+April!H29+May!H29+June!H29+July!H29+August!H29+September!H29+October!H29+November!H29+December!H29</f>
@@ -2164,11 +2164,11 @@
       </c>
       <c r="I29" s="7">
         <f>January!I29+February!I29+March!I29+April!I29+May!I29+June!I29+July!I29+August!I29+September!I29+October!I29+November!I29+December!I29</f>
-        <v>3854</v>
+        <v>4140</v>
       </c>
       <c r="J29" s="8">
         <f>January!J29+February!J29+March!J29+April!J29+May!J29+June!J29+July!J29+August!J29+September!J29+October!J29+November!J29+December!J29</f>
-        <v>5862</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B30" s="10">
         <f>January!B30+February!B30+March!B30+April!B30+May!B30+June!B30+July!B30+August!B30+September!B30+October!B30+November!B30+December!B30</f>
-        <v>916</v>
+        <v>1012</v>
       </c>
       <c r="C30" s="10">
         <f>January!C30+February!C30+March!C30+April!C30+May!C30+June!C30+July!C30+August!C30+September!C30+October!C30+November!C30+December!C30</f>
@@ -2185,31 +2185,31 @@
       </c>
       <c r="D30" s="10">
         <f>January!D30+February!D30+March!D30+April!D30+May!D30+June!D30+July!D30+August!D30+September!D30+October!D30+November!D30+December!D30</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E30" s="10">
         <f>January!E30+February!E30+March!E30+April!E30+May!E30+June!E30+July!E30+August!E30+September!E30+October!E30+November!E30+December!E30</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="10">
         <f>January!F30+February!F30+March!F30+April!F30+May!F30+June!F30+July!F30+August!F30+September!F30+October!F30+November!F30+December!F30</f>
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G30" s="10">
         <f>January!G30+February!G30+March!G30+April!G30+May!G30+June!G30+July!G30+August!G30+September!G30+October!G30+November!G30+December!G30</f>
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H30" s="10">
         <f>January!H30+February!H30+March!H30+April!H30+May!H30+June!H30+July!H30+August!H30+September!H30+October!H30+November!H30+December!H30</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I30" s="10">
         <f>January!I30+February!I30+March!I30+April!I30+May!I30+June!I30+July!I30+August!I30+September!I30+October!I30+November!I30+December!I30</f>
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="J30" s="11">
         <f>January!J30+February!J30+March!J30+April!J30+May!J30+June!J30+July!J30+August!J30+September!J30+October!J30+November!J30+December!J30</f>
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B31" s="7">
         <f>January!B31+February!B31+March!B31+April!B31+May!B31+June!B31+July!B31+August!B31+September!B31+October!B31+November!B31+December!B31</f>
-        <v>1370</v>
+        <v>1444</v>
       </c>
       <c r="C31" s="7">
         <f>January!C31+February!C31+March!C31+April!C31+May!C31+June!C31+July!C31+August!C31+September!C31+October!C31+November!C31+December!C31</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D31" s="7">
         <f>January!D31+February!D31+March!D31+April!D31+May!D31+June!D31+July!D31+August!D31+September!D31+October!D31+November!D31+December!D31</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" s="7">
         <f>January!E31+February!E31+March!E31+April!E31+May!E31+June!E31+July!E31+August!E31+September!E31+October!E31+November!E31+December!E31</f>
@@ -2234,23 +2234,23 @@
       </c>
       <c r="F31" s="7">
         <f>January!F31+February!F31+March!F31+April!F31+May!F31+June!F31+July!F31+August!F31+September!F31+October!F31+November!F31+December!F31</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G31" s="7">
         <f>January!G31+February!G31+March!G31+April!G31+May!G31+June!G31+July!G31+August!G31+September!G31+October!G31+November!G31+December!G31</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H31" s="7">
         <f>January!H31+February!H31+March!H31+April!H31+May!H31+June!H31+July!H31+August!H31+September!H31+October!H31+November!H31+December!H31</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31" s="7">
         <f>January!I31+February!I31+March!I31+April!I31+May!I31+June!I31+July!I31+August!I31+September!I31+October!I31+November!I31+December!I31</f>
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="J31" s="8">
         <f>January!J31+February!J31+March!J31+April!J31+May!J31+June!J31+July!J31+August!J31+September!J31+October!J31+November!J31+December!J31</f>
-        <v>882</v>
+        <v>920</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B32" s="10">
         <f>January!B32+February!B32+March!B32+April!B32+May!B32+June!B32+July!B32+August!B32+September!B32+October!B32+November!B32+December!B32</f>
-        <v>12408</v>
+        <v>13476</v>
       </c>
       <c r="C32" s="10">
         <f>January!C32+February!C32+March!C32+April!C32+May!C32+June!C32+July!C32+August!C32+September!C32+October!C32+November!C32+December!C32</f>
@@ -2267,31 +2267,31 @@
       </c>
       <c r="D32" s="10">
         <f>January!D32+February!D32+March!D32+April!D32+May!D32+June!D32+July!D32+August!D32+September!D32+October!D32+November!D32+December!D32</f>
-        <v>1057</v>
+        <v>1144</v>
       </c>
       <c r="E32" s="10">
         <f>January!E32+February!E32+March!E32+April!E32+May!E32+June!E32+July!E32+August!E32+September!E32+October!E32+November!E32+December!E32</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F32" s="10">
         <f>January!F32+February!F32+March!F32+April!F32+May!F32+June!F32+July!F32+August!F32+September!F32+October!F32+November!F32+December!F32</f>
-        <v>800</v>
+        <v>925</v>
       </c>
       <c r="G32" s="10">
         <f>January!G32+February!G32+March!G32+April!G32+May!G32+June!G32+July!G32+August!G32+September!G32+October!G32+November!G32+December!G32</f>
-        <v>1930</v>
+        <v>2146</v>
       </c>
       <c r="H32" s="10">
         <f>January!H32+February!H32+March!H32+April!H32+May!H32+June!H32+July!H32+August!H32+September!H32+October!H32+November!H32+December!H32</f>
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="I32" s="10">
         <f>January!I32+February!I32+March!I32+April!I32+May!I32+June!I32+July!I32+August!I32+September!I32+October!I32+November!I32+December!I32</f>
-        <v>8178</v>
+        <v>8744</v>
       </c>
       <c r="J32" s="11">
         <f>January!J32+February!J32+March!J32+April!J32+May!J32+June!J32+July!J32+August!J32+September!J32+October!J32+November!J32+December!J32</f>
-        <v>4230</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B33" s="7">
         <f>January!B33+February!B33+March!B33+April!B33+May!B33+June!B33+July!B33+August!B33+September!B33+October!B33+November!B33+December!B33</f>
-        <v>10046</v>
+        <v>10698</v>
       </c>
       <c r="C33" s="7">
         <f>January!C33+February!C33+March!C33+April!C33+May!C33+June!C33+July!C33+August!C33+September!C33+October!C33+November!C33+December!C33</f>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="D33" s="7">
         <f>January!D33+February!D33+March!D33+April!D33+May!D33+June!D33+July!D33+August!D33+September!D33+October!D33+November!D33+December!D33</f>
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E33" s="7">
         <f>January!E33+February!E33+March!E33+April!E33+May!E33+June!E33+July!E33+August!E33+September!E33+October!E33+November!E33+December!E33</f>
@@ -2316,23 +2316,23 @@
       </c>
       <c r="F33" s="7">
         <f>January!F33+February!F33+March!F33+April!F33+May!F33+June!F33+July!F33+August!F33+September!F33+October!F33+November!F33+December!F33</f>
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="G33" s="7">
         <f>January!G33+February!G33+March!G33+April!G33+May!G33+June!G33+July!G33+August!G33+September!G33+October!G33+November!G33+December!G33</f>
-        <v>681</v>
+        <v>747</v>
       </c>
       <c r="H33" s="7">
         <f>January!H33+February!H33+March!H33+April!H33+May!H33+June!H33+July!H33+August!H33+September!H33+October!H33+November!H33+December!H33</f>
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I33" s="7">
         <f>January!I33+February!I33+March!I33+April!I33+May!I33+June!I33+July!I33+August!I33+September!I33+October!I33+November!I33+December!I33</f>
-        <v>6710</v>
+        <v>7048</v>
       </c>
       <c r="J33" s="8">
         <f>January!J33+February!J33+March!J33+April!J33+May!J33+June!J33+July!J33+August!J33+September!J33+October!J33+November!J33+December!J33</f>
-        <v>3336</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="B34" s="10">
         <f>January!B34+February!B34+March!B34+April!B34+May!B34+June!B34+July!B34+August!B34+September!B34+October!B34+November!B34+December!B34</f>
-        <v>4076</v>
+        <v>4326</v>
       </c>
       <c r="C34" s="10">
         <f>January!C34+February!C34+March!C34+April!C34+May!C34+June!C34+July!C34+August!C34+September!C34+October!C34+November!C34+December!C34</f>
@@ -2349,31 +2349,31 @@
       </c>
       <c r="D34" s="10">
         <f>January!D34+February!D34+March!D34+April!D34+May!D34+June!D34+July!D34+August!D34+September!D34+October!D34+November!D34+December!D34</f>
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="E34" s="10">
         <f>January!E34+February!E34+March!E34+April!E34+May!E34+June!E34+July!E34+August!E34+September!E34+October!E34+November!E34+December!E34</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34" s="10">
         <f>January!F34+February!F34+March!F34+April!F34+May!F34+June!F34+July!F34+August!F34+September!F34+October!F34+November!F34+December!F34</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G34" s="10">
         <f>January!G34+February!G34+March!G34+April!G34+May!G34+June!G34+July!G34+August!G34+September!G34+October!G34+November!G34+December!G34</f>
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="H34" s="10">
         <f>January!H34+February!H34+March!H34+April!H34+May!H34+June!H34+July!H34+August!H34+September!H34+October!H34+November!H34+December!H34</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I34" s="10">
         <f>January!I34+February!I34+March!I34+April!I34+May!I34+June!I34+July!I34+August!I34+September!I34+October!I34+November!I34+December!I34</f>
-        <v>2717</v>
+        <v>2833</v>
       </c>
       <c r="J34" s="11">
         <f>January!J34+February!J34+March!J34+April!J34+May!J34+June!J34+July!J34+August!J34+September!J34+October!J34+November!J34+December!J34</f>
-        <v>1359</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B35" s="7">
         <f>January!B35+February!B35+March!B35+April!B35+May!B35+June!B35+July!B35+August!B35+September!B35+October!B35+November!B35+December!B35</f>
-        <v>25410</v>
+        <v>27130</v>
       </c>
       <c r="C35" s="7">
         <f>January!C35+February!C35+March!C35+April!C35+May!C35+June!C35+July!C35+August!C35+September!C35+October!C35+November!C35+December!C35</f>
@@ -2390,19 +2390,19 @@
       </c>
       <c r="D35" s="7">
         <f>January!D35+February!D35+March!D35+April!D35+May!D35+June!D35+July!D35+August!D35+September!D35+October!D35+November!D35+December!D35</f>
-        <v>2149</v>
+        <v>2293</v>
       </c>
       <c r="E35" s="7">
         <f>January!E35+February!E35+March!E35+April!E35+May!E35+June!E35+July!E35+August!E35+September!E35+October!E35+November!E35+December!E35</f>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7">
         <f>January!F35+February!F35+March!F35+April!F35+May!F35+June!F35+July!F35+August!F35+September!F35+October!F35+November!F35+December!F35</f>
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="G35" s="7">
         <f>January!G35+February!G35+March!G35+April!G35+May!G35+June!G35+July!G35+August!G35+September!G35+October!G35+November!G35+December!G35</f>
-        <v>2793</v>
+        <v>2978</v>
       </c>
       <c r="H35" s="7">
         <f>January!H35+February!H35+March!H35+April!H35+May!H35+June!H35+July!H35+August!H35+September!H35+October!H35+November!H35+December!H35</f>
@@ -2410,11 +2410,11 @@
       </c>
       <c r="I35" s="7">
         <f>January!I35+February!I35+March!I35+April!I35+May!I35+June!I35+July!I35+August!I35+September!I35+October!I35+November!I35+December!I35</f>
-        <v>10596</v>
+        <v>11164</v>
       </c>
       <c r="J35" s="8">
         <f>January!J35+February!J35+March!J35+April!J35+May!J35+June!J35+July!J35+August!J35+September!J35+October!J35+November!J35+December!J35</f>
-        <v>14814</v>
+        <v>15966</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B36" s="10">
         <f>January!B36+February!B36+March!B36+April!B36+May!B36+June!B36+July!B36+August!B36+September!B36+October!B36+November!B36+December!B36</f>
-        <v>4402</v>
+        <v>4778</v>
       </c>
       <c r="C36" s="10">
         <f>January!C36+February!C36+March!C36+April!C36+May!C36+June!C36+July!C36+August!C36+September!C36+October!C36+November!C36+December!C36</f>
@@ -2431,31 +2431,31 @@
       </c>
       <c r="D36" s="10">
         <f>January!D36+February!D36+March!D36+April!D36+May!D36+June!D36+July!D36+August!D36+September!D36+October!D36+November!D36+December!D36</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" s="10">
         <f>January!E36+February!E36+March!E36+April!E36+May!E36+June!E36+July!E36+August!E36+September!E36+October!E36+November!E36+December!E36</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F36" s="10">
         <f>January!F36+February!F36+March!F36+April!F36+May!F36+June!F36+July!F36+August!F36+September!F36+October!F36+November!F36+December!F36</f>
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G36" s="10">
         <f>January!G36+February!G36+March!G36+April!G36+May!G36+June!G36+July!G36+August!G36+September!G36+October!G36+November!G36+December!G36</f>
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="H36" s="10">
         <f>January!H36+February!H36+March!H36+April!H36+May!H36+June!H36+July!H36+August!H36+September!H36+October!H36+November!H36+December!H36</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I36" s="10">
         <f>January!I36+February!I36+March!I36+April!I36+May!I36+June!I36+July!I36+August!I36+September!I36+October!I36+November!I36+December!I36</f>
-        <v>2130</v>
+        <v>2278</v>
       </c>
       <c r="J36" s="11">
         <f>January!J36+February!J36+March!J36+April!J36+May!J36+June!J36+July!J36+August!J36+September!J36+October!J36+November!J36+December!J36</f>
-        <v>2272</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B37" s="7">
         <f>January!B37+February!B37+March!B37+April!B37+May!B37+June!B37+July!B37+August!B37+September!B37+October!B37+November!B37+December!B37</f>
-        <v>12196</v>
+        <v>12980</v>
       </c>
       <c r="C37" s="7">
         <f>January!C37+February!C37+March!C37+April!C37+May!C37+June!C37+July!C37+August!C37+September!C37+October!C37+November!C37+December!C37</f>
@@ -2472,19 +2472,19 @@
       </c>
       <c r="D37" s="7">
         <f>January!D37+February!D37+March!D37+April!D37+May!D37+June!D37+July!D37+August!D37+September!D37+October!D37+November!D37+December!D37</f>
-        <v>1385</v>
+        <v>1513</v>
       </c>
       <c r="E37" s="7">
         <f>January!E37+February!E37+March!E37+April!E37+May!E37+June!E37+July!E37+August!E37+September!E37+October!E37+November!E37+December!E37</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37" s="7">
         <f>January!F37+February!F37+March!F37+April!F37+May!F37+June!F37+July!F37+August!F37+September!F37+October!F37+November!F37+December!F37</f>
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="G37" s="7">
         <f>January!G37+February!G37+March!G37+April!G37+May!G37+June!G37+July!G37+August!G37+September!G37+October!G37+November!G37+December!G37</f>
-        <v>1782</v>
+        <v>1937</v>
       </c>
       <c r="H37" s="7">
         <f>January!H37+February!H37+March!H37+April!H37+May!H37+June!H37+July!H37+August!H37+September!H37+October!H37+November!H37+December!H37</f>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="I37" s="7">
         <f>January!I37+February!I37+March!I37+April!I37+May!I37+June!I37+July!I37+August!I37+September!I37+October!I37+November!I37+December!I37</f>
-        <v>6728</v>
+        <v>7116</v>
       </c>
       <c r="J37" s="8">
         <f>January!J37+February!J37+March!J37+April!J37+May!J37+June!J37+July!J37+August!J37+September!J37+October!J37+November!J37+December!J37</f>
-        <v>5468</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B38" s="10">
         <f>January!B38+February!B38+March!B38+April!B38+May!B38+June!B38+July!B38+August!B38+September!B38+October!B38+November!B38+December!B38</f>
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C38" s="10">
         <f>January!C38+February!C38+March!C38+April!C38+May!C38+June!C38+July!C38+August!C38+September!C38+October!C38+November!C38+December!C38</f>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="I38" s="10">
         <f>January!I38+February!I38+March!I38+April!I38+May!I38+June!I38+July!I38+August!I38+September!I38+October!I38+November!I38+December!I38</f>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J38" s="11">
         <f>January!J38+February!J38+March!J38+April!J38+May!J38+June!J38+July!J38+August!J38+September!J38+October!J38+November!J38+December!J38</f>
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B39" s="7">
         <f>January!B39+February!B39+March!B39+April!B39+May!B39+June!B39+July!B39+August!B39+September!B39+October!B39+November!B39+December!B39</f>
-        <v>2211</v>
+        <v>2369</v>
       </c>
       <c r="C39" s="7">
         <f>January!C39+February!C39+March!C39+April!C39+May!C39+June!C39+July!C39+August!C39+September!C39+October!C39+November!C39+December!C39</f>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D39" s="7">
         <f>January!D39+February!D39+March!D39+April!D39+May!D39+June!D39+July!D39+August!D39+September!D39+October!D39+November!D39+December!D39</f>
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E39" s="7">
         <f>January!E39+February!E39+March!E39+April!E39+May!E39+June!E39+July!E39+August!E39+September!E39+October!E39+November!E39+December!E39</f>
@@ -2562,11 +2562,11 @@
       </c>
       <c r="F39" s="7">
         <f>January!F39+February!F39+March!F39+April!F39+May!F39+June!F39+July!F39+August!F39+September!F39+October!F39+November!F39+December!F39</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G39" s="7">
         <f>January!G39+February!G39+March!G39+April!G39+May!G39+June!G39+July!G39+August!G39+September!G39+October!G39+November!G39+December!G39</f>
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="H39" s="7">
         <f>January!H39+February!H39+March!H39+April!H39+May!H39+June!H39+July!H39+August!H39+September!H39+October!H39+November!H39+December!H39</f>
@@ -2574,11 +2574,11 @@
       </c>
       <c r="I39" s="7">
         <f>January!I39+February!I39+March!I39+April!I39+May!I39+June!I39+July!I39+August!I39+September!I39+October!I39+November!I39+December!I39</f>
-        <v>694</v>
+        <v>754</v>
       </c>
       <c r="J39" s="8">
         <f>January!J39+February!J39+March!J39+April!J39+May!J39+June!J39+July!J39+August!J39+September!J39+October!J39+November!J39+December!J39</f>
-        <v>1517</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B40" s="19">
         <f>January!B40+February!B40+March!B40+April!B40+May!B40+June!B40+July!B40+August!B40+September!B40+October!B40+November!B40+December!B40</f>
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="C40" s="19">
         <f>January!C40+February!C40+March!C40+April!C40+May!C40+June!C40+July!C40+August!C40+September!C40+October!C40+November!C40+December!C40</f>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D40" s="19">
         <f>January!D40+February!D40+March!D40+April!D40+May!D40+June!D40+July!D40+August!D40+September!D40+October!D40+November!D40+December!D40</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" s="19">
         <f>January!E40+February!E40+March!E40+April!E40+May!E40+June!E40+July!E40+August!E40+September!E40+October!E40+November!E40+December!E40</f>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G40" s="19">
         <f>January!G40+February!G40+March!G40+April!G40+May!G40+June!G40+July!G40+August!G40+September!G40+October!G40+November!G40+December!G40</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H40" s="19">
         <f>January!H40+February!H40+March!H40+April!H40+May!H40+June!H40+July!H40+August!H40+September!H40+October!H40+November!H40+December!H40</f>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="I40" s="19">
         <f>January!I40+February!I40+March!I40+April!I40+May!I40+June!I40+July!I40+August!I40+September!I40+October!I40+November!I40+December!I40</f>
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="J40" s="20">
         <f>January!J40+February!J40+March!J40+April!J40+May!J40+June!J40+July!J40+August!J40+September!J40+October!J40+November!J40+December!J40</f>
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B41" s="22">
         <f>January!B41+February!B41+March!B41+April!B41+May!B41+June!B41+July!B41+August!B41+September!B41+October!B41+November!B41+December!B41</f>
-        <v>1092</v>
+        <v>1202</v>
       </c>
       <c r="C41" s="22">
         <f>January!C41+February!C41+March!C41+April!C41+May!C41+June!C41+July!C41+August!C41+September!C41+October!C41+November!C41+December!C41</f>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="D41" s="22">
         <f>January!D41+February!D41+March!D41+April!D41+May!D41+June!D41+July!D41+August!D41+September!D41+October!D41+November!D41+December!D41</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E41" s="22">
         <f>January!E41+February!E41+March!E41+April!E41+May!E41+June!E41+July!E41+August!E41+September!E41+October!E41+November!E41+December!E41</f>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="G41" s="22">
         <f>January!G41+February!G41+March!G41+April!G41+May!G41+June!G41+July!G41+August!G41+September!G41+October!G41+November!G41+December!G41</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H41" s="22">
         <f>January!H41+February!H41+March!H41+April!H41+May!H41+June!H41+July!H41+August!H41+September!H41+October!H41+November!H41+December!H41</f>
@@ -2656,11 +2656,11 @@
       </c>
       <c r="I41" s="22">
         <f>January!I41+February!I41+March!I41+April!I41+May!I41+June!I41+July!I41+August!I41+September!I41+October!I41+November!I41+December!I41</f>
-        <v>958</v>
+        <v>1008</v>
       </c>
       <c r="J41" s="23">
         <f>January!J41+February!J41+March!J41+April!J41+May!J41+June!J41+July!J41+August!J41+September!J41+October!J41+November!J41+December!J41</f>
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B42" s="19">
         <f>January!B42+February!B42+March!B42+April!B42+May!B42+June!B42+July!B42+August!B42+September!B42+October!B42+November!B42+December!B42</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C42" s="19">
         <f>January!C42+February!C42+March!C42+April!C42+May!C42+June!C42+July!C42+August!C42+September!C42+October!C42+November!C42+December!C42</f>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="J42" s="20">
         <f>January!J42+February!J42+March!J42+April!J42+May!J42+June!J42+July!J42+August!J42+September!J42+October!J42+November!J42+December!J42</f>
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B43" s="22">
         <f>January!B43+February!B43+March!B43+April!B43+May!B43+June!B43+July!B43+August!B43+September!B43+October!B43+November!B43+December!B43</f>
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C43" s="22">
         <f>January!C43+February!C43+March!C43+April!C43+May!C43+June!C43+July!C43+August!C43+September!C43+October!C43+November!C43+December!C43</f>
@@ -2726,11 +2726,11 @@
       </c>
       <c r="F43" s="22">
         <f>January!F43+February!F43+March!F43+April!F43+May!F43+June!F43+July!F43+August!F43+September!F43+October!F43+November!F43+December!F43</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" s="22">
         <f>January!G43+February!G43+March!G43+April!G43+May!G43+June!G43+July!G43+August!G43+September!G43+October!G43+November!G43+December!G43</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H43" s="22">
         <f>January!H43+February!H43+March!H43+April!H43+May!H43+June!H43+July!H43+August!H43+September!H43+October!H43+November!H43+December!H43</f>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="I43" s="22">
         <f>January!I43+February!I43+March!I43+April!I43+May!I43+June!I43+July!I43+August!I43+September!I43+October!I43+November!I43+December!I43</f>
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J43" s="23">
         <f>January!J43+February!J43+March!J43+April!J43+May!J43+June!J43+July!J43+August!J43+September!J43+October!J43+November!J43+December!J43</f>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B45" s="7">
         <f>January!B45+February!B45+March!B45+April!B45+May!B45+June!B45+July!B45+August!B45+September!B45+October!B45+November!B45+December!B45</f>
-        <v>1586</v>
+        <v>1820</v>
       </c>
       <c r="C45" s="7">
         <f>January!C45+February!C45+March!C45+April!C45+May!C45+June!C45+July!C45+August!C45+September!C45+October!C45+November!C45+December!C45</f>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="D45" s="7">
         <f>January!D45+February!D45+March!D45+April!D45+May!D45+June!D45+July!D45+August!D45+September!D45+October!D45+November!D45+December!D45</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45" s="7">
         <f>January!E45+February!E45+March!E45+April!E45+May!E45+June!E45+July!E45+August!E45+September!E45+October!E45+November!E45+December!E45</f>
@@ -2808,11 +2808,11 @@
       </c>
       <c r="F45" s="7">
         <f>January!F45+February!F45+March!F45+April!F45+May!F45+June!F45+July!F45+August!F45+September!F45+October!F45+November!F45+December!F45</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G45" s="7">
         <f>January!G45+February!G45+March!G45+April!G45+May!G45+June!G45+July!G45+August!G45+September!G45+October!G45+November!G45+December!G45</f>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H45" s="7">
         <f>January!H45+February!H45+March!H45+April!H45+May!H45+June!H45+July!H45+August!H45+September!H45+October!H45+November!H45+December!H45</f>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="I45" s="7">
         <f>January!I45+February!I45+March!I45+April!I45+May!I45+June!I45+July!I45+August!I45+September!I45+October!I45+November!I45+December!I45</f>
-        <v>855</v>
+        <v>935</v>
       </c>
       <c r="J45" s="8">
         <f>January!J45+February!J45+March!J45+April!J45+May!J45+June!J45+July!J45+August!J45+September!J45+October!J45+November!J45+December!J45</f>
-        <v>731</v>
+        <v>885</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B46" s="10">
         <f>January!B46+February!B46+March!B46+April!B46+May!B46+June!B46+July!B46+August!B46+September!B46+October!B46+November!B46+December!B46</f>
-        <v>8572</v>
+        <v>9132</v>
       </c>
       <c r="C46" s="10">
         <f>January!C46+February!C46+March!C46+April!C46+May!C46+June!C46+July!C46+August!C46+September!C46+October!C46+November!C46+December!C46</f>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="D46" s="10">
         <f>January!D46+February!D46+March!D46+April!D46+May!D46+June!D46+July!D46+August!D46+September!D46+October!D46+November!D46+December!D46</f>
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="E46" s="10">
         <f>January!E46+February!E46+March!E46+April!E46+May!E46+June!E46+July!E46+August!E46+September!E46+October!E46+November!E46+December!E46</f>
@@ -2849,11 +2849,11 @@
       </c>
       <c r="F46" s="10">
         <f>January!F46+February!F46+March!F46+April!F46+May!F46+June!F46+July!F46+August!F46+September!F46+October!F46+November!F46+December!F46</f>
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G46" s="10">
         <f>January!G46+February!G46+March!G46+April!G46+May!G46+June!G46+July!G46+August!G46+September!G46+October!G46+November!G46+December!G46</f>
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="H46" s="10">
         <f>January!H46+February!H46+March!H46+April!H46+May!H46+June!H46+July!H46+August!H46+September!H46+October!H46+November!H46+December!H46</f>
@@ -2861,11 +2861,11 @@
       </c>
       <c r="I46" s="10">
         <f>January!I46+February!I46+March!I46+April!I46+May!I46+June!I46+July!I46+August!I46+September!I46+October!I46+November!I46+December!I46</f>
-        <v>5028</v>
+        <v>5302</v>
       </c>
       <c r="J46" s="11">
         <f>January!J46+February!J46+March!J46+April!J46+May!J46+June!J46+July!J46+August!J46+September!J46+October!J46+November!J46+December!J46</f>
-        <v>3544</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B47" s="7">
         <f>January!B47+February!B47+March!B47+April!B47+May!B47+June!B47+July!B47+August!B47+September!B47+October!B47+November!B47+December!B47</f>
-        <v>15846</v>
+        <v>16998</v>
       </c>
       <c r="C47" s="7">
         <f>January!C47+February!C47+March!C47+April!C47+May!C47+June!C47+July!C47+August!C47+September!C47+October!C47+November!C47+December!C47</f>
@@ -2882,31 +2882,31 @@
       </c>
       <c r="D47" s="7">
         <f>January!D47+February!D47+March!D47+April!D47+May!D47+June!D47+July!D47+August!D47+September!D47+October!D47+November!D47+December!D47</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47" s="7">
         <f>January!E47+February!E47+March!E47+April!E47+May!E47+June!E47+July!E47+August!E47+September!E47+October!E47+November!E47+December!E47</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F47" s="7">
         <f>January!F47+February!F47+March!F47+April!F47+May!F47+June!F47+July!F47+August!F47+September!F47+October!F47+November!F47+December!F47</f>
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G47" s="7">
         <f>January!G47+February!G47+March!G47+April!G47+May!G47+June!G47+July!G47+August!G47+September!G47+October!G47+November!G47+December!G47</f>
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="H47" s="7">
         <f>January!H47+February!H47+March!H47+April!H47+May!H47+June!H47+July!H47+August!H47+September!H47+October!H47+November!H47+December!H47</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I47" s="7">
         <f>January!I47+February!I47+March!I47+April!I47+May!I47+June!I47+July!I47+August!I47+September!I47+October!I47+November!I47+December!I47</f>
-        <v>4580</v>
+        <v>4908</v>
       </c>
       <c r="J47" s="8">
         <f>January!J47+February!J47+March!J47+April!J47+May!J47+June!J47+July!J47+August!J47+September!J47+October!J47+November!J47+December!J47</f>
-        <v>11266</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="B48" s="10">
         <f>January!B48+February!B48+March!B48+April!B48+May!B48+June!B48+July!B48+August!B48+September!B48+October!B48+November!B48+December!B48</f>
-        <v>4906</v>
+        <v>5274</v>
       </c>
       <c r="C48" s="10">
         <f>January!C48+February!C48+March!C48+April!C48+May!C48+June!C48+July!C48+August!C48+September!C48+October!C48+November!C48+December!C48</f>
@@ -2923,31 +2923,31 @@
       </c>
       <c r="D48" s="10">
         <f>January!D48+February!D48+March!D48+April!D48+May!D48+June!D48+July!D48+August!D48+September!D48+October!D48+November!D48+December!D48</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="10">
         <f>January!E48+February!E48+March!E48+April!E48+May!E48+June!E48+July!E48+August!E48+September!E48+October!E48+November!E48+December!E48</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" s="10">
         <f>January!F48+February!F48+March!F48+April!F48+May!F48+June!F48+July!F48+August!F48+September!F48+October!F48+November!F48+December!F48</f>
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G48" s="10">
         <f>January!G48+February!G48+March!G48+April!G48+May!G48+June!G48+July!G48+August!G48+September!G48+October!G48+November!G48+December!G48</f>
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="H48" s="10">
         <f>January!H48+February!H48+March!H48+April!H48+May!H48+June!H48+July!H48+August!H48+September!H48+October!H48+November!H48+December!H48</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I48" s="10">
         <f>January!I48+February!I48+March!I48+April!I48+May!I48+June!I48+July!I48+August!I48+September!I48+October!I48+November!I48+December!I48</f>
-        <v>1892</v>
+        <v>1988</v>
       </c>
       <c r="J48" s="11">
         <f>January!J48+February!J48+March!J48+April!J48+May!J48+June!J48+July!J48+August!J48+September!J48+October!J48+November!J48+December!J48</f>
-        <v>3014</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B49" s="7">
         <f>January!B49+February!B49+March!B49+April!B49+May!B49+June!B49+July!B49+August!B49+September!B49+October!B49+November!B49+December!B49</f>
-        <v>6642</v>
+        <v>7242</v>
       </c>
       <c r="C49" s="7">
         <f>January!C49+February!C49+March!C49+April!C49+May!C49+June!C49+July!C49+August!C49+September!C49+October!C49+November!C49+December!C49</f>
@@ -2964,19 +2964,19 @@
       </c>
       <c r="D49" s="7">
         <f>January!D49+February!D49+March!D49+April!D49+May!D49+June!D49+July!D49+August!D49+September!D49+October!D49+November!D49+December!D49</f>
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E49" s="7">
         <f>January!E49+February!E49+March!E49+April!E49+May!E49+June!E49+July!E49+August!E49+September!E49+October!E49+November!E49+December!E49</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F49" s="7">
         <f>January!F49+February!F49+March!F49+April!F49+May!F49+June!F49+July!F49+August!F49+September!F49+October!F49+November!F49+December!F49</f>
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G49" s="7">
         <f>January!G49+February!G49+March!G49+April!G49+May!G49+June!G49+July!G49+August!G49+September!G49+October!G49+November!G49+December!G49</f>
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="H49" s="7">
         <f>January!H49+February!H49+March!H49+April!H49+May!H49+June!H49+July!H49+August!H49+September!H49+October!H49+November!H49+December!H49</f>
@@ -2984,11 +2984,11 @@
       </c>
       <c r="I49" s="7">
         <f>January!I49+February!I49+March!I49+April!I49+May!I49+June!I49+July!I49+August!I49+September!I49+October!I49+November!I49+December!I49</f>
-        <v>3018</v>
+        <v>3256</v>
       </c>
       <c r="J49" s="8">
         <f>January!J49+February!J49+March!J49+April!J49+May!J49+June!J49+July!J49+August!J49+September!J49+October!J49+November!J49+December!J49</f>
-        <v>3624</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B50" s="10">
         <f>January!B50+February!B50+March!B50+April!B50+May!B50+June!B50+July!B50+August!B50+September!B50+October!B50+November!B50+December!B50</f>
-        <v>19452</v>
+        <v>21166</v>
       </c>
       <c r="C50" s="10">
         <f>January!C50+February!C50+March!C50+April!C50+May!C50+June!C50+July!C50+August!C50+September!C50+October!C50+November!C50+December!C50</f>
@@ -3005,31 +3005,31 @@
       </c>
       <c r="D50" s="10">
         <f>January!D50+February!D50+March!D50+April!D50+May!D50+June!D50+July!D50+August!D50+September!D50+October!D50+November!D50+December!D50</f>
-        <v>649</v>
+        <v>721</v>
       </c>
       <c r="E50" s="10">
         <f>January!E50+February!E50+March!E50+April!E50+May!E50+June!E50+July!E50+August!E50+September!E50+October!E50+November!E50+December!E50</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F50" s="10">
         <f>January!F50+February!F50+March!F50+April!F50+May!F50+June!F50+July!F50+August!F50+September!F50+October!F50+November!F50+December!F50</f>
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="G50" s="10">
         <f>January!G50+February!G50+March!G50+April!G50+May!G50+June!G50+July!G50+August!G50+September!G50+October!G50+November!G50+December!G50</f>
-        <v>1209</v>
+        <v>1325</v>
       </c>
       <c r="H50" s="10">
         <f>January!H50+February!H50+March!H50+April!H50+May!H50+June!H50+July!H50+August!H50+September!H50+October!H50+November!H50+December!H50</f>
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I50" s="10">
         <f>January!I50+February!I50+March!I50+April!I50+May!I50+June!I50+July!I50+August!I50+September!I50+October!I50+November!I50+December!I50</f>
-        <v>8064</v>
+        <v>8622</v>
       </c>
       <c r="J50" s="11">
         <f>January!J50+February!J50+March!J50+April!J50+May!J50+June!J50+July!J50+August!J50+September!J50+October!J50+November!J50+December!J50</f>
-        <v>11388</v>
+        <v>12544</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B51" s="7">
         <f>January!B51+February!B51+March!B51+April!B51+May!B51+June!B51+July!B51+August!B51+September!B51+October!B51+November!B51+December!B51</f>
-        <v>3866</v>
+        <v>4126</v>
       </c>
       <c r="C51" s="7">
         <f>January!C51+February!C51+March!C51+April!C51+May!C51+June!C51+July!C51+August!C51+September!C51+October!C51+November!C51+December!C51</f>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D51" s="7">
         <f>January!D51+February!D51+March!D51+April!D51+May!D51+June!D51+July!D51+August!D51+September!D51+October!D51+November!D51+December!D51</f>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E51" s="7">
         <f>January!E51+February!E51+March!E51+April!E51+May!E51+June!E51+July!E51+August!E51+September!E51+October!E51+November!E51+December!E51</f>
@@ -3054,11 +3054,11 @@
       </c>
       <c r="F51" s="7">
         <f>January!F51+February!F51+March!F51+April!F51+May!F51+June!F51+July!F51+August!F51+September!F51+October!F51+November!F51+December!F51</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G51" s="7">
         <f>January!G51+February!G51+March!G51+April!G51+May!G51+June!G51+July!G51+August!G51+September!G51+October!G51+November!G51+December!G51</f>
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H51" s="7">
         <f>January!H51+February!H51+March!H51+April!H51+May!H51+June!H51+July!H51+August!H51+September!H51+October!H51+November!H51+December!H51</f>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="I51" s="7">
         <f>January!I51+February!I51+March!I51+April!I51+May!I51+June!I51+July!I51+August!I51+September!I51+October!I51+November!I51+December!I51</f>
-        <v>1698</v>
+        <v>1786</v>
       </c>
       <c r="J51" s="8">
         <f>January!J51+February!J51+March!J51+April!J51+May!J51+June!J51+July!J51+August!J51+September!J51+October!J51+November!J51+December!J51</f>
-        <v>2168</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="B52" s="10">
         <f>January!B52+February!B52+March!B52+April!B52+May!B52+June!B52+July!B52+August!B52+September!B52+October!B52+November!B52+December!B52</f>
-        <v>8918</v>
+        <v>9488</v>
       </c>
       <c r="C52" s="10">
         <f>January!C52+February!C52+March!C52+April!C52+May!C52+June!C52+July!C52+August!C52+September!C52+October!C52+November!C52+December!C52</f>
@@ -3087,31 +3087,31 @@
       </c>
       <c r="D52" s="10">
         <f>January!D52+February!D52+March!D52+April!D52+May!D52+June!D52+July!D52+August!D52+September!D52+October!D52+November!D52+December!D52</f>
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="E52" s="10">
         <f>January!E52+February!E52+March!E52+April!E52+May!E52+June!E52+July!E52+August!E52+September!E52+October!E52+November!E52+December!E52</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F52" s="10">
         <f>January!F52+February!F52+March!F52+April!F52+May!F52+June!F52+July!F52+August!F52+September!F52+October!F52+November!F52+December!F52</f>
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="G52" s="10">
         <f>January!G52+February!G52+March!G52+April!G52+May!G52+June!G52+July!G52+August!G52+September!G52+October!G52+November!G52+December!G52</f>
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="H52" s="10">
         <f>January!H52+February!H52+March!H52+April!H52+May!H52+June!H52+July!H52+August!H52+September!H52+October!H52+November!H52+December!H52</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I52" s="10">
         <f>January!I52+February!I52+March!I52+April!I52+May!I52+June!I52+July!I52+August!I52+September!I52+October!I52+November!I52+December!I52</f>
-        <v>4788</v>
+        <v>4996</v>
       </c>
       <c r="J52" s="11">
         <f>January!J52+February!J52+March!J52+April!J52+May!J52+June!J52+July!J52+August!J52+September!J52+October!J52+November!J52+December!J52</f>
-        <v>4130</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B53" s="7">
         <f>January!B53+February!B53+March!B53+April!B53+May!B53+June!B53+July!B53+August!B53+September!B53+October!B53+November!B53+December!B53</f>
-        <v>2346</v>
+        <v>2542</v>
       </c>
       <c r="C53" s="7">
         <f>January!C53+February!C53+March!C53+April!C53+May!C53+June!C53+July!C53+August!C53+September!C53+October!C53+November!C53+December!C53</f>
@@ -3128,11 +3128,11 @@
       </c>
       <c r="D53" s="7">
         <f>January!D53+February!D53+March!D53+April!D53+May!D53+June!D53+July!D53+August!D53+September!D53+October!D53+November!D53+December!D53</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E53" s="7">
         <f>January!E53+February!E53+March!E53+April!E53+May!E53+June!E53+July!E53+August!E53+September!E53+October!E53+November!E53+December!E53</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" s="7">
         <f>January!F53+February!F53+March!F53+April!F53+May!F53+June!F53+July!F53+August!F53+September!F53+October!F53+November!F53+December!F53</f>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="G53" s="7">
         <f>January!G53+February!G53+March!G53+April!G53+May!G53+June!G53+July!G53+August!G53+September!G53+October!G53+November!G53+December!G53</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H53" s="7">
         <f>January!H53+February!H53+March!H53+April!H53+May!H53+June!H53+July!H53+August!H53+September!H53+October!H53+November!H53+December!H53</f>
@@ -3148,11 +3148,11 @@
       </c>
       <c r="I53" s="7">
         <f>January!I53+February!I53+March!I53+April!I53+May!I53+June!I53+July!I53+August!I53+September!I53+October!I53+November!I53+December!I53</f>
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="J53" s="8">
         <f>January!J53+February!J53+March!J53+April!J53+May!J53+June!J53+July!J53+August!J53+September!J53+October!J53+November!J53+December!J53</f>
-        <v>1690</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B54" s="10">
         <f>January!B54+February!B54+March!B54+April!B54+May!B54+June!B54+July!B54+August!B54+September!B54+October!B54+November!B54+December!B54</f>
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="C54" s="10">
         <f>January!C54+February!C54+March!C54+April!C54+May!C54+June!C54+July!C54+August!C54+September!C54+October!C54+November!C54+December!C54</f>
@@ -3177,11 +3177,11 @@
       </c>
       <c r="F54" s="10">
         <f>January!F54+February!F54+March!F54+April!F54+May!F54+June!F54+July!F54+August!F54+September!F54+October!F54+November!F54+December!F54</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54" s="10">
         <f>January!G54+February!G54+March!G54+April!G54+May!G54+June!G54+July!G54+August!G54+September!G54+October!G54+November!G54+December!G54</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H54" s="10">
         <f>January!H54+February!H54+March!H54+April!H54+May!H54+June!H54+July!H54+August!H54+September!H54+October!H54+November!H54+December!H54</f>
@@ -3189,11 +3189,11 @@
       </c>
       <c r="I54" s="10">
         <f>January!I54+February!I54+March!I54+April!I54+May!I54+June!I54+July!I54+August!I54+September!I54+October!I54+November!I54+December!I54</f>
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="J54" s="11">
         <f>January!J54+February!J54+March!J54+April!J54+May!J54+June!J54+July!J54+August!J54+September!J54+October!J54+November!J54+December!J54</f>
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B55" s="7">
         <f>January!B55+February!B55+March!B55+April!B55+May!B55+June!B55+July!B55+August!B55+September!B55+October!B55+November!B55+December!B55</f>
-        <v>4980</v>
+        <v>5438</v>
       </c>
       <c r="C55" s="7">
         <f>January!C55+February!C55+March!C55+April!C55+May!C55+June!C55+July!C55+August!C55+September!C55+October!C55+November!C55+December!C55</f>
@@ -3210,19 +3210,19 @@
       </c>
       <c r="D55" s="7">
         <f>January!D55+February!D55+March!D55+April!D55+May!D55+June!D55+July!D55+August!D55+September!D55+October!D55+November!D55+December!D55</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E55" s="7">
         <f>January!E55+February!E55+March!E55+April!E55+May!E55+June!E55+July!E55+August!E55+September!E55+October!E55+November!E55+December!E55</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="7">
         <f>January!F55+February!F55+March!F55+April!F55+May!F55+June!F55+July!F55+August!F55+September!F55+October!F55+November!F55+December!F55</f>
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G55" s="7">
         <f>January!G55+February!G55+March!G55+April!G55+May!G55+June!G55+July!G55+August!G55+September!G55+October!G55+November!G55+December!G55</f>
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H55" s="7">
         <f>January!H55+February!H55+March!H55+April!H55+May!H55+June!H55+July!H55+August!H55+September!H55+October!H55+November!H55+December!H55</f>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="I55" s="7">
         <f>January!I55+February!I55+March!I55+April!I55+May!I55+June!I55+July!I55+August!I55+September!I55+October!I55+November!I55+December!I55</f>
-        <v>1742</v>
+        <v>1874</v>
       </c>
       <c r="J55" s="8">
         <f>January!J55+February!J55+March!J55+April!J55+May!J55+June!J55+July!J55+August!J55+September!J55+October!J55+November!J55+December!J55</f>
-        <v>3238</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B56" s="25">
         <f>SUM(B12:B15)</f>
-        <v>10998</v>
+        <v>11892</v>
       </c>
       <c r="C56" s="25">
         <f t="shared" ref="C56:J56" si="0">SUM(C12:C15)</f>
@@ -3251,31 +3251,31 @@
       </c>
       <c r="D56" s="25">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="E56" s="25">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F56" s="25">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="G56" s="25">
         <f t="shared" si="0"/>
-        <v>658</v>
+        <v>762</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I56" s="25">
         <f t="shared" si="0"/>
-        <v>7542</v>
+        <v>7908</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="0"/>
-        <v>3456</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B57" s="27">
         <f>SUM(B40:B44)</f>
-        <v>1866</v>
+        <v>2007</v>
       </c>
       <c r="C57" s="27">
         <f t="shared" ref="C57:J57" si="1">SUM(C40:C44)</f>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="D57" s="27">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
@@ -3300,11 +3300,11 @@
       </c>
       <c r="F57" s="27">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G57" s="27">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H57" s="27">
         <f t="shared" si="1"/>
@@ -3312,11 +3312,11 @@
       </c>
       <c r="I57" s="27">
         <f t="shared" si="1"/>
-        <v>1533</v>
+        <v>1593</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>333</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B58" s="29">
         <f>SUM(B2:B55)</f>
-        <v>398128</v>
+        <v>428180</v>
       </c>
       <c r="C58" s="29">
         <f t="shared" ref="C58:J58" si="2">SUM(C2:C55)</f>
@@ -3333,31 +3333,31 @@
       </c>
       <c r="D58" s="29">
         <f t="shared" si="2"/>
-        <v>18842</v>
+        <v>20344</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="2"/>
-        <v>1340</v>
+        <v>1429</v>
       </c>
       <c r="F58" s="29">
         <f t="shared" si="2"/>
-        <v>10231</v>
+        <v>11180</v>
       </c>
       <c r="G58" s="29">
         <f t="shared" si="2"/>
-        <v>30413</v>
+        <v>32953</v>
       </c>
       <c r="H58" s="29">
         <f t="shared" si="2"/>
-        <v>1587</v>
+        <v>1723</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="2"/>
-        <v>160540</v>
+        <v>170349</v>
       </c>
       <c r="J58" s="30">
         <f t="shared" si="2"/>
-        <v>237588</v>
+        <v>257831</v>
       </c>
     </row>
   </sheetData>
@@ -34990,7 +34990,7 @@
       </c>
       <c r="B2" s="4">
         <f>DecemberRaw!B2</f>
-        <v>0</v>
+        <v>2126</v>
       </c>
       <c r="C2" s="4">
         <f>DecemberRaw!C2</f>
@@ -34998,31 +34998,31 @@
       </c>
       <c r="D2" s="4">
         <f>DecemberRaw!D2</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4">
         <f>DecemberRaw!E2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4">
         <f>DecemberRaw!F2</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4">
         <f>DecemberRaw!G2</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="H2" s="4">
         <f>DecemberRaw!H2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="4">
         <f>DecemberRaw!I2</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="J2" s="5">
         <f>DecemberRaw!J2</f>
-        <v>0</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -35031,7 +35031,7 @@
       </c>
       <c r="B3" s="7">
         <f>DecemberRaw!B3</f>
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="C3" s="7">
         <f>DecemberRaw!C3</f>
@@ -35039,31 +35039,31 @@
       </c>
       <c r="D3" s="7">
         <f>DecemberRaw!D3</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E3" s="7">
         <f>DecemberRaw!E3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7">
         <f>DecemberRaw!F3</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G3" s="7">
         <f>DecemberRaw!G3</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H3" s="7">
         <f>DecemberRaw!H3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <f>DecemberRaw!I3</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="J3" s="8">
         <f>DecemberRaw!J3</f>
-        <v>0</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -35072,7 +35072,7 @@
       </c>
       <c r="B4" s="10">
         <f>DecemberRaw!B4</f>
-        <v>0</v>
+        <v>2530</v>
       </c>
       <c r="C4" s="10">
         <f>DecemberRaw!C4</f>
@@ -35080,31 +35080,31 @@
       </c>
       <c r="D4" s="10">
         <f>DecemberRaw!D4</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E4" s="10">
         <f>DecemberRaw!E4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" s="10">
         <f>DecemberRaw!F4</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G4" s="10">
         <f>DecemberRaw!G4</f>
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="H4" s="10">
         <f>DecemberRaw!H4</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I4" s="10">
         <f>DecemberRaw!I4</f>
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="J4" s="11">
         <f>DecemberRaw!J4</f>
-        <v>0</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -35113,7 +35113,7 @@
       </c>
       <c r="B5" s="7">
         <f>DecemberRaw!B5</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <f>DecemberRaw!C5</f>
@@ -35141,11 +35141,11 @@
       </c>
       <c r="I5" s="7">
         <f>DecemberRaw!I5</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J5" s="8">
         <f>DecemberRaw!J5</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -35154,7 +35154,7 @@
       </c>
       <c r="B6" s="10">
         <f>DecemberRaw!B6</f>
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="C6" s="10">
         <f>DecemberRaw!C6</f>
@@ -35162,31 +35162,31 @@
       </c>
       <c r="D6" s="10">
         <f>DecemberRaw!D6</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E6" s="10">
         <f>DecemberRaw!E6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="10">
         <f>DecemberRaw!F6</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G6" s="10">
         <f>DecemberRaw!G6</f>
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="H6" s="10">
         <f>DecemberRaw!H6</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="10">
         <f>DecemberRaw!I6</f>
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="J6" s="11">
         <f>DecemberRaw!J6</f>
-        <v>0</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -35195,7 +35195,7 @@
       </c>
       <c r="B7" s="7">
         <f>DecemberRaw!B7</f>
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="C7" s="7">
         <f>DecemberRaw!C7</f>
@@ -35203,11 +35203,11 @@
       </c>
       <c r="D7" s="7">
         <f>DecemberRaw!D7</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7">
         <f>DecemberRaw!E7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <f>DecemberRaw!F7</f>
@@ -35215,7 +35215,7 @@
       </c>
       <c r="G7" s="7">
         <f>DecemberRaw!G7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7">
         <f>DecemberRaw!H7</f>
@@ -35223,11 +35223,11 @@
       </c>
       <c r="I7" s="7">
         <f>DecemberRaw!I7</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J7" s="8">
         <f>DecemberRaw!J7</f>
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -35236,7 +35236,7 @@
       </c>
       <c r="B8" s="10">
         <f>DecemberRaw!B8</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C8" s="10">
         <f>DecemberRaw!C8</f>
@@ -35244,7 +35244,7 @@
       </c>
       <c r="D8" s="10">
         <f>DecemberRaw!D8</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="10">
         <f>DecemberRaw!E8</f>
@@ -35252,11 +35252,11 @@
       </c>
       <c r="F8" s="10">
         <f>DecemberRaw!F8</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="10">
         <f>DecemberRaw!G8</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="10">
         <f>DecemberRaw!H8</f>
@@ -35264,11 +35264,11 @@
       </c>
       <c r="I8" s="10">
         <f>DecemberRaw!I8</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J8" s="11">
         <f>DecemberRaw!J8</f>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -35277,7 +35277,7 @@
       </c>
       <c r="B9" s="7">
         <f>DecemberRaw!B9</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C9" s="7">
         <f>DecemberRaw!C9</f>
@@ -35285,7 +35285,7 @@
       </c>
       <c r="D9" s="7">
         <f>DecemberRaw!D9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="7">
         <f>DecemberRaw!E9</f>
@@ -35293,23 +35293,23 @@
       </c>
       <c r="F9" s="7">
         <f>DecemberRaw!F9</f>
-        <v>0</v>
+        <v>3</v>
       </